--- a/techniqo/candlepattern/nifty_next_50.xlsx
+++ b/techniqo/candlepattern/nifty_next_50.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\college\Websitee\techniqo\candlepattern\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\college\webend\techniqo\candlepattern\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -674,7 +674,7 @@
   <dimension ref="A1:AX51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AX2" sqref="AX2"/>
+      <selection activeCell="AK9" sqref="AK9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,38 +840,38 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>1279.95</v>
+        <v>1350</v>
       </c>
       <c r="C2">
-        <v>1293.8499999999999</v>
+        <v>1383.25</v>
       </c>
       <c r="D2">
-        <v>1265.5</v>
+        <v>1343.3</v>
       </c>
       <c r="E2">
-        <v>1289.2</v>
+        <v>1367.35</v>
       </c>
       <c r="F2">
-        <v>0.60000000000013642</v>
+        <v>45.799999999999947</v>
       </c>
       <c r="G2">
-        <v>4.6562160484257063E-2</v>
+        <v>3.465627482879948</v>
       </c>
       <c r="H2" s="1">
         <f t="shared" ref="H2:H33" si="0">(E2-B2)/B2*100</f>
-        <v>0.72268447986249462</v>
+        <v>1.2851851851851785</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" ref="I2:I33" si="1">ABS(H2)</f>
-        <v>0.72268447986249462</v>
+        <v>1.2851851851851785</v>
       </c>
       <c r="J2" s="1">
         <f t="shared" ref="J2:J33" si="2">IF(H2&gt;=0,(C2-E2)/E2*100,(C2-B2)/B2*100)</f>
-        <v>0.36068879925534159</v>
+        <v>1.1628332175375793</v>
       </c>
       <c r="K2" s="1">
         <f t="shared" ref="K2:K33" si="3">IF(H2&gt;=0,(B2-D2)/B2*100,(E2-D2)/E2*100)</f>
-        <v>1.1289503496230358</v>
+        <v>0.49629629629629962</v>
       </c>
       <c r="L2" s="1" t="str">
         <f t="shared" ref="L2:L33" si="4">IF(AND((K2-J2)&gt;1.5,I2&lt;0.5),"YES","NO")</f>
@@ -902,38 +902,38 @@
         <v>NO</v>
       </c>
       <c r="S2">
-        <v>1256</v>
+        <v>1346.15</v>
       </c>
       <c r="T2">
-        <v>1295</v>
+        <v>1354</v>
       </c>
       <c r="U2">
-        <v>1252.45</v>
+        <v>1315.65</v>
       </c>
       <c r="V2">
-        <v>1288.5999999999999</v>
+        <v>1321.55</v>
       </c>
       <c r="W2">
-        <v>37.5</v>
+        <v>-21.700000000000049</v>
       </c>
       <c r="X2">
-        <v>2.9973623211573819</v>
+        <v>-1.615484831565237</v>
       </c>
       <c r="Y2" s="1">
         <f t="shared" ref="Y2:Y33" si="11">(V2-S2)/S2*100</f>
-        <v>2.595541401273878</v>
+        <v>-1.8274337926679891</v>
       </c>
       <c r="Z2" s="1">
         <f t="shared" ref="Z2:Z33" si="12">ABS(Y2)</f>
-        <v>2.595541401273878</v>
+        <v>1.8274337926679891</v>
       </c>
       <c r="AA2" s="1">
         <f t="shared" ref="AA2:AA33" si="13">IF(Y2&gt;=0,(T2-V2)/V2*100,(T2-S2)/S2*100)</f>
-        <v>0.4966630451653028</v>
+        <v>0.58314452327005972</v>
       </c>
       <c r="AB2" s="1">
         <f t="shared" ref="AB2:AB33" si="14">IF(Y2&gt;=0,(S2-U2)/S2*100,(V2-U2)/V2*100)</f>
-        <v>0.28264331210190718</v>
+        <v>0.44644546176836775</v>
       </c>
       <c r="AC2" s="1" t="str">
         <f t="shared" ref="AC2:AC33" si="15">IF(AND(I2&lt;Z2/2,S2&gt;E2,E2&gt;(S2+V2)/2,V2&lt;B2,B2&lt;(S2+V2)/2),"YES","NO")</f>
@@ -960,38 +960,38 @@
         <v>NO</v>
       </c>
       <c r="AI2">
-        <v>1263</v>
+        <v>1327.45</v>
       </c>
       <c r="AJ2">
-        <v>1281.8</v>
+        <v>1355.4</v>
       </c>
       <c r="AK2">
-        <v>1245</v>
+        <v>1307</v>
       </c>
       <c r="AL2">
-        <v>1251.0999999999999</v>
+        <v>1343.25</v>
       </c>
       <c r="AM2">
-        <v>-14.55000000000018</v>
+        <v>27.349999999999909</v>
       </c>
       <c r="AN2">
-        <v>-1.1496069213447779</v>
+        <v>2.078425412265362</v>
       </c>
       <c r="AO2" s="1">
         <f t="shared" ref="AO2:AO33" si="21">(AL2-AI2)/AI2*100</f>
-        <v>-0.94220110847189953</v>
+        <v>1.1902519868921582</v>
       </c>
       <c r="AP2" s="1">
         <f t="shared" ref="AP2:AP33" si="22">ABS(AO2)</f>
-        <v>0.94220110847189953</v>
+        <v>1.1902519868921582</v>
       </c>
       <c r="AQ2" s="1">
         <f t="shared" ref="AQ2:AQ33" si="23">IF(AO2&gt;=0,(AJ2-AL2)/AL2*100,(AJ2-AI2)/AI2*100)</f>
-        <v>1.488519398258112</v>
+        <v>0.90452261306533333</v>
       </c>
       <c r="AR2" s="1">
         <f t="shared" ref="AR2:AR33" si="24">IF(AO2&gt;=0,(AI2-AK2)/AI2*100,(AL2-AK2)/AL2*100)</f>
-        <v>0.48757093757492681</v>
+        <v>1.5405476665787823</v>
       </c>
       <c r="AS2" t="str">
         <f t="shared" ref="AS2:AS33" si="25">IF(AND(AO2&lt;0,AP2&gt;1.5,Y2&lt;0,Z2&gt;1.5,AL2&gt;S2,AL2&lt;E2,H2&gt;0,I2&gt;1.5),"YES","NO")</f>
@@ -1023,38 +1023,38 @@
         <v>51</v>
       </c>
       <c r="B3">
-        <v>15835</v>
+        <v>16898</v>
       </c>
       <c r="C3">
-        <v>15973.95</v>
+        <v>16898</v>
       </c>
       <c r="D3">
-        <v>15651.2</v>
+        <v>16475</v>
       </c>
       <c r="E3">
-        <v>15727</v>
+        <v>16516.150000000001</v>
       </c>
       <c r="F3">
-        <v>-229.35000000000039</v>
+        <v>-303.09999999999849</v>
       </c>
       <c r="G3">
-        <v>-1.437358794461141</v>
+        <v>-1.8021017584018231</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" si="0"/>
-        <v>-0.68203347016103566</v>
+        <v>-2.2597348798674313</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" si="1"/>
-        <v>0.68203347016103566</v>
+        <v>2.2597348798674313</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" si="2"/>
-        <v>0.87748658035996674</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" si="3"/>
-        <v>0.48197367584408518</v>
+        <v>0.24915007432120351</v>
       </c>
       <c r="L3" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1085,38 +1085,38 @@
         <v>NO</v>
       </c>
       <c r="S3">
-        <v>16326.5</v>
+        <v>16734.95</v>
       </c>
       <c r="T3">
-        <v>16394.900000000001</v>
+        <v>16898</v>
       </c>
       <c r="U3">
-        <v>15900</v>
+        <v>16450.099999999999</v>
       </c>
       <c r="V3">
-        <v>15956.35</v>
+        <v>16819.25</v>
       </c>
       <c r="W3">
-        <v>-370.14999999999958</v>
+        <v>293.15000000000151</v>
       </c>
       <c r="X3">
-        <v>-2.2671730009493749</v>
+        <v>1.773860741493767</v>
       </c>
       <c r="Y3" s="1">
         <f t="shared" si="11"/>
-        <v>-2.2671730009493749</v>
+        <v>0.50373619281802018</v>
       </c>
       <c r="Z3" s="1">
         <f t="shared" si="12"/>
-        <v>2.2671730009493749</v>
+        <v>0.50373619281802018</v>
       </c>
       <c r="AA3" s="1">
         <f t="shared" si="13"/>
-        <v>0.4189507855327318</v>
+        <v>0.46821350535844342</v>
       </c>
       <c r="AB3" s="1">
         <f t="shared" si="14"/>
-        <v>0.35315093990793861</v>
+        <v>1.7021263881876085</v>
       </c>
       <c r="AC3" s="1" t="str">
         <f t="shared" si="15"/>
@@ -1143,38 +1143,38 @@
         <v>NO</v>
       </c>
       <c r="AI3">
-        <v>15687</v>
+        <v>16584.75</v>
       </c>
       <c r="AJ3">
-        <v>16500</v>
+        <v>16781.45</v>
       </c>
       <c r="AK3">
-        <v>15528.75</v>
+        <v>16480</v>
       </c>
       <c r="AL3">
-        <v>16326.5</v>
+        <v>16526.099999999999</v>
       </c>
       <c r="AM3">
-        <v>639.5</v>
+        <v>-105.3500000000022</v>
       </c>
       <c r="AN3">
-        <v>4.0766239561420283</v>
+        <v>-0.63343845545639244</v>
       </c>
       <c r="AO3" s="1">
         <f t="shared" si="21"/>
-        <v>4.0766239561420283</v>
+        <v>-0.35363813141591793</v>
       </c>
       <c r="AP3" s="1">
         <f t="shared" si="22"/>
-        <v>4.0766239561420283</v>
+        <v>0.35363813141591793</v>
       </c>
       <c r="AQ3" s="1">
         <f t="shared" si="23"/>
-        <v>1.0626894925427985</v>
+        <v>1.1860293341774866</v>
       </c>
       <c r="AR3" s="1">
         <f t="shared" si="24"/>
-        <v>1.0087970931344425</v>
+        <v>0.27895268696182735</v>
       </c>
       <c r="AS3" t="str">
         <f t="shared" si="25"/>
@@ -1206,38 +1206,38 @@
         <v>52</v>
       </c>
       <c r="B4">
-        <v>271.10000000000002</v>
+        <v>276.89999999999998</v>
       </c>
       <c r="C4">
-        <v>279.89999999999998</v>
+        <v>277.8</v>
       </c>
       <c r="D4">
-        <v>266.2</v>
+        <v>265.10000000000002</v>
       </c>
       <c r="E4">
-        <v>270.45</v>
+        <v>268.10000000000002</v>
       </c>
       <c r="F4">
-        <v>-6.4000000000000341</v>
+        <v>-3.6999999999999891</v>
       </c>
       <c r="G4">
-        <v>-2.3117211486364582</v>
+        <v>-1.3612950699043369</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>-0.23976392475102698</v>
+        <v>-3.1780426146623166</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="1"/>
-        <v>0.23976392475102698</v>
+        <v>3.1780426146623166</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="2"/>
-        <v>3.2460346735521775</v>
+        <v>0.32502708559047822</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="3"/>
-        <v>1.5714549824366799</v>
+        <v>1.1189854531891084</v>
       </c>
       <c r="L4" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="N4" t="str">
         <f t="shared" si="6"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="O4" s="1" t="str">
         <f t="shared" si="7"/>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="P4" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="Q4" s="1" t="str">
         <f t="shared" si="9"/>
@@ -1268,38 +1268,38 @@
         <v>NO</v>
       </c>
       <c r="S4">
-        <v>280.7</v>
+        <v>272.7</v>
       </c>
       <c r="T4">
-        <v>280.7</v>
+        <v>274.89999999999998</v>
       </c>
       <c r="U4">
-        <v>256.60000000000002</v>
+        <v>267.35000000000002</v>
       </c>
       <c r="V4">
-        <v>276.85000000000002</v>
+        <v>271.8</v>
       </c>
       <c r="W4">
-        <v>9.5</v>
+        <v>-0.30000000000001142</v>
       </c>
       <c r="X4">
-        <v>3.5533944267813729</v>
+        <v>-0.11025358324145949</v>
       </c>
       <c r="Y4" s="1">
         <f t="shared" si="11"/>
-        <v>-1.3715710723191898</v>
+        <v>-0.3300330033003217</v>
       </c>
       <c r="Z4" s="1">
         <f t="shared" si="12"/>
-        <v>1.3715710723191898</v>
+        <v>0.3300330033003217</v>
       </c>
       <c r="AA4" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.80674734140080262</v>
       </c>
       <c r="AB4" s="1">
         <f t="shared" si="14"/>
-        <v>7.3144301968575034</v>
+        <v>1.6372332597498116</v>
       </c>
       <c r="AC4" s="1" t="str">
         <f t="shared" si="15"/>
@@ -1326,38 +1326,38 @@
         <v>NO</v>
       </c>
       <c r="AI4">
-        <v>252</v>
+        <v>265.64999999999998</v>
       </c>
       <c r="AJ4">
-        <v>267.35000000000002</v>
+        <v>279.05</v>
       </c>
       <c r="AK4">
-        <v>249.8</v>
+        <v>265</v>
       </c>
       <c r="AL4">
-        <v>267.35000000000002</v>
+        <v>272.10000000000002</v>
       </c>
       <c r="AM4">
-        <v>12.700000000000021</v>
+        <v>10.400000000000031</v>
       </c>
       <c r="AN4">
-        <v>4.9872373846455984</v>
+        <v>3.9740160489109799</v>
       </c>
       <c r="AO4" s="1">
         <f t="shared" si="21"/>
-        <v>6.0912698412698498</v>
+        <v>2.42800677583288</v>
       </c>
       <c r="AP4" s="1">
         <f t="shared" si="22"/>
-        <v>6.0912698412698498</v>
+        <v>2.42800677583288</v>
       </c>
       <c r="AQ4" s="1">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>2.554208011760378</v>
       </c>
       <c r="AR4" s="1">
         <f t="shared" si="24"/>
-        <v>0.87301587301586858</v>
+        <v>0.24468285337849702</v>
       </c>
       <c r="AS4" t="str">
         <f t="shared" si="25"/>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="AV4" t="str">
         <f t="shared" si="28"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AW4" t="str">
         <f t="shared" si="29"/>
@@ -1389,42 +1389,42 @@
         <v>53</v>
       </c>
       <c r="B5">
-        <v>188</v>
+        <v>214.3</v>
       </c>
       <c r="C5">
-        <v>188.65</v>
+        <v>217</v>
       </c>
       <c r="D5">
-        <v>183.2</v>
+        <v>209.8</v>
       </c>
       <c r="E5">
-        <v>187.55</v>
+        <v>211.1</v>
       </c>
       <c r="F5">
-        <v>-0.44999999999998858</v>
+        <v>-1.3499999999999941</v>
       </c>
       <c r="G5">
-        <v>-0.23936170212765351</v>
+        <v>-0.63544363379618463</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="0"/>
-        <v>-0.23936170212765354</v>
+        <v>-1.4932337844143801</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="1"/>
-        <v>0.23936170212765354</v>
+        <v>1.4932337844143801</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="2"/>
-        <v>0.34574468085106685</v>
+        <v>1.2599160055996212</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="3"/>
-        <v>2.3193814982671408</v>
+        <v>0.61582188536237936</v>
       </c>
       <c r="L5" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" si="5"/>
@@ -1451,38 +1451,38 @@
         <v>NO</v>
       </c>
       <c r="S5">
-        <v>188</v>
+        <v>212.95</v>
       </c>
       <c r="T5">
-        <v>188.7</v>
+        <v>214.5</v>
       </c>
       <c r="U5">
-        <v>186.15</v>
+        <v>211.1</v>
       </c>
       <c r="V5">
-        <v>188</v>
+        <v>212.45</v>
       </c>
       <c r="W5">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="X5">
-        <v>0.93959731543624159</v>
+        <v>-0.234796900680911</v>
       </c>
       <c r="Y5" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-0.23479690068091102</v>
       </c>
       <c r="Z5" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.23479690068091102</v>
       </c>
       <c r="AA5" s="1">
         <f t="shared" si="13"/>
-        <v>0.37234042553190883</v>
+        <v>0.72787039211082949</v>
       </c>
       <c r="AB5" s="1">
         <f t="shared" si="14"/>
-        <v>0.98404255319148626</v>
+        <v>0.63544363379618463</v>
       </c>
       <c r="AC5" s="1" t="str">
         <f t="shared" si="15"/>
@@ -1509,38 +1509,38 @@
         <v>NO</v>
       </c>
       <c r="AI5">
-        <v>188.1</v>
+        <v>210.8</v>
       </c>
       <c r="AJ5">
-        <v>191.35</v>
+        <v>214.45</v>
       </c>
       <c r="AK5">
-        <v>185.35</v>
+        <v>207.3</v>
       </c>
       <c r="AL5">
-        <v>186.25</v>
+        <v>212.95</v>
       </c>
       <c r="AM5">
-        <v>-2.4499999999999891</v>
+        <v>3.5</v>
       </c>
       <c r="AN5">
-        <v>-1.298357180710116</v>
+        <v>1.6710432084029601</v>
       </c>
       <c r="AO5" s="1">
         <f t="shared" si="21"/>
-        <v>-0.98351940457203324</v>
+        <v>1.019924098671716</v>
       </c>
       <c r="AP5" s="1">
         <f t="shared" si="22"/>
-        <v>0.98351940457203324</v>
+        <v>1.019924098671716</v>
       </c>
       <c r="AQ5" s="1">
         <f t="shared" si="23"/>
-        <v>1.727804359383307</v>
+        <v>0.70439070204273313</v>
       </c>
       <c r="AR5" s="1">
         <f t="shared" si="24"/>
-        <v>0.48322147651007019</v>
+        <v>1.6603415559772294</v>
       </c>
       <c r="AS5" t="str">
         <f t="shared" si="25"/>
@@ -1572,38 +1572,38 @@
         <v>54</v>
       </c>
       <c r="B6">
-        <v>784</v>
+        <v>806.5</v>
       </c>
       <c r="C6">
-        <v>797.95</v>
+        <v>815</v>
       </c>
       <c r="D6">
-        <v>779</v>
+        <v>791.25</v>
       </c>
       <c r="E6">
-        <v>789.4</v>
+        <v>796.15</v>
       </c>
       <c r="F6">
-        <v>9.2999999999999545</v>
+        <v>-6.8000000000000682</v>
       </c>
       <c r="G6">
-        <v>1.1921548519420531</v>
+        <v>-0.84687714054425167</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="0"/>
-        <v>0.68877551020407868</v>
+        <v>-1.2833230006199656</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="1"/>
-        <v>0.68877551020407868</v>
+        <v>1.2833230006199656</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="2"/>
-        <v>1.0831010894350226</v>
+        <v>1.0539367637941723</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="3"/>
-        <v>0.63775510204081631</v>
+        <v>0.615461910444009</v>
       </c>
       <c r="L6" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1634,42 +1634,42 @@
         <v>NO</v>
       </c>
       <c r="S6">
-        <v>794.95</v>
+        <v>802</v>
       </c>
       <c r="T6">
-        <v>797</v>
+        <v>809.2</v>
       </c>
       <c r="U6">
-        <v>775.1</v>
+        <v>790.35</v>
       </c>
       <c r="V6">
-        <v>780.1</v>
+        <v>802.95</v>
       </c>
       <c r="W6">
-        <v>-9.75</v>
+        <v>0.2000000000000455</v>
       </c>
       <c r="X6">
-        <v>-1.2344115971386971</v>
+        <v>2.4914356898168229E-2</v>
       </c>
       <c r="Y6" s="1">
         <f t="shared" si="11"/>
-        <v>-1.8680420152210857</v>
+        <v>0.11845386533666402</v>
       </c>
       <c r="Z6" s="1">
         <f t="shared" si="12"/>
-        <v>1.8680420152210857</v>
+        <v>0.11845386533666402</v>
       </c>
       <c r="AA6" s="1">
         <f t="shared" si="13"/>
-        <v>0.25787785395307306</v>
+        <v>0.77837972476492934</v>
       </c>
       <c r="AB6" s="1">
         <f t="shared" si="14"/>
-        <v>0.64094346878605302</v>
+        <v>1.4526184538653337</v>
       </c>
       <c r="AC6" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AD6" s="1" t="str">
         <f t="shared" si="16"/>
@@ -1692,38 +1692,38 @@
         <v>NO</v>
       </c>
       <c r="AI6">
-        <v>790.95</v>
+        <v>809.9</v>
       </c>
       <c r="AJ6">
-        <v>808</v>
+        <v>818.95</v>
       </c>
       <c r="AK6">
-        <v>786.5</v>
+        <v>794.65</v>
       </c>
       <c r="AL6">
-        <v>789.85</v>
+        <v>802.75</v>
       </c>
       <c r="AM6">
-        <v>-2.1000000000000232</v>
+        <v>0.89999999999997726</v>
       </c>
       <c r="AN6">
-        <v>-0.26516825557169299</v>
+        <v>0.1122404439733089</v>
       </c>
       <c r="AO6" s="1">
         <f t="shared" si="21"/>
-        <v>-0.13907326632530786</v>
+        <v>-0.88282504012840812</v>
       </c>
       <c r="AP6" s="1">
         <f t="shared" si="22"/>
-        <v>0.13907326632530786</v>
+        <v>0.88282504012840812</v>
       </c>
       <c r="AQ6" s="1">
         <f t="shared" si="23"/>
-        <v>2.155635628042222</v>
+        <v>1.1174219039387663</v>
       </c>
       <c r="AR6" s="1">
         <f t="shared" si="24"/>
-        <v>0.42413116414509366</v>
+        <v>1.0090314543755867</v>
       </c>
       <c r="AS6" t="str">
         <f t="shared" si="25"/>
@@ -1755,38 +1755,38 @@
         <v>55</v>
       </c>
       <c r="B7">
-        <v>2294.4</v>
+        <v>2250</v>
       </c>
       <c r="C7">
-        <v>2334.6999999999998</v>
+        <v>2258.9499999999998</v>
       </c>
       <c r="D7">
-        <v>2274</v>
+        <v>2150.0500000000002</v>
       </c>
       <c r="E7">
-        <v>2290.9499999999998</v>
+        <v>2162.6999999999998</v>
       </c>
       <c r="F7">
-        <v>-3.4500000000002728</v>
+        <v>-76.650000000000091</v>
       </c>
       <c r="G7">
-        <v>-0.15036610878662279</v>
+        <v>-3.4228682430169508</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="0"/>
-        <v>-0.15036610878662277</v>
+        <v>-3.8800000000000079</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="1"/>
-        <v>0.15036610878662277</v>
+        <v>3.8800000000000079</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="2"/>
-        <v>1.7564504881450369</v>
+        <v>0.39777777777776974</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="3"/>
-        <v>0.73986774045700776</v>
+        <v>0.58491700189576168</v>
       </c>
       <c r="L7" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1817,38 +1817,38 @@
         <v>NO</v>
       </c>
       <c r="S7">
-        <v>2329.6999999999998</v>
+        <v>2241.9</v>
       </c>
       <c r="T7">
-        <v>2337.85</v>
+        <v>2273</v>
       </c>
       <c r="U7">
-        <v>2290</v>
+        <v>2226.0500000000002</v>
       </c>
       <c r="V7">
-        <v>2294.4</v>
+        <v>2239.35</v>
       </c>
       <c r="W7">
-        <v>-11.150000000000089</v>
+        <v>1.5999999999999091</v>
       </c>
       <c r="X7">
-        <v>-0.4836156231701802</v>
+        <v>7.1500391017759304E-2</v>
       </c>
       <c r="Y7" s="1">
         <f t="shared" si="11"/>
-        <v>-1.5152165514873044</v>
+        <v>-0.11374280744012585</v>
       </c>
       <c r="Z7" s="1">
         <f t="shared" si="12"/>
-        <v>1.5152165514873044</v>
+        <v>0.11374280744012585</v>
       </c>
       <c r="AA7" s="1">
         <f t="shared" si="13"/>
-        <v>0.3498304502725712</v>
+        <v>1.3872162005441773</v>
       </c>
       <c r="AB7" s="1">
         <f t="shared" si="14"/>
-        <v>0.19177126917713086</v>
+        <v>0.59392234353717499</v>
       </c>
       <c r="AC7" s="1" t="str">
         <f t="shared" si="15"/>
@@ -1875,38 +1875,38 @@
         <v>NO</v>
       </c>
       <c r="AI7">
-        <v>2348</v>
+        <v>2225</v>
       </c>
       <c r="AJ7">
-        <v>2348.6999999999998</v>
+        <v>2244.9499999999998</v>
       </c>
       <c r="AK7">
-        <v>2298.1</v>
+        <v>2215</v>
       </c>
       <c r="AL7">
-        <v>2305.5500000000002</v>
+        <v>2237.75</v>
       </c>
       <c r="AM7">
-        <v>-52.799999999999727</v>
+        <v>15.05000000000018</v>
       </c>
       <c r="AN7">
-        <v>-2.2388534356647538</v>
+        <v>0.67710442254916015</v>
       </c>
       <c r="AO7" s="1">
         <f t="shared" si="21"/>
-        <v>-1.8079216354344045</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="AP7" s="1">
         <f t="shared" si="22"/>
-        <v>1.8079216354344045</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="AQ7" s="1">
         <f t="shared" si="23"/>
-        <v>2.98126064735868E-2</v>
+        <v>0.32175175957992708</v>
       </c>
       <c r="AR7" s="1">
         <f t="shared" si="24"/>
-        <v>0.32313330875497265</v>
+        <v>0.44943820224719105</v>
       </c>
       <c r="AS7" t="str">
         <f t="shared" si="25"/>
@@ -1938,38 +1938,38 @@
         <v>56</v>
       </c>
       <c r="B8">
-        <v>2723</v>
+        <v>2467</v>
       </c>
       <c r="C8">
-        <v>2770</v>
+        <v>2498.3000000000002</v>
       </c>
       <c r="D8">
-        <v>2605</v>
+        <v>2456.9499999999998</v>
       </c>
       <c r="E8">
-        <v>2622.65</v>
+        <v>2470.6</v>
       </c>
       <c r="F8">
-        <v>-82.400000000000091</v>
+        <v>9.4499999999998181</v>
       </c>
       <c r="G8">
-        <v>-3.0461544148906712</v>
+        <v>0.3839668447676825</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="0"/>
-        <v>-3.6852735952992988</v>
+        <v>0.14592622618564691</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="1"/>
-        <v>3.6852735952992988</v>
+        <v>0.14592622618564691</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="2"/>
-        <v>1.7260374586852736</v>
+        <v>1.1211851372136434</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="3"/>
-        <v>0.67298343278745132</v>
+        <v>0.40737738143494856</v>
       </c>
       <c r="L8" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2000,42 +2000,42 @@
         <v>NO</v>
       </c>
       <c r="S8">
-        <v>2691.3</v>
+        <v>2480</v>
       </c>
       <c r="T8">
-        <v>2825</v>
+        <v>2493.6</v>
       </c>
       <c r="U8">
-        <v>2683.5</v>
+        <v>2453.3000000000002</v>
       </c>
       <c r="V8">
-        <v>2705.05</v>
+        <v>2461.15</v>
       </c>
       <c r="W8">
-        <v>22.35000000000036</v>
+        <v>-10.900000000000089</v>
       </c>
       <c r="X8">
-        <v>0.8331158907071371</v>
+        <v>-0.44092959284804478</v>
       </c>
       <c r="Y8" s="1">
         <f t="shared" si="11"/>
-        <v>0.51090551034815879</v>
+        <v>-0.76008064516128671</v>
       </c>
       <c r="Z8" s="1">
         <f t="shared" si="12"/>
-        <v>0.51090551034815879</v>
+        <v>0.76008064516128671</v>
       </c>
       <c r="AA8" s="1">
         <f t="shared" si="13"/>
-        <v>4.434298811482221</v>
+        <v>0.54838709677418984</v>
       </c>
       <c r="AB8" s="1">
         <f t="shared" si="14"/>
-        <v>0.28982276223387143</v>
+        <v>0.31895658533611965</v>
       </c>
       <c r="AC8" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AD8" s="1" t="str">
         <f t="shared" si="16"/>
@@ -2058,38 +2058,38 @@
         <v>NO</v>
       </c>
       <c r="AI8">
-        <v>2820</v>
+        <v>2442.5</v>
       </c>
       <c r="AJ8">
-        <v>2890</v>
+        <v>2505</v>
       </c>
       <c r="AK8">
-        <v>2650</v>
+        <v>2442.5</v>
       </c>
       <c r="AL8">
-        <v>2682.7</v>
+        <v>2472.0500000000002</v>
       </c>
       <c r="AM8">
-        <v>-156.05000000000021</v>
+        <v>37</v>
       </c>
       <c r="AN8">
-        <v>-5.4971378247468126</v>
+        <v>1.519475986119381</v>
       </c>
       <c r="AO8" s="1">
         <f t="shared" si="21"/>
-        <v>-4.8687943262411411</v>
+        <v>1.2098259979529247</v>
       </c>
       <c r="AP8" s="1">
         <f t="shared" si="22"/>
-        <v>4.8687943262411411</v>
+        <v>1.2098259979529247</v>
       </c>
       <c r="AQ8" s="1">
         <f t="shared" si="23"/>
-        <v>2.4822695035460995</v>
+        <v>1.3329018426002637</v>
       </c>
       <c r="AR8" s="1">
         <f t="shared" si="24"/>
-        <v>1.2189212360681336</v>
+        <v>0</v>
       </c>
       <c r="AS8" t="str">
         <f t="shared" si="25"/>
@@ -2121,38 +2121,38 @@
         <v>57</v>
       </c>
       <c r="B9">
-        <v>333</v>
+        <v>312.5</v>
       </c>
       <c r="C9">
-        <v>335.85</v>
+        <v>318.39999999999998</v>
       </c>
       <c r="D9">
-        <v>323.2</v>
+        <v>297.60000000000002</v>
       </c>
       <c r="E9">
-        <v>328.2</v>
+        <v>301.39999999999998</v>
       </c>
       <c r="F9">
-        <v>-9.75</v>
+        <v>-10.400000000000031</v>
       </c>
       <c r="G9">
-        <v>-2.885042166000888</v>
+        <v>-3.335471456061589</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="0"/>
-        <v>-1.4414414414414449</v>
+        <v>-3.5520000000000072</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="1"/>
-        <v>1.4414414414414449</v>
+        <v>3.5520000000000072</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="2"/>
-        <v>0.85585585585586277</v>
+        <v>1.8879999999999928</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="3"/>
-        <v>1.5234613040828764</v>
+        <v>1.2607830126078152</v>
       </c>
       <c r="L9" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2183,38 +2183,38 @@
         <v>NO</v>
       </c>
       <c r="S9">
-        <v>340.7</v>
+        <v>304</v>
       </c>
       <c r="T9">
-        <v>345.3</v>
+        <v>314.5</v>
       </c>
       <c r="U9">
-        <v>332.35</v>
+        <v>303</v>
       </c>
       <c r="V9">
-        <v>337.95</v>
+        <v>311.8</v>
       </c>
       <c r="W9">
-        <v>2.5500000000000109</v>
+        <v>4.75</v>
       </c>
       <c r="X9">
-        <v>0.7602862254025079</v>
+        <v>1.546979319329099</v>
       </c>
       <c r="Y9" s="1">
         <f t="shared" si="11"/>
-        <v>-0.80716172585852652</v>
+        <v>2.5657894736842142</v>
       </c>
       <c r="Z9" s="1">
         <f t="shared" si="12"/>
-        <v>0.80716172585852652</v>
+        <v>2.5657894736842142</v>
       </c>
       <c r="AA9" s="1">
         <f t="shared" si="13"/>
-        <v>1.3501614323451785</v>
+        <v>0.86593970493905981</v>
       </c>
       <c r="AB9" s="1">
         <f t="shared" si="14"/>
-        <v>1.6570498594466538</v>
+        <v>0.3289473684210526</v>
       </c>
       <c r="AC9" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2241,38 +2241,38 @@
         <v>NO</v>
       </c>
       <c r="AI9">
-        <v>320.05</v>
+        <v>302</v>
       </c>
       <c r="AJ9">
-        <v>343.35</v>
+        <v>309.45</v>
       </c>
       <c r="AK9">
-        <v>319.05</v>
+        <v>299</v>
       </c>
       <c r="AL9">
-        <v>335.4</v>
+        <v>307.05</v>
       </c>
       <c r="AM9">
-        <v>4.0499999999999554</v>
+        <v>6.1999999999999886</v>
       </c>
       <c r="AN9">
-        <v>1.2222725215029291</v>
+        <v>2.060827654977559</v>
       </c>
       <c r="AO9" s="1">
         <f t="shared" si="21"/>
-        <v>4.796125605374149</v>
+        <v>1.6721854304635801</v>
       </c>
       <c r="AP9" s="1">
         <f t="shared" si="22"/>
-        <v>4.796125605374149</v>
+        <v>1.6721854304635801</v>
       </c>
       <c r="AQ9" s="1">
         <f t="shared" si="23"/>
-        <v>2.3703041144901746</v>
+        <v>0.78163165608206386</v>
       </c>
       <c r="AR9" s="1">
         <f t="shared" si="24"/>
-        <v>0.31245117950320261</v>
+        <v>0.99337748344370869</v>
       </c>
       <c r="AS9" t="str">
         <f t="shared" si="25"/>
@@ -2288,7 +2288,7 @@
       </c>
       <c r="AV9" t="str">
         <f t="shared" si="28"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AW9" t="str">
         <f t="shared" si="29"/>
@@ -2304,38 +2304,38 @@
         <v>58</v>
       </c>
       <c r="B10">
-        <v>51.5</v>
+        <v>46.15</v>
       </c>
       <c r="C10">
-        <v>51.5</v>
+        <v>46.65</v>
       </c>
       <c r="D10">
-        <v>48.95</v>
+        <v>46</v>
       </c>
       <c r="E10">
-        <v>49.25</v>
+        <v>46.15</v>
       </c>
       <c r="F10">
-        <v>-2.600000000000001</v>
+        <v>0.19999999999999571</v>
       </c>
       <c r="G10">
-        <v>-5.0144648023143708</v>
+        <v>0.43525571273122032</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="0"/>
-        <v>-4.3689320388349513</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="1"/>
-        <v>4.3689320388349513</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.0834236186348862</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="3"/>
-        <v>0.60913705583755773</v>
+        <v>0.32502708559046278</v>
       </c>
       <c r="L10" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2366,38 +2366,38 @@
         <v>NO</v>
       </c>
       <c r="S10">
-        <v>52.9</v>
+        <v>45.5</v>
       </c>
       <c r="T10">
-        <v>53.1</v>
+        <v>46.1</v>
       </c>
       <c r="U10">
-        <v>51.5</v>
+        <v>45.3</v>
       </c>
       <c r="V10">
-        <v>51.85</v>
+        <v>45.95</v>
       </c>
       <c r="W10">
-        <v>-0.14999999999999861</v>
+        <v>0.35000000000000142</v>
       </c>
       <c r="X10">
-        <v>-0.28846153846153583</v>
+        <v>0.76754385964912586</v>
       </c>
       <c r="Y10" s="1">
         <f t="shared" si="11"/>
-        <v>-1.984877126654059</v>
+        <v>0.98901098901099527</v>
       </c>
       <c r="Z10" s="1">
         <f t="shared" si="12"/>
-        <v>1.984877126654059</v>
+        <v>0.98901098901099527</v>
       </c>
       <c r="AA10" s="1">
         <f t="shared" si="13"/>
-        <v>0.37807183364839858</v>
+        <v>0.3264417845484191</v>
       </c>
       <c r="AB10" s="1">
         <f t="shared" si="14"/>
-        <v>0.67502410800386003</v>
+        <v>0.43956043956044583</v>
       </c>
       <c r="AC10" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2424,38 +2424,38 @@
         <v>NO</v>
       </c>
       <c r="AI10">
-        <v>51</v>
+        <v>44.8</v>
       </c>
       <c r="AJ10">
-        <v>53</v>
+        <v>45.8</v>
       </c>
       <c r="AK10">
-        <v>50.1</v>
+        <v>44.6</v>
       </c>
       <c r="AL10">
-        <v>52</v>
+        <v>45.6</v>
       </c>
       <c r="AM10">
-        <v>0.39999999999999858</v>
+        <v>1.25</v>
       </c>
       <c r="AN10">
-        <v>0.77519379844960956</v>
+        <v>2.818489289740699</v>
       </c>
       <c r="AO10" s="1">
         <f t="shared" si="21"/>
-        <v>1.9607843137254901</v>
+        <v>1.7857142857142954</v>
       </c>
       <c r="AP10" s="1">
         <f t="shared" si="22"/>
-        <v>1.9607843137254901</v>
+        <v>1.7857142857142954</v>
       </c>
       <c r="AQ10" s="1">
         <f t="shared" si="23"/>
-        <v>1.9230769230769231</v>
+        <v>0.43859649122806077</v>
       </c>
       <c r="AR10" s="1">
         <f t="shared" si="24"/>
-        <v>1.7647058823529385</v>
+        <v>0.44642857142856196</v>
       </c>
       <c r="AS10" t="str">
         <f t="shared" si="25"/>
@@ -2487,38 +2487,38 @@
         <v>59</v>
       </c>
       <c r="B11">
-        <v>512</v>
+        <v>577</v>
       </c>
       <c r="C11">
-        <v>518.9</v>
+        <v>583.1</v>
       </c>
       <c r="D11">
-        <v>500.1</v>
+        <v>566</v>
       </c>
       <c r="E11">
-        <v>502.2</v>
+        <v>577.85</v>
       </c>
       <c r="F11">
-        <v>-8.6000000000000227</v>
+        <v>5.2000000000000446</v>
       </c>
       <c r="G11">
-        <v>-1.6836335160532541</v>
+        <v>0.90805902383655734</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="0"/>
-        <v>-1.9140625000000022</v>
+        <v>0.14731369150780291</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="1"/>
-        <v>1.9140625000000022</v>
+        <v>0.14731369150780291</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="2"/>
-        <v>1.3476562499999956</v>
+        <v>0.90854027861901865</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="3"/>
-        <v>0.41816009557944361</v>
+        <v>1.9064124783362217</v>
       </c>
       <c r="L11" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2549,38 +2549,38 @@
         <v>NO</v>
       </c>
       <c r="S11">
-        <v>526</v>
+        <v>577</v>
       </c>
       <c r="T11">
-        <v>528.4</v>
+        <v>578.5</v>
       </c>
       <c r="U11">
-        <v>508</v>
+        <v>564.6</v>
       </c>
       <c r="V11">
-        <v>510.8</v>
+        <v>572.65</v>
       </c>
       <c r="W11">
-        <v>-9.4000000000000341</v>
+        <v>-1.899999999999977</v>
       </c>
       <c r="X11">
-        <v>-1.8069973087274189</v>
+        <v>-0.33069358628491469</v>
       </c>
       <c r="Y11" s="1">
         <f t="shared" si="11"/>
-        <v>-2.8897338403041801</v>
+        <v>-0.75389948006932805</v>
       </c>
       <c r="Z11" s="1">
         <f t="shared" si="12"/>
-        <v>2.8897338403041801</v>
+        <v>0.75389948006932805</v>
       </c>
       <c r="AA11" s="1">
         <f t="shared" si="13"/>
-        <v>0.45627376425855082</v>
+        <v>0.25996533795493937</v>
       </c>
       <c r="AB11" s="1">
         <f t="shared" si="14"/>
-        <v>0.54815974941268819</v>
+        <v>1.4057452195931119</v>
       </c>
       <c r="AC11" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2607,38 +2607,38 @@
         <v>NO</v>
       </c>
       <c r="AI11">
-        <v>540</v>
+        <v>568.95000000000005</v>
       </c>
       <c r="AJ11">
-        <v>543.9</v>
+        <v>577</v>
       </c>
       <c r="AK11">
-        <v>517.35</v>
+        <v>562.20000000000005</v>
       </c>
       <c r="AL11">
-        <v>520.20000000000005</v>
+        <v>574.54999999999995</v>
       </c>
       <c r="AM11">
-        <v>-20.599999999999909</v>
+        <v>12.75</v>
       </c>
       <c r="AN11">
-        <v>-3.80917159763312</v>
+        <v>2.269490922036312</v>
       </c>
       <c r="AO11" s="1">
         <f t="shared" si="21"/>
-        <v>-3.6666666666666585</v>
+        <v>0.98426926794971581</v>
       </c>
       <c r="AP11" s="1">
         <f t="shared" si="22"/>
-        <v>3.6666666666666585</v>
+        <v>0.98426926794971581</v>
       </c>
       <c r="AQ11" s="1">
         <f t="shared" si="23"/>
-        <v>0.72222222222221799</v>
+        <v>0.42642067705161357</v>
       </c>
       <c r="AR11" s="1">
         <f t="shared" si="24"/>
-        <v>0.547866205305656</v>
+        <v>1.1863959926179803</v>
       </c>
       <c r="AS11" t="str">
         <f t="shared" si="25"/>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="AX11" t="str">
         <f t="shared" si="30"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.25">
@@ -2670,38 +2670,38 @@
         <v>60</v>
       </c>
       <c r="B12">
-        <v>401.6</v>
+        <v>435.3</v>
       </c>
       <c r="C12">
-        <v>408.35</v>
+        <v>440</v>
       </c>
       <c r="D12">
-        <v>394.6</v>
+        <v>426.35</v>
       </c>
       <c r="E12">
-        <v>397.75</v>
+        <v>430</v>
       </c>
       <c r="F12">
-        <v>-4.0500000000000114</v>
+        <v>-3.1000000000000232</v>
       </c>
       <c r="G12">
-        <v>-1.0079641612742689</v>
+        <v>-0.71577003001616779</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="0"/>
-        <v>-0.95866533864542391</v>
+        <v>-1.2175511141741353</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="1"/>
-        <v>0.95866533864542391</v>
+        <v>1.2175511141741353</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="2"/>
-        <v>1.6807768924302788</v>
+        <v>1.0797151389846056</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="3"/>
-        <v>0.79195474544311184</v>
+        <v>0.84883720930232032</v>
       </c>
       <c r="L12" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2732,38 +2732,38 @@
         <v>NO</v>
       </c>
       <c r="S12">
-        <v>406</v>
+        <v>430.45</v>
       </c>
       <c r="T12">
-        <v>410.45</v>
+        <v>439.65</v>
       </c>
       <c r="U12">
-        <v>399.3</v>
+        <v>427.35</v>
       </c>
       <c r="V12">
-        <v>401.8</v>
+        <v>433.1</v>
       </c>
       <c r="W12">
-        <v>-2.5</v>
+        <v>2.450000000000045</v>
       </c>
       <c r="X12">
-        <v>-0.61835270838486267</v>
+        <v>0.56890746545920023</v>
       </c>
       <c r="Y12" s="1">
         <f t="shared" si="11"/>
-        <v>-1.0344827586206868</v>
+        <v>0.61563480078987898</v>
       </c>
       <c r="Z12" s="1">
         <f t="shared" si="12"/>
-        <v>1.0344827586206868</v>
+        <v>0.61563480078987898</v>
       </c>
       <c r="AA12" s="1">
         <f t="shared" si="13"/>
-        <v>1.0960591133004898</v>
+        <v>1.5123528053567199</v>
       </c>
       <c r="AB12" s="1">
         <f t="shared" si="14"/>
-        <v>0.62220009955201594</v>
+        <v>0.72017655941455827</v>
       </c>
       <c r="AC12" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2790,38 +2790,38 @@
         <v>NO</v>
       </c>
       <c r="AI12">
-        <v>389</v>
+        <v>430.6</v>
       </c>
       <c r="AJ12">
-        <v>406.4</v>
+        <v>433.9</v>
       </c>
       <c r="AK12">
-        <v>388.45</v>
+        <v>425</v>
       </c>
       <c r="AL12">
-        <v>404.3</v>
+        <v>430.65</v>
       </c>
       <c r="AM12">
-        <v>14.400000000000031</v>
+        <v>2.75</v>
       </c>
       <c r="AN12">
-        <v>3.6932546806873652</v>
+        <v>0.64267352185089976</v>
       </c>
       <c r="AO12" s="1">
         <f t="shared" si="21"/>
-        <v>3.9331619537275091</v>
+        <v>1.161170459822446E-2</v>
       </c>
       <c r="AP12" s="1">
         <f t="shared" si="22"/>
-        <v>3.9331619537275091</v>
+        <v>1.161170459822446E-2</v>
       </c>
       <c r="AQ12" s="1">
         <f t="shared" si="23"/>
-        <v>0.51941627504327625</v>
+        <v>0.75467316846627197</v>
       </c>
       <c r="AR12" s="1">
         <f t="shared" si="24"/>
-        <v>0.14138817480720087</v>
+        <v>1.3005109150023275</v>
       </c>
       <c r="AS12" t="str">
         <f t="shared" si="25"/>
@@ -2853,38 +2853,38 @@
         <v>61</v>
       </c>
       <c r="B13">
-        <v>11196.25</v>
+        <v>12970</v>
       </c>
       <c r="C13">
-        <v>11200</v>
+        <v>13298</v>
       </c>
       <c r="D13">
-        <v>10909.05</v>
+        <v>12759.85</v>
       </c>
       <c r="E13">
-        <v>10954.55</v>
+        <v>12853.55</v>
       </c>
       <c r="F13">
-        <v>-258.95000000000073</v>
+        <v>-18.60000000000036</v>
       </c>
       <c r="G13">
-        <v>-2.3092700762473868</v>
+        <v>-0.14449800538371879</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="0"/>
-        <v>-2.1587585128949489</v>
+        <v>-0.89784117193524082</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="1"/>
-        <v>2.1587585128949489</v>
+        <v>0.89784117193524082</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="2"/>
-        <v>3.3493357150831751E-2</v>
+        <v>2.5289128758673862</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="3"/>
-        <v>0.41535252474998974</v>
+        <v>0.72898148760458326</v>
       </c>
       <c r="L13" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="O13" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="P13" s="1" t="str">
         <f t="shared" si="8"/>
@@ -2915,38 +2915,38 @@
         <v>NO</v>
       </c>
       <c r="S13">
-        <v>11488</v>
+        <v>12916.8</v>
       </c>
       <c r="T13">
-        <v>11574.55</v>
+        <v>13040</v>
       </c>
       <c r="U13">
-        <v>11118</v>
+        <v>12767</v>
       </c>
       <c r="V13">
-        <v>11213.5</v>
+        <v>12872.15</v>
       </c>
       <c r="W13">
-        <v>-233.5499999999993</v>
+        <v>-79.050000000001091</v>
       </c>
       <c r="X13">
-        <v>-2.040263648712981</v>
+        <v>-0.61036815121379551</v>
       </c>
       <c r="Y13" s="1">
         <f t="shared" si="11"/>
-        <v>-2.389449860724234</v>
+        <v>-0.34567385110863091</v>
       </c>
       <c r="Z13" s="1">
         <f t="shared" si="12"/>
-        <v>2.389449860724234</v>
+        <v>0.34567385110863091</v>
       </c>
       <c r="AA13" s="1">
         <f t="shared" si="13"/>
-        <v>0.75339484679665103</v>
+        <v>0.95379660597052474</v>
       </c>
       <c r="AB13" s="1">
         <f t="shared" si="14"/>
-        <v>0.8516520265751103</v>
+        <v>0.81687985301600463</v>
       </c>
       <c r="AC13" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2973,38 +2973,38 @@
         <v>NO</v>
       </c>
       <c r="AI13">
-        <v>11339</v>
+        <v>12829.9</v>
       </c>
       <c r="AJ13">
-        <v>11508.05</v>
+        <v>13024.2</v>
       </c>
       <c r="AK13">
-        <v>11230</v>
+        <v>12716</v>
       </c>
       <c r="AL13">
-        <v>11447.05</v>
+        <v>12951.2</v>
       </c>
       <c r="AM13">
-        <v>45.75</v>
+        <v>173.10000000000039</v>
       </c>
       <c r="AN13">
-        <v>0.40127003061054439</v>
+        <v>1.354661491145009</v>
       </c>
       <c r="AO13" s="1">
         <f t="shared" si="21"/>
-        <v>0.95290589999117459</v>
+        <v>0.94544774316246505</v>
       </c>
       <c r="AP13" s="1">
         <f t="shared" si="22"/>
-        <v>0.95290589999117459</v>
+        <v>0.94544774316246505</v>
       </c>
       <c r="AQ13" s="1">
         <f t="shared" si="23"/>
-        <v>0.53288838609073963</v>
+        <v>0.56365433318920255</v>
       </c>
       <c r="AR13" s="1">
         <f t="shared" si="24"/>
-        <v>0.96128406385042764</v>
+        <v>0.88776997482443076</v>
       </c>
       <c r="AS13" t="str">
         <f t="shared" si="25"/>
@@ -3036,38 +3036,38 @@
         <v>62</v>
       </c>
       <c r="B14">
-        <v>365.2</v>
+        <v>371.8</v>
       </c>
       <c r="C14">
-        <v>370.95</v>
+        <v>373.2</v>
       </c>
       <c r="D14">
-        <v>364.1</v>
+        <v>365.5</v>
       </c>
       <c r="E14">
-        <v>366.7</v>
+        <v>368.55</v>
       </c>
       <c r="F14">
-        <v>2.8499999999999659</v>
+        <v>-1.4499999999999891</v>
       </c>
       <c r="G14">
-        <v>0.78328981723236657</v>
+        <v>-0.39189189189188878</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="0"/>
-        <v>0.41073384446878425</v>
+        <v>-0.87412587412587406</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="1"/>
-        <v>0.41073384446878425</v>
+        <v>0.87412587412587406</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="2"/>
-        <v>1.1589855467684758</v>
+        <v>0.3765465303926781</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="3"/>
-        <v>0.30120481927709913</v>
+        <v>0.82756749423416387</v>
       </c>
       <c r="L14" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3098,38 +3098,38 @@
         <v>NO</v>
       </c>
       <c r="S14">
-        <v>364.9</v>
+        <v>365</v>
       </c>
       <c r="T14">
-        <v>372.7</v>
+        <v>372.65</v>
       </c>
       <c r="U14">
-        <v>363.05</v>
+        <v>358</v>
       </c>
       <c r="V14">
-        <v>363.85</v>
+        <v>370</v>
       </c>
       <c r="W14">
-        <v>0.5</v>
+        <v>6.25</v>
       </c>
       <c r="X14">
-        <v>0.13760836658868861</v>
+        <v>1.7182130584192441</v>
       </c>
       <c r="Y14" s="1">
         <f t="shared" si="11"/>
-        <v>-0.28775006851190865</v>
+        <v>1.3698630136986301</v>
       </c>
       <c r="Z14" s="1">
         <f t="shared" si="12"/>
-        <v>0.28775006851190865</v>
+        <v>1.3698630136986301</v>
       </c>
       <c r="AA14" s="1">
         <f t="shared" si="13"/>
-        <v>2.1375719375171314</v>
+        <v>0.71621621621621001</v>
       </c>
       <c r="AB14" s="1">
         <f t="shared" si="14"/>
-        <v>0.21987082588979284</v>
+        <v>1.9178082191780823</v>
       </c>
       <c r="AC14" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3156,38 +3156,38 @@
         <v>NO</v>
       </c>
       <c r="AI14">
-        <v>362.8</v>
+        <v>373.4</v>
       </c>
       <c r="AJ14">
-        <v>367.2</v>
+        <v>374.95</v>
       </c>
       <c r="AK14">
-        <v>360</v>
+        <v>360.4</v>
       </c>
       <c r="AL14">
-        <v>363.35</v>
+        <v>363.75</v>
       </c>
       <c r="AM14">
-        <v>0.55000000000001137</v>
+        <v>-6.8500000000000227</v>
       </c>
       <c r="AN14">
-        <v>0.15159867695700421</v>
+        <v>-1.8483540205072919</v>
       </c>
       <c r="AO14" s="1">
         <f t="shared" si="21"/>
-        <v>0.15159867695700421</v>
+        <v>-2.5843599357257574</v>
       </c>
       <c r="AP14" s="1">
         <f t="shared" si="22"/>
-        <v>0.15159867695700421</v>
+        <v>2.5843599357257574</v>
       </c>
       <c r="AQ14" s="1">
         <f t="shared" si="23"/>
-        <v>1.0595844227328928</v>
+        <v>0.41510444563471116</v>
       </c>
       <c r="AR14" s="1">
         <f t="shared" si="24"/>
-        <v>0.77177508269019057</v>
+        <v>0.92096219931272105</v>
       </c>
       <c r="AS14" t="str">
         <f t="shared" si="25"/>
@@ -3219,38 +3219,38 @@
         <v>63</v>
       </c>
       <c r="B15">
-        <v>1385</v>
+        <v>1427.9</v>
       </c>
       <c r="C15">
-        <v>1408</v>
+        <v>1427.9</v>
       </c>
       <c r="D15">
-        <v>1366.5</v>
+        <v>1401.05</v>
       </c>
       <c r="E15">
-        <v>1389.1</v>
+        <v>1416.6</v>
       </c>
       <c r="F15">
-        <v>-2.1500000000000909</v>
+        <v>-2.0500000000001819</v>
       </c>
       <c r="G15">
-        <v>-0.15453728661276481</v>
+        <v>-0.14450357734467151</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="0"/>
-        <v>0.29602888086641943</v>
+        <v>-0.79137194481407536</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="1"/>
-        <v>0.29602888086641943</v>
+        <v>0.79137194481407536</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="2"/>
-        <v>1.3605931898351515</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" si="3"/>
-        <v>1.3357400722021662</v>
+        <v>1.0976987152336548</v>
       </c>
       <c r="L15" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3281,38 +3281,38 @@
         <v>NO</v>
       </c>
       <c r="S15">
-        <v>1421</v>
+        <v>1395</v>
       </c>
       <c r="T15">
-        <v>1421</v>
+        <v>1423.3</v>
       </c>
       <c r="U15">
-        <v>1383.3</v>
+        <v>1388.1</v>
       </c>
       <c r="V15">
-        <v>1391.25</v>
+        <v>1418.65</v>
       </c>
       <c r="W15">
-        <v>-6.3499999999999091</v>
+        <v>21.35000000000014</v>
       </c>
       <c r="X15">
-        <v>-0.4543503148254085</v>
+        <v>1.52794675445503</v>
       </c>
       <c r="Y15" s="1">
         <f t="shared" si="11"/>
-        <v>-2.0935960591133003</v>
+        <v>1.695340501792121</v>
       </c>
       <c r="Z15" s="1">
         <f t="shared" si="12"/>
-        <v>2.0935960591133003</v>
+        <v>1.695340501792121</v>
       </c>
       <c r="AA15" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.32777640714763073</v>
       </c>
       <c r="AB15" s="1">
         <f t="shared" si="14"/>
-        <v>0.57142857142857473</v>
+        <v>0.49462365591398505</v>
       </c>
       <c r="AC15" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3339,38 +3339,38 @@
         <v>NO</v>
       </c>
       <c r="AI15">
-        <v>1393.5</v>
+        <v>1370.9</v>
       </c>
       <c r="AJ15">
-        <v>1421</v>
+        <v>1404.1</v>
       </c>
       <c r="AK15">
-        <v>1388.75</v>
+        <v>1360.1</v>
       </c>
       <c r="AL15">
-        <v>1397.6</v>
+        <v>1397.3</v>
       </c>
       <c r="AM15">
-        <v>9.25</v>
+        <v>31.5</v>
       </c>
       <c r="AN15">
-        <v>0.66625850830122091</v>
+        <v>2.306340606238102</v>
       </c>
       <c r="AO15" s="1">
         <f t="shared" si="21"/>
-        <v>0.29422317904556222</v>
+        <v>1.9257422131446396</v>
       </c>
       <c r="AP15" s="1">
         <f t="shared" si="22"/>
-        <v>0.29422317904556222</v>
+        <v>1.9257422131446396</v>
       </c>
       <c r="AQ15" s="1">
         <f t="shared" si="23"/>
-        <v>1.6742987979393311</v>
+        <v>0.48665283045873858</v>
       </c>
       <c r="AR15" s="1">
         <f t="shared" si="24"/>
-        <v>0.34086831718693938</v>
+        <v>0.78780363265009723</v>
       </c>
       <c r="AS15" t="str">
         <f t="shared" si="25"/>
@@ -3402,38 +3402,38 @@
         <v>64</v>
       </c>
       <c r="B16">
-        <v>435.1</v>
+        <v>386.35</v>
       </c>
       <c r="C16">
-        <v>435.1</v>
+        <v>391</v>
       </c>
       <c r="D16">
-        <v>410.35</v>
+        <v>377.05</v>
       </c>
       <c r="E16">
-        <v>417.95</v>
+        <v>384.2</v>
       </c>
       <c r="F16">
-        <v>-15.850000000000019</v>
+        <v>0.39999999999997732</v>
       </c>
       <c r="G16">
-        <v>-3.653757491931771</v>
+        <v>0.1042209484106246</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="0"/>
-        <v>-3.9416226154906995</v>
+        <v>-0.55649022906691703</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="1"/>
-        <v>3.9416226154906995</v>
+        <v>0.55649022906691703</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.2035718907726094</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="3"/>
-        <v>1.8183993300633965</v>
+        <v>1.8610098906819306</v>
       </c>
       <c r="L16" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3464,38 +3464,38 @@
         <v>NO</v>
       </c>
       <c r="S16">
-        <v>429</v>
+        <v>372.4</v>
       </c>
       <c r="T16">
-        <v>439</v>
+        <v>385</v>
       </c>
       <c r="U16">
-        <v>423</v>
+        <v>370.35</v>
       </c>
       <c r="V16">
-        <v>433.8</v>
+        <v>383.8</v>
       </c>
       <c r="W16">
-        <v>7.6000000000000227</v>
+        <v>16.25</v>
       </c>
       <c r="X16">
-        <v>1.7832003754106109</v>
+        <v>4.4211671881376677</v>
       </c>
       <c r="Y16" s="1">
         <f t="shared" si="11"/>
-        <v>1.1188811188811214</v>
+        <v>3.0612244897959275</v>
       </c>
       <c r="Z16" s="1">
         <f t="shared" si="12"/>
-        <v>1.1188811188811214</v>
+        <v>3.0612244897959275</v>
       </c>
       <c r="AA16" s="1">
         <f t="shared" si="13"/>
-        <v>1.1987090825265072</v>
+        <v>0.31266284523188864</v>
       </c>
       <c r="AB16" s="1">
         <f t="shared" si="14"/>
-        <v>1.3986013986013985</v>
+        <v>0.55048335123521874</v>
       </c>
       <c r="AC16" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3522,38 +3522,38 @@
         <v>NO</v>
       </c>
       <c r="AI16">
-        <v>416.95</v>
+        <v>377.45</v>
       </c>
       <c r="AJ16">
-        <v>429.75</v>
+        <v>377.45</v>
       </c>
       <c r="AK16">
-        <v>410.55</v>
+        <v>364</v>
       </c>
       <c r="AL16">
-        <v>426.2</v>
+        <v>367.55</v>
       </c>
       <c r="AM16">
-        <v>8.4499999999999886</v>
+        <v>-7.5500000000000114</v>
       </c>
       <c r="AN16">
-        <v>2.0227408737283041</v>
+        <v>-2.0127965875766489</v>
       </c>
       <c r="AO16" s="1">
         <f t="shared" si="21"/>
-        <v>2.2184914258304356</v>
+        <v>-2.6228639554907875</v>
       </c>
       <c r="AP16" s="1">
         <f t="shared" si="22"/>
-        <v>2.2184914258304356</v>
+        <v>2.6228639554907875</v>
       </c>
       <c r="AQ16" s="1">
         <f t="shared" si="23"/>
-        <v>0.83294228061943021</v>
+        <v>0</v>
       </c>
       <c r="AR16" s="1">
         <f t="shared" si="24"/>
-        <v>1.5349562297637553</v>
+        <v>0.96585498571623207</v>
       </c>
       <c r="AS16" t="str">
         <f t="shared" si="25"/>
@@ -3585,38 +3585,38 @@
         <v>65</v>
       </c>
       <c r="B17">
-        <v>154.19999999999999</v>
+        <v>156</v>
       </c>
       <c r="C17">
-        <v>155.30000000000001</v>
+        <v>159.30000000000001</v>
       </c>
       <c r="D17">
-        <v>149.69999999999999</v>
+        <v>154.5</v>
       </c>
       <c r="E17">
-        <v>151.5</v>
+        <v>155.69999999999999</v>
       </c>
       <c r="F17">
-        <v>-2.9000000000000061</v>
+        <v>1.399999999999977</v>
       </c>
       <c r="G17">
-        <v>-1.878238341968915</v>
+        <v>0.90732339598183875</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="0"/>
-        <v>-1.7509727626459071</v>
+        <v>-0.19230769230769962</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="1"/>
-        <v>1.7509727626459071</v>
+        <v>0.19230769230769962</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="2"/>
-        <v>0.7133592736705725</v>
+        <v>2.115384615384623</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" si="3"/>
-        <v>1.1881188118811956</v>
+        <v>0.77071290944122595</v>
       </c>
       <c r="L17" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3647,38 +3647,38 @@
         <v>NO</v>
       </c>
       <c r="S17">
-        <v>159.15</v>
+        <v>149.9</v>
       </c>
       <c r="T17">
-        <v>159.15</v>
+        <v>156.9</v>
       </c>
       <c r="U17">
-        <v>152.35</v>
+        <v>149.15</v>
       </c>
       <c r="V17">
-        <v>154.4</v>
+        <v>154.30000000000001</v>
       </c>
       <c r="W17">
-        <v>-2.8499999999999939</v>
+        <v>4.1000000000000227</v>
       </c>
       <c r="X17">
-        <v>-1.812400635930044</v>
+        <v>2.729693741677778</v>
       </c>
       <c r="Y17" s="1">
         <f t="shared" si="11"/>
-        <v>-2.9846057178762173</v>
+        <v>2.9352901934623121</v>
       </c>
       <c r="Z17" s="1">
         <f t="shared" si="12"/>
-        <v>2.9846057178762173</v>
+        <v>2.9352901934623121</v>
       </c>
       <c r="AA17" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1.6850291639662955</v>
       </c>
       <c r="AB17" s="1">
         <f t="shared" si="14"/>
-        <v>1.3277202072538934</v>
+        <v>0.50033355570380256</v>
       </c>
       <c r="AC17" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3705,38 +3705,38 @@
         <v>NO</v>
       </c>
       <c r="AI17">
-        <v>159.80000000000001</v>
+        <v>151.19999999999999</v>
       </c>
       <c r="AJ17">
-        <v>161.4</v>
+        <v>153.25</v>
       </c>
       <c r="AK17">
-        <v>156.55000000000001</v>
+        <v>147.5</v>
       </c>
       <c r="AL17">
-        <v>157.25</v>
+        <v>150.19999999999999</v>
       </c>
       <c r="AM17">
-        <v>-2.8000000000000109</v>
+        <v>9.9999999999994316E-2</v>
       </c>
       <c r="AN17">
-        <v>-1.749453295845055</v>
+        <v>6.662225183210814E-2</v>
       </c>
       <c r="AO17" s="1">
         <f t="shared" si="21"/>
-        <v>-1.5957446808510709</v>
+        <v>-0.66137566137566139</v>
       </c>
       <c r="AP17" s="1">
         <f t="shared" si="22"/>
-        <v>1.5957446808510709</v>
+        <v>0.66137566137566139</v>
       </c>
       <c r="AQ17" s="1">
         <f t="shared" si="23"/>
-        <v>1.0012515644555657</v>
+        <v>1.3558201058201134</v>
       </c>
       <c r="AR17" s="1">
         <f t="shared" si="24"/>
-        <v>0.44515103338632023</v>
+        <v>1.7976031957390073</v>
       </c>
       <c r="AS17" t="str">
         <f t="shared" si="25"/>
@@ -3768,38 +3768,38 @@
         <v>66</v>
       </c>
       <c r="B18">
-        <v>460</v>
+        <v>511</v>
       </c>
       <c r="C18">
-        <v>469</v>
+        <v>514.70000000000005</v>
       </c>
       <c r="D18">
-        <v>458.1</v>
+        <v>498.25</v>
       </c>
       <c r="E18">
-        <v>463.75</v>
+        <v>504.2</v>
       </c>
       <c r="F18">
-        <v>3.3999999999999768</v>
+        <v>-4.0500000000000114</v>
       </c>
       <c r="G18">
-        <v>0.7385684805039594</v>
+        <v>-0.79685194294146811</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="0"/>
-        <v>0.81521739130434778</v>
+        <v>-1.3307240704501</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="1"/>
-        <v>0.81521739130434778</v>
+        <v>1.3307240704501</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="2"/>
-        <v>1.1320754716981132</v>
+        <v>0.7240704500978562</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" si="3"/>
-        <v>0.41304347826086457</v>
+        <v>1.1800872669575544</v>
       </c>
       <c r="L18" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3830,38 +3830,38 @@
         <v>NO</v>
       </c>
       <c r="S18">
-        <v>462.1</v>
+        <v>491.7</v>
       </c>
       <c r="T18">
-        <v>464.95</v>
+        <v>511.7</v>
       </c>
       <c r="U18">
-        <v>455.05</v>
+        <v>491.7</v>
       </c>
       <c r="V18">
-        <v>460.35</v>
+        <v>508.25</v>
       </c>
       <c r="W18">
-        <v>1.200000000000045</v>
+        <v>12.75</v>
       </c>
       <c r="X18">
-        <v>0.26135249918328329</v>
+        <v>2.5731584258324931</v>
       </c>
       <c r="Y18" s="1">
         <f t="shared" si="11"/>
-        <v>-0.37870590781216185</v>
+        <v>3.3658735001016904</v>
       </c>
       <c r="Z18" s="1">
         <f t="shared" si="12"/>
-        <v>0.37870590781216185</v>
+        <v>3.3658735001016904</v>
       </c>
       <c r="AA18" s="1">
         <f t="shared" si="13"/>
-        <v>0.61674962129408484</v>
+        <v>0.67879980324643163</v>
       </c>
       <c r="AB18" s="1">
         <f t="shared" si="14"/>
-        <v>1.1512979254914764</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="AE18" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AF18" s="1" t="str">
         <f t="shared" si="18"/>
@@ -3888,38 +3888,38 @@
         <v>NO</v>
       </c>
       <c r="AI18">
-        <v>454.6</v>
+        <v>497.4</v>
       </c>
       <c r="AJ18">
-        <v>465.75</v>
+        <v>497.5</v>
       </c>
       <c r="AK18">
-        <v>452.75</v>
+        <v>489.6</v>
       </c>
       <c r="AL18">
-        <v>459.15</v>
+        <v>495.5</v>
       </c>
       <c r="AM18">
-        <v>4.0999999999999659</v>
+        <v>3.1499999999999768</v>
       </c>
       <c r="AN18">
-        <v>0.90099989012195714</v>
+        <v>0.63978876815273222</v>
       </c>
       <c r="AO18" s="1">
         <f t="shared" si="21"/>
-        <v>1.0008798944126605</v>
+        <v>-0.38198632891032919</v>
       </c>
       <c r="AP18" s="1">
         <f t="shared" si="22"/>
-        <v>1.0008798944126605</v>
+        <v>0.38198632891032919</v>
       </c>
       <c r="AQ18" s="1">
         <f t="shared" si="23"/>
-        <v>1.4374387455080089</v>
+        <v>2.0104543626864244E-2</v>
       </c>
       <c r="AR18" s="1">
         <f t="shared" si="24"/>
-        <v>0.40695116586010177</v>
+        <v>1.190716448032286</v>
       </c>
       <c r="AS18" t="str">
         <f t="shared" si="25"/>
@@ -3951,38 +3951,38 @@
         <v>67</v>
       </c>
       <c r="B19">
-        <v>2359.5500000000002</v>
+        <v>3169.6</v>
       </c>
       <c r="C19">
-        <v>2368</v>
+        <v>3227.65</v>
       </c>
       <c r="D19">
-        <v>2308.1</v>
+        <v>3133.7</v>
       </c>
       <c r="E19">
-        <v>2316.6</v>
+        <v>3164.8</v>
       </c>
       <c r="F19">
-        <v>-34.150000000000091</v>
+        <v>18.150000000000091</v>
       </c>
       <c r="G19">
-        <v>-1.4527278528129359</v>
+        <v>0.57680390256304614</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="0"/>
-        <v>-1.8202623381577112</v>
+        <v>-0.15143866733971881</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="1"/>
-        <v>1.8202623381577112</v>
+        <v>0.15143866733971881</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="2"/>
-        <v>0.35811913288550012</v>
+        <v>1.8314613831398343</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="3"/>
-        <v>0.36691703358370026</v>
+        <v>0.9826845298281206</v>
       </c>
       <c r="L19" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4013,38 +4013,38 @@
         <v>NO</v>
       </c>
       <c r="S19">
-        <v>2344</v>
+        <v>3157.6</v>
       </c>
       <c r="T19">
-        <v>2381.9</v>
+        <v>3172.35</v>
       </c>
       <c r="U19">
-        <v>2332.5500000000002</v>
+        <v>3118</v>
       </c>
       <c r="V19">
-        <v>2350.75</v>
+        <v>3146.65</v>
       </c>
       <c r="W19">
-        <v>20.300000000000178</v>
+        <v>-9.9000000000000909</v>
       </c>
       <c r="X19">
-        <v>0.87107640155335597</v>
+        <v>-0.31363355562243872</v>
       </c>
       <c r="Y19" s="1">
         <f t="shared" si="11"/>
-        <v>0.28796928327645049</v>
+        <v>-0.3467823663541873</v>
       </c>
       <c r="Z19" s="1">
         <f t="shared" si="12"/>
-        <v>0.28796928327645049</v>
+        <v>0.3467823663541873</v>
       </c>
       <c r="AA19" s="1">
         <f t="shared" si="13"/>
-        <v>1.3251090077634835</v>
+        <v>0.4671269318469724</v>
       </c>
       <c r="AB19" s="1">
         <f t="shared" si="14"/>
-        <v>0.48848122866893423</v>
+        <v>0.91049211065736857</v>
       </c>
       <c r="AC19" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4071,38 +4071,38 @@
         <v>NO</v>
       </c>
       <c r="AI19">
-        <v>2340.5500000000002</v>
+        <v>3160</v>
       </c>
       <c r="AJ19">
-        <v>2378</v>
+        <v>3185</v>
       </c>
       <c r="AK19">
-        <v>2325.35</v>
+        <v>3125.05</v>
       </c>
       <c r="AL19">
-        <v>2330.4499999999998</v>
+        <v>3156.55</v>
       </c>
       <c r="AM19">
-        <v>-10.900000000000089</v>
+        <v>-0.54999999999972715</v>
       </c>
       <c r="AN19">
-        <v>-0.46554338309095572</v>
+        <v>-1.742105096448409E-2</v>
       </c>
       <c r="AO19" s="1">
         <f t="shared" si="21"/>
-        <v>-0.4315225053940468</v>
+        <v>-0.10917721518986766</v>
       </c>
       <c r="AP19" s="1">
         <f t="shared" si="22"/>
-        <v>0.4315225053940468</v>
+        <v>0.10917721518986766</v>
       </c>
       <c r="AQ19" s="1">
         <f t="shared" si="23"/>
-        <v>1.6000512700006329</v>
+        <v>0.79113924050632911</v>
       </c>
       <c r="AR19" s="1">
         <f t="shared" si="24"/>
-        <v>0.21884185457743824</v>
+        <v>0.99792494970775047</v>
       </c>
       <c r="AS19" t="str">
         <f t="shared" si="25"/>
@@ -4134,38 +4134,38 @@
         <v>68</v>
       </c>
       <c r="B20">
-        <v>153.80000000000001</v>
+        <v>136.85</v>
       </c>
       <c r="C20">
-        <v>154</v>
+        <v>136.85</v>
       </c>
       <c r="D20">
-        <v>146.85</v>
+        <v>133.4</v>
       </c>
       <c r="E20">
-        <v>148.94999999999999</v>
+        <v>134.05000000000001</v>
       </c>
       <c r="F20">
-        <v>-5.9500000000000171</v>
+        <v>-0.5</v>
       </c>
       <c r="G20">
-        <v>-3.8411878631375189</v>
+        <v>-0.37160906726124121</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="0"/>
-        <v>-3.1534460338101575</v>
+        <v>-2.0460358056265862</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="1"/>
-        <v>3.1534460338101575</v>
+        <v>2.0460358056265862</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="2"/>
-        <v>0.13003901170350365</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" si="3"/>
-        <v>1.409869083585092</v>
+        <v>0.48489369638195118</v>
       </c>
       <c r="L20" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4196,38 +4196,38 @@
         <v>NO</v>
       </c>
       <c r="S20">
-        <v>158.05000000000001</v>
+        <v>136.80000000000001</v>
       </c>
       <c r="T20">
-        <v>161.9</v>
+        <v>137.5</v>
       </c>
       <c r="U20">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="V20">
-        <v>154.9</v>
+        <v>134.55000000000001</v>
       </c>
       <c r="W20">
-        <v>-1.4499999999999891</v>
+        <v>-1.75</v>
       </c>
       <c r="X20">
-        <v>-0.92740645986567871</v>
+        <v>-1.2839325018341889</v>
       </c>
       <c r="Y20" s="1">
         <f t="shared" si="11"/>
-        <v>-1.9930401771591302</v>
+        <v>-1.6447368421052631</v>
       </c>
       <c r="Z20" s="1">
         <f t="shared" si="12"/>
-        <v>1.9930401771591302</v>
+        <v>1.6447368421052631</v>
       </c>
       <c r="AA20" s="1">
         <f t="shared" si="13"/>
-        <v>2.4359379943055957</v>
+        <v>0.51169590643274021</v>
       </c>
       <c r="AB20" s="1">
         <f t="shared" si="14"/>
-        <v>0.58102001291155947</v>
+        <v>0.40876997398737369</v>
       </c>
       <c r="AC20" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4254,38 +4254,38 @@
         <v>NO</v>
       </c>
       <c r="AI20">
-        <v>160</v>
+        <v>133.9</v>
       </c>
       <c r="AJ20">
-        <v>165.45</v>
+        <v>138.80000000000001</v>
       </c>
       <c r="AK20">
-        <v>154.4</v>
+        <v>133.9</v>
       </c>
       <c r="AL20">
-        <v>156.35</v>
+        <v>136.30000000000001</v>
       </c>
       <c r="AM20">
-        <v>3.5499999999999829</v>
+        <v>2.6000000000000232</v>
       </c>
       <c r="AN20">
-        <v>2.3232984293193599</v>
+        <v>1.9446522064323279</v>
       </c>
       <c r="AO20" s="1">
         <f t="shared" si="21"/>
-        <v>-2.2812500000000036</v>
+        <v>1.792382374906651</v>
       </c>
       <c r="AP20" s="1">
         <f t="shared" si="22"/>
-        <v>2.2812500000000036</v>
+        <v>1.792382374906651</v>
       </c>
       <c r="AQ20" s="1">
         <f t="shared" si="23"/>
-        <v>3.4062499999999925</v>
+        <v>1.8341892883345559</v>
       </c>
       <c r="AR20" s="1">
         <f t="shared" si="24"/>
-        <v>1.2472017908538464</v>
+        <v>0</v>
       </c>
       <c r="AS20" t="str">
         <f t="shared" si="25"/>
@@ -4317,38 +4317,38 @@
         <v>69</v>
       </c>
       <c r="B21">
-        <v>687</v>
+        <v>687.9</v>
       </c>
       <c r="C21">
-        <v>694</v>
+        <v>697.7</v>
       </c>
       <c r="D21">
-        <v>683.3</v>
+        <v>677.45</v>
       </c>
       <c r="E21">
-        <v>687.65</v>
+        <v>691.55</v>
       </c>
       <c r="F21">
-        <v>2.1999999999999318</v>
+        <v>5.8999999999999773</v>
       </c>
       <c r="G21">
-        <v>0.32095703552409832</v>
+        <v>0.86049733829212838</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="0"/>
-        <v>9.4614264919938462E-2</v>
+        <v>0.53060037796190973</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="1"/>
-        <v>9.4614264919938462E-2</v>
+        <v>0.53060037796190973</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="2"/>
-        <v>0.9234348869337633</v>
+        <v>0.8893066300339949</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" si="3"/>
-        <v>0.53857350800582904</v>
+        <v>1.5191161506032755</v>
       </c>
       <c r="L21" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4379,38 +4379,38 @@
         <v>NO</v>
       </c>
       <c r="S21">
-        <v>680</v>
+        <v>673.05</v>
       </c>
       <c r="T21">
-        <v>696.8</v>
+        <v>688</v>
       </c>
       <c r="U21">
-        <v>679</v>
+        <v>670.8</v>
       </c>
       <c r="V21">
-        <v>685.45</v>
+        <v>685.65</v>
       </c>
       <c r="W21">
-        <v>9.1500000000000909</v>
+        <v>12.600000000000019</v>
       </c>
       <c r="X21">
-        <v>1.352949874316145</v>
+        <v>1.8720748829953231</v>
       </c>
       <c r="Y21" s="1">
         <f t="shared" si="11"/>
-        <v>0.80147058823530093</v>
+        <v>1.8720748829953233</v>
       </c>
       <c r="Z21" s="1">
         <f t="shared" si="12"/>
-        <v>0.80147058823530093</v>
+        <v>1.8720748829953233</v>
       </c>
       <c r="AA21" s="1">
         <f t="shared" si="13"/>
-        <v>1.6558465241811815</v>
+        <v>0.34274046525195401</v>
       </c>
       <c r="AB21" s="1">
         <f t="shared" si="14"/>
-        <v>0.14705882352941177</v>
+        <v>0.33429908624916427</v>
       </c>
       <c r="AC21" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4437,38 +4437,38 @@
         <v>NO</v>
       </c>
       <c r="AI21">
-        <v>671.7</v>
+        <v>677.8</v>
       </c>
       <c r="AJ21">
-        <v>687.1</v>
+        <v>681.5</v>
       </c>
       <c r="AK21">
-        <v>669.45</v>
+        <v>663.85</v>
       </c>
       <c r="AL21">
-        <v>676.3</v>
+        <v>673.05</v>
       </c>
       <c r="AM21">
-        <v>4.5999999999999091</v>
+        <v>0.19999999999993179</v>
       </c>
       <c r="AN21">
-        <v>0.68482953699566906</v>
+        <v>2.9724307052081709E-2</v>
       </c>
       <c r="AO21" s="1">
         <f t="shared" si="21"/>
-        <v>0.68482953699566906</v>
+        <v>-0.70079669519032173</v>
       </c>
       <c r="AP21" s="1">
         <f t="shared" si="22"/>
-        <v>0.68482953699566906</v>
+        <v>0.70079669519032173</v>
       </c>
       <c r="AQ21" s="1">
         <f t="shared" si="23"/>
-        <v>1.5969244418157724</v>
+        <v>0.54588374151667829</v>
       </c>
       <c r="AR21" s="1">
         <f t="shared" si="24"/>
-        <v>0.33497096918267083</v>
+        <v>1.3669118193299059</v>
       </c>
       <c r="AS21" t="str">
         <f t="shared" si="25"/>
@@ -4500,38 +4500,38 @@
         <v>70</v>
       </c>
       <c r="B22">
-        <v>2474</v>
+        <v>2372</v>
       </c>
       <c r="C22">
-        <v>2499</v>
+        <v>2390</v>
       </c>
       <c r="D22">
-        <v>2450</v>
+        <v>2335</v>
       </c>
       <c r="E22">
-        <v>2482.8000000000002</v>
+        <v>2350</v>
       </c>
       <c r="F22">
-        <v>-5.2999999999997272</v>
+        <v>-18.25</v>
       </c>
       <c r="G22">
-        <v>-0.21301394638478069</v>
+        <v>-0.77061121080966954</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="0"/>
-        <v>0.35569927243331373</v>
+        <v>-0.92748735244519398</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="1"/>
-        <v>0.35569927243331373</v>
+        <v>0.92748735244519398</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="2"/>
-        <v>0.65248912518123958</v>
+        <v>0.75885328836424959</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="3"/>
-        <v>0.97008892481810838</v>
+        <v>0.63829787234042545</v>
       </c>
       <c r="L22" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4562,38 +4562,38 @@
         <v>NO</v>
       </c>
       <c r="S22">
-        <v>2470</v>
+        <v>2389</v>
       </c>
       <c r="T22">
-        <v>2503.3000000000002</v>
+        <v>2407.9499999999998</v>
       </c>
       <c r="U22">
-        <v>2450</v>
+        <v>2363</v>
       </c>
       <c r="V22">
-        <v>2488.1</v>
+        <v>2368.25</v>
       </c>
       <c r="W22">
-        <v>39.699999999999818</v>
+        <v>-31.099999999999909</v>
       </c>
       <c r="X22">
-        <v>1.621467080542387</v>
+        <v>-1.2961843832704649</v>
       </c>
       <c r="Y22" s="1">
         <f t="shared" si="11"/>
-        <v>0.73279352226720285</v>
+        <v>-0.86856425282544991</v>
       </c>
       <c r="Z22" s="1">
         <f t="shared" si="12"/>
-        <v>0.73279352226720285</v>
+        <v>0.86856425282544991</v>
       </c>
       <c r="AA22" s="1">
         <f t="shared" si="13"/>
-        <v>0.61090792170733788</v>
+        <v>0.79321892005022265</v>
       </c>
       <c r="AB22" s="1">
         <f t="shared" si="14"/>
-        <v>0.80971659919028338</v>
+        <v>0.22168267708223371</v>
       </c>
       <c r="AC22" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4620,38 +4620,38 @@
         <v>NO</v>
       </c>
       <c r="AI22">
-        <v>2440</v>
+        <v>2394.9</v>
       </c>
       <c r="AJ22">
-        <v>2468.8000000000002</v>
+        <v>2414.8000000000002</v>
       </c>
       <c r="AK22">
-        <v>2424.85</v>
+        <v>2380</v>
       </c>
       <c r="AL22">
-        <v>2448.4</v>
+        <v>2399.35</v>
       </c>
       <c r="AM22">
-        <v>1.0999999999999091</v>
+        <v>28.599999999999909</v>
       </c>
       <c r="AN22">
-        <v>4.4947493155718922E-2</v>
+        <v>1.2063692924180069</v>
       </c>
       <c r="AO22" s="1">
         <f t="shared" si="21"/>
-        <v>0.34426229508197093</v>
+        <v>0.18581151613845329</v>
       </c>
       <c r="AP22" s="1">
         <f t="shared" si="22"/>
-        <v>0.34426229508197093</v>
+        <v>0.18581151613845329</v>
       </c>
       <c r="AQ22" s="1">
         <f t="shared" si="23"/>
-        <v>0.8331971900016375</v>
+        <v>0.64392439619064634</v>
       </c>
       <c r="AR22" s="1">
         <f t="shared" si="24"/>
-        <v>0.62090163934426601</v>
+        <v>0.62215541358720994</v>
       </c>
       <c r="AS22" t="str">
         <f t="shared" si="25"/>
@@ -4683,38 +4683,38 @@
         <v>71</v>
       </c>
       <c r="B23">
-        <v>543.5</v>
+        <v>610</v>
       </c>
       <c r="C23">
-        <v>544.6</v>
+        <v>610</v>
       </c>
       <c r="D23">
-        <v>532.65</v>
+        <v>595.20000000000005</v>
       </c>
       <c r="E23">
-        <v>537.20000000000005</v>
+        <v>599.45000000000005</v>
       </c>
       <c r="F23">
-        <v>-4.6999999999999318</v>
+        <v>-5.3499999999999091</v>
       </c>
       <c r="G23">
-        <v>-0.86731869348587032</v>
+        <v>-0.88458994708993199</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="0"/>
-        <v>-1.1591536338546375</v>
+        <v>-1.729508196721304</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="1"/>
-        <v>1.1591536338546375</v>
+        <v>1.729508196721304</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="2"/>
-        <v>0.20239190432383122</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" si="3"/>
-        <v>0.846984363365612</v>
+        <v>0.70898323463174573</v>
       </c>
       <c r="L23" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4745,38 +4745,38 @@
         <v>NO</v>
       </c>
       <c r="S23">
-        <v>541.4</v>
+        <v>608</v>
       </c>
       <c r="T23">
-        <v>547.45000000000005</v>
+        <v>612.70000000000005</v>
       </c>
       <c r="U23">
-        <v>535</v>
+        <v>601.6</v>
       </c>
       <c r="V23">
-        <v>541.9</v>
+        <v>604.79999999999995</v>
       </c>
       <c r="W23">
-        <v>3.5</v>
+        <v>3.1999999999999318</v>
       </c>
       <c r="X23">
-        <v>0.65007429420505203</v>
+        <v>0.53191489361700994</v>
       </c>
       <c r="Y23" s="1">
         <f t="shared" si="11"/>
-        <v>9.2353158478019948E-2</v>
+        <v>-0.52631578947369162</v>
       </c>
       <c r="Z23" s="1">
         <f t="shared" si="12"/>
-        <v>9.2353158478019948E-2</v>
+        <v>0.52631578947369162</v>
       </c>
       <c r="AA23" s="1">
         <f t="shared" si="13"/>
-        <v>1.0241742018822786</v>
+        <v>0.77302631578948122</v>
       </c>
       <c r="AB23" s="1">
         <f t="shared" si="14"/>
-        <v>1.1821204285186511</v>
+        <v>0.52910052910051786</v>
       </c>
       <c r="AC23" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4803,38 +4803,38 @@
         <v>NO</v>
       </c>
       <c r="AI23">
-        <v>520</v>
+        <v>589.6</v>
       </c>
       <c r="AJ23">
-        <v>539.75</v>
+        <v>603</v>
       </c>
       <c r="AK23">
-        <v>519</v>
+        <v>587.4</v>
       </c>
       <c r="AL23">
-        <v>538.4</v>
+        <v>601.6</v>
       </c>
       <c r="AM23">
-        <v>11.149999999999981</v>
+        <v>15.899999999999981</v>
       </c>
       <c r="AN23">
-        <v>2.1147463252726371</v>
+        <v>2.714700358545326</v>
       </c>
       <c r="AO23" s="1">
         <f t="shared" si="21"/>
-        <v>3.5384615384615339</v>
+        <v>2.0352781546811394</v>
       </c>
       <c r="AP23" s="1">
         <f t="shared" si="22"/>
-        <v>3.5384615384615339</v>
+        <v>2.0352781546811394</v>
       </c>
       <c r="AQ23" s="1">
         <f t="shared" si="23"/>
-        <v>0.25074294205052428</v>
+        <v>0.23271276595744303</v>
       </c>
       <c r="AR23" s="1">
         <f t="shared" si="24"/>
-        <v>0.19230769230769232</v>
+        <v>0.37313432835821669</v>
       </c>
       <c r="AS23" t="str">
         <f t="shared" si="25"/>
@@ -4866,38 +4866,38 @@
         <v>72</v>
       </c>
       <c r="B24">
-        <v>580.1</v>
+        <v>658</v>
       </c>
       <c r="C24">
-        <v>584.79999999999995</v>
+        <v>672</v>
       </c>
       <c r="D24">
-        <v>570.54999999999995</v>
+        <v>652</v>
       </c>
       <c r="E24">
-        <v>578.20000000000005</v>
+        <v>669.05</v>
       </c>
       <c r="F24">
-        <v>-7.25</v>
+        <v>15.299999999999949</v>
       </c>
       <c r="G24">
-        <v>-1.2383636518917069</v>
+        <v>2.3403441682600312</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="0"/>
-        <v>-0.32752973625236631</v>
+        <v>1.6793313069908746</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="1"/>
-        <v>0.32752973625236631</v>
+        <v>1.6793313069908746</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="2"/>
-        <v>0.81020513704532526</v>
+        <v>0.44092369778044177</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="3"/>
-        <v>1.3230716015219803</v>
+        <v>0.91185410334346495</v>
       </c>
       <c r="L24" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4928,38 +4928,38 @@
         <v>NO</v>
       </c>
       <c r="S24">
-        <v>581.15</v>
+        <v>644</v>
       </c>
       <c r="T24">
-        <v>593.4</v>
+        <v>658.3</v>
       </c>
       <c r="U24">
-        <v>580.04999999999995</v>
+        <v>643.45000000000005</v>
       </c>
       <c r="V24">
-        <v>585.45000000000005</v>
+        <v>653.75</v>
       </c>
       <c r="W24">
-        <v>6.0500000000000682</v>
+        <v>10.299999999999949</v>
       </c>
       <c r="X24">
-        <v>1.044183638246474</v>
+        <v>1.600745978708517</v>
       </c>
       <c r="Y24" s="1">
         <f t="shared" si="11"/>
-        <v>0.73991224296654368</v>
+        <v>1.5139751552795031</v>
       </c>
       <c r="Z24" s="1">
         <f t="shared" si="12"/>
-        <v>0.73991224296654368</v>
+        <v>1.5139751552795031</v>
       </c>
       <c r="AA24" s="1">
         <f t="shared" si="13"/>
-        <v>1.3579297975915845</v>
+        <v>0.69598470363288023</v>
       </c>
       <c r="AB24" s="1">
         <f t="shared" si="14"/>
-        <v>0.18927987610772137</v>
+        <v>8.5403726708067479E-2</v>
       </c>
       <c r="AC24" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4986,38 +4986,38 @@
         <v>NO</v>
       </c>
       <c r="AI24">
-        <v>578.9</v>
+        <v>645.20000000000005</v>
       </c>
       <c r="AJ24">
-        <v>589.9</v>
+        <v>649.9</v>
       </c>
       <c r="AK24">
-        <v>575.4</v>
+        <v>634.54999999999995</v>
       </c>
       <c r="AL24">
-        <v>579.4</v>
+        <v>643.45000000000005</v>
       </c>
       <c r="AM24">
-        <v>-2.700000000000045</v>
+        <v>2.0500000000000682</v>
       </c>
       <c r="AN24">
-        <v>-0.46383782855180311</v>
+        <v>0.31961334580605988</v>
       </c>
       <c r="AO24" s="1">
         <f t="shared" si="21"/>
-        <v>8.6370703057522882E-2</v>
+        <v>-0.27123372597644141</v>
       </c>
       <c r="AP24" s="1">
         <f t="shared" si="22"/>
-        <v>8.6370703057522882E-2</v>
+        <v>0.27123372597644141</v>
       </c>
       <c r="AQ24" s="1">
         <f t="shared" si="23"/>
-        <v>1.8122195374525374</v>
+        <v>0.72845629262243194</v>
       </c>
       <c r="AR24" s="1">
         <f t="shared" si="24"/>
-        <v>0.60459492140266025</v>
+        <v>1.3831688553889332</v>
       </c>
       <c r="AS24" t="str">
         <f t="shared" si="25"/>
@@ -5033,7 +5033,7 @@
       </c>
       <c r="AV24" t="str">
         <f t="shared" si="28"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AW24" t="str">
         <f t="shared" si="29"/>
@@ -5049,38 +5049,38 @@
         <v>73</v>
       </c>
       <c r="B25">
-        <v>227.7</v>
+        <v>199.9</v>
       </c>
       <c r="C25">
-        <v>230.95</v>
+        <v>201.15</v>
       </c>
       <c r="D25">
-        <v>220.5</v>
+        <v>195.15</v>
       </c>
       <c r="E25">
-        <v>225.2</v>
+        <v>196.05</v>
       </c>
       <c r="F25">
-        <v>-6.0500000000000114</v>
+        <v>-3.0999999999999939</v>
       </c>
       <c r="G25">
-        <v>-2.616216216216221</v>
+        <v>-1.5566156163695679</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="0"/>
-        <v>-1.0979358805445762</v>
+        <v>-1.9259629814907424</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="1"/>
-        <v>1.0979358805445762</v>
+        <v>1.9259629814907424</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="2"/>
-        <v>1.4273166447079493</v>
+        <v>0.62531265632816402</v>
       </c>
       <c r="K25" s="1">
         <f t="shared" si="3"/>
-        <v>2.0870337477797465</v>
+        <v>0.4590665646518774</v>
       </c>
       <c r="L25" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5111,38 +5111,38 @@
         <v>NO</v>
       </c>
       <c r="S25">
-        <v>226.95</v>
+        <v>202.5</v>
       </c>
       <c r="T25">
-        <v>235.85</v>
+        <v>204.25</v>
       </c>
       <c r="U25">
-        <v>224.55</v>
+        <v>197.2</v>
       </c>
       <c r="V25">
-        <v>231.25</v>
+        <v>199.15</v>
       </c>
       <c r="W25">
-        <v>9.4000000000000057</v>
+        <v>-2.0499999999999829</v>
       </c>
       <c r="X25">
-        <v>4.2370971377056597</v>
+        <v>-1.018886679920469</v>
       </c>
       <c r="Y25" s="1">
         <f t="shared" si="11"/>
-        <v>1.8946904604538497</v>
+        <v>-1.6543209876543181</v>
       </c>
       <c r="Z25" s="1">
         <f t="shared" si="12"/>
-        <v>1.8946904604538497</v>
+        <v>1.6543209876543181</v>
       </c>
       <c r="AA25" s="1">
         <f t="shared" si="13"/>
-        <v>1.9891891891891869</v>
+        <v>0.86419753086419748</v>
       </c>
       <c r="AB25" s="1">
         <f t="shared" si="14"/>
-        <v>1.0575016523463219</v>
+        <v>0.97916143610344819</v>
       </c>
       <c r="AC25" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5169,38 +5169,38 @@
         <v>NO</v>
       </c>
       <c r="AI25">
-        <v>228.45</v>
+        <v>195</v>
       </c>
       <c r="AJ25">
-        <v>231.9</v>
+        <v>202.2</v>
       </c>
       <c r="AK25">
-        <v>220.85</v>
+        <v>194.5</v>
       </c>
       <c r="AL25">
-        <v>221.85</v>
+        <v>201.2</v>
       </c>
       <c r="AM25">
-        <v>-6.5500000000000114</v>
+        <v>7.4499999999999886</v>
       </c>
       <c r="AN25">
-        <v>-2.8677758318739102</v>
+        <v>3.8451612903225749</v>
       </c>
       <c r="AO25" s="1">
         <f t="shared" si="21"/>
-        <v>-2.8890347997373578</v>
+        <v>3.1794871794871735</v>
       </c>
       <c r="AP25" s="1">
         <f t="shared" si="22"/>
-        <v>2.8890347997373578</v>
+        <v>3.1794871794871735</v>
       </c>
       <c r="AQ25" s="1">
         <f t="shared" si="23"/>
-        <v>1.5101772816809005</v>
+        <v>0.49701789264413521</v>
       </c>
       <c r="AR25" s="1">
         <f t="shared" si="24"/>
-        <v>0.45075501464953799</v>
+        <v>0.25641025641025639</v>
       </c>
       <c r="AS25" t="str">
         <f t="shared" si="25"/>
@@ -5232,38 +5232,38 @@
         <v>74</v>
       </c>
       <c r="B26">
-        <v>198.5</v>
+        <v>237.7</v>
       </c>
       <c r="C26">
-        <v>199</v>
+        <v>238.45</v>
       </c>
       <c r="D26">
-        <v>192.8</v>
+        <v>222.5</v>
       </c>
       <c r="E26">
-        <v>193.65</v>
+        <v>223.95</v>
       </c>
       <c r="F26">
-        <v>-5.2999999999999829</v>
+        <v>-13.75</v>
       </c>
       <c r="G26">
-        <v>-2.6639859261120802</v>
+        <v>-5.7846024400504836</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="0"/>
-        <v>-2.4433249370277048</v>
+        <v>-5.7846024400504836</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="1"/>
-        <v>2.4433249370277048</v>
+        <v>5.7846024400504836</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="2"/>
-        <v>0.25188916876574308</v>
+        <v>0.3155237694572991</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="3"/>
-        <v>0.43893622514846076</v>
+        <v>0.64746595222147296</v>
       </c>
       <c r="L26" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5294,38 +5294,38 @@
         <v>NO</v>
       </c>
       <c r="S26">
-        <v>191</v>
+        <v>221.2</v>
       </c>
       <c r="T26">
-        <v>204.75</v>
+        <v>239</v>
       </c>
       <c r="U26">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="V26">
-        <v>198.95</v>
+        <v>237.7</v>
       </c>
       <c r="W26">
-        <v>9.2999999999999829</v>
+        <v>16.449999999999989</v>
       </c>
       <c r="X26">
-        <v>4.9037701028209773</v>
+        <v>7.4350282485875647</v>
       </c>
       <c r="Y26" s="1">
         <f t="shared" si="11"/>
-        <v>4.1623036649214598</v>
+        <v>7.4593128390596748</v>
       </c>
       <c r="Z26" s="1">
         <f t="shared" si="12"/>
-        <v>4.1623036649214598</v>
+        <v>7.4593128390596748</v>
       </c>
       <c r="AA26" s="1">
         <f t="shared" si="13"/>
-        <v>2.9153053531038009</v>
+        <v>0.54690786705932326</v>
       </c>
       <c r="AB26" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1.4466546112115681</v>
       </c>
       <c r="AC26" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5352,38 +5352,38 @@
         <v>NO</v>
       </c>
       <c r="AI26">
-        <v>186.8</v>
+        <v>219.05</v>
       </c>
       <c r="AJ26">
-        <v>193.9</v>
+        <v>222.45</v>
       </c>
       <c r="AK26">
-        <v>184.05</v>
+        <v>218</v>
       </c>
       <c r="AL26">
-        <v>189.65</v>
+        <v>221.25</v>
       </c>
       <c r="AM26">
-        <v>2.7000000000000171</v>
+        <v>5.0500000000000114</v>
       </c>
       <c r="AN26">
-        <v>1.4442364268521091</v>
+        <v>2.335800185013881</v>
       </c>
       <c r="AO26" s="1">
         <f t="shared" si="21"/>
-        <v>1.5256959314775129</v>
+        <v>1.0043369093814145</v>
       </c>
       <c r="AP26" s="1">
         <f t="shared" si="22"/>
-        <v>1.5256959314775129</v>
+        <v>1.0043369093814145</v>
       </c>
       <c r="AQ26" s="1">
         <f t="shared" si="23"/>
-        <v>2.2409702082784073</v>
+        <v>0.54237288135592698</v>
       </c>
       <c r="AR26" s="1">
         <f t="shared" si="24"/>
-        <v>1.4721627408993574</v>
+        <v>0.47934261584113735</v>
       </c>
       <c r="AS26" t="str">
         <f t="shared" si="25"/>
@@ -5399,7 +5399,7 @@
       </c>
       <c r="AV26" t="str">
         <f t="shared" si="28"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AW26" t="str">
         <f t="shared" si="29"/>
@@ -5415,38 +5415,38 @@
         <v>75</v>
       </c>
       <c r="B27">
-        <v>1260</v>
+        <v>1312</v>
       </c>
       <c r="C27">
-        <v>1270</v>
+        <v>1335.05</v>
       </c>
       <c r="D27">
-        <v>1232.7</v>
+        <v>1295</v>
       </c>
       <c r="E27">
-        <v>1239.9000000000001</v>
+        <v>1305.3499999999999</v>
       </c>
       <c r="F27">
-        <v>-22.64999999999986</v>
+        <v>7.1499999999998636</v>
       </c>
       <c r="G27">
-        <v>-1.7939883568967461</v>
+        <v>0.55076259436141295</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="0"/>
-        <v>-1.595238095238088</v>
+        <v>-0.50685975609756795</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="1"/>
-        <v>1.595238095238088</v>
+        <v>0.50685975609756795</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="2"/>
-        <v>0.79365079365079361</v>
+        <v>1.7568597560975576</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="3"/>
-        <v>0.58069199128962379</v>
+        <v>0.79289079557206199</v>
       </c>
       <c r="L27" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5477,38 +5477,38 @@
         <v>NO</v>
       </c>
       <c r="S27">
-        <v>1290</v>
+        <v>1256.0999999999999</v>
       </c>
       <c r="T27">
-        <v>1290</v>
+        <v>1309</v>
       </c>
       <c r="U27">
-        <v>1253.25</v>
+        <v>1254</v>
       </c>
       <c r="V27">
-        <v>1262.55</v>
+        <v>1298.2</v>
       </c>
       <c r="W27">
-        <v>-11.450000000000051</v>
+        <v>44.900000000000091</v>
       </c>
       <c r="X27">
-        <v>-0.89874411302983093</v>
+        <v>3.5825420888853499</v>
       </c>
       <c r="Y27" s="1">
         <f t="shared" si="11"/>
-        <v>-2.1279069767441894</v>
+        <v>3.3516439773903466</v>
       </c>
       <c r="Z27" s="1">
         <f t="shared" si="12"/>
-        <v>2.1279069767441894</v>
+        <v>3.3516439773903466</v>
       </c>
       <c r="AA27" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.83192112155291587</v>
       </c>
       <c r="AB27" s="1">
         <f t="shared" si="14"/>
-        <v>0.73660449091124747</v>
+        <v>0.16718414139000948</v>
       </c>
       <c r="AC27" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5535,38 +5535,38 @@
         <v>NO</v>
       </c>
       <c r="AI27">
-        <v>1279</v>
+        <v>1228</v>
       </c>
       <c r="AJ27">
-        <v>1287.95</v>
+        <v>1274.95</v>
       </c>
       <c r="AK27">
-        <v>1267.2</v>
+        <v>1225</v>
       </c>
       <c r="AL27">
-        <v>1274</v>
+        <v>1253.3</v>
       </c>
       <c r="AM27">
-        <v>-19.099999999999909</v>
+        <v>35.349999999999909</v>
       </c>
       <c r="AN27">
-        <v>-1.4770706055216081</v>
+        <v>2.9024179974547319</v>
       </c>
       <c r="AO27" s="1">
         <f t="shared" si="21"/>
-        <v>-0.39093041438623921</v>
+        <v>2.0602605863192145</v>
       </c>
       <c r="AP27" s="1">
         <f t="shared" si="22"/>
-        <v>0.39093041438623921</v>
+        <v>2.0602605863192145</v>
       </c>
       <c r="AQ27" s="1">
         <f t="shared" si="23"/>
-        <v>0.69976544175137179</v>
+        <v>1.7274395595627619</v>
       </c>
       <c r="AR27" s="1">
         <f t="shared" si="24"/>
-        <v>0.53375196232338729</v>
+        <v>0.24429967426710095</v>
       </c>
       <c r="AS27" t="str">
         <f t="shared" si="25"/>
@@ -5598,38 +5598,38 @@
         <v>76</v>
       </c>
       <c r="B28">
-        <v>423.35</v>
+        <v>443.85</v>
       </c>
       <c r="C28">
-        <v>424.15</v>
+        <v>445</v>
       </c>
       <c r="D28">
-        <v>408.5</v>
+        <v>428.1</v>
       </c>
       <c r="E28">
-        <v>410.35</v>
+        <v>430.35</v>
       </c>
       <c r="F28">
-        <v>-13</v>
+        <v>-8.7999999999999545</v>
       </c>
       <c r="G28">
-        <v>-3.070745246250147</v>
+        <v>-2.0038711146532968</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="0"/>
-        <v>-3.0707452462501474</v>
+        <v>-3.0415680973301789</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" si="1"/>
-        <v>3.0707452462501474</v>
+        <v>3.0415680973301789</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="2"/>
-        <v>0.18896893823076757</v>
+        <v>0.25909654162441753</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="3"/>
-        <v>0.45083465334471129</v>
+        <v>0.52283025444405717</v>
       </c>
       <c r="L28" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5660,38 +5660,38 @@
         <v>NO</v>
       </c>
       <c r="S28">
-        <v>429.5</v>
+        <v>449.4</v>
       </c>
       <c r="T28">
-        <v>434.75</v>
+        <v>452.7</v>
       </c>
       <c r="U28">
-        <v>420.15</v>
+        <v>435.2</v>
       </c>
       <c r="V28">
-        <v>423.35</v>
+        <v>439.15</v>
       </c>
       <c r="W28">
-        <v>-4.8999999999999773</v>
+        <v>-8</v>
       </c>
       <c r="X28">
-        <v>-1.144191476941034</v>
+        <v>-1.7891088001789111</v>
       </c>
       <c r="Y28" s="1">
         <f t="shared" si="11"/>
-        <v>-1.4318975552968516</v>
+        <v>-2.2808188696039164</v>
       </c>
       <c r="Z28" s="1">
         <f t="shared" si="12"/>
-        <v>1.4318975552968516</v>
+        <v>2.2808188696039164</v>
       </c>
       <c r="AA28" s="1">
         <f t="shared" si="13"/>
-        <v>1.2223515715948778</v>
+        <v>0.7343124165554098</v>
       </c>
       <c r="AB28" s="1">
         <f t="shared" si="14"/>
-        <v>0.75587575292312392</v>
+        <v>0.89946487532733443</v>
       </c>
       <c r="AC28" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5718,38 +5718,38 @@
         <v>NO</v>
       </c>
       <c r="AI28">
-        <v>431.9</v>
+        <v>436</v>
       </c>
       <c r="AJ28">
-        <v>433.5</v>
+        <v>450</v>
       </c>
       <c r="AK28">
-        <v>423</v>
+        <v>435.05</v>
       </c>
       <c r="AL28">
-        <v>428.25</v>
+        <v>447.15</v>
       </c>
       <c r="AM28">
-        <v>-2.3999999999999768</v>
+        <v>12.75</v>
       </c>
       <c r="AN28">
-        <v>-0.55729710902124174</v>
+        <v>2.9350828729281768</v>
       </c>
       <c r="AO28" s="1">
         <f t="shared" si="21"/>
-        <v>-0.84510303310951085</v>
+        <v>2.5573394495412796</v>
       </c>
       <c r="AP28" s="1">
         <f t="shared" si="22"/>
-        <v>0.84510303310951085</v>
+        <v>2.5573394495412796</v>
       </c>
       <c r="AQ28" s="1">
         <f t="shared" si="23"/>
-        <v>0.37045612410280687</v>
+        <v>0.63737001006374217</v>
       </c>
       <c r="AR28" s="1">
         <f t="shared" si="24"/>
-        <v>1.2259194395796849</v>
+        <v>0.21788990825687815</v>
       </c>
       <c r="AS28" t="str">
         <f t="shared" si="25"/>
@@ -5781,38 +5781,38 @@
         <v>77</v>
       </c>
       <c r="B29">
-        <v>441.65</v>
+        <v>405.1</v>
       </c>
       <c r="C29">
-        <v>448</v>
+        <v>414</v>
       </c>
       <c r="D29">
-        <v>437</v>
+        <v>402.8</v>
       </c>
       <c r="E29">
-        <v>444.45</v>
+        <v>408.8</v>
       </c>
       <c r="F29">
-        <v>2.3499999999999659</v>
+        <v>5.6500000000000341</v>
       </c>
       <c r="G29">
-        <v>0.53155394707079073</v>
+        <v>1.401463475133333</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="0"/>
-        <v>0.6339861881580463</v>
+        <v>0.91335472722784206</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="1"/>
-        <v>0.6339861881580463</v>
+        <v>0.91335472722784206</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="2"/>
-        <v>0.79874001574980569</v>
+        <v>1.2720156555772966</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="3"/>
-        <v>1.0528699196196032</v>
+        <v>0.5677610466551497</v>
       </c>
       <c r="L29" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5843,38 +5843,38 @@
         <v>NO</v>
       </c>
       <c r="S29">
-        <v>448.9</v>
+        <v>390</v>
       </c>
       <c r="T29">
-        <v>450.8</v>
+        <v>405</v>
       </c>
       <c r="U29">
-        <v>439.2</v>
+        <v>389</v>
       </c>
       <c r="V29">
-        <v>442.1</v>
+        <v>403.15</v>
       </c>
       <c r="W29">
-        <v>-3.049999999999955</v>
+        <v>14.849999999999969</v>
       </c>
       <c r="X29">
-        <v>-0.68516230484105467</v>
+        <v>3.824362606232286</v>
       </c>
       <c r="Y29" s="1">
         <f t="shared" si="11"/>
-        <v>-1.5148139897527189</v>
+        <v>3.3717948717948656</v>
       </c>
       <c r="Z29" s="1">
         <f t="shared" si="12"/>
-        <v>1.5148139897527189</v>
+        <v>3.3717948717948656</v>
       </c>
       <c r="AA29" s="1">
         <f t="shared" si="13"/>
-        <v>0.42325685007797598</v>
+        <v>0.45888627061888199</v>
       </c>
       <c r="AB29" s="1">
         <f t="shared" si="14"/>
-        <v>0.65596019000226957</v>
+        <v>0.25641025641025639</v>
       </c>
       <c r="AC29" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5901,38 +5901,38 @@
         <v>NO</v>
       </c>
       <c r="AI29">
-        <v>443.75</v>
+        <v>393.5</v>
       </c>
       <c r="AJ29">
-        <v>447.55</v>
+        <v>399</v>
       </c>
       <c r="AK29">
-        <v>428.65</v>
+        <v>383.6</v>
       </c>
       <c r="AL29">
-        <v>445.15</v>
+        <v>388.3</v>
       </c>
       <c r="AM29">
-        <v>1.5999999999999659</v>
+        <v>-3.1999999999999891</v>
       </c>
       <c r="AN29">
-        <v>0.36072596099649779</v>
+        <v>-0.81736909323115936</v>
       </c>
       <c r="AO29" s="1">
         <f t="shared" si="21"/>
-        <v>0.31549295774647373</v>
+        <v>-1.321473951715372</v>
       </c>
       <c r="AP29" s="1">
         <f t="shared" si="22"/>
-        <v>0.31549295774647373</v>
+        <v>1.321473951715372</v>
       </c>
       <c r="AQ29" s="1">
         <f t="shared" si="23"/>
-        <v>0.53914410872740293</v>
+        <v>1.3977128335451081</v>
       </c>
       <c r="AR29" s="1">
         <f t="shared" si="24"/>
-        <v>3.4028169014084555</v>
+        <v>1.2104043265516324</v>
       </c>
       <c r="AS29" t="str">
         <f t="shared" si="25"/>
@@ -5964,38 +5964,38 @@
         <v>78</v>
       </c>
       <c r="B30">
-        <v>2736.75</v>
+        <v>3384.85</v>
       </c>
       <c r="C30">
-        <v>2779.15</v>
+        <v>3455</v>
       </c>
       <c r="D30">
-        <v>2736.75</v>
+        <v>3381</v>
       </c>
       <c r="E30">
-        <v>2764.35</v>
+        <v>3434.1</v>
       </c>
       <c r="F30">
-        <v>8.0499999999997272</v>
+        <v>49.25</v>
       </c>
       <c r="G30">
-        <v>0.2920581939556553</v>
+        <v>1.4550127775233761</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="0"/>
-        <v>1.0084954782132056</v>
+        <v>1.4550127775233763</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="1"/>
-        <v>1.0084954782132056</v>
+        <v>1.4550127775233763</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="2"/>
-        <v>0.53538806591061849</v>
+        <v>0.60860196266853306</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.11374211560334754</v>
       </c>
       <c r="L30" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6026,38 +6026,38 @@
         <v>NO</v>
       </c>
       <c r="S30">
-        <v>2738</v>
+        <v>3420</v>
       </c>
       <c r="T30">
-        <v>2812</v>
+        <v>3434.8</v>
       </c>
       <c r="U30">
-        <v>2735.8</v>
+        <v>3343.05</v>
       </c>
       <c r="V30">
-        <v>2756.3</v>
+        <v>3384.85</v>
       </c>
       <c r="W30">
-        <v>8.6500000000000909</v>
+        <v>-1.8499999999999091</v>
       </c>
       <c r="X30">
-        <v>0.31481447782650962</v>
+        <v>-5.4625446599932348E-2</v>
       </c>
       <c r="Y30" s="1">
         <f t="shared" si="11"/>
-        <v>0.66837107377648586</v>
+        <v>-1.0277777777777803</v>
       </c>
       <c r="Z30" s="1">
         <f t="shared" si="12"/>
-        <v>0.66837107377648586</v>
+        <v>1.0277777777777803</v>
       </c>
       <c r="AA30" s="1">
         <f t="shared" si="13"/>
-        <v>2.0208250190472667</v>
+        <v>0.43274853801170121</v>
       </c>
       <c r="AB30" s="1">
         <f t="shared" si="14"/>
-        <v>8.0350620891154786E-2</v>
+        <v>1.234914397979223</v>
       </c>
       <c r="AC30" s="1" t="str">
         <f t="shared" si="15"/>
@@ -6084,38 +6084,38 @@
         <v>NO</v>
       </c>
       <c r="AI30">
-        <v>2712.05</v>
+        <v>3293</v>
       </c>
       <c r="AJ30">
-        <v>2818</v>
+        <v>3430</v>
       </c>
       <c r="AK30">
-        <v>2660</v>
+        <v>3240.25</v>
       </c>
       <c r="AL30">
-        <v>2747.65</v>
+        <v>3386.7</v>
       </c>
       <c r="AM30">
-        <v>35.599999999999909</v>
+        <v>107</v>
       </c>
       <c r="AN30">
-        <v>1.3126601648199669</v>
+        <v>3.262493520748849</v>
       </c>
       <c r="AO30" s="1">
         <f t="shared" si="21"/>
-        <v>1.3126601648199667</v>
+        <v>2.8454296993622781</v>
       </c>
       <c r="AP30" s="1">
         <f t="shared" si="22"/>
-        <v>1.3126601648199667</v>
+        <v>2.8454296993622781</v>
       </c>
       <c r="AQ30" s="1">
         <f t="shared" si="23"/>
-        <v>2.5603697705311781</v>
+        <v>1.2785307231228094</v>
       </c>
       <c r="AR30" s="1">
         <f t="shared" si="24"/>
-        <v>1.9192124039011147</v>
+        <v>1.6018827816580625</v>
       </c>
       <c r="AS30" t="str">
         <f t="shared" si="25"/>
@@ -6147,38 +6147,38 @@
         <v>79</v>
       </c>
       <c r="B31">
-        <v>1026</v>
+        <v>1300</v>
       </c>
       <c r="C31">
-        <v>1032.95</v>
+        <v>1328.35</v>
       </c>
       <c r="D31">
-        <v>998.2</v>
+        <v>1290</v>
       </c>
       <c r="E31">
-        <v>1009.1</v>
+        <v>1321.15</v>
       </c>
       <c r="F31">
-        <v>-19.449999999999928</v>
+        <v>26.700000000000049</v>
       </c>
       <c r="G31">
-        <v>-1.8910116182975969</v>
+        <v>2.0626520916219282</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="0"/>
-        <v>-1.6471734892787502</v>
+        <v>1.6269230769230838</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="1"/>
-        <v>1.6471734892787502</v>
+        <v>1.6269230769230838</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="2"/>
-        <v>0.67738791423002398</v>
+        <v>0.54497975248834862</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="3"/>
-        <v>1.0801704489148725</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="L31" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6209,38 +6209,38 @@
         <v>NO</v>
       </c>
       <c r="S31">
-        <v>1048</v>
+        <v>1265</v>
       </c>
       <c r="T31">
-        <v>1062</v>
+        <v>1301</v>
       </c>
       <c r="U31">
-        <v>1022.7</v>
+        <v>1238</v>
       </c>
       <c r="V31">
-        <v>1028.55</v>
+        <v>1294.45</v>
       </c>
       <c r="W31">
-        <v>-16.400000000000091</v>
+        <v>36.5</v>
       </c>
       <c r="X31">
-        <v>-1.5694530838796199</v>
+        <v>2.9015461663818121</v>
       </c>
       <c r="Y31" s="1">
         <f t="shared" si="11"/>
-        <v>-1.8559160305343554</v>
+        <v>2.3280632411067232</v>
       </c>
       <c r="Z31" s="1">
         <f t="shared" si="12"/>
-        <v>1.8559160305343554</v>
+        <v>2.3280632411067232</v>
       </c>
       <c r="AA31" s="1">
         <f t="shared" si="13"/>
-        <v>1.3358778625954197</v>
+        <v>0.50600641198964458</v>
       </c>
       <c r="AB31" s="1">
         <f t="shared" si="14"/>
-        <v>0.56876184920518291</v>
+        <v>2.1343873517786562</v>
       </c>
       <c r="AC31" s="1" t="str">
         <f t="shared" si="15"/>
@@ -6267,38 +6267,38 @@
         <v>NO</v>
       </c>
       <c r="AI31">
-        <v>1055</v>
+        <v>1259.9000000000001</v>
       </c>
       <c r="AJ31">
-        <v>1068</v>
+        <v>1284.8499999999999</v>
       </c>
       <c r="AK31">
-        <v>1037.05</v>
+        <v>1250</v>
       </c>
       <c r="AL31">
-        <v>1044.95</v>
+        <v>1257.95</v>
       </c>
       <c r="AM31">
-        <v>-17.549999999999951</v>
+        <v>9.4500000000000455</v>
       </c>
       <c r="AN31">
-        <v>-1.651764705882349</v>
+        <v>0.75690828994794113</v>
       </c>
       <c r="AO31" s="1">
         <f t="shared" si="21"/>
-        <v>-0.95260663507108578</v>
+        <v>-0.15477418842765658</v>
       </c>
       <c r="AP31" s="1">
         <f t="shared" si="22"/>
-        <v>0.95260663507108578</v>
+        <v>0.15477418842765658</v>
       </c>
       <c r="AQ31" s="1">
         <f t="shared" si="23"/>
-        <v>1.2322274881516588</v>
+        <v>1.9803158980871352</v>
       </c>
       <c r="AR31" s="1">
         <f t="shared" si="24"/>
-        <v>0.75601703430787037</v>
+        <v>0.63198060336261741</v>
       </c>
       <c r="AS31" t="str">
         <f t="shared" si="25"/>
@@ -6330,38 +6330,38 @@
         <v>80</v>
       </c>
       <c r="B32">
-        <v>926.75</v>
+        <v>972.95</v>
       </c>
       <c r="C32">
-        <v>935.95</v>
+        <v>972.95</v>
       </c>
       <c r="D32">
-        <v>919</v>
+        <v>958</v>
       </c>
       <c r="E32">
-        <v>924.6</v>
+        <v>968</v>
       </c>
       <c r="F32">
-        <v>-2.1499999999999768</v>
+        <v>0.35000000000002268</v>
       </c>
       <c r="G32">
-        <v>-0.2319935257620693</v>
+        <v>3.6170102826437532E-2</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="0"/>
-        <v>-0.2319935257620693</v>
+        <v>-0.50876201243640939</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" si="1"/>
-        <v>0.2319935257620693</v>
+        <v>0.50876201243640939</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="2"/>
-        <v>0.99271648233073051</v>
+        <v>0</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="3"/>
-        <v>0.6056673155959359</v>
+        <v>1.0330578512396695</v>
       </c>
       <c r="L32" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6392,38 +6392,38 @@
         <v>NO</v>
       </c>
       <c r="S32">
-        <v>936</v>
+        <v>959.95</v>
       </c>
       <c r="T32">
-        <v>943.7</v>
+        <v>973</v>
       </c>
       <c r="U32">
-        <v>922</v>
+        <v>952.4</v>
       </c>
       <c r="V32">
-        <v>926.75</v>
+        <v>967.65</v>
       </c>
       <c r="W32">
-        <v>-8.5</v>
+        <v>5.1499999999999773</v>
       </c>
       <c r="X32">
-        <v>-0.90884790163058005</v>
+        <v>0.53506493506493269</v>
       </c>
       <c r="Y32" s="1">
         <f t="shared" si="11"/>
-        <v>-0.98824786324786318</v>
+        <v>0.80212511068284087</v>
       </c>
       <c r="Z32" s="1">
         <f t="shared" si="12"/>
-        <v>0.98824786324786318</v>
+        <v>0.80212511068284087</v>
       </c>
       <c r="AA32" s="1">
         <f t="shared" si="13"/>
-        <v>0.8226495726495775</v>
+        <v>0.55288585748979724</v>
       </c>
       <c r="AB32" s="1">
         <f t="shared" si="14"/>
-        <v>0.51254383598597253</v>
+        <v>0.78649929683838415</v>
       </c>
       <c r="AC32" s="1" t="str">
         <f t="shared" si="15"/>
@@ -6450,38 +6450,38 @@
         <v>NO</v>
       </c>
       <c r="AI32">
-        <v>924.85</v>
+        <v>942.5</v>
       </c>
       <c r="AJ32">
-        <v>946.3</v>
+        <v>966</v>
       </c>
       <c r="AK32">
-        <v>921.4</v>
+        <v>935.55</v>
       </c>
       <c r="AL32">
-        <v>935.25</v>
+        <v>962.5</v>
       </c>
       <c r="AM32">
-        <v>13.850000000000019</v>
+        <v>21.399999999999981</v>
       </c>
       <c r="AN32">
-        <v>1.5031473844150229</v>
+        <v>2.2739347571990201</v>
       </c>
       <c r="AO32" s="1">
         <f t="shared" si="21"/>
-        <v>1.1245066767583907</v>
+        <v>2.1220159151193632</v>
       </c>
       <c r="AP32" s="1">
         <f t="shared" si="22"/>
-        <v>1.1245066767583907</v>
+        <v>2.1220159151193632</v>
       </c>
       <c r="AQ32" s="1">
         <f t="shared" si="23"/>
-        <v>1.1815022721197492</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="AR32" s="1">
         <f t="shared" si="24"/>
-        <v>0.37303346488620265</v>
+        <v>0.73740053050398358</v>
       </c>
       <c r="AS32" t="str">
         <f t="shared" si="25"/>
@@ -6513,38 +6513,38 @@
         <v>81</v>
       </c>
       <c r="B33">
-        <v>347.5</v>
+        <v>367.4</v>
       </c>
       <c r="C33">
-        <v>350</v>
+        <v>371.7</v>
       </c>
       <c r="D33">
-        <v>344.5</v>
+        <v>365.8</v>
       </c>
       <c r="E33">
-        <v>346</v>
+        <v>370.55</v>
       </c>
       <c r="F33">
-        <v>1.600000000000023</v>
+        <v>3.8500000000000232</v>
       </c>
       <c r="G33">
-        <v>0.46457607433217851</v>
+        <v>1.0499045541314489</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="0"/>
-        <v>-0.43165467625899279</v>
+        <v>0.85737615677736367</v>
       </c>
       <c r="I33" s="1">
         <f t="shared" si="1"/>
-        <v>0.43165467625899279</v>
+        <v>0.85737615677736367</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" si="2"/>
-        <v>0.71942446043165476</v>
+        <v>0.31034948050195044</v>
       </c>
       <c r="K33" s="1">
         <f t="shared" si="3"/>
-        <v>0.43352601156069359</v>
+        <v>0.43549265106150409</v>
       </c>
       <c r="L33" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6575,38 +6575,38 @@
         <v>NO</v>
       </c>
       <c r="S33">
-        <v>345</v>
+        <v>362.35</v>
       </c>
       <c r="T33">
-        <v>346.3</v>
+        <v>367.95</v>
       </c>
       <c r="U33">
-        <v>342</v>
+        <v>362.3</v>
       </c>
       <c r="V33">
-        <v>344.4</v>
+        <v>366.7</v>
       </c>
       <c r="W33">
-        <v>2.75</v>
+        <v>3.3999999999999768</v>
       </c>
       <c r="X33">
-        <v>0.80491731303966052</v>
+        <v>0.93586567575006252</v>
       </c>
       <c r="Y33" s="1">
         <f t="shared" si="11"/>
-        <v>-0.17391304347826747</v>
+        <v>1.2004967572788645</v>
       </c>
       <c r="Z33" s="1">
         <f t="shared" si="12"/>
-        <v>0.17391304347826747</v>
+        <v>1.2004967572788645</v>
       </c>
       <c r="AA33" s="1">
         <f t="shared" si="13"/>
-        <v>0.37681159420290183</v>
+        <v>0.3408781019907281</v>
       </c>
       <c r="AB33" s="1">
         <f t="shared" si="14"/>
-        <v>0.69686411149825123</v>
+        <v>1.3798813302059161E-2</v>
       </c>
       <c r="AC33" s="1" t="str">
         <f t="shared" si="15"/>
@@ -6633,38 +6633,38 @@
         <v>NO</v>
       </c>
       <c r="AI33">
-        <v>338.75</v>
+        <v>365.8</v>
       </c>
       <c r="AJ33">
-        <v>343.7</v>
+        <v>367.65</v>
       </c>
       <c r="AK33">
-        <v>337</v>
+        <v>360.2</v>
       </c>
       <c r="AL33">
-        <v>341.65</v>
+        <v>363.3</v>
       </c>
       <c r="AM33">
-        <v>2.8999999999999768</v>
+        <v>-0.69999999999998863</v>
       </c>
       <c r="AN33">
-        <v>0.85608856088560215</v>
+        <v>-0.19230769230768921</v>
       </c>
       <c r="AO33" s="1">
         <f t="shared" si="21"/>
-        <v>0.85608856088560215</v>
+        <v>-0.68343357025697105</v>
       </c>
       <c r="AP33" s="1">
         <f t="shared" si="22"/>
-        <v>0.85608856088560215</v>
+        <v>0.68343357025697105</v>
       </c>
       <c r="AQ33" s="1">
         <f t="shared" si="23"/>
-        <v>0.60002926972047754</v>
+        <v>0.50574084199014924</v>
       </c>
       <c r="AR33" s="1">
         <f t="shared" si="24"/>
-        <v>0.51660516605166051</v>
+        <v>0.85328929259565722</v>
       </c>
       <c r="AS33" t="str">
         <f t="shared" si="25"/>
@@ -6696,42 +6696,42 @@
         <v>82</v>
       </c>
       <c r="B34">
-        <v>95.5</v>
+        <v>112.5</v>
       </c>
       <c r="C34">
-        <v>96.1</v>
+        <v>119.5</v>
       </c>
       <c r="D34">
-        <v>92.65</v>
+        <v>112.5</v>
       </c>
       <c r="E34">
-        <v>95.3</v>
+        <v>116.35</v>
       </c>
       <c r="F34">
-        <v>-0.70000000000000284</v>
+        <v>4.1499999999999906</v>
       </c>
       <c r="G34">
-        <v>-0.72916666666666963</v>
+        <v>3.6987522281639849</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" ref="H34:H51" si="31">(E34-B34)/B34*100</f>
-        <v>-0.20942408376963648</v>
+        <v>3.4222222222222176</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" ref="I34:I65" si="32">ABS(H34)</f>
-        <v>0.20942408376963648</v>
+        <v>3.4222222222222176</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" ref="J34:J51" si="33">IF(H34&gt;=0,(C34-E34)/E34*100,(C34-B34)/B34*100)</f>
-        <v>0.62827225130889452</v>
+        <v>2.7073485174043883</v>
       </c>
       <c r="K34" s="1">
         <f t="shared" ref="K34:K51" si="34">IF(H34&gt;=0,(B34-D34)/B34*100,(E34-D34)/E34*100)</f>
-        <v>2.7806925498425934</v>
+        <v>0</v>
       </c>
       <c r="L34" s="1" t="str">
         <f t="shared" ref="L34:L65" si="35">IF(AND((K34-J34)&gt;1.5,I34&lt;0.5),"YES","NO")</f>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="M34" t="str">
         <f t="shared" ref="M34:M51" si="36">IF(AND((K34-J34)&gt;1.5,I34&lt;2,I34&gt;0.5),"YES","NO")</f>
@@ -6758,38 +6758,38 @@
         <v>NO</v>
       </c>
       <c r="S34">
-        <v>97.25</v>
+        <v>112.25</v>
       </c>
       <c r="T34">
-        <v>98.25</v>
+        <v>113.25</v>
       </c>
       <c r="U34">
-        <v>95.8</v>
+        <v>110.85</v>
       </c>
       <c r="V34">
-        <v>96</v>
+        <v>112.2</v>
       </c>
       <c r="W34">
-        <v>-4.9999999999997158E-2</v>
+        <v>0.54999999999999716</v>
       </c>
       <c r="X34">
-        <v>-5.2056220718372882E-2</v>
+        <v>0.49261083743842099</v>
       </c>
       <c r="Y34" s="1">
         <f t="shared" ref="Y34:Y51" si="42">(V34-S34)/S34*100</f>
-        <v>-1.2853470437017995</v>
+        <v>-4.4543429844095463E-2</v>
       </c>
       <c r="Z34" s="1">
         <f t="shared" ref="Z34:Z65" si="43">ABS(Y34)</f>
-        <v>1.2853470437017995</v>
+        <v>4.4543429844095463E-2</v>
       </c>
       <c r="AA34" s="1">
         <f t="shared" ref="AA34:AA51" si="44">IF(Y34&gt;=0,(T34-V34)/V34*100,(T34-S34)/S34*100)</f>
-        <v>1.0282776349614395</v>
+        <v>0.89086859688195985</v>
       </c>
       <c r="AB34" s="1">
         <f t="shared" ref="AB34:AB51" si="45">IF(Y34&gt;=0,(S34-U34)/S34*100,(V34-U34)/V34*100)</f>
-        <v>0.20833333333333628</v>
+        <v>1.2032085561497401</v>
       </c>
       <c r="AC34" s="1" t="str">
         <f t="shared" ref="AC34:AC51" si="46">IF(AND(I34&lt;Z34/2,S34&gt;E34,E34&gt;(S34+V34)/2,V34&lt;B34,B34&lt;(S34+V34)/2),"YES","NO")</f>
@@ -6816,38 +6816,38 @@
         <v>NO</v>
       </c>
       <c r="AI34">
-        <v>94.9</v>
+        <v>110.5</v>
       </c>
       <c r="AJ34">
-        <v>97</v>
+        <v>112.75</v>
       </c>
       <c r="AK34">
-        <v>93.3</v>
+        <v>109.9</v>
       </c>
       <c r="AL34">
-        <v>96.05</v>
+        <v>111.65</v>
       </c>
       <c r="AM34">
-        <v>0.34999999999999432</v>
+        <v>1.850000000000009</v>
       </c>
       <c r="AN34">
-        <v>0.36572622779518732</v>
+        <v>1.6848816029143969</v>
       </c>
       <c r="AO34" s="1">
         <f t="shared" ref="AO34:AO51" si="52">(AL34-AI34)/AI34*100</f>
-        <v>1.2118018967333946</v>
+        <v>1.0407239819004577</v>
       </c>
       <c r="AP34" s="1">
         <f t="shared" ref="AP34:AP65" si="53">ABS(AO34)</f>
-        <v>1.2118018967333946</v>
+        <v>1.0407239819004577</v>
       </c>
       <c r="AQ34" s="1">
         <f t="shared" ref="AQ34:AQ51" si="54">IF(AO34&gt;=0,(AJ34-AL34)/AL34*100,(AJ34-AI34)/AI34*100)</f>
-        <v>0.989068193649144</v>
+        <v>0.98522167487684209</v>
       </c>
       <c r="AR34" s="1">
         <f t="shared" ref="AR34:AR51" si="55">IF(AO34&gt;=0,(AI34-AK34)/AI34*100,(AL34-AK34)/AL34*100)</f>
-        <v>1.6859852476290922</v>
+        <v>0.54298642533936137</v>
       </c>
       <c r="AS34" t="str">
         <f t="shared" ref="AS34:AS51" si="56">IF(AND(AO34&lt;0,AP34&gt;1.5,Y34&lt;0,Z34&gt;1.5,AL34&gt;S34,AL34&lt;E34,H34&gt;0,I34&gt;1.5),"YES","NO")</f>
@@ -6879,38 +6879,38 @@
         <v>83</v>
       </c>
       <c r="B35">
-        <v>1088</v>
+        <v>1138</v>
       </c>
       <c r="C35">
-        <v>1112</v>
+        <v>1146.8499999999999</v>
       </c>
       <c r="D35">
-        <v>1071</v>
+        <v>1113.4000000000001</v>
       </c>
       <c r="E35">
-        <v>1085.05</v>
+        <v>1123.45</v>
       </c>
       <c r="F35">
-        <v>-4.9500000000000446</v>
+        <v>-5.0499999999999554</v>
       </c>
       <c r="G35">
-        <v>-0.45412844036697658</v>
+        <v>-0.44749667700486973</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="31"/>
-        <v>-0.27113970588235714</v>
+        <v>-1.2785588752196797</v>
       </c>
       <c r="I35" s="1">
         <f t="shared" si="32"/>
-        <v>0.27113970588235714</v>
+        <v>1.2785588752196797</v>
       </c>
       <c r="J35" s="1">
         <f t="shared" si="33"/>
-        <v>2.2058823529411766</v>
+        <v>0.77768014059753154</v>
       </c>
       <c r="K35" s="1">
         <f t="shared" si="34"/>
-        <v>1.2948712040919732</v>
+        <v>0.89456584627708879</v>
       </c>
       <c r="L35" s="1" t="str">
         <f t="shared" si="35"/>
@@ -6941,38 +6941,38 @@
         <v>NO</v>
       </c>
       <c r="S35">
-        <v>1094.8</v>
+        <v>1088</v>
       </c>
       <c r="T35">
-        <v>1139.8499999999999</v>
+        <v>1134</v>
       </c>
       <c r="U35">
-        <v>1080.55</v>
+        <v>1088</v>
       </c>
       <c r="V35">
-        <v>1090</v>
+        <v>1128.5</v>
       </c>
       <c r="W35">
-        <v>-14.799999999999949</v>
+        <v>29</v>
       </c>
       <c r="X35">
-        <v>-1.33960897900072</v>
+        <v>2.6375625284220101</v>
       </c>
       <c r="Y35" s="1">
         <f t="shared" si="42"/>
-        <v>-0.43843624406283838</v>
+        <v>3.7224264705882351</v>
       </c>
       <c r="Z35" s="1">
         <f t="shared" si="43"/>
-        <v>0.43843624406283838</v>
+        <v>3.7224264705882351</v>
       </c>
       <c r="AA35" s="1">
         <f t="shared" si="44"/>
-        <v>4.114906832298133</v>
+        <v>0.48737261852015945</v>
       </c>
       <c r="AB35" s="1">
         <f t="shared" si="45"/>
-        <v>0.86697247706422431</v>
+        <v>0</v>
       </c>
       <c r="AC35" s="1" t="str">
         <f t="shared" si="46"/>
@@ -6999,38 +6999,38 @@
         <v>NO</v>
       </c>
       <c r="AI35">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="AJ35">
-        <v>1124.95</v>
+        <v>1113</v>
       </c>
       <c r="AK35">
-        <v>1092.2</v>
+        <v>1080.3499999999999</v>
       </c>
       <c r="AL35">
-        <v>1104.8</v>
+        <v>1099.5</v>
       </c>
       <c r="AM35">
-        <v>-7.9500000000000446</v>
+        <v>6.0499999999999554</v>
       </c>
       <c r="AN35">
-        <v>-0.7144461918670002</v>
+        <v>0.55329461795234847</v>
       </c>
       <c r="AO35" s="1">
         <f t="shared" si="52"/>
-        <v>-0.55805580558056211</v>
+        <v>-0.94594594594594605</v>
       </c>
       <c r="AP35" s="1">
         <f t="shared" si="53"/>
-        <v>0.55805580558056211</v>
+        <v>0.94594594594594605</v>
       </c>
       <c r="AQ35" s="1">
         <f t="shared" si="54"/>
-        <v>1.2556255625562598</v>
+        <v>0.27027027027027029</v>
       </c>
       <c r="AR35" s="1">
         <f t="shared" si="55"/>
-        <v>1.1404779145546624</v>
+        <v>1.7417007730786804</v>
       </c>
       <c r="AS35" t="str">
         <f t="shared" si="56"/>
@@ -7062,38 +7062,38 @@
         <v>84</v>
       </c>
       <c r="B36">
-        <v>20.45</v>
+        <v>20.65</v>
       </c>
       <c r="C36">
+        <v>20.9</v>
+      </c>
+      <c r="D36">
+        <v>20.6</v>
+      </c>
+      <c r="E36">
         <v>20.7</v>
       </c>
-      <c r="D36">
-        <v>20.149999999999999</v>
-      </c>
-      <c r="E36">
-        <v>20.2</v>
-      </c>
       <c r="F36">
-        <v>-0.65000000000000213</v>
+        <v>0.14999999999999861</v>
       </c>
       <c r="G36">
-        <v>-3.1175059952038469</v>
+        <v>0.72992700729926308</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="31"/>
-        <v>-1.2224938875305624</v>
+        <v>0.24213075060533032</v>
       </c>
       <c r="I36" s="1">
         <f t="shared" si="32"/>
-        <v>1.2224938875305624</v>
+        <v>0.24213075060533032</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" si="33"/>
-        <v>1.2224938875305624</v>
+        <v>0.96618357487922368</v>
       </c>
       <c r="K36" s="1">
         <f t="shared" si="34"/>
-        <v>0.24752475247525105</v>
+        <v>0.24213075060531314</v>
       </c>
       <c r="L36" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7124,38 +7124,38 @@
         <v>NO</v>
       </c>
       <c r="S36">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="T36">
-        <v>20.9</v>
+        <v>20.75</v>
       </c>
       <c r="U36">
-        <v>20.45</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="V36">
-        <v>20.85</v>
+        <v>20.55</v>
       </c>
       <c r="W36">
-        <v>0.55000000000000071</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>2.7093596059113332</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="1">
         <f t="shared" si="42"/>
-        <v>1.2135922330097086</v>
+        <v>-0.7246376811594134</v>
       </c>
       <c r="Z36" s="1">
         <f t="shared" si="43"/>
-        <v>1.2135922330097086</v>
+        <v>0.7246376811594134</v>
       </c>
       <c r="AA36" s="1">
         <f t="shared" si="44"/>
-        <v>0.23980815347720458</v>
+        <v>0.24154589371981022</v>
       </c>
       <c r="AB36" s="1">
         <f t="shared" si="45"/>
-        <v>0.72815533980583547</v>
+        <v>0.72992700729928051</v>
       </c>
       <c r="AC36" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7182,38 +7182,38 @@
         <v>NO</v>
       </c>
       <c r="AI36">
-        <v>20.6</v>
+        <v>20.85</v>
       </c>
       <c r="AJ36">
-        <v>20.8</v>
+        <v>21.05</v>
       </c>
       <c r="AK36">
-        <v>20</v>
+        <v>20.55</v>
       </c>
       <c r="AL36">
-        <v>20.3</v>
+        <v>20.55</v>
       </c>
       <c r="AM36">
-        <v>-0.25</v>
+        <v>-0.14999999999999861</v>
       </c>
       <c r="AN36">
-        <v>-1.21654501216545</v>
+        <v>-0.7246376811594134</v>
       </c>
       <c r="AO36" s="1">
         <f t="shared" si="52"/>
-        <v>-1.4563106796116538</v>
+        <v>-1.4388489208633126</v>
       </c>
       <c r="AP36" s="1">
         <f t="shared" si="53"/>
-        <v>1.4563106796116538</v>
+        <v>1.4388489208633126</v>
       </c>
       <c r="AQ36" s="1">
         <f t="shared" si="54"/>
-        <v>0.97087378640776345</v>
+        <v>0.95923261390886938</v>
       </c>
       <c r="AR36" s="1">
         <f t="shared" si="55"/>
-        <v>1.4778325123152742</v>
+        <v>0</v>
       </c>
       <c r="AS36" t="str">
         <f t="shared" si="56"/>
@@ -7245,38 +7245,38 @@
         <v>85</v>
       </c>
       <c r="B37">
-        <v>83.75</v>
+        <v>91</v>
       </c>
       <c r="C37">
-        <v>84.1</v>
+        <v>91.55</v>
       </c>
       <c r="D37">
-        <v>79.599999999999994</v>
+        <v>89.2</v>
       </c>
       <c r="E37">
-        <v>81</v>
+        <v>89.65</v>
       </c>
       <c r="F37">
-        <v>-3.1500000000000061</v>
+        <v>-0.1499999999999915</v>
       </c>
       <c r="G37">
-        <v>-3.7433155080213969</v>
+        <v>-0.16703786191535799</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="31"/>
-        <v>-3.2835820895522385</v>
+        <v>-1.4835164835164771</v>
       </c>
       <c r="I37" s="1">
         <f t="shared" si="32"/>
-        <v>3.2835820895522385</v>
+        <v>1.4835164835164771</v>
       </c>
       <c r="J37" s="1">
         <f t="shared" si="33"/>
-        <v>0.41791044776118724</v>
+        <v>0.60439560439560125</v>
       </c>
       <c r="K37" s="1">
         <f t="shared" si="34"/>
-        <v>1.7283950617284023</v>
+        <v>0.50195203569437019</v>
       </c>
       <c r="L37" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7307,38 +7307,38 @@
         <v>NO</v>
       </c>
       <c r="S37">
-        <v>86</v>
+        <v>89.55</v>
       </c>
       <c r="T37">
-        <v>86.4</v>
+        <v>90.6</v>
       </c>
       <c r="U37">
-        <v>83.5</v>
+        <v>88.75</v>
       </c>
       <c r="V37">
-        <v>84.15</v>
+        <v>89.8</v>
       </c>
       <c r="W37">
-        <v>-9.9999999999994316E-2</v>
+        <v>0.29999999999999721</v>
       </c>
       <c r="X37">
-        <v>-0.1186943620177974</v>
+        <v>0.3351955307262538</v>
       </c>
       <c r="Y37" s="1">
         <f t="shared" si="42"/>
-        <v>-2.151162790697668</v>
+        <v>0.27917364600781686</v>
       </c>
       <c r="Z37" s="1">
         <f t="shared" si="43"/>
-        <v>2.151162790697668</v>
+        <v>0.27917364600781686</v>
       </c>
       <c r="AA37" s="1">
         <f t="shared" si="44"/>
-        <v>0.46511627906977404</v>
+        <v>0.89086859688195674</v>
       </c>
       <c r="AB37" s="1">
         <f t="shared" si="45"/>
-        <v>0.77243018419489673</v>
+        <v>0.89335566722501081</v>
       </c>
       <c r="AC37" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7365,38 +7365,38 @@
         <v>NO</v>
       </c>
       <c r="AI37">
-        <v>85.45</v>
+        <v>92.15</v>
       </c>
       <c r="AJ37">
-        <v>86.85</v>
+        <v>92.75</v>
       </c>
       <c r="AK37">
-        <v>83.3</v>
+        <v>88.35</v>
       </c>
       <c r="AL37">
-        <v>84.25</v>
+        <v>89.5</v>
       </c>
       <c r="AM37">
-        <v>-3</v>
+        <v>-2.2000000000000028</v>
       </c>
       <c r="AN37">
-        <v>-3.43839541547278</v>
+        <v>-2.3991275899672879</v>
       </c>
       <c r="AO37" s="1">
         <f t="shared" si="52"/>
-        <v>-1.4043300175541285</v>
+        <v>-2.8757460661964251</v>
       </c>
       <c r="AP37" s="1">
         <f t="shared" si="53"/>
-        <v>1.4043300175541285</v>
+        <v>2.8757460661964251</v>
       </c>
       <c r="AQ37" s="1">
         <f t="shared" si="54"/>
-        <v>1.6383850204798027</v>
+        <v>0.65111231687465465</v>
       </c>
       <c r="AR37" s="1">
         <f t="shared" si="55"/>
-        <v>1.1275964391691429</v>
+        <v>1.2849162011173247</v>
       </c>
       <c r="AS37" t="str">
         <f t="shared" si="56"/>
@@ -7428,38 +7428,38 @@
         <v>86</v>
       </c>
       <c r="B38">
-        <v>2727.95</v>
+        <v>2965</v>
       </c>
       <c r="C38">
-        <v>2894.95</v>
+        <v>3040.8</v>
       </c>
       <c r="D38">
-        <v>2706.7</v>
+        <v>2961</v>
       </c>
       <c r="E38">
-        <v>2851</v>
+        <v>2988.2</v>
       </c>
       <c r="F38">
-        <v>113.75</v>
+        <v>81.599999999999909</v>
       </c>
       <c r="G38">
-        <v>4.1556306512010224</v>
+        <v>2.8074038395376011</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" si="31"/>
-        <v>4.5107131728954046</v>
+        <v>0.78246205733557561</v>
       </c>
       <c r="I38" s="1">
         <f t="shared" si="32"/>
-        <v>4.5107131728954046</v>
+        <v>0.78246205733557561</v>
       </c>
       <c r="J38" s="1">
         <f t="shared" si="33"/>
-        <v>1.5415643633812635</v>
+        <v>1.7602570109095901</v>
       </c>
       <c r="K38" s="1">
         <f t="shared" si="34"/>
-        <v>0.77897322164995697</v>
+        <v>0.13490725126475547</v>
       </c>
       <c r="L38" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7475,7 +7475,7 @@
       </c>
       <c r="O38" s="1" t="str">
         <f t="shared" si="38"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="P38" s="1" t="str">
         <f t="shared" si="39"/>
@@ -7490,38 +7490,38 @@
         <v>NO</v>
       </c>
       <c r="S38">
-        <v>2700</v>
+        <v>2941</v>
       </c>
       <c r="T38">
-        <v>2790.3</v>
+        <v>2970</v>
       </c>
       <c r="U38">
-        <v>2700</v>
+        <v>2881.05</v>
       </c>
       <c r="V38">
-        <v>2737.25</v>
+        <v>2906.6</v>
       </c>
       <c r="W38">
-        <v>74.349999999999909</v>
+        <v>-23.150000000000091</v>
       </c>
       <c r="X38">
-        <v>2.792068797176007</v>
+        <v>-0.79016980971072925</v>
       </c>
       <c r="Y38" s="1">
         <f t="shared" si="42"/>
-        <v>1.3796296296296295</v>
+        <v>-1.1696701802108158</v>
       </c>
       <c r="Z38" s="1">
         <f t="shared" si="43"/>
-        <v>1.3796296296296295</v>
+        <v>1.1696701802108158</v>
       </c>
       <c r="AA38" s="1">
         <f t="shared" si="44"/>
-        <v>1.9380765366700219</v>
+        <v>0.98605916354981304</v>
       </c>
       <c r="AB38" s="1">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>0.87903392279638504</v>
       </c>
       <c r="AC38" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7548,38 +7548,38 @@
         <v>NO</v>
       </c>
       <c r="AI38">
-        <v>2704</v>
+        <v>2928</v>
       </c>
       <c r="AJ38">
-        <v>2749.1</v>
+        <v>2999.9</v>
       </c>
       <c r="AK38">
-        <v>2635.05</v>
+        <v>2920</v>
       </c>
       <c r="AL38">
-        <v>2662.9</v>
+        <v>2929.75</v>
       </c>
       <c r="AM38">
-        <v>-47.650000000000091</v>
+        <v>6.9499999999998181</v>
       </c>
       <c r="AN38">
-        <v>-1.7579458043570519</v>
+        <v>0.23778568495962149</v>
       </c>
       <c r="AO38" s="1">
         <f t="shared" si="52"/>
-        <v>-1.5199704142011801</v>
+        <v>5.9767759562841534E-2</v>
       </c>
       <c r="AP38" s="1">
         <f t="shared" si="53"/>
-        <v>1.5199704142011801</v>
+        <v>5.9767759562841534E-2</v>
       </c>
       <c r="AQ38" s="1">
         <f t="shared" si="54"/>
-        <v>1.6678994082840202</v>
+        <v>2.3944022527519442</v>
       </c>
       <c r="AR38" s="1">
         <f t="shared" si="55"/>
-        <v>1.0458522663261824</v>
+        <v>0.27322404371584702</v>
       </c>
       <c r="AS38" t="str">
         <f t="shared" si="56"/>
@@ -7611,38 +7611,38 @@
         <v>87</v>
       </c>
       <c r="B39">
-        <v>20129.05</v>
+        <v>18550</v>
       </c>
       <c r="C39">
-        <v>20248.900000000001</v>
+        <v>19749</v>
       </c>
       <c r="D39">
-        <v>19844</v>
+        <v>18550</v>
       </c>
       <c r="E39">
-        <v>20105.5</v>
+        <v>19148.75</v>
       </c>
       <c r="F39">
-        <v>-23.549999999999269</v>
+        <v>708</v>
       </c>
       <c r="G39">
-        <v>-0.11699508918701711</v>
+        <v>3.83932323793772</v>
       </c>
       <c r="H39" s="1">
         <f t="shared" si="31"/>
-        <v>-0.11699508918701713</v>
+        <v>3.2277628032345009</v>
       </c>
       <c r="I39" s="1">
         <f t="shared" si="32"/>
-        <v>0.11699508918701713</v>
+        <v>3.2277628032345009</v>
       </c>
       <c r="J39" s="1">
         <f t="shared" si="33"/>
-        <v>0.59540812904733298</v>
+        <v>3.1346693648410473</v>
       </c>
       <c r="K39" s="1">
         <f t="shared" si="34"/>
-        <v>1.3006391285966528</v>
+        <v>0</v>
       </c>
       <c r="L39" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7673,38 +7673,38 @@
         <v>NO</v>
       </c>
       <c r="S39">
-        <v>20530</v>
+        <v>18478</v>
       </c>
       <c r="T39">
-        <v>20685</v>
+        <v>18777</v>
       </c>
       <c r="U39">
-        <v>19950</v>
+        <v>18384.25</v>
       </c>
       <c r="V39">
-        <v>20129.05</v>
+        <v>18440.75</v>
       </c>
       <c r="W39">
-        <v>-164.15000000000151</v>
+        <v>-54.349999999998538</v>
       </c>
       <c r="X39">
-        <v>-0.80889164843396533</v>
+        <v>-0.29386161740135802</v>
       </c>
       <c r="Y39" s="1">
         <f t="shared" si="42"/>
-        <v>-1.9529956161714601</v>
+        <v>-0.20159108128585346</v>
       </c>
       <c r="Z39" s="1">
         <f t="shared" si="43"/>
-        <v>1.9529956161714601</v>
+        <v>0.20159108128585346</v>
       </c>
       <c r="AA39" s="1">
         <f t="shared" si="44"/>
-        <v>0.75499269361909405</v>
+        <v>1.6181404913951727</v>
       </c>
       <c r="AB39" s="1">
         <f t="shared" si="45"/>
-        <v>0.88951043392509477</v>
+        <v>0.30638667082412591</v>
       </c>
       <c r="AC39" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7731,38 +7731,38 @@
         <v>NO</v>
       </c>
       <c r="AI39">
-        <v>20600</v>
+        <v>18511.2</v>
       </c>
       <c r="AJ39">
-        <v>20896.849999999999</v>
+        <v>18743.349999999999</v>
       </c>
       <c r="AK39">
-        <v>20165.150000000001</v>
+        <v>18301.5</v>
       </c>
       <c r="AL39">
-        <v>20293.2</v>
+        <v>18495.099999999999</v>
       </c>
       <c r="AM39">
-        <v>-460.70000000000073</v>
+        <v>-8.75</v>
       </c>
       <c r="AN39">
-        <v>-2.2198237439710158</v>
+        <v>-4.7287456394209858E-2</v>
       </c>
       <c r="AO39" s="1">
         <f t="shared" si="52"/>
-        <v>-1.4893203883495112</v>
+        <v>-8.697437227193365E-2</v>
       </c>
       <c r="AP39" s="1">
         <f t="shared" si="53"/>
-        <v>1.4893203883495112</v>
+        <v>8.697437227193365E-2</v>
       </c>
       <c r="AQ39" s="1">
         <f t="shared" si="54"/>
-        <v>1.4410194174757212</v>
+        <v>1.2541056225420166</v>
       </c>
       <c r="AR39" s="1">
         <f t="shared" si="55"/>
-        <v>0.63099954664616353</v>
+        <v>1.0467637374223366</v>
       </c>
       <c r="AS39" t="str">
         <f t="shared" si="56"/>
@@ -7774,7 +7774,7 @@
       </c>
       <c r="AU39" t="str">
         <f t="shared" si="58"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AV39" t="str">
         <f t="shared" si="59"/>
@@ -7794,38 +7794,38 @@
         <v>88</v>
       </c>
       <c r="B40">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="C40">
-        <v>267.95</v>
+        <v>239.7</v>
       </c>
       <c r="D40">
-        <v>261.75</v>
+        <v>234.6</v>
       </c>
       <c r="E40">
-        <v>262.75</v>
+        <v>236.7</v>
       </c>
       <c r="F40">
-        <v>-2.3999999999999768</v>
+        <v>0.54999999999998295</v>
       </c>
       <c r="G40">
-        <v>-0.90514802941730255</v>
+        <v>0.2329028160067681</v>
       </c>
       <c r="H40" s="1">
         <f t="shared" si="31"/>
-        <v>-1.2218045112781954</v>
+        <v>0.29661016949152064</v>
       </c>
       <c r="I40" s="1">
         <f t="shared" si="32"/>
-        <v>1.2218045112781954</v>
+        <v>0.29661016949152064</v>
       </c>
       <c r="J40" s="1">
         <f t="shared" si="33"/>
-        <v>0.73308270676691301</v>
+        <v>1.267427122940431</v>
       </c>
       <c r="K40" s="1">
         <f t="shared" si="34"/>
-        <v>0.3805899143672693</v>
+        <v>0.59322033898305326</v>
       </c>
       <c r="L40" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7856,38 +7856,38 @@
         <v>NO</v>
       </c>
       <c r="S40">
-        <v>262.39999999999998</v>
+        <v>236.95</v>
       </c>
       <c r="T40">
-        <v>267.7</v>
+        <v>237.9</v>
       </c>
       <c r="U40">
-        <v>262.25</v>
+        <v>233.35</v>
       </c>
       <c r="V40">
-        <v>265.14999999999998</v>
+        <v>236.15</v>
       </c>
       <c r="W40">
-        <v>4.3499999999999659</v>
+        <v>-0.15000000000000571</v>
       </c>
       <c r="X40">
-        <v>1.66794478527606</v>
+        <v>-6.3478628861618994E-2</v>
       </c>
       <c r="Y40" s="1">
         <f t="shared" si="42"/>
-        <v>1.0480182926829269</v>
+        <v>-0.33762397130195526</v>
       </c>
       <c r="Z40" s="1">
         <f t="shared" si="43"/>
-        <v>1.0480182926829269</v>
+        <v>0.33762397130195526</v>
       </c>
       <c r="AA40" s="1">
         <f t="shared" si="44"/>
-        <v>0.9617197812558973</v>
+        <v>0.40092846592108761</v>
       </c>
       <c r="AB40" s="1">
         <f t="shared" si="45"/>
-        <v>5.7164634146332806E-2</v>
+        <v>1.1856870633072247</v>
       </c>
       <c r="AC40" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7914,38 +7914,38 @@
         <v>NO</v>
       </c>
       <c r="AI40">
-        <v>260.05</v>
+        <v>236</v>
       </c>
       <c r="AJ40">
-        <v>265.8</v>
+        <v>238.85</v>
       </c>
       <c r="AK40">
-        <v>256.3</v>
+        <v>234.2</v>
       </c>
       <c r="AL40">
-        <v>260.8</v>
+        <v>236.3</v>
       </c>
       <c r="AM40">
-        <v>-1.8499999999999659</v>
+        <v>0.75</v>
       </c>
       <c r="AN40">
-        <v>-0.70435941366836707</v>
+        <v>0.31840373593716831</v>
       </c>
       <c r="AO40" s="1">
         <f t="shared" si="52"/>
-        <v>0.28840607575466254</v>
+        <v>0.12711864406780143</v>
       </c>
       <c r="AP40" s="1">
         <f t="shared" si="53"/>
-        <v>0.28840607575466254</v>
+        <v>0.12711864406780143</v>
       </c>
       <c r="AQ40" s="1">
         <f t="shared" si="54"/>
-        <v>1.9171779141104295</v>
+        <v>1.0791366906474749</v>
       </c>
       <c r="AR40" s="1">
         <f t="shared" si="55"/>
-        <v>1.4420303787733129</v>
+        <v>0.76271186440678451</v>
       </c>
       <c r="AS40" t="str">
         <f t="shared" si="56"/>
@@ -7977,38 +7977,38 @@
         <v>89</v>
       </c>
       <c r="B41">
-        <v>1386.15</v>
+        <v>1493</v>
       </c>
       <c r="C41">
-        <v>1400</v>
+        <v>1504.1</v>
       </c>
       <c r="D41">
-        <v>1381.15</v>
+        <v>1470</v>
       </c>
       <c r="E41">
-        <v>1384.9</v>
+        <v>1480.7</v>
       </c>
       <c r="F41">
-        <v>-2.899999999999864</v>
+        <v>-7.7000000000000446</v>
       </c>
       <c r="G41">
-        <v>-0.20896382764086061</v>
+        <v>-0.51733404998656574</v>
       </c>
       <c r="H41" s="1">
         <f t="shared" si="31"/>
-        <v>-9.0177830682105109E-2</v>
+        <v>-0.82384460817146388</v>
       </c>
       <c r="I41" s="1">
         <f t="shared" si="32"/>
-        <v>9.0177830682105109E-2</v>
+        <v>0.82384460817146388</v>
       </c>
       <c r="J41" s="1">
         <f t="shared" si="33"/>
-        <v>0.99917036395771808</v>
+        <v>0.74346952444741521</v>
       </c>
       <c r="K41" s="1">
         <f t="shared" si="34"/>
-        <v>0.27077767347822945</v>
+        <v>0.72263118795164749</v>
       </c>
       <c r="L41" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8039,38 +8039,38 @@
         <v>NO</v>
       </c>
       <c r="S41">
-        <v>1392</v>
+        <v>1475</v>
       </c>
       <c r="T41">
-        <v>1409.6</v>
+        <v>1498.7</v>
       </c>
       <c r="U41">
-        <v>1373.6</v>
+        <v>1474.05</v>
       </c>
       <c r="V41">
-        <v>1387.8</v>
+        <v>1488.4</v>
       </c>
       <c r="W41">
-        <v>5.8499999999999091</v>
+        <v>13.05000000000018</v>
       </c>
       <c r="X41">
-        <v>0.42331488114619981</v>
+        <v>0.88453587284374435</v>
       </c>
       <c r="Y41" s="1">
         <f t="shared" si="42"/>
-        <v>-0.30172413793103775</v>
+        <v>0.90847457627119266</v>
       </c>
       <c r="Z41" s="1">
         <f t="shared" si="43"/>
-        <v>0.30172413793103775</v>
+        <v>0.90847457627119266</v>
       </c>
       <c r="AA41" s="1">
         <f t="shared" si="44"/>
-        <v>1.2643678160919474</v>
+        <v>0.69201827465734711</v>
       </c>
       <c r="AB41" s="1">
         <f t="shared" si="45"/>
-        <v>1.0232021905173689</v>
+        <v>6.4406779661020028E-2</v>
       </c>
       <c r="AC41" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8097,38 +8097,38 @@
         <v>NO</v>
       </c>
       <c r="AI41">
-        <v>1403</v>
+        <v>1469.3</v>
       </c>
       <c r="AJ41">
-        <v>1412.95</v>
+        <v>1489.7</v>
       </c>
       <c r="AK41">
-        <v>1378.6</v>
+        <v>1462</v>
       </c>
       <c r="AL41">
-        <v>1381.95</v>
+        <v>1475.35</v>
       </c>
       <c r="AM41">
-        <v>-22.200000000000049</v>
+        <v>16.299999999999951</v>
       </c>
       <c r="AN41">
-        <v>-1.581027667984193</v>
+        <v>1.117165278777283</v>
       </c>
       <c r="AO41" s="1">
         <f t="shared" si="52"/>
-        <v>-1.5003563791874521</v>
+        <v>0.41176070237527762</v>
       </c>
       <c r="AP41" s="1">
         <f t="shared" si="53"/>
-        <v>1.5003563791874521</v>
+        <v>0.41176070237527762</v>
       </c>
       <c r="AQ41" s="1">
         <f t="shared" si="54"/>
-        <v>0.70919458303635385</v>
+        <v>0.97265055749484097</v>
       </c>
       <c r="AR41" s="1">
         <f t="shared" si="55"/>
-        <v>0.24241108578458961</v>
+        <v>0.49683522765942656</v>
       </c>
       <c r="AS41" t="str">
         <f t="shared" si="56"/>
@@ -8160,38 +8160,38 @@
         <v>90</v>
       </c>
       <c r="B42">
-        <v>1345.9</v>
+        <v>1348</v>
       </c>
       <c r="C42">
-        <v>1399.6</v>
+        <v>1349</v>
       </c>
       <c r="D42">
-        <v>1302.9000000000001</v>
+        <v>1314</v>
       </c>
       <c r="E42">
-        <v>1387</v>
+        <v>1322.8</v>
       </c>
       <c r="F42">
-        <v>43.900000000000091</v>
+        <v>-10.60000000000014</v>
       </c>
       <c r="G42">
-        <v>3.2685578140123659</v>
+        <v>-0.79496025198741072</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" si="31"/>
-        <v>3.0537187012407987</v>
+        <v>-1.8694362017804187</v>
       </c>
       <c r="I42" s="1">
         <f t="shared" si="32"/>
-        <v>3.0537187012407987</v>
+        <v>1.8694362017804187</v>
       </c>
       <c r="J42" s="1">
         <f t="shared" si="33"/>
-        <v>0.90843547224224286</v>
+        <v>7.4183976261127604E-2</v>
       </c>
       <c r="K42" s="1">
         <f t="shared" si="34"/>
-        <v>3.1948881789137378</v>
+        <v>0.66525551859691223</v>
       </c>
       <c r="L42" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8222,38 +8222,38 @@
         <v>NO</v>
       </c>
       <c r="S42">
-        <v>1350</v>
+        <v>1319.95</v>
       </c>
       <c r="T42">
-        <v>1370</v>
+        <v>1353.75</v>
       </c>
       <c r="U42">
-        <v>1316.85</v>
+        <v>1308.3</v>
       </c>
       <c r="V42">
-        <v>1343.1</v>
+        <v>1333.4</v>
       </c>
       <c r="W42">
-        <v>0.64999999999986358</v>
+        <v>18.900000000000091</v>
       </c>
       <c r="X42">
-        <v>4.8418935528314923E-2</v>
+        <v>1.437809052871821</v>
       </c>
       <c r="Y42" s="1">
         <f t="shared" si="42"/>
-        <v>-0.51111111111111784</v>
+        <v>1.0189779915905939</v>
       </c>
       <c r="Z42" s="1">
         <f t="shared" si="43"/>
-        <v>0.51111111111111784</v>
+        <v>1.0189779915905939</v>
       </c>
       <c r="AA42" s="1">
         <f t="shared" si="44"/>
-        <v>1.4814814814814816</v>
+        <v>1.5261736913154271</v>
       </c>
       <c r="AB42" s="1">
         <f t="shared" si="45"/>
-        <v>1.9544337726155909</v>
+        <v>0.88260918974204261</v>
       </c>
       <c r="AC42" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8280,38 +8280,38 @@
         <v>NO</v>
       </c>
       <c r="AI42">
-        <v>1224</v>
+        <v>1299</v>
       </c>
       <c r="AJ42">
-        <v>1362</v>
+        <v>1340</v>
       </c>
       <c r="AK42">
-        <v>1200</v>
+        <v>1290.0999999999999</v>
       </c>
       <c r="AL42">
-        <v>1342.45</v>
+        <v>1314.5</v>
       </c>
       <c r="AM42">
-        <v>102.05</v>
+        <v>18.650000000000091</v>
       </c>
       <c r="AN42">
-        <v>8.22718477910351</v>
+        <v>1.4392097850831569</v>
       </c>
       <c r="AO42" s="1">
         <f t="shared" si="52"/>
-        <v>9.6772875816993498</v>
+        <v>1.193225558121632</v>
       </c>
       <c r="AP42" s="1">
         <f t="shared" si="53"/>
-        <v>9.6772875816993498</v>
+        <v>1.193225558121632</v>
       </c>
       <c r="AQ42" s="1">
         <f t="shared" si="54"/>
-        <v>1.4562925993519278</v>
+        <v>1.9399011030810196</v>
       </c>
       <c r="AR42" s="1">
         <f t="shared" si="55"/>
-        <v>1.9607843137254901</v>
+        <v>0.68514241724404079</v>
       </c>
       <c r="AS42" t="str">
         <f t="shared" si="56"/>
@@ -8343,38 +8343,38 @@
         <v>91</v>
       </c>
       <c r="B43">
-        <v>89.8</v>
+        <v>94</v>
       </c>
       <c r="C43">
-        <v>89.85</v>
+        <v>94.25</v>
       </c>
       <c r="D43">
-        <v>86.65</v>
+        <v>91.55</v>
       </c>
       <c r="E43">
-        <v>87.15</v>
+        <v>92.1</v>
       </c>
       <c r="F43">
-        <v>-2.9499999999999891</v>
+        <v>-5.0000000000011369E-2</v>
       </c>
       <c r="G43">
-        <v>-3.2741398446170802</v>
+        <v>-5.4259359739567407E-2</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" si="31"/>
-        <v>-2.9510022271714829</v>
+        <v>-2.0212765957446868</v>
       </c>
       <c r="I43" s="1">
         <f t="shared" si="32"/>
-        <v>2.9510022271714829</v>
+        <v>2.0212765957446868</v>
       </c>
       <c r="J43" s="1">
         <f t="shared" si="33"/>
-        <v>5.5679287305119327E-2</v>
+        <v>0.26595744680851063</v>
       </c>
       <c r="K43" s="1">
         <f t="shared" si="34"/>
-        <v>0.57372346528973028</v>
+        <v>0.59717698154179932</v>
       </c>
       <c r="L43" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8408,35 +8408,35 @@
         <v>91.2</v>
       </c>
       <c r="T43">
-        <v>91.6</v>
+        <v>92.7</v>
       </c>
       <c r="U43">
-        <v>89.15</v>
+        <v>90.65</v>
       </c>
       <c r="V43">
-        <v>90.1</v>
+        <v>92.15</v>
       </c>
       <c r="W43">
-        <v>9.9999999999994316E-2</v>
+        <v>0.85000000000000853</v>
       </c>
       <c r="X43">
-        <v>0.1111111111111048</v>
+        <v>0.93099671412925356</v>
       </c>
       <c r="Y43" s="1">
         <f t="shared" si="42"/>
-        <v>-1.2061403508772024</v>
+        <v>1.0416666666666696</v>
       </c>
       <c r="Z43" s="1">
         <f t="shared" si="43"/>
-        <v>1.2061403508772024</v>
+        <v>1.0416666666666696</v>
       </c>
       <c r="AA43" s="1">
         <f t="shared" si="44"/>
-        <v>0.43859649122806077</v>
+        <v>0.59685295713510267</v>
       </c>
       <c r="AB43" s="1">
         <f t="shared" si="45"/>
-        <v>1.0543840177580339</v>
+        <v>0.60307017543859331</v>
       </c>
       <c r="AC43" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8463,38 +8463,38 @@
         <v>NO</v>
       </c>
       <c r="AI43">
-        <v>86.7</v>
+        <v>90</v>
       </c>
       <c r="AJ43">
-        <v>91.7</v>
+        <v>91.8</v>
       </c>
       <c r="AK43">
-        <v>86.4</v>
+        <v>88.75</v>
       </c>
       <c r="AL43">
-        <v>90</v>
+        <v>91.3</v>
       </c>
       <c r="AM43">
-        <v>2.0499999999999972</v>
+        <v>1.9500000000000031</v>
       </c>
       <c r="AN43">
-        <v>2.3308698123934022</v>
+        <v>2.182428651371016</v>
       </c>
       <c r="AO43" s="1">
         <f t="shared" si="52"/>
-        <v>3.8062283737024187</v>
+        <v>1.4444444444444413</v>
       </c>
       <c r="AP43" s="1">
         <f t="shared" si="53"/>
-        <v>3.8062283737024187</v>
+        <v>1.4444444444444413</v>
       </c>
       <c r="AQ43" s="1">
         <f t="shared" si="54"/>
-        <v>1.8888888888888919</v>
+        <v>0.547645125958379</v>
       </c>
       <c r="AR43" s="1">
         <f t="shared" si="55"/>
-        <v>0.34602076124567144</v>
+        <v>1.3888888888888888</v>
       </c>
       <c r="AS43" t="str">
         <f t="shared" si="56"/>
@@ -8510,7 +8510,7 @@
       </c>
       <c r="AV43" t="str">
         <f t="shared" si="59"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AW43" t="str">
         <f t="shared" si="60"/>
@@ -8526,38 +8526,38 @@
         <v>92</v>
       </c>
       <c r="B44">
-        <v>10168</v>
+        <v>10100</v>
       </c>
       <c r="C44">
-        <v>10200</v>
+        <v>10134.950000000001</v>
       </c>
       <c r="D44">
-        <v>9999</v>
+        <v>9980</v>
       </c>
       <c r="E44">
-        <v>10175.1</v>
+        <v>9997.5</v>
       </c>
       <c r="F44">
-        <v>7.1000000000003638</v>
+        <v>-28.5</v>
       </c>
       <c r="G44">
-        <v>6.9826907946502398E-2</v>
+        <v>-0.28426092160382999</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" si="31"/>
-        <v>6.9826907946502398E-2</v>
+        <v>-1.0148514851485149</v>
       </c>
       <c r="I44" s="1">
         <f t="shared" si="32"/>
-        <v>6.9826907946502398E-2</v>
+        <v>1.0148514851485149</v>
       </c>
       <c r="J44" s="1">
         <f t="shared" si="33"/>
-        <v>0.24471503965562635</v>
+        <v>0.34603960396040323</v>
       </c>
       <c r="K44" s="1">
         <f t="shared" si="34"/>
-        <v>1.6620771046420142</v>
+        <v>0.17504376094023505</v>
       </c>
       <c r="L44" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8588,38 +8588,38 @@
         <v>NO</v>
       </c>
       <c r="S44">
-        <v>9930.0499999999993</v>
+        <v>10082</v>
       </c>
       <c r="T44">
-        <v>10239.9</v>
+        <v>10173.75</v>
       </c>
       <c r="U44">
-        <v>9859.5</v>
+        <v>10005</v>
       </c>
       <c r="V44">
-        <v>10168</v>
+        <v>10026</v>
       </c>
       <c r="W44">
-        <v>238.7999999999993</v>
+        <v>-82.950000000000728</v>
       </c>
       <c r="X44">
-        <v>2.4050275953752491</v>
+        <v>-0.82055999881294017</v>
       </c>
       <c r="Y44" s="1">
         <f t="shared" si="42"/>
-        <v>2.3962618516523158</v>
+        <v>-0.55544534814520929</v>
       </c>
       <c r="Z44" s="1">
         <f t="shared" si="43"/>
-        <v>2.3962618516523158</v>
+        <v>0.55544534814520929</v>
       </c>
       <c r="AA44" s="1">
         <f t="shared" si="44"/>
-        <v>0.70712037765538582</v>
+        <v>0.91003769093433839</v>
       </c>
       <c r="AB44" s="1">
         <f t="shared" si="45"/>
-        <v>0.71046973580192718</v>
+        <v>0.20945541591861158</v>
       </c>
       <c r="AC44" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8646,38 +8646,38 @@
         <v>NO</v>
       </c>
       <c r="AI44">
-        <v>9851.2999999999993</v>
+        <v>10160</v>
       </c>
       <c r="AJ44">
-        <v>10098</v>
+        <v>10184.799999999999</v>
       </c>
       <c r="AK44">
-        <v>9850</v>
+        <v>9950.2000000000007</v>
       </c>
       <c r="AL44">
-        <v>9929.2000000000007</v>
+        <v>10108.950000000001</v>
       </c>
       <c r="AM44">
-        <v>-24.349999999998541</v>
+        <v>-51.849999999998538</v>
       </c>
       <c r="AN44">
-        <v>-0.24463633577968211</v>
+        <v>-0.51029446500274134</v>
       </c>
       <c r="AO44" s="1">
         <f t="shared" si="52"/>
-        <v>0.79075858008589195</v>
+        <v>-0.50246062992125273</v>
       </c>
       <c r="AP44" s="1">
         <f t="shared" si="53"/>
-        <v>0.79075858008589195</v>
+        <v>0.50246062992125273</v>
       </c>
       <c r="AQ44" s="1">
         <f t="shared" si="54"/>
-        <v>1.7000362566974101</v>
+        <v>0.24409448818896923</v>
       </c>
       <c r="AR44" s="1">
         <f t="shared" si="55"/>
-        <v>1.3196227908999547E-2</v>
+        <v>1.5703905944732144</v>
       </c>
       <c r="AS44" t="str">
         <f t="shared" si="56"/>
@@ -8709,38 +8709,38 @@
         <v>93</v>
       </c>
       <c r="B45">
-        <v>36.200000000000003</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="C45">
-        <v>36.4</v>
+        <v>34.049999999999997</v>
       </c>
       <c r="D45">
-        <v>35.15</v>
+        <v>33.35</v>
       </c>
       <c r="E45">
-        <v>35.35</v>
+        <v>33.6</v>
       </c>
       <c r="F45">
-        <v>-1.25</v>
+        <v>-0.10000000000000139</v>
       </c>
       <c r="G45">
-        <v>-3.415300546448087</v>
+        <v>-0.29673590504451458</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" si="31"/>
-        <v>-2.3480662983425451</v>
+        <v>-0.59171597633134831</v>
       </c>
       <c r="I45" s="1">
         <f t="shared" si="32"/>
-        <v>2.3480662983425451</v>
+        <v>0.59171597633134831</v>
       </c>
       <c r="J45" s="1">
         <f t="shared" si="33"/>
-        <v>0.55248618784529202</v>
+        <v>0.73964497041420119</v>
       </c>
       <c r="K45" s="1">
         <f t="shared" si="34"/>
-        <v>0.56577086280057376</v>
+        <v>0.74404761904761896</v>
       </c>
       <c r="L45" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8771,38 +8771,38 @@
         <v>NO</v>
       </c>
       <c r="S45">
-        <v>37.65</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="T45">
-        <v>37.950000000000003</v>
+        <v>33.85</v>
       </c>
       <c r="U45">
-        <v>36.4</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="V45">
-        <v>36.6</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="W45">
-        <v>-0.5</v>
+        <v>0.15000000000000571</v>
       </c>
       <c r="X45">
-        <v>-1.3477088948787059</v>
+        <v>0.44709388971685748</v>
       </c>
       <c r="Y45" s="1">
         <f t="shared" si="42"/>
-        <v>-2.7888446215139369</v>
+        <v>1.2012012012012183</v>
       </c>
       <c r="Z45" s="1">
         <f t="shared" si="43"/>
-        <v>2.7888446215139369</v>
+        <v>1.2012012012012183</v>
       </c>
       <c r="AA45" s="1">
         <f t="shared" si="44"/>
-        <v>0.79681274900399546</v>
+        <v>0.44510385756676135</v>
       </c>
       <c r="AB45" s="1">
         <f t="shared" si="45"/>
-        <v>0.5464480874317017</v>
+        <v>0</v>
       </c>
       <c r="AC45" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8829,38 +8829,38 @@
         <v>NO</v>
       </c>
       <c r="AI45">
-        <v>36.299999999999997</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="AJ45">
-        <v>37.6</v>
+        <v>33.65</v>
       </c>
       <c r="AK45">
-        <v>35.549999999999997</v>
+        <v>33.15</v>
       </c>
       <c r="AL45">
-        <v>37.1</v>
+        <v>33.549999999999997</v>
       </c>
       <c r="AM45">
-        <v>0.60000000000000142</v>
+        <v>0.64999999999999858</v>
       </c>
       <c r="AN45">
-        <v>1.6438356164383601</v>
+        <v>1.9756838905775029</v>
       </c>
       <c r="AO45" s="1">
         <f t="shared" si="52"/>
-        <v>2.2038567493113068</v>
+        <v>1.0542168674698622</v>
       </c>
       <c r="AP45" s="1">
         <f t="shared" si="53"/>
-        <v>2.2038567493113068</v>
+        <v>1.0542168674698622</v>
       </c>
       <c r="AQ45" s="1">
         <f t="shared" si="54"/>
-        <v>1.3477088948787062</v>
+        <v>0.29806259314456462</v>
       </c>
       <c r="AR45" s="1">
         <f t="shared" si="55"/>
-        <v>2.0661157024793391</v>
+        <v>0.15060240963856705</v>
       </c>
       <c r="AS45" t="str">
         <f t="shared" si="56"/>
@@ -8892,38 +8892,38 @@
         <v>94</v>
       </c>
       <c r="B46">
-        <v>780</v>
+        <v>871</v>
       </c>
       <c r="C46">
-        <v>789.85</v>
+        <v>876</v>
       </c>
       <c r="D46">
-        <v>774.3</v>
+        <v>850</v>
       </c>
       <c r="E46">
-        <v>786.8</v>
+        <v>857.1</v>
       </c>
       <c r="F46">
-        <v>2.4499999999999318</v>
+        <v>-7.2999999999999554</v>
       </c>
       <c r="G46">
-        <v>0.31236055332439999</v>
+        <v>-0.84451642757981893</v>
       </c>
       <c r="H46" s="1">
         <f t="shared" si="31"/>
-        <v>0.87179487179486603</v>
+        <v>-1.595866819747414</v>
       </c>
       <c r="I46" s="1">
         <f t="shared" si="32"/>
-        <v>0.87179487179486603</v>
+        <v>1.595866819747414</v>
       </c>
       <c r="J46" s="1">
         <f t="shared" si="33"/>
-        <v>0.38764616166752269</v>
+        <v>0.57405281285878307</v>
       </c>
       <c r="K46" s="1">
         <f t="shared" si="34"/>
-        <v>0.73076923076923661</v>
+        <v>0.82837475207093947</v>
       </c>
       <c r="L46" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8954,38 +8954,38 @@
         <v>NO</v>
       </c>
       <c r="S46">
-        <v>791.1</v>
+        <v>846</v>
       </c>
       <c r="T46">
-        <v>802</v>
+        <v>866.9</v>
       </c>
       <c r="U46">
-        <v>782</v>
+        <v>843.75</v>
       </c>
       <c r="V46">
-        <v>784.35</v>
+        <v>864.4</v>
       </c>
       <c r="W46">
-        <v>-1.899999999999977</v>
+        <v>19.199999999999928</v>
       </c>
       <c r="X46">
-        <v>-0.24165341812400351</v>
+        <v>2.2716516800757138</v>
       </c>
       <c r="Y46" s="1">
         <f t="shared" si="42"/>
-        <v>-0.85324232081911267</v>
+        <v>2.174940898345151</v>
       </c>
       <c r="Z46" s="1">
         <f t="shared" si="43"/>
-        <v>0.85324232081911267</v>
+        <v>2.174940898345151</v>
       </c>
       <c r="AA46" s="1">
         <f t="shared" si="44"/>
-        <v>1.3778283402856752</v>
+        <v>0.28921795465062472</v>
       </c>
       <c r="AB46" s="1">
         <f t="shared" si="45"/>
-        <v>0.29961114298463987</v>
+        <v>0.26595744680851063</v>
       </c>
       <c r="AC46" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9012,38 +9012,38 @@
         <v>NO</v>
       </c>
       <c r="AI46">
-        <v>778</v>
+        <v>833.9</v>
       </c>
       <c r="AJ46">
-        <v>792.95</v>
+        <v>848</v>
       </c>
       <c r="AK46">
-        <v>775.1</v>
+        <v>833.1</v>
       </c>
       <c r="AL46">
-        <v>786.25</v>
+        <v>845.2</v>
       </c>
       <c r="AM46">
-        <v>5.5</v>
+        <v>14.700000000000051</v>
       </c>
       <c r="AN46">
-        <v>0.7044508485430675</v>
+        <v>1.770018061408795</v>
       </c>
       <c r="AO46" s="1">
         <f t="shared" si="52"/>
-        <v>1.0604113110539846</v>
+        <v>1.3550785465883282</v>
       </c>
       <c r="AP46" s="1">
         <f t="shared" si="53"/>
-        <v>1.0604113110539846</v>
+        <v>1.3550785465883282</v>
       </c>
       <c r="AQ46" s="1">
         <f t="shared" si="54"/>
-        <v>0.85214626391097548</v>
+        <v>0.33128253667770402</v>
       </c>
       <c r="AR46" s="1">
         <f t="shared" si="55"/>
-        <v>0.37275064267351893</v>
+        <v>9.5934764360229588E-2</v>
       </c>
       <c r="AS46" t="str">
         <f t="shared" si="56"/>
@@ -9075,38 +9075,38 @@
         <v>95</v>
       </c>
       <c r="B47">
-        <v>699.8</v>
+        <v>650</v>
       </c>
       <c r="C47">
-        <v>701.75</v>
+        <v>650.5</v>
       </c>
       <c r="D47">
-        <v>684.2</v>
+        <v>631.45000000000005</v>
       </c>
       <c r="E47">
-        <v>690.6</v>
+        <v>636.45000000000005</v>
       </c>
       <c r="F47">
-        <v>-14.299999999999949</v>
+        <v>-7.1999999999999318</v>
       </c>
       <c r="G47">
-        <v>-2.028656547027941</v>
+        <v>-1.1186203682125271</v>
       </c>
       <c r="H47" s="1">
         <f t="shared" si="31"/>
-        <v>-1.3146613318090785</v>
+        <v>-2.0846153846153777</v>
       </c>
       <c r="I47" s="1">
         <f t="shared" si="32"/>
-        <v>1.3146613318090785</v>
+        <v>2.0846153846153777</v>
       </c>
       <c r="J47" s="1">
         <f t="shared" si="33"/>
-        <v>0.27865104315519373</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="K47" s="1">
         <f t="shared" si="34"/>
-        <v>0.92673037938024572</v>
+        <v>0.78560766753083511</v>
       </c>
       <c r="L47" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9137,38 +9137,38 @@
         <v>NO</v>
       </c>
       <c r="S47">
-        <v>702</v>
+        <v>633</v>
       </c>
       <c r="T47">
-        <v>734</v>
+        <v>647.5</v>
       </c>
       <c r="U47">
-        <v>698.1</v>
+        <v>626.95000000000005</v>
       </c>
       <c r="V47">
-        <v>704.9</v>
+        <v>643.65</v>
       </c>
       <c r="W47">
-        <v>14.44999999999993</v>
+        <v>14.100000000000019</v>
       </c>
       <c r="X47">
-        <v>2.0928380042001491</v>
+        <v>2.2396950202525652</v>
       </c>
       <c r="Y47" s="1">
         <f t="shared" si="42"/>
-        <v>0.41310541310540982</v>
+        <v>1.6824644549762999</v>
       </c>
       <c r="Z47" s="1">
         <f t="shared" si="43"/>
-        <v>0.41310541310540982</v>
+        <v>1.6824644549762999</v>
       </c>
       <c r="AA47" s="1">
         <f t="shared" si="44"/>
-        <v>4.1282451411547774</v>
+        <v>0.59815116911365229</v>
       </c>
       <c r="AB47" s="1">
         <f t="shared" si="45"/>
-        <v>0.55555555555555225</v>
+        <v>0.95576619273301022</v>
       </c>
       <c r="AC47" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9195,38 +9195,38 @@
         <v>NO</v>
       </c>
       <c r="AI47">
-        <v>675.55</v>
+        <v>645</v>
       </c>
       <c r="AJ47">
-        <v>694.65</v>
+        <v>653.45000000000005</v>
       </c>
       <c r="AK47">
-        <v>668</v>
+        <v>620.65</v>
       </c>
       <c r="AL47">
-        <v>690.45</v>
+        <v>629.54999999999995</v>
       </c>
       <c r="AM47">
-        <v>8.2000000000000455</v>
+        <v>-9.3000000000000682</v>
       </c>
       <c r="AN47">
-        <v>1.2019054598754191</v>
+        <v>-1.455740784221659</v>
       </c>
       <c r="AO47" s="1">
         <f t="shared" si="52"/>
-        <v>2.2056102435053058</v>
+        <v>-2.3953488372093092</v>
       </c>
       <c r="AP47" s="1">
         <f t="shared" si="53"/>
-        <v>2.2056102435053058</v>
+        <v>2.3953488372093092</v>
       </c>
       <c r="AQ47" s="1">
         <f t="shared" si="54"/>
-        <v>0.60829893547685299</v>
+        <v>1.3100775193798522</v>
       </c>
       <c r="AR47" s="1">
         <f t="shared" si="55"/>
-        <v>1.1176078750647553</v>
+        <v>1.4137082042728899</v>
       </c>
       <c r="AS47" t="str">
         <f t="shared" si="56"/>
@@ -9242,7 +9242,7 @@
       </c>
       <c r="AV47" t="str">
         <f t="shared" si="59"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AW47" t="str">
         <f t="shared" si="60"/>
@@ -9258,38 +9258,38 @@
         <v>96</v>
       </c>
       <c r="B48">
-        <v>1114.9000000000001</v>
+        <v>1235</v>
       </c>
       <c r="C48">
-        <v>1115.95</v>
+        <v>1242</v>
       </c>
       <c r="D48">
-        <v>1092.6500000000001</v>
+        <v>1215.2</v>
       </c>
       <c r="E48">
-        <v>1099.2</v>
+        <v>1235.5</v>
       </c>
       <c r="F48">
-        <v>-17.200000000000049</v>
+        <v>10.799999999999949</v>
       </c>
       <c r="G48">
-        <v>-1.540666427803659</v>
+        <v>0.88184861598758513</v>
       </c>
       <c r="H48" s="1">
         <f t="shared" si="31"/>
-        <v>-1.4081980446676872</v>
+        <v>4.048582995951417E-2</v>
       </c>
       <c r="I48" s="1">
         <f t="shared" si="32"/>
-        <v>1.4081980446676872</v>
+        <v>4.048582995951417E-2</v>
       </c>
       <c r="J48" s="1">
         <f t="shared" si="33"/>
-        <v>9.4178850121082999E-2</v>
+        <v>0.52610279239174418</v>
       </c>
       <c r="K48" s="1">
         <f t="shared" si="34"/>
-        <v>0.59588791848616762</v>
+        <v>1.6032388663967574</v>
       </c>
       <c r="L48" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9320,38 +9320,38 @@
         <v>NO</v>
       </c>
       <c r="S48">
-        <v>1129</v>
+        <v>1213</v>
       </c>
       <c r="T48">
-        <v>1129</v>
+        <v>1233.8499999999999</v>
       </c>
       <c r="U48">
-        <v>1108.05</v>
+        <v>1210.3499999999999</v>
       </c>
       <c r="V48">
-        <v>1116.4000000000001</v>
+        <v>1224.7</v>
       </c>
       <c r="W48">
-        <v>6.3000000000001819</v>
+        <v>7.1500000000000909</v>
       </c>
       <c r="X48">
-        <v>0.56751643996038037</v>
+        <v>0.58724487700711192</v>
       </c>
       <c r="Y48" s="1">
         <f t="shared" si="42"/>
-        <v>-1.1160318866253243</v>
+        <v>0.96455070074196581</v>
       </c>
       <c r="Z48" s="1">
         <f t="shared" si="43"/>
-        <v>1.1160318866253243</v>
+        <v>0.96455070074196581</v>
       </c>
       <c r="AA48" s="1">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>0.74712174410058485</v>
       </c>
       <c r="AB48" s="1">
         <f t="shared" si="45"/>
-        <v>0.74793980652097236</v>
+        <v>0.21846661170652026</v>
       </c>
       <c r="AC48" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9378,38 +9378,38 @@
         <v>NO</v>
       </c>
       <c r="AI48">
-        <v>1095</v>
+        <v>1200.75</v>
       </c>
       <c r="AJ48">
-        <v>1126.45</v>
+        <v>1222</v>
       </c>
       <c r="AK48">
-        <v>1083.6500000000001</v>
+        <v>1196.55</v>
       </c>
       <c r="AL48">
-        <v>1110.0999999999999</v>
+        <v>1217.55</v>
       </c>
       <c r="AM48">
-        <v>15.799999999999949</v>
+        <v>19.25</v>
       </c>
       <c r="AN48">
-        <v>1.443845380608604</v>
+        <v>1.6064424601518821</v>
       </c>
       <c r="AO48" s="1">
         <f t="shared" si="52"/>
-        <v>1.3789954337899459</v>
+        <v>1.3991255465334129</v>
       </c>
       <c r="AP48" s="1">
         <f t="shared" si="53"/>
-        <v>1.3789954337899459</v>
+        <v>1.3991255465334129</v>
       </c>
       <c r="AQ48" s="1">
         <f t="shared" si="54"/>
-        <v>1.472840284659052</v>
+        <v>0.36548807030512465</v>
       </c>
       <c r="AR48" s="1">
         <f t="shared" si="55"/>
-        <v>1.0365296803652886</v>
+        <v>0.34978138663335795</v>
       </c>
       <c r="AS48" t="str">
         <f t="shared" si="56"/>
@@ -9425,7 +9425,7 @@
       </c>
       <c r="AV48" t="str">
         <f t="shared" si="59"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AW48" t="str">
         <f t="shared" si="60"/>
@@ -9441,38 +9441,38 @@
         <v>97</v>
       </c>
       <c r="B49">
-        <v>2480.4</v>
+        <v>2846</v>
       </c>
       <c r="C49">
-        <v>2510</v>
+        <v>2858.85</v>
       </c>
       <c r="D49">
-        <v>2426.25</v>
+        <v>2781.15</v>
       </c>
       <c r="E49">
-        <v>2437.75</v>
+        <v>2797.55</v>
       </c>
       <c r="F49">
-        <v>-33.400000000000091</v>
+        <v>-39.649999999999643</v>
       </c>
       <c r="G49">
-        <v>-1.351597434392898</v>
+        <v>-1.3975045819822229</v>
       </c>
       <c r="H49" s="1">
         <f t="shared" si="31"/>
-        <v>-1.7194807289146949</v>
+        <v>-1.7023893183415257</v>
       </c>
       <c r="I49" s="1">
         <f t="shared" si="32"/>
-        <v>1.7194807289146949</v>
+        <v>1.7023893183415257</v>
       </c>
       <c r="J49" s="1">
         <f t="shared" si="33"/>
-        <v>1.1933559103370386</v>
+        <v>0.45151089248067144</v>
       </c>
       <c r="K49" s="1">
         <f t="shared" si="34"/>
-        <v>0.47174648753973952</v>
+        <v>0.58622723454451531</v>
       </c>
       <c r="L49" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9503,38 +9503,38 @@
         <v>NO</v>
       </c>
       <c r="S49">
-        <v>2512.65</v>
+        <v>2815</v>
       </c>
       <c r="T49">
-        <v>2521.15</v>
+        <v>2841.95</v>
       </c>
       <c r="U49">
-        <v>2450</v>
+        <v>2811</v>
       </c>
       <c r="V49">
-        <v>2471.15</v>
+        <v>2837.2</v>
       </c>
       <c r="W49">
-        <v>-28.949999999999822</v>
+        <v>22.64999999999964</v>
       </c>
       <c r="X49">
-        <v>-1.157953681852719</v>
+        <v>0.80474676235986697</v>
       </c>
       <c r="Y49" s="1">
         <f t="shared" si="42"/>
-        <v>-1.6516426879987265</v>
+        <v>0.78863232682059736</v>
       </c>
       <c r="Z49" s="1">
         <f t="shared" si="43"/>
-        <v>1.6516426879987265</v>
+        <v>0.78863232682059736</v>
       </c>
       <c r="AA49" s="1">
         <f t="shared" si="44"/>
-        <v>0.33828826139732954</v>
+        <v>0.16741858170026788</v>
       </c>
       <c r="AB49" s="1">
         <f t="shared" si="45"/>
-        <v>0.85587681848532415</v>
+        <v>0.14209591474245115</v>
       </c>
       <c r="AC49" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9550,7 +9550,7 @@
       </c>
       <c r="AF49" s="1" t="str">
         <f t="shared" si="49"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AG49" s="1" t="str">
         <f t="shared" si="50"/>
@@ -9561,38 +9561,38 @@
         <v>NO</v>
       </c>
       <c r="AI49">
-        <v>2474.8000000000002</v>
+        <v>2850</v>
       </c>
       <c r="AJ49">
-        <v>2529</v>
+        <v>2852.95</v>
       </c>
       <c r="AK49">
-        <v>2460</v>
+        <v>2796.05</v>
       </c>
       <c r="AL49">
-        <v>2500.1</v>
+        <v>2814.55</v>
       </c>
       <c r="AM49">
-        <v>38.049999999999727</v>
+        <v>6.75</v>
       </c>
       <c r="AN49">
-        <v>1.5454600840762669</v>
+        <v>0.24040173801552811</v>
       </c>
       <c r="AO49" s="1">
         <f t="shared" si="52"/>
-        <v>1.0223048327137436</v>
+        <v>-1.2438596491228007</v>
       </c>
       <c r="AP49" s="1">
         <f t="shared" si="53"/>
-        <v>1.0223048327137436</v>
+        <v>1.2438596491228007</v>
       </c>
       <c r="AQ49" s="1">
         <f t="shared" si="54"/>
-        <v>1.1559537618495297</v>
+        <v>0.10350877192981818</v>
       </c>
       <c r="AR49" s="1">
         <f t="shared" si="55"/>
-        <v>0.59802812348473333</v>
+        <v>0.65729868007319103</v>
       </c>
       <c r="AS49" t="str">
         <f t="shared" si="56"/>
@@ -9624,38 +9624,38 @@
         <v>98</v>
       </c>
       <c r="B50">
-        <v>1018.85</v>
+        <v>1059.75</v>
       </c>
       <c r="C50">
-        <v>1025</v>
+        <v>1080.95</v>
       </c>
       <c r="D50">
-        <v>1000.4</v>
+        <v>1044.05</v>
       </c>
       <c r="E50">
-        <v>1005.8</v>
+        <v>1052.4000000000001</v>
       </c>
       <c r="F50">
-        <v>-12.150000000000089</v>
+        <v>-7.25</v>
       </c>
       <c r="G50">
-        <v>-1.1935753229530031</v>
+        <v>-0.68418817534091447</v>
       </c>
       <c r="H50" s="1">
         <f t="shared" si="31"/>
-        <v>-1.2808558669087764</v>
+        <v>-0.69355980184004806</v>
       </c>
       <c r="I50" s="1">
         <f t="shared" si="32"/>
-        <v>1.2808558669087764</v>
+        <v>0.69355980184004806</v>
       </c>
       <c r="J50" s="1">
         <f t="shared" si="33"/>
-        <v>0.60362173038229161</v>
+        <v>2.000471809389011</v>
       </c>
       <c r="K50" s="1">
         <f t="shared" si="34"/>
-        <v>0.53688606084708468</v>
+        <v>0.79342455340176121</v>
       </c>
       <c r="L50" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9686,38 +9686,38 @@
         <v>NO</v>
       </c>
       <c r="S50">
-        <v>1051</v>
+        <v>1066</v>
       </c>
       <c r="T50">
-        <v>1062</v>
+        <v>1073.55</v>
       </c>
       <c r="U50">
-        <v>1011.1</v>
+        <v>1046.5</v>
       </c>
       <c r="V50">
-        <v>1017.95</v>
+        <v>1059.6500000000001</v>
       </c>
       <c r="W50">
-        <v>-31.14999999999986</v>
+        <v>-6.6499999999998636</v>
       </c>
       <c r="X50">
-        <v>-2.9692117052711722</v>
+        <v>-0.62365188033385199</v>
       </c>
       <c r="Y50" s="1">
         <f t="shared" si="42"/>
-        <v>-3.1446241674595581</v>
+        <v>-0.59568480300186766</v>
       </c>
       <c r="Z50" s="1">
         <f t="shared" si="43"/>
-        <v>3.1446241674595581</v>
+        <v>0.59568480300186766</v>
       </c>
       <c r="AA50" s="1">
         <f t="shared" si="44"/>
-        <v>1.0466222645099905</v>
+        <v>0.70825515947466744</v>
       </c>
       <c r="AB50" s="1">
         <f t="shared" si="45"/>
-        <v>0.67292106685004394</v>
+        <v>1.2409757938942187</v>
       </c>
       <c r="AC50" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9744,38 +9744,38 @@
         <v>NO</v>
       </c>
       <c r="AI50">
-        <v>1047</v>
+        <v>1079.5999999999999</v>
       </c>
       <c r="AJ50">
-        <v>1061.2</v>
+        <v>1101.3</v>
       </c>
       <c r="AK50">
-        <v>1021.8</v>
+        <v>1050.2</v>
       </c>
       <c r="AL50">
-        <v>1049.0999999999999</v>
+        <v>1066.3</v>
       </c>
       <c r="AM50">
-        <v>-1.700000000000045</v>
+        <v>-13.150000000000089</v>
       </c>
       <c r="AN50">
-        <v>-0.16178149980967321</v>
+        <v>-1.218212978831821</v>
       </c>
       <c r="AO50" s="1">
         <f t="shared" si="52"/>
-        <v>0.2005730659025701</v>
+        <v>-1.2319377547239676</v>
       </c>
       <c r="AP50" s="1">
         <f t="shared" si="53"/>
-        <v>0.2005730659025701</v>
+        <v>1.2319377547239676</v>
       </c>
       <c r="AQ50" s="1">
         <f t="shared" si="54"/>
-        <v>1.1533695548565568</v>
+        <v>2.0100037050759587</v>
       </c>
       <c r="AR50" s="1">
         <f t="shared" si="55"/>
-        <v>2.4068767908309496</v>
+        <v>1.5098940260714537</v>
       </c>
       <c r="AS50" t="str">
         <f t="shared" si="56"/>
@@ -9807,38 +9807,38 @@
         <v>99</v>
       </c>
       <c r="B51">
-        <v>589</v>
+        <v>550</v>
       </c>
       <c r="C51">
-        <v>594.85</v>
+        <v>554.20000000000005</v>
       </c>
       <c r="D51">
-        <v>581.04999999999995</v>
+        <v>544.15</v>
       </c>
       <c r="E51">
-        <v>584.04999999999995</v>
+        <v>546.65</v>
       </c>
       <c r="F51">
-        <v>-7.4000000000000909</v>
+        <v>-0.35000000000002268</v>
       </c>
       <c r="G51">
-        <v>-1.25116239749769</v>
+        <v>-6.3985374771484957E-2</v>
       </c>
       <c r="H51" s="1">
         <f t="shared" si="31"/>
-        <v>-0.8404074702886325</v>
+        <v>-0.60909090909091324</v>
       </c>
       <c r="I51" s="1">
         <f t="shared" si="32"/>
-        <v>0.8404074702886325</v>
+        <v>0.60909090909091324</v>
       </c>
       <c r="J51" s="1">
         <f t="shared" si="33"/>
-        <v>0.99320882852292403</v>
+        <v>0.76363636363637188</v>
       </c>
       <c r="K51" s="1">
         <f t="shared" si="34"/>
-        <v>0.51365465285506373</v>
+        <v>0.45733101618951799</v>
       </c>
       <c r="L51" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9869,38 +9869,38 @@
         <v>NO</v>
       </c>
       <c r="S51">
-        <v>608.5</v>
+        <v>550.25</v>
       </c>
       <c r="T51">
-        <v>610.85</v>
+        <v>556</v>
       </c>
       <c r="U51">
-        <v>589</v>
+        <v>542.95000000000005</v>
       </c>
       <c r="V51">
-        <v>591.45000000000005</v>
+        <v>547</v>
       </c>
       <c r="W51">
-        <v>-9.6499999999999773</v>
+        <v>-2.299999999999955</v>
       </c>
       <c r="X51">
-        <v>-1.605390118116782</v>
+        <v>-0.41871472783541858</v>
       </c>
       <c r="Y51" s="1">
         <f t="shared" si="42"/>
-        <v>-2.8019720624486366</v>
+        <v>-0.59064061790095412</v>
       </c>
       <c r="Z51" s="1">
         <f t="shared" si="43"/>
-        <v>2.8019720624486366</v>
+        <v>0.59064061790095412</v>
       </c>
       <c r="AA51" s="1">
         <f t="shared" si="44"/>
-        <v>0.3861955628594943</v>
+        <v>1.0449795547478418</v>
       </c>
       <c r="AB51" s="1">
         <f t="shared" si="45"/>
-        <v>0.41423619917153531</v>
+        <v>0.74040219378426964</v>
       </c>
       <c r="AC51" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9927,38 +9927,38 @@
         <v>NO</v>
       </c>
       <c r="AI51">
-        <v>601</v>
+        <v>555</v>
       </c>
       <c r="AJ51">
-        <v>612.95000000000005</v>
+        <v>558</v>
       </c>
       <c r="AK51">
-        <v>597</v>
+        <v>546.4</v>
       </c>
       <c r="AL51">
-        <v>601.1</v>
+        <v>549.29999999999995</v>
       </c>
       <c r="AM51">
-        <v>-6.8999999999999773</v>
+        <v>-1.1500000000000909</v>
       </c>
       <c r="AN51">
-        <v>-1.1348684210526281</v>
+        <v>-0.2089199745662805</v>
       </c>
       <c r="AO51" s="1">
         <f t="shared" si="52"/>
-        <v>1.6638935108156862E-2</v>
+        <v>-1.0270270270270352</v>
       </c>
       <c r="AP51" s="1">
         <f t="shared" si="53"/>
-        <v>1.6638935108156862E-2</v>
+        <v>1.0270270270270352</v>
       </c>
       <c r="AQ51" s="1">
         <f t="shared" si="54"/>
-        <v>1.9713857927133625</v>
+        <v>0.54054054054054057</v>
       </c>
       <c r="AR51" s="1">
         <f t="shared" si="55"/>
-        <v>0.66555740432612309</v>
+        <v>0.52794465683596892</v>
       </c>
       <c r="AS51" t="str">
         <f t="shared" si="56"/>

--- a/techniqo/candlepattern/nifty_next_50.xlsx
+++ b/techniqo/candlepattern/nifty_next_50.xlsx
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AK9" sqref="AK9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,45 +840,45 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>1350</v>
+        <v>1384.4</v>
       </c>
       <c r="C2">
-        <v>1383.25</v>
+        <v>1396.45</v>
       </c>
       <c r="D2">
-        <v>1343.3</v>
+        <v>1376</v>
       </c>
       <c r="E2">
-        <v>1367.35</v>
+        <v>1389.7</v>
       </c>
       <c r="F2">
-        <v>45.799999999999947</v>
+        <v>2.799999999999955</v>
       </c>
       <c r="G2">
-        <v>3.465627482879948</v>
+        <v>0.2018891051986412</v>
       </c>
       <c r="H2" s="1">
         <f t="shared" ref="H2:H33" si="0">(E2-B2)/B2*100</f>
-        <v>1.2851851851851785</v>
+        <v>0.38283733025136912</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" ref="I2:I33" si="1">ABS(H2)</f>
-        <v>1.2851851851851785</v>
+        <v>0.38283733025136912</v>
       </c>
       <c r="J2" s="1">
         <f t="shared" ref="J2:J33" si="2">IF(H2&gt;=0,(C2-E2)/E2*100,(C2-B2)/B2*100)</f>
-        <v>1.1628332175375793</v>
+        <v>0.48571634165647259</v>
       </c>
       <c r="K2" s="1">
         <f t="shared" ref="K2:K33" si="3">IF(H2&gt;=0,(B2-D2)/B2*100,(E2-D2)/E2*100)</f>
-        <v>0.49629629629629962</v>
+        <v>0.60676105171916284</v>
       </c>
       <c r="L2" s="1" t="str">
         <f t="shared" ref="L2:L33" si="4">IF(AND((K2-J2)&gt;1.5,I2&lt;0.5),"YES","NO")</f>
         <v>NO</v>
       </c>
       <c r="M2" t="str">
-        <f t="shared" ref="M2:M33" si="5">IF(AND((K2-J2)&gt;1.5,I2&lt;2,I2&gt;0.5),"YES","NO")</f>
+        <f t="shared" ref="M2:M33" si="5">IF(AND((K2-J2)&gt;1.5,I2&lt;2,I2&gt;0.5,H2&gt;0),"YES","NO")</f>
         <v>NO</v>
       </c>
       <c r="N2" t="str">
@@ -886,7 +886,7 @@
         <v>NO</v>
       </c>
       <c r="O2" s="1" t="str">
-        <f t="shared" ref="O2:O33" si="7">IF(AND((J2-K2)&gt;1.5,I2&lt;2,I2&gt;0.5),"YES","NO")</f>
+        <f t="shared" ref="O2:O33" si="7">IF(AND((J2-K2)&gt;1.5,I2&lt;2,I2&gt;0.5,H2&lt;0),"YES","NO")</f>
         <v>NO</v>
       </c>
       <c r="P2" s="1" t="str">
@@ -902,38 +902,38 @@
         <v>NO</v>
       </c>
       <c r="S2">
-        <v>1346.15</v>
+        <v>1368</v>
       </c>
       <c r="T2">
-        <v>1354</v>
+        <v>1389</v>
       </c>
       <c r="U2">
-        <v>1315.65</v>
+        <v>1350.75</v>
       </c>
       <c r="V2">
-        <v>1321.55</v>
+        <v>1386.9</v>
       </c>
       <c r="W2">
-        <v>-21.700000000000049</v>
+        <v>19.550000000000178</v>
       </c>
       <c r="X2">
-        <v>-1.615484831565237</v>
+        <v>1.429772918418853</v>
       </c>
       <c r="Y2" s="1">
         <f t="shared" ref="Y2:Y33" si="11">(V2-S2)/S2*100</f>
-        <v>-1.8274337926679891</v>
+        <v>1.3815789473684277</v>
       </c>
       <c r="Z2" s="1">
         <f t="shared" ref="Z2:Z33" si="12">ABS(Y2)</f>
-        <v>1.8274337926679891</v>
+        <v>1.3815789473684277</v>
       </c>
       <c r="AA2" s="1">
         <f t="shared" ref="AA2:AA33" si="13">IF(Y2&gt;=0,(T2-V2)/V2*100,(T2-S2)/S2*100)</f>
-        <v>0.58314452327005972</v>
+        <v>0.15141682889897679</v>
       </c>
       <c r="AB2" s="1">
         <f t="shared" ref="AB2:AB33" si="14">IF(Y2&gt;=0,(S2-U2)/S2*100,(V2-U2)/V2*100)</f>
-        <v>0.44644546176836775</v>
+        <v>1.2609649122807016</v>
       </c>
       <c r="AC2" s="1" t="str">
         <f t="shared" ref="AC2:AC33" si="15">IF(AND(I2&lt;Z2/2,S2&gt;E2,E2&gt;(S2+V2)/2,V2&lt;B2,B2&lt;(S2+V2)/2),"YES","NO")</f>
@@ -960,38 +960,38 @@
         <v>NO</v>
       </c>
       <c r="AI2">
-        <v>1327.45</v>
+        <v>1350</v>
       </c>
       <c r="AJ2">
-        <v>1355.4</v>
+        <v>1383.25</v>
       </c>
       <c r="AK2">
-        <v>1307</v>
+        <v>1343.3</v>
       </c>
       <c r="AL2">
-        <v>1343.25</v>
+        <v>1367.35</v>
       </c>
       <c r="AM2">
-        <v>27.349999999999909</v>
+        <v>45.799999999999947</v>
       </c>
       <c r="AN2">
-        <v>2.078425412265362</v>
+        <v>3.465627482879948</v>
       </c>
       <c r="AO2" s="1">
         <f t="shared" ref="AO2:AO33" si="21">(AL2-AI2)/AI2*100</f>
-        <v>1.1902519868921582</v>
+        <v>1.2851851851851785</v>
       </c>
       <c r="AP2" s="1">
         <f t="shared" ref="AP2:AP33" si="22">ABS(AO2)</f>
-        <v>1.1902519868921582</v>
+        <v>1.2851851851851785</v>
       </c>
       <c r="AQ2" s="1">
         <f t="shared" ref="AQ2:AQ33" si="23">IF(AO2&gt;=0,(AJ2-AL2)/AL2*100,(AJ2-AI2)/AI2*100)</f>
-        <v>0.90452261306533333</v>
+        <v>1.1628332175375793</v>
       </c>
       <c r="AR2" s="1">
         <f t="shared" ref="AR2:AR33" si="24">IF(AO2&gt;=0,(AI2-AK2)/AI2*100,(AL2-AK2)/AL2*100)</f>
-        <v>1.5405476665787823</v>
+        <v>0.49629629629629962</v>
       </c>
       <c r="AS2" t="str">
         <f t="shared" ref="AS2:AS33" si="25">IF(AND(AO2&lt;0,AP2&gt;1.5,Y2&lt;0,Z2&gt;1.5,AL2&gt;S2,AL2&lt;E2,H2&gt;0,I2&gt;1.5),"YES","NO")</f>
@@ -1023,30 +1023,30 @@
         <v>51</v>
       </c>
       <c r="B3">
-        <v>16898</v>
+        <v>16999.95</v>
       </c>
       <c r="C3">
-        <v>16898</v>
+        <v>16999.95</v>
       </c>
       <c r="D3">
-        <v>16475</v>
+        <v>16485.75</v>
       </c>
       <c r="E3">
-        <v>16516.150000000001</v>
+        <v>16525.099999999999</v>
       </c>
       <c r="F3">
-        <v>-303.09999999999849</v>
+        <v>-370.5</v>
       </c>
       <c r="G3">
-        <v>-1.8021017584018231</v>
+        <v>-2.1928786192854952</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" si="0"/>
-        <v>-2.2597348798674313</v>
+        <v>-2.7932435095397468</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" si="1"/>
-        <v>2.2597348798674313</v>
+        <v>2.7932435095397468</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" si="2"/>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="K3" s="1">
         <f t="shared" si="3"/>
-        <v>0.24915007432120351</v>
+        <v>0.23812261347888092</v>
       </c>
       <c r="L3" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1085,38 +1085,38 @@
         <v>NO</v>
       </c>
       <c r="S3">
-        <v>16734.95</v>
+        <v>16620</v>
       </c>
       <c r="T3">
-        <v>16898</v>
+        <v>17050</v>
       </c>
       <c r="U3">
-        <v>16450.099999999999</v>
+        <v>16466.150000000001</v>
       </c>
       <c r="V3">
-        <v>16819.25</v>
+        <v>16895.599999999999</v>
       </c>
       <c r="W3">
-        <v>293.15000000000151</v>
+        <v>379.44999999999709</v>
       </c>
       <c r="X3">
-        <v>1.773860741493767</v>
+        <v>2.2974482551926272</v>
       </c>
       <c r="Y3" s="1">
         <f t="shared" si="11"/>
-        <v>0.50373619281802018</v>
+        <v>1.6582430806257435</v>
       </c>
       <c r="Z3" s="1">
         <f t="shared" si="12"/>
-        <v>0.50373619281802018</v>
+        <v>1.6582430806257435</v>
       </c>
       <c r="AA3" s="1">
         <f t="shared" si="13"/>
-        <v>0.46821350535844342</v>
+        <v>0.91384739222046851</v>
       </c>
       <c r="AB3" s="1">
         <f t="shared" si="14"/>
-        <v>1.7021263881876085</v>
+        <v>0.92569193742478073</v>
       </c>
       <c r="AC3" s="1" t="str">
         <f t="shared" si="15"/>
@@ -1143,38 +1143,38 @@
         <v>NO</v>
       </c>
       <c r="AI3">
-        <v>16584.75</v>
+        <v>16898</v>
       </c>
       <c r="AJ3">
-        <v>16781.45</v>
+        <v>16898</v>
       </c>
       <c r="AK3">
-        <v>16480</v>
+        <v>16475</v>
       </c>
       <c r="AL3">
-        <v>16526.099999999999</v>
+        <v>16516.150000000001</v>
       </c>
       <c r="AM3">
-        <v>-105.3500000000022</v>
+        <v>-303.09999999999849</v>
       </c>
       <c r="AN3">
-        <v>-0.63343845545639244</v>
+        <v>-1.8021017584018231</v>
       </c>
       <c r="AO3" s="1">
         <f t="shared" si="21"/>
-        <v>-0.35363813141591793</v>
+        <v>-2.2597348798674313</v>
       </c>
       <c r="AP3" s="1">
         <f t="shared" si="22"/>
-        <v>0.35363813141591793</v>
+        <v>2.2597348798674313</v>
       </c>
       <c r="AQ3" s="1">
         <f t="shared" si="23"/>
-        <v>1.1860293341774866</v>
+        <v>0</v>
       </c>
       <c r="AR3" s="1">
         <f t="shared" si="24"/>
-        <v>0.27895268696182735</v>
+        <v>0.24915007432120351</v>
       </c>
       <c r="AS3" t="str">
         <f t="shared" si="25"/>
@@ -1206,38 +1206,38 @@
         <v>52</v>
       </c>
       <c r="B4">
-        <v>276.89999999999998</v>
+        <v>267</v>
       </c>
       <c r="C4">
-        <v>277.8</v>
+        <v>272.89999999999998</v>
       </c>
       <c r="D4">
-        <v>265.10000000000002</v>
+        <v>265.35000000000002</v>
       </c>
       <c r="E4">
-        <v>268.10000000000002</v>
+        <v>267.7</v>
       </c>
       <c r="F4">
-        <v>-3.6999999999999891</v>
+        <v>-1.4499999999999891</v>
       </c>
       <c r="G4">
-        <v>-1.3612950699043369</v>
+        <v>-0.53873304848597015</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>-3.1780426146623166</v>
+        <v>0.26217228464419046</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="1"/>
-        <v>3.1780426146623166</v>
+        <v>0.26217228464419046</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="2"/>
-        <v>0.32502708559047822</v>
+        <v>1.9424729174448967</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="3"/>
-        <v>1.1189854531891084</v>
+        <v>0.61797752808987916</v>
       </c>
       <c r="L4" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1268,38 +1268,38 @@
         <v>NO</v>
       </c>
       <c r="S4">
-        <v>272.7</v>
+        <v>269.8</v>
       </c>
       <c r="T4">
-        <v>274.89999999999998</v>
+        <v>275.25</v>
       </c>
       <c r="U4">
-        <v>267.35000000000002</v>
+        <v>267.8</v>
       </c>
       <c r="V4">
-        <v>271.8</v>
+        <v>269.14999999999998</v>
       </c>
       <c r="W4">
-        <v>-0.30000000000001142</v>
+        <v>1.049999999999955</v>
       </c>
       <c r="X4">
-        <v>-0.11025358324145949</v>
+        <v>0.39164490861617102</v>
       </c>
       <c r="Y4" s="1">
         <f t="shared" si="11"/>
-        <v>-0.3300330033003217</v>
+        <v>-0.24091919940698076</v>
       </c>
       <c r="Z4" s="1">
         <f t="shared" si="12"/>
-        <v>0.3300330033003217</v>
+        <v>0.24091919940698076</v>
       </c>
       <c r="AA4" s="1">
         <f t="shared" si="13"/>
-        <v>0.80674734140080262</v>
+        <v>2.0200148257968826</v>
       </c>
       <c r="AB4" s="1">
         <f t="shared" si="14"/>
-        <v>1.6372332597498116</v>
+        <v>0.50157904514210139</v>
       </c>
       <c r="AC4" s="1" t="str">
         <f t="shared" si="15"/>
@@ -1326,38 +1326,38 @@
         <v>NO</v>
       </c>
       <c r="AI4">
-        <v>265.64999999999998</v>
+        <v>276.89999999999998</v>
       </c>
       <c r="AJ4">
-        <v>279.05</v>
+        <v>277.8</v>
       </c>
       <c r="AK4">
-        <v>265</v>
+        <v>265.10000000000002</v>
       </c>
       <c r="AL4">
-        <v>272.10000000000002</v>
+        <v>268.10000000000002</v>
       </c>
       <c r="AM4">
-        <v>10.400000000000031</v>
+        <v>-3.6999999999999891</v>
       </c>
       <c r="AN4">
-        <v>3.9740160489109799</v>
+        <v>-1.3612950699043369</v>
       </c>
       <c r="AO4" s="1">
         <f t="shared" si="21"/>
-        <v>2.42800677583288</v>
+        <v>-3.1780426146623166</v>
       </c>
       <c r="AP4" s="1">
         <f t="shared" si="22"/>
-        <v>2.42800677583288</v>
+        <v>3.1780426146623166</v>
       </c>
       <c r="AQ4" s="1">
         <f t="shared" si="23"/>
-        <v>2.554208011760378</v>
+        <v>0.32502708559047822</v>
       </c>
       <c r="AR4" s="1">
         <f t="shared" si="24"/>
-        <v>0.24468285337849702</v>
+        <v>1.1189854531891084</v>
       </c>
       <c r="AS4" t="str">
         <f t="shared" si="25"/>
@@ -1389,38 +1389,38 @@
         <v>53</v>
       </c>
       <c r="B5">
-        <v>214.3</v>
+        <v>217.95</v>
       </c>
       <c r="C5">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D5">
-        <v>209.8</v>
+        <v>216.05</v>
       </c>
       <c r="E5">
-        <v>211.1</v>
+        <v>218.6</v>
       </c>
       <c r="F5">
-        <v>-1.3499999999999941</v>
+        <v>1.1500000000000059</v>
       </c>
       <c r="G5">
-        <v>-0.63544363379618463</v>
+        <v>0.52885720855369323</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="0"/>
-        <v>-1.4932337844143801</v>
+        <v>0.29823353980270967</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="1"/>
-        <v>1.4932337844143801</v>
+        <v>0.29823353980270967</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="2"/>
-        <v>1.2599160055996212</v>
+        <v>1.0978956999085112</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="3"/>
-        <v>0.61582188536237936</v>
+        <v>0.87175957788482561</v>
       </c>
       <c r="L5" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1451,38 +1451,38 @@
         <v>NO</v>
       </c>
       <c r="S5">
-        <v>212.95</v>
+        <v>210.95</v>
       </c>
       <c r="T5">
-        <v>214.5</v>
+        <v>217.85</v>
       </c>
       <c r="U5">
-        <v>211.1</v>
+        <v>210.55</v>
       </c>
       <c r="V5">
-        <v>212.45</v>
+        <v>217.45</v>
       </c>
       <c r="W5">
-        <v>-0.5</v>
+        <v>6.3499999999999943</v>
       </c>
       <c r="X5">
-        <v>-0.234796900680911</v>
+        <v>3.0080530554239671</v>
       </c>
       <c r="Y5" s="1">
         <f t="shared" si="11"/>
-        <v>-0.23479690068091102</v>
+        <v>3.0812988859919415</v>
       </c>
       <c r="Z5" s="1">
         <f t="shared" si="12"/>
-        <v>0.23479690068091102</v>
+        <v>3.0812988859919415</v>
       </c>
       <c r="AA5" s="1">
         <f t="shared" si="13"/>
-        <v>0.72787039211082949</v>
+        <v>0.18395033340998193</v>
       </c>
       <c r="AB5" s="1">
         <f t="shared" si="14"/>
-        <v>0.63544363379618463</v>
+        <v>0.18961839298410871</v>
       </c>
       <c r="AC5" s="1" t="str">
         <f t="shared" si="15"/>
@@ -1509,38 +1509,38 @@
         <v>NO</v>
       </c>
       <c r="AI5">
-        <v>210.8</v>
+        <v>214.3</v>
       </c>
       <c r="AJ5">
-        <v>214.45</v>
+        <v>217</v>
       </c>
       <c r="AK5">
-        <v>207.3</v>
+        <v>209.8</v>
       </c>
       <c r="AL5">
-        <v>212.95</v>
+        <v>211.1</v>
       </c>
       <c r="AM5">
-        <v>3.5</v>
+        <v>-1.3499999999999941</v>
       </c>
       <c r="AN5">
-        <v>1.6710432084029601</v>
+        <v>-0.63544363379618463</v>
       </c>
       <c r="AO5" s="1">
         <f t="shared" si="21"/>
-        <v>1.019924098671716</v>
+        <v>-1.4932337844143801</v>
       </c>
       <c r="AP5" s="1">
         <f t="shared" si="22"/>
-        <v>1.019924098671716</v>
+        <v>1.4932337844143801</v>
       </c>
       <c r="AQ5" s="1">
         <f t="shared" si="23"/>
-        <v>0.70439070204273313</v>
+        <v>1.2599160055996212</v>
       </c>
       <c r="AR5" s="1">
         <f t="shared" si="24"/>
-        <v>1.6603415559772294</v>
+        <v>0.61582188536237936</v>
       </c>
       <c r="AS5" t="str">
         <f t="shared" si="25"/>
@@ -1572,38 +1572,38 @@
         <v>54</v>
       </c>
       <c r="B6">
-        <v>806.5</v>
+        <v>844</v>
       </c>
       <c r="C6">
-        <v>815</v>
+        <v>851.35</v>
       </c>
       <c r="D6">
-        <v>791.25</v>
+        <v>823.1</v>
       </c>
       <c r="E6">
-        <v>796.15</v>
+        <v>832.1</v>
       </c>
       <c r="F6">
-        <v>-6.8000000000000682</v>
+        <v>13.30000000000007</v>
       </c>
       <c r="G6">
-        <v>-0.84687714054425167</v>
+        <v>1.6243282852955629</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="0"/>
-        <v>-1.2833230006199656</v>
+        <v>-1.4099526066350685</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="1"/>
-        <v>1.2833230006199656</v>
+        <v>1.4099526066350685</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="2"/>
-        <v>1.0539367637941723</v>
+        <v>0.87085308056872313</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="3"/>
-        <v>0.615461910444009</v>
+        <v>1.0816007691383247</v>
       </c>
       <c r="L6" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1634,38 +1634,38 @@
         <v>NO</v>
       </c>
       <c r="S6">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="T6">
-        <v>809.2</v>
+        <v>840.95</v>
       </c>
       <c r="U6">
-        <v>790.35</v>
+        <v>798.1</v>
       </c>
       <c r="V6">
-        <v>802.95</v>
+        <v>818.8</v>
       </c>
       <c r="W6">
-        <v>0.2000000000000455</v>
+        <v>22.649999999999981</v>
       </c>
       <c r="X6">
-        <v>2.4914356898168229E-2</v>
+        <v>2.8449412799095621</v>
       </c>
       <c r="Y6" s="1">
         <f t="shared" si="11"/>
-        <v>0.11845386533666402</v>
+        <v>2.3499999999999943</v>
       </c>
       <c r="Z6" s="1">
         <f t="shared" si="12"/>
-        <v>0.11845386533666402</v>
+        <v>2.3499999999999943</v>
       </c>
       <c r="AA6" s="1">
         <f t="shared" si="13"/>
-        <v>0.77837972476492934</v>
+        <v>2.7051783097215552</v>
       </c>
       <c r="AB6" s="1">
         <f t="shared" si="14"/>
-        <v>1.4526184538653337</v>
+        <v>0.23749999999999719</v>
       </c>
       <c r="AC6" s="1" t="str">
         <f t="shared" si="15"/>
@@ -1692,38 +1692,38 @@
         <v>NO</v>
       </c>
       <c r="AI6">
-        <v>809.9</v>
+        <v>806.5</v>
       </c>
       <c r="AJ6">
-        <v>818.95</v>
+        <v>815</v>
       </c>
       <c r="AK6">
-        <v>794.65</v>
+        <v>791.25</v>
       </c>
       <c r="AL6">
-        <v>802.75</v>
+        <v>796.15</v>
       </c>
       <c r="AM6">
-        <v>0.89999999999997726</v>
+        <v>-6.8000000000000682</v>
       </c>
       <c r="AN6">
-        <v>0.1122404439733089</v>
+        <v>-0.84687714054425167</v>
       </c>
       <c r="AO6" s="1">
         <f t="shared" si="21"/>
-        <v>-0.88282504012840812</v>
+        <v>-1.2833230006199656</v>
       </c>
       <c r="AP6" s="1">
         <f t="shared" si="22"/>
-        <v>0.88282504012840812</v>
+        <v>1.2833230006199656</v>
       </c>
       <c r="AQ6" s="1">
         <f t="shared" si="23"/>
-        <v>1.1174219039387663</v>
+        <v>1.0539367637941723</v>
       </c>
       <c r="AR6" s="1">
         <f t="shared" si="24"/>
-        <v>1.0090314543755867</v>
+        <v>0.615461910444009</v>
       </c>
       <c r="AS6" t="str">
         <f t="shared" si="25"/>
@@ -1755,38 +1755,38 @@
         <v>55</v>
       </c>
       <c r="B7">
-        <v>2250</v>
+        <v>2152.5500000000002</v>
       </c>
       <c r="C7">
-        <v>2258.9499999999998</v>
+        <v>2173</v>
       </c>
       <c r="D7">
-        <v>2150.0500000000002</v>
+        <v>2130.6999999999998</v>
       </c>
       <c r="E7">
-        <v>2162.6999999999998</v>
+        <v>2135.9499999999998</v>
       </c>
       <c r="F7">
-        <v>-76.650000000000091</v>
+        <v>-0.20000000000027279</v>
       </c>
       <c r="G7">
-        <v>-3.4228682430169508</v>
+        <v>-9.3626383915114963E-3</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="0"/>
-        <v>-3.8800000000000079</v>
+        <v>-0.77117836984043864</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="1"/>
-        <v>3.8800000000000079</v>
+        <v>0.77117836984043864</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="2"/>
-        <v>0.39777777777776974</v>
+        <v>0.95003600380942688</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="3"/>
-        <v>0.58491700189576168</v>
+        <v>0.24579227041831506</v>
       </c>
       <c r="L7" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1817,38 +1817,38 @@
         <v>NO</v>
       </c>
       <c r="S7">
-        <v>2241.9</v>
+        <v>2185</v>
       </c>
       <c r="T7">
-        <v>2273</v>
+        <v>2185</v>
       </c>
       <c r="U7">
-        <v>2226.0500000000002</v>
+        <v>2130</v>
       </c>
       <c r="V7">
-        <v>2239.35</v>
+        <v>2136.15</v>
       </c>
       <c r="W7">
-        <v>1.5999999999999091</v>
+        <v>-26.549999999999731</v>
       </c>
       <c r="X7">
-        <v>7.1500391017759304E-2</v>
+        <v>-1.2276321265085179</v>
       </c>
       <c r="Y7" s="1">
         <f t="shared" si="11"/>
-        <v>-0.11374280744012585</v>
+        <v>-2.2356979405034281</v>
       </c>
       <c r="Z7" s="1">
         <f t="shared" si="12"/>
-        <v>0.11374280744012585</v>
+        <v>2.2356979405034281</v>
       </c>
       <c r="AA7" s="1">
         <f t="shared" si="13"/>
-        <v>1.3872162005441773</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="1">
         <f t="shared" si="14"/>
-        <v>0.59392234353717499</v>
+        <v>0.28790113053859001</v>
       </c>
       <c r="AC7" s="1" t="str">
         <f t="shared" si="15"/>
@@ -1875,38 +1875,38 @@
         <v>NO</v>
       </c>
       <c r="AI7">
-        <v>2225</v>
+        <v>2250</v>
       </c>
       <c r="AJ7">
-        <v>2244.9499999999998</v>
+        <v>2258.9499999999998</v>
       </c>
       <c r="AK7">
-        <v>2215</v>
+        <v>2150.0500000000002</v>
       </c>
       <c r="AL7">
-        <v>2237.75</v>
+        <v>2162.6999999999998</v>
       </c>
       <c r="AM7">
-        <v>15.05000000000018</v>
+        <v>-76.650000000000091</v>
       </c>
       <c r="AN7">
-        <v>0.67710442254916015</v>
+        <v>-3.4228682430169508</v>
       </c>
       <c r="AO7" s="1">
         <f t="shared" si="21"/>
-        <v>0.5730337078651685</v>
+        <v>-3.8800000000000079</v>
       </c>
       <c r="AP7" s="1">
         <f t="shared" si="22"/>
-        <v>0.5730337078651685</v>
+        <v>3.8800000000000079</v>
       </c>
       <c r="AQ7" s="1">
         <f t="shared" si="23"/>
-        <v>0.32175175957992708</v>
+        <v>0.39777777777776974</v>
       </c>
       <c r="AR7" s="1">
         <f t="shared" si="24"/>
-        <v>0.44943820224719105</v>
+        <v>0.58491700189576168</v>
       </c>
       <c r="AS7" t="str">
         <f t="shared" si="25"/>
@@ -1938,38 +1938,38 @@
         <v>56</v>
       </c>
       <c r="B8">
-        <v>2467</v>
+        <v>2509.9499999999998</v>
       </c>
       <c r="C8">
-        <v>2498.3000000000002</v>
+        <v>2532</v>
       </c>
       <c r="D8">
-        <v>2456.9499999999998</v>
+        <v>2500</v>
       </c>
       <c r="E8">
-        <v>2470.6</v>
+        <v>2518.1999999999998</v>
       </c>
       <c r="F8">
-        <v>9.4499999999998181</v>
+        <v>18.849999999999909</v>
       </c>
       <c r="G8">
-        <v>0.3839668447676825</v>
+        <v>0.75419609098365215</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="0"/>
-        <v>0.14592622618564691</v>
+        <v>0.32869180660969344</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="1"/>
-        <v>0.14592622618564691</v>
+        <v>0.32869180660969344</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="2"/>
-        <v>1.1211851372136434</v>
+        <v>0.54801048367882543</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="3"/>
-        <v>0.40737738143494856</v>
+        <v>0.39642223948683514</v>
       </c>
       <c r="L8" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2000,42 +2000,42 @@
         <v>NO</v>
       </c>
       <c r="S8">
-        <v>2480</v>
+        <v>2470.65</v>
       </c>
       <c r="T8">
-        <v>2493.6</v>
+        <v>2517.0500000000002</v>
       </c>
       <c r="U8">
-        <v>2453.3000000000002</v>
+        <v>2460.6</v>
       </c>
       <c r="V8">
-        <v>2461.15</v>
+        <v>2499.35</v>
       </c>
       <c r="W8">
-        <v>-10.900000000000089</v>
+        <v>28.75</v>
       </c>
       <c r="X8">
-        <v>-0.44092959284804478</v>
+        <v>1.163684934833644</v>
       </c>
       <c r="Y8" s="1">
         <f t="shared" si="11"/>
-        <v>-0.76008064516128671</v>
+        <v>1.1616376257260161</v>
       </c>
       <c r="Z8" s="1">
         <f t="shared" si="12"/>
-        <v>0.76008064516128671</v>
+        <v>1.1616376257260161</v>
       </c>
       <c r="AA8" s="1">
         <f t="shared" si="13"/>
-        <v>0.54838709677418984</v>
+        <v>0.70818412787325802</v>
       </c>
       <c r="AB8" s="1">
         <f t="shared" si="14"/>
-        <v>0.31895658533611965</v>
+        <v>0.40677554489709927</v>
       </c>
       <c r="AC8" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AD8" s="1" t="str">
         <f t="shared" si="16"/>
@@ -2058,38 +2058,38 @@
         <v>NO</v>
       </c>
       <c r="AI8">
-        <v>2442.5</v>
+        <v>2467</v>
       </c>
       <c r="AJ8">
-        <v>2505</v>
+        <v>2498.3000000000002</v>
       </c>
       <c r="AK8">
-        <v>2442.5</v>
+        <v>2456.9499999999998</v>
       </c>
       <c r="AL8">
-        <v>2472.0500000000002</v>
+        <v>2470.6</v>
       </c>
       <c r="AM8">
-        <v>37</v>
+        <v>9.4499999999998181</v>
       </c>
       <c r="AN8">
-        <v>1.519475986119381</v>
+        <v>0.3839668447676825</v>
       </c>
       <c r="AO8" s="1">
         <f t="shared" si="21"/>
-        <v>1.2098259979529247</v>
+        <v>0.14592622618564691</v>
       </c>
       <c r="AP8" s="1">
         <f t="shared" si="22"/>
-        <v>1.2098259979529247</v>
+        <v>0.14592622618564691</v>
       </c>
       <c r="AQ8" s="1">
         <f t="shared" si="23"/>
-        <v>1.3329018426002637</v>
+        <v>1.1211851372136434</v>
       </c>
       <c r="AR8" s="1">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.40737738143494856</v>
       </c>
       <c r="AS8" t="str">
         <f t="shared" si="25"/>
@@ -2121,38 +2121,38 @@
         <v>57</v>
       </c>
       <c r="B9">
-        <v>312.5</v>
+        <v>304.7</v>
       </c>
       <c r="C9">
-        <v>318.39999999999998</v>
+        <v>307.7</v>
       </c>
       <c r="D9">
-        <v>297.60000000000002</v>
+        <v>303</v>
       </c>
       <c r="E9">
-        <v>301.39999999999998</v>
+        <v>305.10000000000002</v>
       </c>
       <c r="F9">
-        <v>-10.400000000000031</v>
+        <v>1.4000000000000341</v>
       </c>
       <c r="G9">
-        <v>-3.335471456061589</v>
+        <v>0.46098123147844389</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="0"/>
-        <v>-3.5520000000000072</v>
+        <v>0.13127666557270565</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="1"/>
-        <v>3.5520000000000072</v>
+        <v>0.13127666557270565</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="2"/>
-        <v>1.8879999999999928</v>
+        <v>0.85217961324154878</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="3"/>
-        <v>1.2607830126078152</v>
+        <v>0.55792582868394769</v>
       </c>
       <c r="L9" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2183,38 +2183,38 @@
         <v>NO</v>
       </c>
       <c r="S9">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="T9">
-        <v>314.5</v>
+        <v>305</v>
       </c>
       <c r="U9">
-        <v>303</v>
+        <v>296.39999999999998</v>
       </c>
       <c r="V9">
-        <v>311.8</v>
+        <v>303.7</v>
       </c>
       <c r="W9">
-        <v>4.75</v>
+        <v>2.3000000000000109</v>
       </c>
       <c r="X9">
-        <v>1.546979319329099</v>
+        <v>0.76310550763105889</v>
       </c>
       <c r="Y9" s="1">
         <f t="shared" si="11"/>
-        <v>2.5657894736842142</v>
+        <v>0.56291390728476443</v>
       </c>
       <c r="Z9" s="1">
         <f t="shared" si="12"/>
-        <v>2.5657894736842142</v>
+        <v>0.56291390728476443</v>
       </c>
       <c r="AA9" s="1">
         <f t="shared" si="13"/>
-        <v>0.86593970493905981</v>
+        <v>0.42805400065854843</v>
       </c>
       <c r="AB9" s="1">
         <f t="shared" si="14"/>
-        <v>0.3289473684210526</v>
+        <v>1.8543046357615969</v>
       </c>
       <c r="AC9" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2241,38 +2241,38 @@
         <v>NO</v>
       </c>
       <c r="AI9">
-        <v>302</v>
+        <v>312.5</v>
       </c>
       <c r="AJ9">
-        <v>309.45</v>
+        <v>318.39999999999998</v>
       </c>
       <c r="AK9">
-        <v>299</v>
+        <v>297.60000000000002</v>
       </c>
       <c r="AL9">
-        <v>307.05</v>
+        <v>301.39999999999998</v>
       </c>
       <c r="AM9">
-        <v>6.1999999999999886</v>
+        <v>-10.400000000000031</v>
       </c>
       <c r="AN9">
-        <v>2.060827654977559</v>
+        <v>-3.335471456061589</v>
       </c>
       <c r="AO9" s="1">
         <f t="shared" si="21"/>
-        <v>1.6721854304635801</v>
+        <v>-3.5520000000000072</v>
       </c>
       <c r="AP9" s="1">
         <f t="shared" si="22"/>
-        <v>1.6721854304635801</v>
+        <v>3.5520000000000072</v>
       </c>
       <c r="AQ9" s="1">
         <f t="shared" si="23"/>
-        <v>0.78163165608206386</v>
+        <v>1.8879999999999928</v>
       </c>
       <c r="AR9" s="1">
         <f t="shared" si="24"/>
-        <v>0.99337748344370869</v>
+        <v>1.2607830126078152</v>
       </c>
       <c r="AS9" t="str">
         <f t="shared" si="25"/>
@@ -2304,38 +2304,38 @@
         <v>58</v>
       </c>
       <c r="B10">
-        <v>46.15</v>
+        <v>46.55</v>
       </c>
       <c r="C10">
-        <v>46.65</v>
+        <v>46.7</v>
       </c>
       <c r="D10">
-        <v>46</v>
+        <v>45.85</v>
       </c>
       <c r="E10">
-        <v>46.15</v>
+        <v>46.45</v>
       </c>
       <c r="F10">
-        <v>0.19999999999999571</v>
+        <v>-9.9999999999994316E-2</v>
       </c>
       <c r="G10">
-        <v>0.43525571273122032</v>
+        <v>-0.2148227712137365</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.21482277121373647</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.21482277121373647</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="2"/>
-        <v>1.0834236186348862</v>
+        <v>0.32223415682063522</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="3"/>
-        <v>0.32502708559046278</v>
+        <v>1.2917115177610363</v>
       </c>
       <c r="L10" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2366,38 +2366,38 @@
         <v>NO</v>
       </c>
       <c r="S10">
-        <v>45.5</v>
+        <v>46.25</v>
       </c>
       <c r="T10">
-        <v>46.1</v>
+        <v>46.7</v>
       </c>
       <c r="U10">
-        <v>45.3</v>
+        <v>45.65</v>
       </c>
       <c r="V10">
-        <v>45.95</v>
+        <v>46.55</v>
       </c>
       <c r="W10">
-        <v>0.35000000000000142</v>
+        <v>0.39999999999999858</v>
       </c>
       <c r="X10">
-        <v>0.76754385964912586</v>
+        <v>0.86673889490790601</v>
       </c>
       <c r="Y10" s="1">
         <f t="shared" si="11"/>
-        <v>0.98901098901099527</v>
+        <v>0.64864864864864258</v>
       </c>
       <c r="Z10" s="1">
         <f t="shared" si="12"/>
-        <v>0.98901098901099527</v>
+        <v>0.64864864864864258</v>
       </c>
       <c r="AA10" s="1">
         <f t="shared" si="13"/>
-        <v>0.3264417845484191</v>
+        <v>0.32223415682063522</v>
       </c>
       <c r="AB10" s="1">
         <f t="shared" si="14"/>
-        <v>0.43956043956044583</v>
+        <v>1.2972972972973003</v>
       </c>
       <c r="AC10" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2424,38 +2424,38 @@
         <v>NO</v>
       </c>
       <c r="AI10">
-        <v>44.8</v>
+        <v>46.15</v>
       </c>
       <c r="AJ10">
-        <v>45.8</v>
+        <v>46.65</v>
       </c>
       <c r="AK10">
-        <v>44.6</v>
+        <v>46</v>
       </c>
       <c r="AL10">
-        <v>45.6</v>
+        <v>46.15</v>
       </c>
       <c r="AM10">
-        <v>1.25</v>
+        <v>0.19999999999999571</v>
       </c>
       <c r="AN10">
-        <v>2.818489289740699</v>
+        <v>0.43525571273122032</v>
       </c>
       <c r="AO10" s="1">
         <f t="shared" si="21"/>
-        <v>1.7857142857142954</v>
+        <v>0</v>
       </c>
       <c r="AP10" s="1">
         <f t="shared" si="22"/>
-        <v>1.7857142857142954</v>
+        <v>0</v>
       </c>
       <c r="AQ10" s="1">
         <f t="shared" si="23"/>
-        <v>0.43859649122806077</v>
+        <v>1.0834236186348862</v>
       </c>
       <c r="AR10" s="1">
         <f t="shared" si="24"/>
-        <v>0.44642857142856196</v>
+        <v>0.32502708559046278</v>
       </c>
       <c r="AS10" t="str">
         <f t="shared" si="25"/>
@@ -2487,38 +2487,38 @@
         <v>59</v>
       </c>
       <c r="B11">
+        <v>581.45000000000005</v>
+      </c>
+      <c r="C11">
+        <v>587.95000000000005</v>
+      </c>
+      <c r="D11">
         <v>577</v>
       </c>
-      <c r="C11">
-        <v>583.1</v>
-      </c>
-      <c r="D11">
-        <v>566</v>
-      </c>
       <c r="E11">
-        <v>577.85</v>
+        <v>584.54999999999995</v>
       </c>
       <c r="F11">
-        <v>5.2000000000000446</v>
+        <v>2.6999999999999318</v>
       </c>
       <c r="G11">
-        <v>0.90805902383655734</v>
+        <v>0.46403712296982591</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="0"/>
-        <v>0.14731369150780291</v>
+        <v>0.53314988391089668</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="1"/>
-        <v>0.14731369150780291</v>
+        <v>0.53314988391089668</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="2"/>
-        <v>0.90854027861901865</v>
+        <v>0.58164399965787206</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="3"/>
-        <v>1.9064124783362217</v>
+        <v>0.76532805916244651</v>
       </c>
       <c r="L11" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2552,35 +2552,35 @@
         <v>577</v>
       </c>
       <c r="T11">
-        <v>578.5</v>
+        <v>583.79999999999995</v>
       </c>
       <c r="U11">
-        <v>564.6</v>
+        <v>572.35</v>
       </c>
       <c r="V11">
-        <v>572.65</v>
+        <v>581.85</v>
       </c>
       <c r="W11">
-        <v>-1.899999999999977</v>
+        <v>4</v>
       </c>
       <c r="X11">
-        <v>-0.33069358628491469</v>
+        <v>0.69222116466210959</v>
       </c>
       <c r="Y11" s="1">
         <f t="shared" si="11"/>
-        <v>-0.75389948006932805</v>
+        <v>0.84055459272097455</v>
       </c>
       <c r="Z11" s="1">
         <f t="shared" si="12"/>
-        <v>0.75389948006932805</v>
+        <v>0.84055459272097455</v>
       </c>
       <c r="AA11" s="1">
         <f t="shared" si="13"/>
-        <v>0.25996533795493937</v>
+        <v>0.33513792214487093</v>
       </c>
       <c r="AB11" s="1">
         <f t="shared" si="14"/>
-        <v>1.4057452195931119</v>
+        <v>0.80589254766030793</v>
       </c>
       <c r="AC11" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2607,38 +2607,38 @@
         <v>NO</v>
       </c>
       <c r="AI11">
-        <v>568.95000000000005</v>
+        <v>577</v>
       </c>
       <c r="AJ11">
-        <v>577</v>
+        <v>583.1</v>
       </c>
       <c r="AK11">
-        <v>562.20000000000005</v>
+        <v>566</v>
       </c>
       <c r="AL11">
-        <v>574.54999999999995</v>
+        <v>577.85</v>
       </c>
       <c r="AM11">
-        <v>12.75</v>
+        <v>5.2000000000000446</v>
       </c>
       <c r="AN11">
-        <v>2.269490922036312</v>
+        <v>0.90805902383655734</v>
       </c>
       <c r="AO11" s="1">
         <f t="shared" si="21"/>
-        <v>0.98426926794971581</v>
+        <v>0.14731369150780291</v>
       </c>
       <c r="AP11" s="1">
         <f t="shared" si="22"/>
-        <v>0.98426926794971581</v>
+        <v>0.14731369150780291</v>
       </c>
       <c r="AQ11" s="1">
         <f t="shared" si="23"/>
-        <v>0.42642067705161357</v>
+        <v>0.90854027861901865</v>
       </c>
       <c r="AR11" s="1">
         <f t="shared" si="24"/>
-        <v>1.1863959926179803</v>
+        <v>1.9064124783362217</v>
       </c>
       <c r="AS11" t="str">
         <f t="shared" si="25"/>
@@ -2670,38 +2670,38 @@
         <v>60</v>
       </c>
       <c r="B12">
-        <v>435.3</v>
+        <v>440.05</v>
       </c>
       <c r="C12">
-        <v>440</v>
+        <v>453.9</v>
       </c>
       <c r="D12">
-        <v>426.35</v>
+        <v>434.55</v>
       </c>
       <c r="E12">
-        <v>430</v>
+        <v>438.65</v>
       </c>
       <c r="F12">
-        <v>-3.1000000000000232</v>
+        <v>-1.4000000000000341</v>
       </c>
       <c r="G12">
-        <v>-0.71577003001616779</v>
+        <v>-0.31814566526531851</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="0"/>
-        <v>-1.2175511141741353</v>
+        <v>-0.31814566526531851</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="1"/>
-        <v>1.2175511141741353</v>
+        <v>0.31814566526531851</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="2"/>
-        <v>1.0797151389846056</v>
+        <v>3.1473696170889598</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="3"/>
-        <v>0.84883720930232032</v>
+        <v>0.93468596831185813</v>
       </c>
       <c r="L12" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="N12" t="str">
         <f t="shared" si="6"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O12" s="1" t="str">
         <f t="shared" si="7"/>
@@ -2732,38 +2732,38 @@
         <v>NO</v>
       </c>
       <c r="S12">
-        <v>430.45</v>
+        <v>430</v>
       </c>
       <c r="T12">
-        <v>439.65</v>
+        <v>445</v>
       </c>
       <c r="U12">
-        <v>427.35</v>
+        <v>429</v>
       </c>
       <c r="V12">
-        <v>433.1</v>
+        <v>440.05</v>
       </c>
       <c r="W12">
-        <v>2.450000000000045</v>
+        <v>10.05000000000001</v>
       </c>
       <c r="X12">
-        <v>0.56890746545920023</v>
+        <v>2.3372093023255842</v>
       </c>
       <c r="Y12" s="1">
         <f t="shared" si="11"/>
-        <v>0.61563480078987898</v>
+        <v>2.3372093023255842</v>
       </c>
       <c r="Z12" s="1">
         <f t="shared" si="12"/>
-        <v>0.61563480078987898</v>
+        <v>2.3372093023255842</v>
       </c>
       <c r="AA12" s="1">
         <f t="shared" si="13"/>
-        <v>1.5123528053567199</v>
+        <v>1.1248721736166318</v>
       </c>
       <c r="AB12" s="1">
         <f t="shared" si="14"/>
-        <v>0.72017655941455827</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AC12" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2790,38 +2790,38 @@
         <v>NO</v>
       </c>
       <c r="AI12">
-        <v>430.6</v>
+        <v>435.3</v>
       </c>
       <c r="AJ12">
-        <v>433.9</v>
+        <v>440</v>
       </c>
       <c r="AK12">
-        <v>425</v>
+        <v>426.35</v>
       </c>
       <c r="AL12">
-        <v>430.65</v>
+        <v>430</v>
       </c>
       <c r="AM12">
-        <v>2.75</v>
+        <v>-3.1000000000000232</v>
       </c>
       <c r="AN12">
-        <v>0.64267352185089976</v>
+        <v>-0.71577003001616779</v>
       </c>
       <c r="AO12" s="1">
         <f t="shared" si="21"/>
-        <v>1.161170459822446E-2</v>
+        <v>-1.2175511141741353</v>
       </c>
       <c r="AP12" s="1">
         <f t="shared" si="22"/>
-        <v>1.161170459822446E-2</v>
+        <v>1.2175511141741353</v>
       </c>
       <c r="AQ12" s="1">
         <f t="shared" si="23"/>
-        <v>0.75467316846627197</v>
+        <v>1.0797151389846056</v>
       </c>
       <c r="AR12" s="1">
         <f t="shared" si="24"/>
-        <v>1.3005109150023275</v>
+        <v>0.84883720930232032</v>
       </c>
       <c r="AS12" t="str">
         <f t="shared" si="25"/>
@@ -2853,38 +2853,38 @@
         <v>61</v>
       </c>
       <c r="B13">
-        <v>12970</v>
+        <v>13040</v>
       </c>
       <c r="C13">
-        <v>13298</v>
+        <v>13274.85</v>
       </c>
       <c r="D13">
-        <v>12759.85</v>
+        <v>12930.55</v>
       </c>
       <c r="E13">
-        <v>12853.55</v>
+        <v>13137.3</v>
       </c>
       <c r="F13">
-        <v>-18.60000000000036</v>
+        <v>55.75</v>
       </c>
       <c r="G13">
-        <v>-0.14449800538371879</v>
+        <v>0.42617273946894668</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="0"/>
-        <v>-0.89784117193524082</v>
+        <v>0.74616564417177356</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="1"/>
-        <v>0.89784117193524082</v>
+        <v>0.74616564417177356</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="2"/>
-        <v>2.5289128758673862</v>
+        <v>1.0470187938160893</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="3"/>
-        <v>0.72898148760458326</v>
+        <v>0.83934049079755157</v>
       </c>
       <c r="L13" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="O13" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="P13" s="1" t="str">
         <f t="shared" si="8"/>
@@ -2915,38 +2915,38 @@
         <v>NO</v>
       </c>
       <c r="S13">
-        <v>12916.8</v>
+        <v>12898</v>
       </c>
       <c r="T13">
-        <v>13040</v>
+        <v>13141.65</v>
       </c>
       <c r="U13">
-        <v>12767</v>
+        <v>12829.85</v>
       </c>
       <c r="V13">
-        <v>12872.15</v>
+        <v>13081.55</v>
       </c>
       <c r="W13">
-        <v>-79.050000000001091</v>
+        <v>228</v>
       </c>
       <c r="X13">
-        <v>-0.61036815121379551</v>
+        <v>1.773829019998366</v>
       </c>
       <c r="Y13" s="1">
         <f t="shared" si="11"/>
-        <v>-0.34567385110863091</v>
+        <v>1.4230888509846431</v>
       </c>
       <c r="Z13" s="1">
         <f t="shared" si="12"/>
-        <v>0.34567385110863091</v>
+        <v>1.4230888509846431</v>
       </c>
       <c r="AA13" s="1">
         <f t="shared" si="13"/>
-        <v>0.95379660597052474</v>
+        <v>0.45942567967863412</v>
       </c>
       <c r="AB13" s="1">
         <f t="shared" si="14"/>
-        <v>0.81687985301600463</v>
+        <v>0.52837649247945129</v>
       </c>
       <c r="AC13" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2973,38 +2973,38 @@
         <v>NO</v>
       </c>
       <c r="AI13">
-        <v>12829.9</v>
+        <v>12970</v>
       </c>
       <c r="AJ13">
-        <v>13024.2</v>
+        <v>13298</v>
       </c>
       <c r="AK13">
-        <v>12716</v>
+        <v>12759.85</v>
       </c>
       <c r="AL13">
-        <v>12951.2</v>
+        <v>12853.55</v>
       </c>
       <c r="AM13">
-        <v>173.10000000000039</v>
+        <v>-18.60000000000036</v>
       </c>
       <c r="AN13">
-        <v>1.354661491145009</v>
+        <v>-0.14449800538371879</v>
       </c>
       <c r="AO13" s="1">
         <f t="shared" si="21"/>
-        <v>0.94544774316246505</v>
+        <v>-0.89784117193524082</v>
       </c>
       <c r="AP13" s="1">
         <f t="shared" si="22"/>
-        <v>0.94544774316246505</v>
+        <v>0.89784117193524082</v>
       </c>
       <c r="AQ13" s="1">
         <f t="shared" si="23"/>
-        <v>0.56365433318920255</v>
+        <v>2.5289128758673862</v>
       </c>
       <c r="AR13" s="1">
         <f t="shared" si="24"/>
-        <v>0.88776997482443076</v>
+        <v>0.72898148760458326</v>
       </c>
       <c r="AS13" t="str">
         <f t="shared" si="25"/>
@@ -3036,38 +3036,38 @@
         <v>62</v>
       </c>
       <c r="B14">
-        <v>371.8</v>
+        <v>377.15</v>
       </c>
       <c r="C14">
-        <v>373.2</v>
+        <v>390</v>
       </c>
       <c r="D14">
-        <v>365.5</v>
+        <v>375.1</v>
       </c>
       <c r="E14">
-        <v>368.55</v>
+        <v>388.4</v>
       </c>
       <c r="F14">
-        <v>-1.4499999999999891</v>
+        <v>13.349999999999969</v>
       </c>
       <c r="G14">
-        <v>-0.39189189189188878</v>
+        <v>3.559525396613775</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="0"/>
-        <v>-0.87412587412587406</v>
+        <v>2.9828980511732732</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="1"/>
-        <v>0.87412587412587406</v>
+        <v>2.9828980511732732</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="2"/>
-        <v>0.3765465303926781</v>
+        <v>0.41194644696190086</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="3"/>
-        <v>0.82756749423416387</v>
+        <v>0.54355031154711775</v>
       </c>
       <c r="L14" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3098,38 +3098,38 @@
         <v>NO</v>
       </c>
       <c r="S14">
-        <v>365</v>
+        <v>370.65</v>
       </c>
       <c r="T14">
-        <v>372.65</v>
+        <v>378.5</v>
       </c>
       <c r="U14">
-        <v>358</v>
+        <v>367.25</v>
       </c>
       <c r="V14">
-        <v>370</v>
+        <v>375.05</v>
       </c>
       <c r="W14">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="X14">
-        <v>1.7182130584192441</v>
+        <v>1.7636684303350969</v>
       </c>
       <c r="Y14" s="1">
         <f t="shared" si="11"/>
-        <v>1.3698630136986301</v>
+        <v>1.1871037366788169</v>
       </c>
       <c r="Z14" s="1">
         <f t="shared" si="12"/>
-        <v>1.3698630136986301</v>
+        <v>1.1871037366788169</v>
       </c>
       <c r="AA14" s="1">
         <f t="shared" si="13"/>
-        <v>0.71621621621621001</v>
+        <v>0.91987734968670531</v>
       </c>
       <c r="AB14" s="1">
         <f t="shared" si="14"/>
-        <v>1.9178082191780823</v>
+        <v>0.91730743288816341</v>
       </c>
       <c r="AC14" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3156,38 +3156,38 @@
         <v>NO</v>
       </c>
       <c r="AI14">
-        <v>373.4</v>
+        <v>371.8</v>
       </c>
       <c r="AJ14">
-        <v>374.95</v>
+        <v>373.2</v>
       </c>
       <c r="AK14">
-        <v>360.4</v>
+        <v>365.5</v>
       </c>
       <c r="AL14">
-        <v>363.75</v>
+        <v>368.55</v>
       </c>
       <c r="AM14">
-        <v>-6.8500000000000227</v>
+        <v>-1.4499999999999891</v>
       </c>
       <c r="AN14">
-        <v>-1.8483540205072919</v>
+        <v>-0.39189189189188878</v>
       </c>
       <c r="AO14" s="1">
         <f t="shared" si="21"/>
-        <v>-2.5843599357257574</v>
+        <v>-0.87412587412587406</v>
       </c>
       <c r="AP14" s="1">
         <f t="shared" si="22"/>
-        <v>2.5843599357257574</v>
+        <v>0.87412587412587406</v>
       </c>
       <c r="AQ14" s="1">
         <f t="shared" si="23"/>
-        <v>0.41510444563471116</v>
+        <v>0.3765465303926781</v>
       </c>
       <c r="AR14" s="1">
         <f t="shared" si="24"/>
-        <v>0.92096219931272105</v>
+        <v>0.82756749423416387</v>
       </c>
       <c r="AS14" t="str">
         <f t="shared" si="25"/>
@@ -3219,38 +3219,38 @@
         <v>63</v>
       </c>
       <c r="B15">
-        <v>1427.9</v>
+        <v>1421</v>
       </c>
       <c r="C15">
-        <v>1427.9</v>
+        <v>1425</v>
       </c>
       <c r="D15">
-        <v>1401.05</v>
+        <v>1412.6</v>
       </c>
       <c r="E15">
-        <v>1416.6</v>
+        <v>1420.4</v>
       </c>
       <c r="F15">
-        <v>-2.0500000000001819</v>
+        <v>0.25</v>
       </c>
       <c r="G15">
-        <v>-0.14450357734467151</v>
+        <v>1.7603774249199029E-2</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="0"/>
-        <v>-0.79137194481407536</v>
+        <v>-4.2223786066144194E-2</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="1"/>
-        <v>0.79137194481407536</v>
+        <v>4.2223786066144194E-2</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.28149190710767064</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" si="3"/>
-        <v>1.0976987152336548</v>
+        <v>0.54914108701775421</v>
       </c>
       <c r="L15" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3281,38 +3281,38 @@
         <v>NO</v>
       </c>
       <c r="S15">
-        <v>1395</v>
+        <v>1416.6</v>
       </c>
       <c r="T15">
-        <v>1423.3</v>
+        <v>1423.2</v>
       </c>
       <c r="U15">
-        <v>1388.1</v>
+        <v>1405.8</v>
       </c>
       <c r="V15">
-        <v>1418.65</v>
+        <v>1420.15</v>
       </c>
       <c r="W15">
-        <v>21.35000000000014</v>
+        <v>3.5500000000001819</v>
       </c>
       <c r="X15">
-        <v>1.52794675445503</v>
+        <v>0.2506000282366358</v>
       </c>
       <c r="Y15" s="1">
         <f t="shared" si="11"/>
-        <v>1.695340501792121</v>
+        <v>0.2506000282366358</v>
       </c>
       <c r="Z15" s="1">
         <f t="shared" si="12"/>
-        <v>1.695340501792121</v>
+        <v>0.2506000282366358</v>
       </c>
       <c r="AA15" s="1">
         <f t="shared" si="13"/>
-        <v>0.32777640714763073</v>
+        <v>0.21476604584022493</v>
       </c>
       <c r="AB15" s="1">
         <f t="shared" si="14"/>
-        <v>0.49462365591398505</v>
+        <v>0.76238881829732841</v>
       </c>
       <c r="AC15" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3339,38 +3339,38 @@
         <v>NO</v>
       </c>
       <c r="AI15">
-        <v>1370.9</v>
+        <v>1427.9</v>
       </c>
       <c r="AJ15">
-        <v>1404.1</v>
+        <v>1427.9</v>
       </c>
       <c r="AK15">
-        <v>1360.1</v>
+        <v>1401.05</v>
       </c>
       <c r="AL15">
-        <v>1397.3</v>
+        <v>1416.6</v>
       </c>
       <c r="AM15">
-        <v>31.5</v>
+        <v>-2.0500000000001819</v>
       </c>
       <c r="AN15">
-        <v>2.306340606238102</v>
+        <v>-0.14450357734467151</v>
       </c>
       <c r="AO15" s="1">
         <f t="shared" si="21"/>
-        <v>1.9257422131446396</v>
+        <v>-0.79137194481407536</v>
       </c>
       <c r="AP15" s="1">
         <f t="shared" si="22"/>
-        <v>1.9257422131446396</v>
+        <v>0.79137194481407536</v>
       </c>
       <c r="AQ15" s="1">
         <f t="shared" si="23"/>
-        <v>0.48665283045873858</v>
+        <v>0</v>
       </c>
       <c r="AR15" s="1">
         <f t="shared" si="24"/>
-        <v>0.78780363265009723</v>
+        <v>1.0976987152336548</v>
       </c>
       <c r="AS15" t="str">
         <f t="shared" si="25"/>
@@ -3402,38 +3402,38 @@
         <v>64</v>
       </c>
       <c r="B16">
-        <v>386.35</v>
+        <v>388.1</v>
       </c>
       <c r="C16">
-        <v>391</v>
+        <v>390.4</v>
       </c>
       <c r="D16">
-        <v>377.05</v>
+        <v>384</v>
       </c>
       <c r="E16">
-        <v>384.2</v>
+        <v>387.2</v>
       </c>
       <c r="F16">
-        <v>0.39999999999997732</v>
+        <v>-1.5500000000000109</v>
       </c>
       <c r="G16">
-        <v>0.1042209484106246</v>
+        <v>-0.39871382636656238</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="0"/>
-        <v>-0.55649022906691703</v>
+        <v>-0.23189899510436332</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="1"/>
-        <v>0.55649022906691703</v>
+        <v>0.23189899510436332</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="2"/>
-        <v>1.2035718907726094</v>
+        <v>0.59263076526667202</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="3"/>
-        <v>1.8610098906819306</v>
+        <v>0.82644628099173256</v>
       </c>
       <c r="L16" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3464,38 +3464,38 @@
         <v>NO</v>
       </c>
       <c r="S16">
-        <v>372.4</v>
+        <v>385</v>
       </c>
       <c r="T16">
-        <v>385</v>
+        <v>390.65</v>
       </c>
       <c r="U16">
-        <v>370.35</v>
+        <v>381.3</v>
       </c>
       <c r="V16">
-        <v>383.8</v>
+        <v>388.75</v>
       </c>
       <c r="W16">
-        <v>16.25</v>
+        <v>4.5500000000000114</v>
       </c>
       <c r="X16">
-        <v>4.4211671881376677</v>
+        <v>1.184279021343053</v>
       </c>
       <c r="Y16" s="1">
         <f t="shared" si="11"/>
-        <v>3.0612244897959275</v>
+        <v>0.97402597402597402</v>
       </c>
       <c r="Z16" s="1">
         <f t="shared" si="12"/>
-        <v>3.0612244897959275</v>
+        <v>0.97402597402597402</v>
       </c>
       <c r="AA16" s="1">
         <f t="shared" si="13"/>
-        <v>0.31266284523188864</v>
+        <v>0.48874598070738967</v>
       </c>
       <c r="AB16" s="1">
         <f t="shared" si="14"/>
-        <v>0.55048335123521874</v>
+        <v>0.96103896103895814</v>
       </c>
       <c r="AC16" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3522,38 +3522,38 @@
         <v>NO</v>
       </c>
       <c r="AI16">
-        <v>377.45</v>
+        <v>386.35</v>
       </c>
       <c r="AJ16">
-        <v>377.45</v>
+        <v>391</v>
       </c>
       <c r="AK16">
-        <v>364</v>
+        <v>377.05</v>
       </c>
       <c r="AL16">
-        <v>367.55</v>
+        <v>384.2</v>
       </c>
       <c r="AM16">
-        <v>-7.5500000000000114</v>
+        <v>0.39999999999997732</v>
       </c>
       <c r="AN16">
-        <v>-2.0127965875766489</v>
+        <v>0.1042209484106246</v>
       </c>
       <c r="AO16" s="1">
         <f t="shared" si="21"/>
-        <v>-2.6228639554907875</v>
+        <v>-0.55649022906691703</v>
       </c>
       <c r="AP16" s="1">
         <f t="shared" si="22"/>
-        <v>2.6228639554907875</v>
+        <v>0.55649022906691703</v>
       </c>
       <c r="AQ16" s="1">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1.2035718907726094</v>
       </c>
       <c r="AR16" s="1">
         <f t="shared" si="24"/>
-        <v>0.96585498571623207</v>
+        <v>1.8610098906819306</v>
       </c>
       <c r="AS16" t="str">
         <f t="shared" si="25"/>
@@ -3585,38 +3585,38 @@
         <v>65</v>
       </c>
       <c r="B17">
-        <v>156</v>
+        <v>156.4</v>
       </c>
       <c r="C17">
-        <v>159.30000000000001</v>
+        <v>164.2</v>
       </c>
       <c r="D17">
-        <v>154.5</v>
+        <v>154.1</v>
       </c>
       <c r="E17">
-        <v>155.69999999999999</v>
+        <v>163.35</v>
       </c>
       <c r="F17">
-        <v>1.399999999999977</v>
+        <v>7.7999999999999829</v>
       </c>
       <c r="G17">
-        <v>0.90732339598183875</v>
+        <v>5.0144648023143574</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="0"/>
-        <v>-0.19230769230769962</v>
+        <v>4.4437340153452611</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="1"/>
-        <v>0.19230769230769962</v>
+        <v>4.4437340153452611</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="2"/>
-        <v>2.115384615384623</v>
+        <v>0.52035506580960778</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" si="3"/>
-        <v>0.77071290944122595</v>
+        <v>1.4705882352941249</v>
       </c>
       <c r="L17" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3647,38 +3647,38 @@
         <v>NO</v>
       </c>
       <c r="S17">
-        <v>149.9</v>
+        <v>156.6</v>
       </c>
       <c r="T17">
-        <v>156.9</v>
+        <v>159</v>
       </c>
       <c r="U17">
-        <v>149.15</v>
+        <v>153.15</v>
       </c>
       <c r="V17">
-        <v>154.30000000000001</v>
+        <v>155.55000000000001</v>
       </c>
       <c r="W17">
-        <v>4.1000000000000227</v>
+        <v>-0.14999999999997729</v>
       </c>
       <c r="X17">
-        <v>2.729693741677778</v>
+        <v>-9.6339113680139546E-2</v>
       </c>
       <c r="Y17" s="1">
         <f t="shared" si="11"/>
-        <v>2.9352901934623121</v>
+        <v>-0.67049808429117697</v>
       </c>
       <c r="Z17" s="1">
         <f t="shared" si="12"/>
-        <v>2.9352901934623121</v>
+        <v>0.67049808429117697</v>
       </c>
       <c r="AA17" s="1">
         <f t="shared" si="13"/>
-        <v>1.6850291639662955</v>
+        <v>1.5325670498084329</v>
       </c>
       <c r="AB17" s="1">
         <f t="shared" si="14"/>
-        <v>0.50033355570380256</v>
+        <v>1.5429122468659631</v>
       </c>
       <c r="AC17" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3705,38 +3705,38 @@
         <v>NO</v>
       </c>
       <c r="AI17">
-        <v>151.19999999999999</v>
+        <v>156</v>
       </c>
       <c r="AJ17">
-        <v>153.25</v>
+        <v>159.30000000000001</v>
       </c>
       <c r="AK17">
-        <v>147.5</v>
+        <v>154.5</v>
       </c>
       <c r="AL17">
-        <v>150.19999999999999</v>
+        <v>155.69999999999999</v>
       </c>
       <c r="AM17">
-        <v>9.9999999999994316E-2</v>
+        <v>1.399999999999977</v>
       </c>
       <c r="AN17">
-        <v>6.662225183210814E-2</v>
+        <v>0.90732339598183875</v>
       </c>
       <c r="AO17" s="1">
         <f t="shared" si="21"/>
-        <v>-0.66137566137566139</v>
+        <v>-0.19230769230769962</v>
       </c>
       <c r="AP17" s="1">
         <f t="shared" si="22"/>
-        <v>0.66137566137566139</v>
+        <v>0.19230769230769962</v>
       </c>
       <c r="AQ17" s="1">
         <f t="shared" si="23"/>
-        <v>1.3558201058201134</v>
+        <v>2.115384615384623</v>
       </c>
       <c r="AR17" s="1">
         <f t="shared" si="24"/>
-        <v>1.7976031957390073</v>
+        <v>0.77071290944122595</v>
       </c>
       <c r="AS17" t="str">
         <f t="shared" si="25"/>
@@ -3768,38 +3768,38 @@
         <v>66</v>
       </c>
       <c r="B18">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C18">
-        <v>514.70000000000005</v>
+        <v>513</v>
       </c>
       <c r="D18">
-        <v>498.25</v>
+        <v>504.3</v>
       </c>
       <c r="E18">
-        <v>504.2</v>
+        <v>509.6</v>
       </c>
       <c r="F18">
-        <v>-4.0500000000000114</v>
+        <v>3.8500000000000232</v>
       </c>
       <c r="G18">
-        <v>-0.79685194294146811</v>
+        <v>0.76124567474048888</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="0"/>
-        <v>-1.3307240704501</v>
+        <v>0.51282051282051733</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="1"/>
-        <v>1.3307240704501</v>
+        <v>0.51282051282051733</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="2"/>
-        <v>0.7240704500978562</v>
+        <v>0.66718995290423411</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" si="3"/>
-        <v>1.1800872669575544</v>
+        <v>0.53254437869822258</v>
       </c>
       <c r="L18" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3830,38 +3830,38 @@
         <v>NO</v>
       </c>
       <c r="S18">
-        <v>491.7</v>
+        <v>503.9</v>
       </c>
       <c r="T18">
-        <v>511.7</v>
+        <v>508</v>
       </c>
       <c r="U18">
-        <v>491.7</v>
+        <v>499.55</v>
       </c>
       <c r="V18">
-        <v>508.25</v>
+        <v>505.75</v>
       </c>
       <c r="W18">
-        <v>12.75</v>
+        <v>1.5500000000000109</v>
       </c>
       <c r="X18">
-        <v>2.5731584258324931</v>
+        <v>0.3074176913923069</v>
       </c>
       <c r="Y18" s="1">
         <f t="shared" si="11"/>
-        <v>3.3658735001016904</v>
+        <v>0.36713633657472172</v>
       </c>
       <c r="Z18" s="1">
         <f t="shared" si="12"/>
-        <v>3.3658735001016904</v>
+        <v>0.36713633657472172</v>
       </c>
       <c r="AA18" s="1">
         <f t="shared" si="13"/>
-        <v>0.67879980324643163</v>
+        <v>0.44488383588729608</v>
       </c>
       <c r="AB18" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.86326652113513902</v>
       </c>
       <c r="AC18" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3888,38 +3888,38 @@
         <v>NO</v>
       </c>
       <c r="AI18">
-        <v>497.4</v>
+        <v>511</v>
       </c>
       <c r="AJ18">
-        <v>497.5</v>
+        <v>514.70000000000005</v>
       </c>
       <c r="AK18">
-        <v>489.6</v>
+        <v>498.25</v>
       </c>
       <c r="AL18">
-        <v>495.5</v>
+        <v>504.2</v>
       </c>
       <c r="AM18">
-        <v>3.1499999999999768</v>
+        <v>-4.0500000000000114</v>
       </c>
       <c r="AN18">
-        <v>0.63978876815273222</v>
+        <v>-0.79685194294146811</v>
       </c>
       <c r="AO18" s="1">
         <f t="shared" si="21"/>
-        <v>-0.38198632891032919</v>
+        <v>-1.3307240704501</v>
       </c>
       <c r="AP18" s="1">
         <f t="shared" si="22"/>
-        <v>0.38198632891032919</v>
+        <v>1.3307240704501</v>
       </c>
       <c r="AQ18" s="1">
         <f t="shared" si="23"/>
-        <v>2.0104543626864244E-2</v>
+        <v>0.7240704500978562</v>
       </c>
       <c r="AR18" s="1">
         <f t="shared" si="24"/>
-        <v>1.190716448032286</v>
+        <v>1.1800872669575544</v>
       </c>
       <c r="AS18" t="str">
         <f t="shared" si="25"/>
@@ -3951,38 +3951,38 @@
         <v>67</v>
       </c>
       <c r="B19">
-        <v>3169.6</v>
+        <v>3181.1</v>
       </c>
       <c r="C19">
-        <v>3227.65</v>
+        <v>3274</v>
       </c>
       <c r="D19">
-        <v>3133.7</v>
+        <v>3179</v>
       </c>
       <c r="E19">
-        <v>3164.8</v>
+        <v>3244.35</v>
       </c>
       <c r="F19">
-        <v>18.150000000000091</v>
+        <v>59.400000000000091</v>
       </c>
       <c r="G19">
-        <v>0.57680390256304614</v>
+        <v>1.8650214289078351</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="0"/>
-        <v>-0.15143866733971881</v>
+        <v>1.9883059319103458</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="1"/>
-        <v>0.15143866733971881</v>
+        <v>1.9883059319103458</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="2"/>
-        <v>1.8314613831398343</v>
+        <v>0.91389646616425768</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="3"/>
-        <v>0.9826845298281206</v>
+        <v>6.6014900506111376E-2</v>
       </c>
       <c r="L19" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4013,38 +4013,38 @@
         <v>NO</v>
       </c>
       <c r="S19">
-        <v>3157.6</v>
+        <v>3175</v>
       </c>
       <c r="T19">
-        <v>3172.35</v>
+        <v>3250</v>
       </c>
       <c r="U19">
-        <v>3118</v>
+        <v>3166.25</v>
       </c>
       <c r="V19">
-        <v>3146.65</v>
+        <v>3184.95</v>
       </c>
       <c r="W19">
-        <v>-9.9000000000000909</v>
+        <v>20.14999999999964</v>
       </c>
       <c r="X19">
-        <v>-0.31363355562243872</v>
+        <v>0.63669110212334534</v>
       </c>
       <c r="Y19" s="1">
         <f t="shared" si="11"/>
-        <v>-0.3467823663541873</v>
+        <v>0.31338582677164784</v>
       </c>
       <c r="Z19" s="1">
         <f t="shared" si="12"/>
-        <v>0.3467823663541873</v>
+        <v>0.31338582677164784</v>
       </c>
       <c r="AA19" s="1">
         <f t="shared" si="13"/>
-        <v>0.4671269318469724</v>
+        <v>2.0424182483241555</v>
       </c>
       <c r="AB19" s="1">
         <f t="shared" si="14"/>
-        <v>0.91049211065736857</v>
+        <v>0.27559055118110237</v>
       </c>
       <c r="AC19" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4071,38 +4071,38 @@
         <v>NO</v>
       </c>
       <c r="AI19">
-        <v>3160</v>
+        <v>3169.6</v>
       </c>
       <c r="AJ19">
-        <v>3185</v>
+        <v>3227.65</v>
       </c>
       <c r="AK19">
-        <v>3125.05</v>
+        <v>3133.7</v>
       </c>
       <c r="AL19">
-        <v>3156.55</v>
+        <v>3164.8</v>
       </c>
       <c r="AM19">
-        <v>-0.54999999999972715</v>
+        <v>18.150000000000091</v>
       </c>
       <c r="AN19">
-        <v>-1.742105096448409E-2</v>
+        <v>0.57680390256304614</v>
       </c>
       <c r="AO19" s="1">
         <f t="shared" si="21"/>
-        <v>-0.10917721518986766</v>
+        <v>-0.15143866733971881</v>
       </c>
       <c r="AP19" s="1">
         <f t="shared" si="22"/>
-        <v>0.10917721518986766</v>
+        <v>0.15143866733971881</v>
       </c>
       <c r="AQ19" s="1">
         <f t="shared" si="23"/>
-        <v>0.79113924050632911</v>
+        <v>1.8314613831398343</v>
       </c>
       <c r="AR19" s="1">
         <f t="shared" si="24"/>
-        <v>0.99792494970775047</v>
+        <v>0.9826845298281206</v>
       </c>
       <c r="AS19" t="str">
         <f t="shared" si="25"/>
@@ -4134,30 +4134,30 @@
         <v>68</v>
       </c>
       <c r="B20">
-        <v>136.85</v>
+        <v>136.30000000000001</v>
       </c>
       <c r="C20">
-        <v>136.85</v>
+        <v>136.30000000000001</v>
       </c>
       <c r="D20">
-        <v>133.4</v>
+        <v>133.30000000000001</v>
       </c>
       <c r="E20">
-        <v>134.05000000000001</v>
+        <v>133.75</v>
       </c>
       <c r="F20">
-        <v>-0.5</v>
+        <v>9.9999999999994316E-2</v>
       </c>
       <c r="G20">
-        <v>-0.37160906726124121</v>
+        <v>7.4822297044515013E-2</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="0"/>
-        <v>-2.0460358056265862</v>
+        <v>-1.8708730741012554</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="1"/>
-        <v>2.0460358056265862</v>
+        <v>1.8708730741012554</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="2"/>
@@ -4165,7 +4165,7 @@
       </c>
       <c r="K20" s="1">
         <f t="shared" si="3"/>
-        <v>0.48489369638195118</v>
+        <v>0.33644859813083261</v>
       </c>
       <c r="L20" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4196,38 +4196,38 @@
         <v>NO</v>
       </c>
       <c r="S20">
-        <v>136.80000000000001</v>
+        <v>134.15</v>
       </c>
       <c r="T20">
-        <v>137.5</v>
+        <v>135</v>
       </c>
       <c r="U20">
-        <v>134</v>
+        <v>133.30000000000001</v>
       </c>
       <c r="V20">
-        <v>134.55000000000001</v>
+        <v>133.65</v>
       </c>
       <c r="W20">
-        <v>-1.75</v>
+        <v>-0.40000000000000568</v>
       </c>
       <c r="X20">
-        <v>-1.2839325018341889</v>
+        <v>-0.29839612085043321</v>
       </c>
       <c r="Y20" s="1">
         <f t="shared" si="11"/>
-        <v>-1.6447368421052631</v>
+        <v>-0.37271710771524413</v>
       </c>
       <c r="Z20" s="1">
         <f t="shared" si="12"/>
-        <v>1.6447368421052631</v>
+        <v>0.37271710771524413</v>
       </c>
       <c r="AA20" s="1">
         <f t="shared" si="13"/>
-        <v>0.51169590643274021</v>
+        <v>0.63361908311591075</v>
       </c>
       <c r="AB20" s="1">
         <f t="shared" si="14"/>
-        <v>0.40876997398737369</v>
+        <v>0.26187803965581319</v>
       </c>
       <c r="AC20" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4254,38 +4254,38 @@
         <v>NO</v>
       </c>
       <c r="AI20">
-        <v>133.9</v>
+        <v>136.85</v>
       </c>
       <c r="AJ20">
-        <v>138.80000000000001</v>
+        <v>136.85</v>
       </c>
       <c r="AK20">
-        <v>133.9</v>
+        <v>133.4</v>
       </c>
       <c r="AL20">
-        <v>136.30000000000001</v>
+        <v>134.05000000000001</v>
       </c>
       <c r="AM20">
-        <v>2.6000000000000232</v>
+        <v>-0.5</v>
       </c>
       <c r="AN20">
-        <v>1.9446522064323279</v>
+        <v>-0.37160906726124121</v>
       </c>
       <c r="AO20" s="1">
         <f t="shared" si="21"/>
-        <v>1.792382374906651</v>
+        <v>-2.0460358056265862</v>
       </c>
       <c r="AP20" s="1">
         <f t="shared" si="22"/>
-        <v>1.792382374906651</v>
+        <v>2.0460358056265862</v>
       </c>
       <c r="AQ20" s="1">
         <f t="shared" si="23"/>
-        <v>1.8341892883345559</v>
+        <v>0</v>
       </c>
       <c r="AR20" s="1">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.48489369638195118</v>
       </c>
       <c r="AS20" t="str">
         <f t="shared" si="25"/>
@@ -4317,38 +4317,38 @@
         <v>69</v>
       </c>
       <c r="B21">
-        <v>687.9</v>
+        <v>710</v>
       </c>
       <c r="C21">
-        <v>697.7</v>
+        <v>713</v>
       </c>
       <c r="D21">
-        <v>677.45</v>
+        <v>698.8</v>
       </c>
       <c r="E21">
-        <v>691.55</v>
+        <v>707.4</v>
       </c>
       <c r="F21">
-        <v>5.8999999999999773</v>
+        <v>1.199999999999932</v>
       </c>
       <c r="G21">
-        <v>0.86049733829212838</v>
+        <v>0.16992353440950611</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="0"/>
-        <v>0.53060037796190973</v>
+        <v>-0.36619718309859478</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="1"/>
-        <v>0.53060037796190973</v>
+        <v>0.36619718309859478</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="2"/>
-        <v>0.8893066300339949</v>
+        <v>0.42253521126760557</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" si="3"/>
-        <v>1.5191161506032755</v>
+        <v>1.2157195363302267</v>
       </c>
       <c r="L21" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4379,38 +4379,38 @@
         <v>NO</v>
       </c>
       <c r="S21">
-        <v>673.05</v>
+        <v>691.55</v>
       </c>
       <c r="T21">
-        <v>688</v>
+        <v>711.9</v>
       </c>
       <c r="U21">
-        <v>670.8</v>
+        <v>688.75</v>
       </c>
       <c r="V21">
-        <v>685.65</v>
+        <v>706.2</v>
       </c>
       <c r="W21">
-        <v>12.600000000000019</v>
+        <v>14.650000000000089</v>
       </c>
       <c r="X21">
-        <v>1.8720748829953231</v>
+        <v>2.1184296146338069</v>
       </c>
       <c r="Y21" s="1">
         <f t="shared" si="11"/>
-        <v>1.8720748829953233</v>
+        <v>2.1184296146338069</v>
       </c>
       <c r="Z21" s="1">
         <f t="shared" si="12"/>
-        <v>1.8720748829953233</v>
+        <v>2.1184296146338069</v>
       </c>
       <c r="AA21" s="1">
         <f t="shared" si="13"/>
-        <v>0.34274046525195401</v>
+        <v>0.80713678844518999</v>
       </c>
       <c r="AB21" s="1">
         <f t="shared" si="14"/>
-        <v>0.33429908624916427</v>
+        <v>0.40488757139757858</v>
       </c>
       <c r="AC21" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4437,38 +4437,38 @@
         <v>NO</v>
       </c>
       <c r="AI21">
-        <v>677.8</v>
+        <v>687.9</v>
       </c>
       <c r="AJ21">
-        <v>681.5</v>
+        <v>697.7</v>
       </c>
       <c r="AK21">
-        <v>663.85</v>
+        <v>677.45</v>
       </c>
       <c r="AL21">
-        <v>673.05</v>
+        <v>691.55</v>
       </c>
       <c r="AM21">
-        <v>0.19999999999993179</v>
+        <v>5.8999999999999773</v>
       </c>
       <c r="AN21">
-        <v>2.9724307052081709E-2</v>
+        <v>0.86049733829212838</v>
       </c>
       <c r="AO21" s="1">
         <f t="shared" si="21"/>
-        <v>-0.70079669519032173</v>
+        <v>0.53060037796190973</v>
       </c>
       <c r="AP21" s="1">
         <f t="shared" si="22"/>
-        <v>0.70079669519032173</v>
+        <v>0.53060037796190973</v>
       </c>
       <c r="AQ21" s="1">
         <f t="shared" si="23"/>
-        <v>0.54588374151667829</v>
+        <v>0.8893066300339949</v>
       </c>
       <c r="AR21" s="1">
         <f t="shared" si="24"/>
-        <v>1.3669118193299059</v>
+        <v>1.5191161506032755</v>
       </c>
       <c r="AS21" t="str">
         <f t="shared" si="25"/>
@@ -4500,38 +4500,38 @@
         <v>70</v>
       </c>
       <c r="B22">
-        <v>2372</v>
+        <v>2324</v>
       </c>
       <c r="C22">
-        <v>2390</v>
+        <v>2324</v>
       </c>
       <c r="D22">
-        <v>2335</v>
+        <v>2288</v>
       </c>
       <c r="E22">
-        <v>2350</v>
+        <v>2291.1999999999998</v>
       </c>
       <c r="F22">
-        <v>-18.25</v>
+        <v>-16.10000000000036</v>
       </c>
       <c r="G22">
-        <v>-0.77061121080966954</v>
+        <v>-0.69778529016601054</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="0"/>
-        <v>-0.92748735244519398</v>
+        <v>-1.4113597246127445</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="1"/>
-        <v>0.92748735244519398</v>
+        <v>1.4113597246127445</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="2"/>
-        <v>0.75885328836424959</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="3"/>
-        <v>0.63829787234042545</v>
+        <v>0.13966480446926582</v>
       </c>
       <c r="L22" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4562,38 +4562,38 @@
         <v>NO</v>
       </c>
       <c r="S22">
-        <v>2389</v>
+        <v>2350</v>
       </c>
       <c r="T22">
-        <v>2407.9499999999998</v>
+        <v>2364</v>
       </c>
       <c r="U22">
-        <v>2363</v>
+        <v>2303.0500000000002</v>
       </c>
       <c r="V22">
-        <v>2368.25</v>
+        <v>2307.3000000000002</v>
       </c>
       <c r="W22">
-        <v>-31.099999999999909</v>
+        <v>-42.699999999999818</v>
       </c>
       <c r="X22">
-        <v>-1.2961843832704649</v>
+        <v>-1.817021276595737</v>
       </c>
       <c r="Y22" s="1">
         <f t="shared" si="11"/>
-        <v>-0.86856425282544991</v>
+        <v>-1.8170212765957368</v>
       </c>
       <c r="Z22" s="1">
         <f t="shared" si="12"/>
-        <v>0.86856425282544991</v>
+        <v>1.8170212765957368</v>
       </c>
       <c r="AA22" s="1">
         <f t="shared" si="13"/>
-        <v>0.79321892005022265</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="AB22" s="1">
         <f t="shared" si="14"/>
-        <v>0.22168267708223371</v>
+        <v>0.1841979803233216</v>
       </c>
       <c r="AC22" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4620,38 +4620,38 @@
         <v>NO</v>
       </c>
       <c r="AI22">
-        <v>2394.9</v>
+        <v>2372</v>
       </c>
       <c r="AJ22">
-        <v>2414.8000000000002</v>
+        <v>2390</v>
       </c>
       <c r="AK22">
-        <v>2380</v>
+        <v>2335</v>
       </c>
       <c r="AL22">
-        <v>2399.35</v>
+        <v>2350</v>
       </c>
       <c r="AM22">
-        <v>28.599999999999909</v>
+        <v>-18.25</v>
       </c>
       <c r="AN22">
-        <v>1.2063692924180069</v>
+        <v>-0.77061121080966954</v>
       </c>
       <c r="AO22" s="1">
         <f t="shared" si="21"/>
-        <v>0.18581151613845329</v>
+        <v>-0.92748735244519398</v>
       </c>
       <c r="AP22" s="1">
         <f t="shared" si="22"/>
-        <v>0.18581151613845329</v>
+        <v>0.92748735244519398</v>
       </c>
       <c r="AQ22" s="1">
         <f t="shared" si="23"/>
-        <v>0.64392439619064634</v>
+        <v>0.75885328836424959</v>
       </c>
       <c r="AR22" s="1">
         <f t="shared" si="24"/>
-        <v>0.62215541358720994</v>
+        <v>0.63829787234042545</v>
       </c>
       <c r="AS22" t="str">
         <f t="shared" si="25"/>
@@ -4683,38 +4683,38 @@
         <v>71</v>
       </c>
       <c r="B23">
-        <v>610</v>
+        <v>594.5</v>
       </c>
       <c r="C23">
-        <v>610</v>
+        <v>604.95000000000005</v>
       </c>
       <c r="D23">
-        <v>595.20000000000005</v>
+        <v>592.79999999999995</v>
       </c>
       <c r="E23">
-        <v>599.45000000000005</v>
+        <v>598.6</v>
       </c>
       <c r="F23">
-        <v>-5.3499999999999091</v>
+        <v>4.3999999999999773</v>
       </c>
       <c r="G23">
-        <v>-0.88458994708993199</v>
+        <v>0.74049141703129873</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="0"/>
-        <v>-1.729508196721304</v>
+        <v>0.68965517241379692</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="1"/>
-        <v>1.729508196721304</v>
+        <v>0.68965517241379692</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.0608085532910161</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" si="3"/>
-        <v>0.70898323463174573</v>
+        <v>0.28595458368377552</v>
       </c>
       <c r="L23" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4745,38 +4745,38 @@
         <v>NO</v>
       </c>
       <c r="S23">
-        <v>608</v>
+        <v>601.95000000000005</v>
       </c>
       <c r="T23">
-        <v>612.70000000000005</v>
+        <v>601.95000000000005</v>
       </c>
       <c r="U23">
-        <v>601.6</v>
+        <v>591.04999999999995</v>
       </c>
       <c r="V23">
-        <v>604.79999999999995</v>
+        <v>594.20000000000005</v>
       </c>
       <c r="W23">
-        <v>3.1999999999999318</v>
+        <v>-5.25</v>
       </c>
       <c r="X23">
-        <v>0.53191489361700994</v>
+        <v>-0.87580281925098014</v>
       </c>
       <c r="Y23" s="1">
         <f t="shared" si="11"/>
-        <v>-0.52631578947369162</v>
+        <v>-1.2874823490323115</v>
       </c>
       <c r="Z23" s="1">
         <f t="shared" si="12"/>
-        <v>0.52631578947369162</v>
+        <v>1.2874823490323115</v>
       </c>
       <c r="AA23" s="1">
         <f t="shared" si="13"/>
-        <v>0.77302631578948122</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="1">
         <f t="shared" si="14"/>
-        <v>0.52910052910051786</v>
+        <v>0.53012453719287966</v>
       </c>
       <c r="AC23" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4803,38 +4803,38 @@
         <v>NO</v>
       </c>
       <c r="AI23">
-        <v>589.6</v>
+        <v>610</v>
       </c>
       <c r="AJ23">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="AK23">
-        <v>587.4</v>
+        <v>595.20000000000005</v>
       </c>
       <c r="AL23">
-        <v>601.6</v>
+        <v>599.45000000000005</v>
       </c>
       <c r="AM23">
-        <v>15.899999999999981</v>
+        <v>-5.3499999999999091</v>
       </c>
       <c r="AN23">
-        <v>2.714700358545326</v>
+        <v>-0.88458994708993199</v>
       </c>
       <c r="AO23" s="1">
         <f t="shared" si="21"/>
-        <v>2.0352781546811394</v>
+        <v>-1.729508196721304</v>
       </c>
       <c r="AP23" s="1">
         <f t="shared" si="22"/>
-        <v>2.0352781546811394</v>
+        <v>1.729508196721304</v>
       </c>
       <c r="AQ23" s="1">
         <f t="shared" si="23"/>
-        <v>0.23271276595744303</v>
+        <v>0</v>
       </c>
       <c r="AR23" s="1">
         <f t="shared" si="24"/>
-        <v>0.37313432835821669</v>
+        <v>0.70898323463174573</v>
       </c>
       <c r="AS23" t="str">
         <f t="shared" si="25"/>
@@ -4866,38 +4866,38 @@
         <v>72</v>
       </c>
       <c r="B24">
-        <v>658</v>
+        <v>673.5</v>
       </c>
       <c r="C24">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="D24">
-        <v>652</v>
+        <v>669.55</v>
       </c>
       <c r="E24">
-        <v>669.05</v>
+        <v>679.95</v>
       </c>
       <c r="F24">
-        <v>15.299999999999949</v>
+        <v>8.9000000000000909</v>
       </c>
       <c r="G24">
-        <v>2.3403441682600312</v>
+        <v>1.3262797109008411</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="0"/>
-        <v>1.6793313069908746</v>
+        <v>0.95768374164811376</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="1"/>
-        <v>1.6793313069908746</v>
+        <v>0.95768374164811376</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="2"/>
-        <v>0.44092369778044177</v>
+        <v>0.30149275682034776</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="3"/>
-        <v>0.91185410334346495</v>
+        <v>0.58648849294729699</v>
       </c>
       <c r="L24" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4928,38 +4928,38 @@
         <v>NO</v>
       </c>
       <c r="S24">
-        <v>644</v>
+        <v>675.55</v>
       </c>
       <c r="T24">
-        <v>658.3</v>
+        <v>677</v>
       </c>
       <c r="U24">
-        <v>643.45000000000005</v>
+        <v>665.25</v>
       </c>
       <c r="V24">
-        <v>653.75</v>
+        <v>671.05</v>
       </c>
       <c r="W24">
-        <v>10.299999999999949</v>
+        <v>2</v>
       </c>
       <c r="X24">
-        <v>1.600745978708517</v>
+        <v>0.29893132052910842</v>
       </c>
       <c r="Y24" s="1">
         <f t="shared" si="11"/>
-        <v>1.5139751552795031</v>
+        <v>-0.6661238990452224</v>
       </c>
       <c r="Z24" s="1">
         <f t="shared" si="12"/>
-        <v>1.5139751552795031</v>
+        <v>0.6661238990452224</v>
       </c>
       <c r="AA24" s="1">
         <f t="shared" si="13"/>
-        <v>0.69598470363288023</v>
+        <v>0.21463992302568954</v>
       </c>
       <c r="AB24" s="1">
         <f t="shared" si="14"/>
-        <v>8.5403726708067479E-2</v>
+        <v>0.8643171149690716</v>
       </c>
       <c r="AC24" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4986,38 +4986,38 @@
         <v>NO</v>
       </c>
       <c r="AI24">
-        <v>645.20000000000005</v>
+        <v>658</v>
       </c>
       <c r="AJ24">
-        <v>649.9</v>
+        <v>672</v>
       </c>
       <c r="AK24">
-        <v>634.54999999999995</v>
+        <v>652</v>
       </c>
       <c r="AL24">
-        <v>643.45000000000005</v>
+        <v>669.05</v>
       </c>
       <c r="AM24">
-        <v>2.0500000000000682</v>
+        <v>15.299999999999949</v>
       </c>
       <c r="AN24">
-        <v>0.31961334580605988</v>
+        <v>2.3403441682600312</v>
       </c>
       <c r="AO24" s="1">
         <f t="shared" si="21"/>
-        <v>-0.27123372597644141</v>
+        <v>1.6793313069908746</v>
       </c>
       <c r="AP24" s="1">
         <f t="shared" si="22"/>
-        <v>0.27123372597644141</v>
+        <v>1.6793313069908746</v>
       </c>
       <c r="AQ24" s="1">
         <f t="shared" si="23"/>
-        <v>0.72845629262243194</v>
+        <v>0.44092369778044177</v>
       </c>
       <c r="AR24" s="1">
         <f t="shared" si="24"/>
-        <v>1.3831688553889332</v>
+        <v>0.91185410334346495</v>
       </c>
       <c r="AS24" t="str">
         <f t="shared" si="25"/>
@@ -5049,38 +5049,38 @@
         <v>73</v>
       </c>
       <c r="B25">
-        <v>199.9</v>
+        <v>197.85</v>
       </c>
       <c r="C25">
-        <v>201.15</v>
+        <v>199.2</v>
       </c>
       <c r="D25">
-        <v>195.15</v>
+        <v>193.85</v>
       </c>
       <c r="E25">
-        <v>196.05</v>
+        <v>195.4</v>
       </c>
       <c r="F25">
-        <v>-3.0999999999999939</v>
+        <v>-2.8499999999999939</v>
       </c>
       <c r="G25">
-        <v>-1.5566156163695679</v>
+        <v>-1.437578814627992</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="0"/>
-        <v>-1.9259629814907424</v>
+        <v>-1.2383118524134389</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="1"/>
-        <v>1.9259629814907424</v>
+        <v>1.2383118524134389</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="2"/>
-        <v>0.62531265632816402</v>
+        <v>0.68233510235026251</v>
       </c>
       <c r="K25" s="1">
         <f t="shared" si="3"/>
-        <v>0.4590665646518774</v>
+        <v>0.79324462640737536</v>
       </c>
       <c r="L25" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5111,38 +5111,38 @@
         <v>NO</v>
       </c>
       <c r="S25">
-        <v>202.5</v>
+        <v>197</v>
       </c>
       <c r="T25">
-        <v>204.25</v>
+        <v>199.95</v>
       </c>
       <c r="U25">
-        <v>197.2</v>
+        <v>194.75</v>
       </c>
       <c r="V25">
-        <v>199.15</v>
+        <v>198.25</v>
       </c>
       <c r="W25">
-        <v>-2.0499999999999829</v>
+        <v>2.1999999999999891</v>
       </c>
       <c r="X25">
-        <v>-1.018886679920469</v>
+        <v>1.1221627135934651</v>
       </c>
       <c r="Y25" s="1">
         <f t="shared" si="11"/>
-        <v>-1.6543209876543181</v>
+        <v>0.63451776649746194</v>
       </c>
       <c r="Z25" s="1">
         <f t="shared" si="12"/>
-        <v>1.6543209876543181</v>
+        <v>0.63451776649746194</v>
       </c>
       <c r="AA25" s="1">
         <f t="shared" si="13"/>
-        <v>0.86419753086419748</v>
+        <v>0.85750315258511411</v>
       </c>
       <c r="AB25" s="1">
         <f t="shared" si="14"/>
-        <v>0.97916143610344819</v>
+        <v>1.1421319796954315</v>
       </c>
       <c r="AC25" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5169,38 +5169,38 @@
         <v>NO</v>
       </c>
       <c r="AI25">
-        <v>195</v>
+        <v>199.9</v>
       </c>
       <c r="AJ25">
-        <v>202.2</v>
+        <v>201.15</v>
       </c>
       <c r="AK25">
-        <v>194.5</v>
+        <v>195.15</v>
       </c>
       <c r="AL25">
-        <v>201.2</v>
+        <v>196.05</v>
       </c>
       <c r="AM25">
-        <v>7.4499999999999886</v>
+        <v>-3.0999999999999939</v>
       </c>
       <c r="AN25">
-        <v>3.8451612903225749</v>
+        <v>-1.5566156163695679</v>
       </c>
       <c r="AO25" s="1">
         <f t="shared" si="21"/>
-        <v>3.1794871794871735</v>
+        <v>-1.9259629814907424</v>
       </c>
       <c r="AP25" s="1">
         <f t="shared" si="22"/>
-        <v>3.1794871794871735</v>
+        <v>1.9259629814907424</v>
       </c>
       <c r="AQ25" s="1">
         <f t="shared" si="23"/>
-        <v>0.49701789264413521</v>
+        <v>0.62531265632816402</v>
       </c>
       <c r="AR25" s="1">
         <f t="shared" si="24"/>
-        <v>0.25641025641025639</v>
+        <v>0.4590665646518774</v>
       </c>
       <c r="AS25" t="str">
         <f t="shared" si="25"/>
@@ -5232,38 +5232,38 @@
         <v>74</v>
       </c>
       <c r="B26">
-        <v>237.7</v>
+        <v>220.5</v>
       </c>
       <c r="C26">
-        <v>238.45</v>
+        <v>223.4</v>
       </c>
       <c r="D26">
-        <v>222.5</v>
+        <v>218</v>
       </c>
       <c r="E26">
-        <v>223.95</v>
+        <v>219.25</v>
       </c>
       <c r="F26">
-        <v>-13.75</v>
+        <v>-2.0999999999999939</v>
       </c>
       <c r="G26">
-        <v>-5.7846024400504836</v>
+        <v>-0.94872374068217502</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="0"/>
-        <v>-5.7846024400504836</v>
+        <v>-0.56689342403628118</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="1"/>
-        <v>5.7846024400504836</v>
+        <v>0.56689342403628118</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="2"/>
-        <v>0.3155237694572991</v>
+        <v>1.3151927437641751</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="3"/>
-        <v>0.64746595222147296</v>
+        <v>0.5701254275940707</v>
       </c>
       <c r="L26" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5294,38 +5294,38 @@
         <v>NO</v>
       </c>
       <c r="S26">
-        <v>221.2</v>
+        <v>226.5</v>
       </c>
       <c r="T26">
-        <v>239</v>
+        <v>231.3</v>
       </c>
       <c r="U26">
-        <v>218</v>
+        <v>219.5</v>
       </c>
       <c r="V26">
-        <v>237.7</v>
+        <v>221.35</v>
       </c>
       <c r="W26">
-        <v>16.449999999999989</v>
+        <v>-2.5999999999999939</v>
       </c>
       <c r="X26">
-        <v>7.4350282485875647</v>
+        <v>-1.1609734315695439</v>
       </c>
       <c r="Y26" s="1">
         <f t="shared" si="11"/>
-        <v>7.4593128390596748</v>
+        <v>-2.2737306843267131</v>
       </c>
       <c r="Z26" s="1">
         <f t="shared" si="12"/>
-        <v>7.4593128390596748</v>
+        <v>2.2737306843267131</v>
       </c>
       <c r="AA26" s="1">
         <f t="shared" si="13"/>
-        <v>0.54690786705932326</v>
+        <v>2.1192052980132501</v>
       </c>
       <c r="AB26" s="1">
         <f t="shared" si="14"/>
-        <v>1.4466546112115681</v>
+        <v>0.83578043822001102</v>
       </c>
       <c r="AC26" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5352,38 +5352,38 @@
         <v>NO</v>
       </c>
       <c r="AI26">
-        <v>219.05</v>
+        <v>237.7</v>
       </c>
       <c r="AJ26">
-        <v>222.45</v>
+        <v>238.45</v>
       </c>
       <c r="AK26">
-        <v>218</v>
+        <v>222.5</v>
       </c>
       <c r="AL26">
-        <v>221.25</v>
+        <v>223.95</v>
       </c>
       <c r="AM26">
-        <v>5.0500000000000114</v>
+        <v>-13.75</v>
       </c>
       <c r="AN26">
-        <v>2.335800185013881</v>
+        <v>-5.7846024400504836</v>
       </c>
       <c r="AO26" s="1">
         <f t="shared" si="21"/>
-        <v>1.0043369093814145</v>
+        <v>-5.7846024400504836</v>
       </c>
       <c r="AP26" s="1">
         <f t="shared" si="22"/>
-        <v>1.0043369093814145</v>
+        <v>5.7846024400504836</v>
       </c>
       <c r="AQ26" s="1">
         <f t="shared" si="23"/>
-        <v>0.54237288135592698</v>
+        <v>0.3155237694572991</v>
       </c>
       <c r="AR26" s="1">
         <f t="shared" si="24"/>
-        <v>0.47934261584113735</v>
+        <v>0.64746595222147296</v>
       </c>
       <c r="AS26" t="str">
         <f t="shared" si="25"/>
@@ -5415,38 +5415,38 @@
         <v>75</v>
       </c>
       <c r="B27">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C27">
-        <v>1335.05</v>
+        <v>1333</v>
       </c>
       <c r="D27">
-        <v>1295</v>
+        <v>1305</v>
       </c>
       <c r="E27">
-        <v>1305.3499999999999</v>
+        <v>1316.3</v>
       </c>
       <c r="F27">
-        <v>7.1499999999998636</v>
+        <v>11.799999999999949</v>
       </c>
       <c r="G27">
-        <v>0.55076259436141295</v>
+        <v>0.90456113453430076</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="0"/>
-        <v>-0.50685975609756795</v>
+        <v>0.48091603053434767</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="1"/>
-        <v>0.50685975609756795</v>
+        <v>0.48091603053434767</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="2"/>
-        <v>1.7568597560975576</v>
+        <v>1.2687077413963417</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="3"/>
-        <v>0.79289079557206199</v>
+        <v>0.38167938931297707</v>
       </c>
       <c r="L27" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5477,42 +5477,42 @@
         <v>NO</v>
       </c>
       <c r="S27">
-        <v>1256.0999999999999</v>
+        <v>1325</v>
       </c>
       <c r="T27">
-        <v>1309</v>
+        <v>1333</v>
       </c>
       <c r="U27">
-        <v>1254</v>
+        <v>1295.2</v>
       </c>
       <c r="V27">
-        <v>1298.2</v>
+        <v>1304.5</v>
       </c>
       <c r="W27">
-        <v>44.900000000000091</v>
+        <v>-0.84999999999990905</v>
       </c>
       <c r="X27">
-        <v>3.5825420888853499</v>
+        <v>-6.5116635385138788E-2</v>
       </c>
       <c r="Y27" s="1">
         <f t="shared" si="11"/>
-        <v>3.3516439773903466</v>
+        <v>-1.5471698113207546</v>
       </c>
       <c r="Z27" s="1">
         <f t="shared" si="12"/>
-        <v>3.3516439773903466</v>
+        <v>1.5471698113207546</v>
       </c>
       <c r="AA27" s="1">
         <f t="shared" si="13"/>
-        <v>0.83192112155291587</v>
+        <v>0.60377358490566035</v>
       </c>
       <c r="AB27" s="1">
         <f t="shared" si="14"/>
-        <v>0.16718414139000948</v>
+        <v>0.71291682637025333</v>
       </c>
       <c r="AC27" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AD27" s="1" t="str">
         <f t="shared" si="16"/>
@@ -5535,38 +5535,38 @@
         <v>NO</v>
       </c>
       <c r="AI27">
-        <v>1228</v>
+        <v>1312</v>
       </c>
       <c r="AJ27">
-        <v>1274.95</v>
+        <v>1335.05</v>
       </c>
       <c r="AK27">
-        <v>1225</v>
+        <v>1295</v>
       </c>
       <c r="AL27">
-        <v>1253.3</v>
+        <v>1305.3499999999999</v>
       </c>
       <c r="AM27">
-        <v>35.349999999999909</v>
+        <v>7.1499999999998636</v>
       </c>
       <c r="AN27">
-        <v>2.9024179974547319</v>
+        <v>0.55076259436141295</v>
       </c>
       <c r="AO27" s="1">
         <f t="shared" si="21"/>
-        <v>2.0602605863192145</v>
+        <v>-0.50685975609756795</v>
       </c>
       <c r="AP27" s="1">
         <f t="shared" si="22"/>
-        <v>2.0602605863192145</v>
+        <v>0.50685975609756795</v>
       </c>
       <c r="AQ27" s="1">
         <f t="shared" si="23"/>
-        <v>1.7274395595627619</v>
+        <v>1.7568597560975576</v>
       </c>
       <c r="AR27" s="1">
         <f t="shared" si="24"/>
-        <v>0.24429967426710095</v>
+        <v>0.79289079557206199</v>
       </c>
       <c r="AS27" t="str">
         <f t="shared" si="25"/>
@@ -5598,38 +5598,38 @@
         <v>76</v>
       </c>
       <c r="B28">
-        <v>443.85</v>
+        <v>426</v>
       </c>
       <c r="C28">
-        <v>445</v>
+        <v>437.85</v>
       </c>
       <c r="D28">
-        <v>428.1</v>
+        <v>425.2</v>
       </c>
       <c r="E28">
-        <v>430.35</v>
+        <v>434.85</v>
       </c>
       <c r="F28">
-        <v>-8.7999999999999545</v>
+        <v>7.4500000000000446</v>
       </c>
       <c r="G28">
-        <v>-2.0038711146532968</v>
+        <v>1.743097800655135</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="0"/>
-        <v>-3.0415680973301789</v>
+        <v>2.0774647887323994</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" si="1"/>
-        <v>3.0415680973301789</v>
+        <v>2.0774647887323994</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="2"/>
-        <v>0.25909654162441753</v>
+        <v>0.68989306657468086</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="3"/>
-        <v>0.52283025444405717</v>
+        <v>0.1877934272300496</v>
       </c>
       <c r="L28" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5660,38 +5660,38 @@
         <v>NO</v>
       </c>
       <c r="S28">
-        <v>449.4</v>
+        <v>432.65</v>
       </c>
       <c r="T28">
-        <v>452.7</v>
+        <v>436</v>
       </c>
       <c r="U28">
-        <v>435.2</v>
+        <v>424.75</v>
       </c>
       <c r="V28">
-        <v>439.15</v>
+        <v>427.4</v>
       </c>
       <c r="W28">
-        <v>-8</v>
+        <v>-2.950000000000045</v>
       </c>
       <c r="X28">
-        <v>-1.7891088001789111</v>
+        <v>-0.68548855582666324</v>
       </c>
       <c r="Y28" s="1">
         <f t="shared" si="11"/>
-        <v>-2.2808188696039164</v>
+        <v>-1.2134519819715706</v>
       </c>
       <c r="Z28" s="1">
         <f t="shared" si="12"/>
-        <v>2.2808188696039164</v>
+        <v>1.2134519819715706</v>
       </c>
       <c r="AA28" s="1">
         <f t="shared" si="13"/>
-        <v>0.7343124165554098</v>
+        <v>0.77429793135329317</v>
       </c>
       <c r="AB28" s="1">
         <f t="shared" si="14"/>
-        <v>0.89946487532733443</v>
+        <v>0.62002807674309246</v>
       </c>
       <c r="AC28" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5718,38 +5718,38 @@
         <v>NO</v>
       </c>
       <c r="AI28">
-        <v>436</v>
+        <v>443.85</v>
       </c>
       <c r="AJ28">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="AK28">
-        <v>435.05</v>
+        <v>428.1</v>
       </c>
       <c r="AL28">
-        <v>447.15</v>
+        <v>430.35</v>
       </c>
       <c r="AM28">
-        <v>12.75</v>
+        <v>-8.7999999999999545</v>
       </c>
       <c r="AN28">
-        <v>2.9350828729281768</v>
+        <v>-2.0038711146532968</v>
       </c>
       <c r="AO28" s="1">
         <f t="shared" si="21"/>
-        <v>2.5573394495412796</v>
+        <v>-3.0415680973301789</v>
       </c>
       <c r="AP28" s="1">
         <f t="shared" si="22"/>
-        <v>2.5573394495412796</v>
+        <v>3.0415680973301789</v>
       </c>
       <c r="AQ28" s="1">
         <f t="shared" si="23"/>
-        <v>0.63737001006374217</v>
+        <v>0.25909654162441753</v>
       </c>
       <c r="AR28" s="1">
         <f t="shared" si="24"/>
-        <v>0.21788990825687815</v>
+        <v>0.52283025444405717</v>
       </c>
       <c r="AS28" t="str">
         <f t="shared" si="25"/>
@@ -5781,38 +5781,38 @@
         <v>77</v>
       </c>
       <c r="B29">
-        <v>405.1</v>
+        <v>420</v>
       </c>
       <c r="C29">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="D29">
-        <v>402.8</v>
+        <v>408.85</v>
       </c>
       <c r="E29">
-        <v>408.8</v>
+        <v>413.2</v>
       </c>
       <c r="F29">
-        <v>5.6500000000000341</v>
+        <v>-6.6500000000000341</v>
       </c>
       <c r="G29">
-        <v>1.401463475133333</v>
+        <v>-1.5838990115517531</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="0"/>
-        <v>0.91335472722784206</v>
+        <v>-1.6190476190476217</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="1"/>
-        <v>0.91335472722784206</v>
+        <v>1.6190476190476217</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="2"/>
-        <v>1.2720156555772966</v>
+        <v>0.47619047619047622</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="3"/>
-        <v>0.5677610466551497</v>
+        <v>1.0527589545014437</v>
       </c>
       <c r="L29" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5843,38 +5843,38 @@
         <v>NO</v>
       </c>
       <c r="S29">
-        <v>390</v>
+        <v>410.9</v>
       </c>
       <c r="T29">
-        <v>405</v>
+        <v>421.7</v>
       </c>
       <c r="U29">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="V29">
-        <v>403.15</v>
+        <v>419.85</v>
       </c>
       <c r="W29">
-        <v>14.849999999999969</v>
+        <v>11.05000000000001</v>
       </c>
       <c r="X29">
-        <v>3.824362606232286</v>
+        <v>2.7030332681017639</v>
       </c>
       <c r="Y29" s="1">
         <f t="shared" si="11"/>
-        <v>3.3717948717948656</v>
+        <v>2.1781455341932454</v>
       </c>
       <c r="Z29" s="1">
         <f t="shared" si="12"/>
-        <v>3.3717948717948656</v>
+        <v>2.1781455341932454</v>
       </c>
       <c r="AA29" s="1">
         <f t="shared" si="13"/>
-        <v>0.45888627061888199</v>
+        <v>0.44063355960461253</v>
       </c>
       <c r="AB29" s="1">
         <f t="shared" si="14"/>
-        <v>0.25641025641025639</v>
+        <v>0.2190313944998728</v>
       </c>
       <c r="AC29" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5901,38 +5901,38 @@
         <v>NO</v>
       </c>
       <c r="AI29">
-        <v>393.5</v>
+        <v>405.1</v>
       </c>
       <c r="AJ29">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="AK29">
-        <v>383.6</v>
+        <v>402.8</v>
       </c>
       <c r="AL29">
-        <v>388.3</v>
+        <v>408.8</v>
       </c>
       <c r="AM29">
-        <v>-3.1999999999999891</v>
+        <v>5.6500000000000341</v>
       </c>
       <c r="AN29">
-        <v>-0.81736909323115936</v>
+        <v>1.401463475133333</v>
       </c>
       <c r="AO29" s="1">
         <f t="shared" si="21"/>
-        <v>-1.321473951715372</v>
+        <v>0.91335472722784206</v>
       </c>
       <c r="AP29" s="1">
         <f t="shared" si="22"/>
-        <v>1.321473951715372</v>
+        <v>0.91335472722784206</v>
       </c>
       <c r="AQ29" s="1">
         <f t="shared" si="23"/>
-        <v>1.3977128335451081</v>
+        <v>1.2720156555772966</v>
       </c>
       <c r="AR29" s="1">
         <f t="shared" si="24"/>
-        <v>1.2104043265516324</v>
+        <v>0.5677610466551497</v>
       </c>
       <c r="AS29" t="str">
         <f t="shared" si="25"/>
@@ -5964,38 +5964,38 @@
         <v>78</v>
       </c>
       <c r="B30">
-        <v>3384.85</v>
+        <v>3560.7</v>
       </c>
       <c r="C30">
-        <v>3455</v>
+        <v>3581.7</v>
       </c>
       <c r="D30">
-        <v>3381</v>
+        <v>3505</v>
       </c>
       <c r="E30">
-        <v>3434.1</v>
+        <v>3539.8</v>
       </c>
       <c r="F30">
-        <v>49.25</v>
+        <v>6.25</v>
       </c>
       <c r="G30">
-        <v>1.4550127775233761</v>
+        <v>0.17687594628631259</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="0"/>
-        <v>1.4550127775233763</v>
+        <v>-0.58696323756563706</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="1"/>
-        <v>1.4550127775233763</v>
+        <v>0.58696323756563706</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="2"/>
-        <v>0.60860196266853306</v>
+        <v>0.58977167410902354</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" si="3"/>
-        <v>0.11374211560334754</v>
+        <v>0.98310639019154133</v>
       </c>
       <c r="L30" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6026,38 +6026,38 @@
         <v>NO</v>
       </c>
       <c r="S30">
-        <v>3420</v>
+        <v>3450</v>
       </c>
       <c r="T30">
-        <v>3434.8</v>
+        <v>3559.2</v>
       </c>
       <c r="U30">
-        <v>3343.05</v>
+        <v>3410.3</v>
       </c>
       <c r="V30">
-        <v>3384.85</v>
+        <v>3533.55</v>
       </c>
       <c r="W30">
-        <v>-1.8499999999999091</v>
+        <v>99.450000000000273</v>
       </c>
       <c r="X30">
-        <v>-5.4625446599932348E-2</v>
+        <v>2.8959552721237092</v>
       </c>
       <c r="Y30" s="1">
         <f t="shared" si="11"/>
-        <v>-1.0277777777777803</v>
+        <v>2.4217391304347879</v>
       </c>
       <c r="Z30" s="1">
         <f t="shared" si="12"/>
-        <v>1.0277777777777803</v>
+        <v>2.4217391304347879</v>
       </c>
       <c r="AA30" s="1">
         <f t="shared" si="13"/>
-        <v>0.43274853801170121</v>
+        <v>0.72589888355901677</v>
       </c>
       <c r="AB30" s="1">
         <f t="shared" si="14"/>
-        <v>1.234914397979223</v>
+        <v>1.1507246376811542</v>
       </c>
       <c r="AC30" s="1" t="str">
         <f t="shared" si="15"/>
@@ -6084,38 +6084,38 @@
         <v>NO</v>
       </c>
       <c r="AI30">
-        <v>3293</v>
+        <v>3384.85</v>
       </c>
       <c r="AJ30">
-        <v>3430</v>
+        <v>3455</v>
       </c>
       <c r="AK30">
-        <v>3240.25</v>
+        <v>3381</v>
       </c>
       <c r="AL30">
-        <v>3386.7</v>
+        <v>3434.1</v>
       </c>
       <c r="AM30">
-        <v>107</v>
+        <v>49.25</v>
       </c>
       <c r="AN30">
-        <v>3.262493520748849</v>
+        <v>1.4550127775233761</v>
       </c>
       <c r="AO30" s="1">
         <f t="shared" si="21"/>
-        <v>2.8454296993622781</v>
+        <v>1.4550127775233763</v>
       </c>
       <c r="AP30" s="1">
         <f t="shared" si="22"/>
-        <v>2.8454296993622781</v>
+        <v>1.4550127775233763</v>
       </c>
       <c r="AQ30" s="1">
         <f t="shared" si="23"/>
-        <v>1.2785307231228094</v>
+        <v>0.60860196266853306</v>
       </c>
       <c r="AR30" s="1">
         <f t="shared" si="24"/>
-        <v>1.6018827816580625</v>
+        <v>0.11374211560334754</v>
       </c>
       <c r="AS30" t="str">
         <f t="shared" si="25"/>
@@ -6147,38 +6147,38 @@
         <v>79</v>
       </c>
       <c r="B31">
-        <v>1300</v>
+        <v>1351.9</v>
       </c>
       <c r="C31">
-        <v>1328.35</v>
+        <v>1353.05</v>
       </c>
       <c r="D31">
-        <v>1290</v>
+        <v>1313</v>
       </c>
       <c r="E31">
-        <v>1321.15</v>
+        <v>1318.75</v>
       </c>
       <c r="F31">
-        <v>26.700000000000049</v>
+        <v>-24.799999999999951</v>
       </c>
       <c r="G31">
-        <v>2.0626520916219282</v>
+        <v>-1.8458561274236129</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="0"/>
-        <v>1.6269230769230838</v>
+        <v>-2.4521044455950949</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="1"/>
-        <v>1.6269230769230838</v>
+        <v>2.4521044455950949</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="2"/>
-        <v>0.54497975248834862</v>
+        <v>8.506546342184064E-2</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="3"/>
-        <v>0.76923076923076927</v>
+        <v>0.43601895734597157</v>
       </c>
       <c r="L31" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6209,38 +6209,38 @@
         <v>NO</v>
       </c>
       <c r="S31">
-        <v>1265</v>
+        <v>1330</v>
       </c>
       <c r="T31">
-        <v>1301</v>
+        <v>1355</v>
       </c>
       <c r="U31">
-        <v>1238</v>
+        <v>1320.8</v>
       </c>
       <c r="V31">
-        <v>1294.45</v>
+        <v>1343.55</v>
       </c>
       <c r="W31">
-        <v>36.5</v>
+        <v>22.39999999999986</v>
       </c>
       <c r="X31">
-        <v>2.9015461663818121</v>
+        <v>1.695492563297117</v>
       </c>
       <c r="Y31" s="1">
         <f t="shared" si="11"/>
-        <v>2.3280632411067232</v>
+        <v>1.0187969924811995</v>
       </c>
       <c r="Z31" s="1">
         <f t="shared" si="12"/>
-        <v>2.3280632411067232</v>
+        <v>1.0187969924811995</v>
       </c>
       <c r="AA31" s="1">
         <f t="shared" si="13"/>
-        <v>0.50600641198964458</v>
+        <v>0.852219865282278</v>
       </c>
       <c r="AB31" s="1">
         <f t="shared" si="14"/>
-        <v>2.1343873517786562</v>
+        <v>0.69172932330827408</v>
       </c>
       <c r="AC31" s="1" t="str">
         <f t="shared" si="15"/>
@@ -6256,7 +6256,7 @@
       </c>
       <c r="AF31" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AG31" s="1" t="str">
         <f t="shared" si="19"/>
@@ -6267,38 +6267,38 @@
         <v>NO</v>
       </c>
       <c r="AI31">
-        <v>1259.9000000000001</v>
+        <v>1300</v>
       </c>
       <c r="AJ31">
-        <v>1284.8499999999999</v>
+        <v>1328.35</v>
       </c>
       <c r="AK31">
-        <v>1250</v>
+        <v>1290</v>
       </c>
       <c r="AL31">
-        <v>1257.95</v>
+        <v>1321.15</v>
       </c>
       <c r="AM31">
-        <v>9.4500000000000455</v>
+        <v>26.700000000000049</v>
       </c>
       <c r="AN31">
-        <v>0.75690828994794113</v>
+        <v>2.0626520916219282</v>
       </c>
       <c r="AO31" s="1">
         <f t="shared" si="21"/>
-        <v>-0.15477418842765658</v>
+        <v>1.6269230769230838</v>
       </c>
       <c r="AP31" s="1">
         <f t="shared" si="22"/>
-        <v>0.15477418842765658</v>
+        <v>1.6269230769230838</v>
       </c>
       <c r="AQ31" s="1">
         <f t="shared" si="23"/>
-        <v>1.9803158980871352</v>
+        <v>0.54497975248834862</v>
       </c>
       <c r="AR31" s="1">
         <f t="shared" si="24"/>
-        <v>0.63198060336261741</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="AS31" t="str">
         <f t="shared" si="25"/>
@@ -6330,38 +6330,38 @@
         <v>80</v>
       </c>
       <c r="B32">
-        <v>972.95</v>
+        <v>1005.9</v>
       </c>
       <c r="C32">
-        <v>972.95</v>
+        <v>1033</v>
       </c>
       <c r="D32">
-        <v>958</v>
+        <v>995.85</v>
       </c>
       <c r="E32">
-        <v>968</v>
+        <v>1028.6500000000001</v>
       </c>
       <c r="F32">
-        <v>0.35000000000002268</v>
+        <v>27.800000000000072</v>
       </c>
       <c r="G32">
-        <v>3.6170102826437532E-2</v>
+        <v>2.777639006844189</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="0"/>
-        <v>-0.50876201243640939</v>
+        <v>2.2616562282533166</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" si="1"/>
-        <v>0.50876201243640939</v>
+        <v>2.2616562282533166</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.42288436300003979</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="3"/>
-        <v>1.0330578512396695</v>
+        <v>0.99910527885475242</v>
       </c>
       <c r="L32" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6392,38 +6392,38 @@
         <v>NO</v>
       </c>
       <c r="S32">
-        <v>959.95</v>
+        <v>972.85</v>
       </c>
       <c r="T32">
-        <v>973</v>
+        <v>1005</v>
       </c>
       <c r="U32">
-        <v>952.4</v>
+        <v>967</v>
       </c>
       <c r="V32">
-        <v>967.65</v>
+        <v>1000.85</v>
       </c>
       <c r="W32">
-        <v>5.1499999999999773</v>
+        <v>32.850000000000023</v>
       </c>
       <c r="X32">
-        <v>0.53506493506493269</v>
+        <v>3.3935950413223162</v>
       </c>
       <c r="Y32" s="1">
         <f t="shared" si="11"/>
-        <v>0.80212511068284087</v>
+        <v>2.8781415428894483</v>
       </c>
       <c r="Z32" s="1">
         <f t="shared" si="12"/>
-        <v>0.80212511068284087</v>
+        <v>2.8781415428894483</v>
       </c>
       <c r="AA32" s="1">
         <f t="shared" si="13"/>
-        <v>0.55288585748979724</v>
+        <v>0.41464754958285227</v>
       </c>
       <c r="AB32" s="1">
         <f t="shared" si="14"/>
-        <v>0.78649929683838415</v>
+        <v>0.60132600092511923</v>
       </c>
       <c r="AC32" s="1" t="str">
         <f t="shared" si="15"/>
@@ -6450,38 +6450,38 @@
         <v>NO</v>
       </c>
       <c r="AI32">
-        <v>942.5</v>
+        <v>972.95</v>
       </c>
       <c r="AJ32">
-        <v>966</v>
+        <v>972.95</v>
       </c>
       <c r="AK32">
-        <v>935.55</v>
+        <v>958</v>
       </c>
       <c r="AL32">
-        <v>962.5</v>
+        <v>968</v>
       </c>
       <c r="AM32">
-        <v>21.399999999999981</v>
+        <v>0.35000000000002268</v>
       </c>
       <c r="AN32">
-        <v>2.2739347571990201</v>
+        <v>3.6170102826437532E-2</v>
       </c>
       <c r="AO32" s="1">
         <f t="shared" si="21"/>
-        <v>2.1220159151193632</v>
+        <v>-0.50876201243640939</v>
       </c>
       <c r="AP32" s="1">
         <f t="shared" si="22"/>
-        <v>2.1220159151193632</v>
+        <v>0.50876201243640939</v>
       </c>
       <c r="AQ32" s="1">
         <f t="shared" si="23"/>
-        <v>0.36363636363636365</v>
+        <v>0</v>
       </c>
       <c r="AR32" s="1">
         <f t="shared" si="24"/>
-        <v>0.73740053050398358</v>
+        <v>1.0330578512396695</v>
       </c>
       <c r="AS32" t="str">
         <f t="shared" si="25"/>
@@ -6513,38 +6513,38 @@
         <v>81</v>
       </c>
       <c r="B33">
-        <v>367.4</v>
+        <v>365</v>
       </c>
       <c r="C33">
-        <v>371.7</v>
+        <v>366.4</v>
       </c>
       <c r="D33">
-        <v>365.8</v>
+        <v>362.7</v>
       </c>
       <c r="E33">
-        <v>370.55</v>
+        <v>364.35</v>
       </c>
       <c r="F33">
-        <v>3.8500000000000232</v>
+        <v>-0.14999999999997729</v>
       </c>
       <c r="G33">
-        <v>1.0499045541314489</v>
+        <v>-4.1152263374479359E-2</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="0"/>
-        <v>0.85737615677736367</v>
+        <v>-0.17808219178081569</v>
       </c>
       <c r="I33" s="1">
         <f t="shared" si="1"/>
-        <v>0.85737615677736367</v>
+        <v>0.17808219178081569</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" si="2"/>
-        <v>0.31034948050195044</v>
+        <v>0.3835616438356102</v>
       </c>
       <c r="K33" s="1">
         <f t="shared" si="3"/>
-        <v>0.43549265106150409</v>
+        <v>0.45286125977769559</v>
       </c>
       <c r="L33" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6575,38 +6575,38 @@
         <v>NO</v>
       </c>
       <c r="S33">
-        <v>362.35</v>
+        <v>370.55</v>
       </c>
       <c r="T33">
-        <v>367.95</v>
+        <v>370.55</v>
       </c>
       <c r="U33">
-        <v>362.3</v>
+        <v>363.15</v>
       </c>
       <c r="V33">
-        <v>366.7</v>
+        <v>364.5</v>
       </c>
       <c r="W33">
-        <v>3.3999999999999768</v>
+        <v>-6.0500000000000114</v>
       </c>
       <c r="X33">
-        <v>0.93586567575006252</v>
+        <v>-1.6327081365537739</v>
       </c>
       <c r="Y33" s="1">
         <f t="shared" si="11"/>
-        <v>1.2004967572788645</v>
+        <v>-1.6327081365537743</v>
       </c>
       <c r="Z33" s="1">
         <f t="shared" si="12"/>
-        <v>1.2004967572788645</v>
+        <v>1.6327081365537743</v>
       </c>
       <c r="AA33" s="1">
         <f t="shared" si="13"/>
-        <v>0.3408781019907281</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="1">
         <f t="shared" si="14"/>
-        <v>1.3798813302059161E-2</v>
+        <v>0.37037037037037662</v>
       </c>
       <c r="AC33" s="1" t="str">
         <f t="shared" si="15"/>
@@ -6633,38 +6633,38 @@
         <v>NO</v>
       </c>
       <c r="AI33">
+        <v>367.4</v>
+      </c>
+      <c r="AJ33">
+        <v>371.7</v>
+      </c>
+      <c r="AK33">
         <v>365.8</v>
       </c>
-      <c r="AJ33">
-        <v>367.65</v>
-      </c>
-      <c r="AK33">
-        <v>360.2</v>
-      </c>
       <c r="AL33">
-        <v>363.3</v>
+        <v>370.55</v>
       </c>
       <c r="AM33">
-        <v>-0.69999999999998863</v>
+        <v>3.8500000000000232</v>
       </c>
       <c r="AN33">
-        <v>-0.19230769230768921</v>
+        <v>1.0499045541314489</v>
       </c>
       <c r="AO33" s="1">
         <f t="shared" si="21"/>
-        <v>-0.68343357025697105</v>
+        <v>0.85737615677736367</v>
       </c>
       <c r="AP33" s="1">
         <f t="shared" si="22"/>
-        <v>0.68343357025697105</v>
+        <v>0.85737615677736367</v>
       </c>
       <c r="AQ33" s="1">
         <f t="shared" si="23"/>
-        <v>0.50574084199014924</v>
+        <v>0.31034948050195044</v>
       </c>
       <c r="AR33" s="1">
         <f t="shared" si="24"/>
-        <v>0.85328929259565722</v>
+        <v>0.43549265106150409</v>
       </c>
       <c r="AS33" t="str">
         <f t="shared" si="25"/>
@@ -6696,45 +6696,45 @@
         <v>82</v>
       </c>
       <c r="B34">
-        <v>112.5</v>
+        <v>121.7</v>
       </c>
       <c r="C34">
-        <v>119.5</v>
+        <v>124.6</v>
       </c>
       <c r="D34">
-        <v>112.5</v>
+        <v>121</v>
       </c>
       <c r="E34">
-        <v>116.35</v>
+        <v>122.55</v>
       </c>
       <c r="F34">
-        <v>4.1499999999999906</v>
+        <v>1.649999999999991</v>
       </c>
       <c r="G34">
-        <v>3.6987522281639849</v>
+        <v>1.3647642679900669</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" ref="H34:H51" si="31">(E34-B34)/B34*100</f>
-        <v>3.4222222222222176</v>
+        <v>0.69843878389481873</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" ref="I34:I65" si="32">ABS(H34)</f>
-        <v>3.4222222222222176</v>
+        <v>0.69843878389481873</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" ref="J34:J51" si="33">IF(H34&gt;=0,(C34-E34)/E34*100,(C34-B34)/B34*100)</f>
-        <v>2.7073485174043883</v>
+        <v>1.6727866177070561</v>
       </c>
       <c r="K34" s="1">
         <f t="shared" ref="K34:K51" si="34">IF(H34&gt;=0,(B34-D34)/B34*100,(E34-D34)/E34*100)</f>
-        <v>0</v>
+        <v>0.57518488085456276</v>
       </c>
       <c r="L34" s="1" t="str">
         <f t="shared" ref="L34:L65" si="35">IF(AND((K34-J34)&gt;1.5,I34&lt;0.5),"YES","NO")</f>
         <v>NO</v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" ref="M34:M51" si="36">IF(AND((K34-J34)&gt;1.5,I34&lt;2,I34&gt;0.5),"YES","NO")</f>
+        <f t="shared" ref="M34:M51" si="36">IF(AND((K34-J34)&gt;1.5,I34&lt;2,I34&gt;0.5,H34&gt;0),"YES","NO")</f>
         <v>NO</v>
       </c>
       <c r="N34" t="str">
@@ -6742,7 +6742,7 @@
         <v>NO</v>
       </c>
       <c r="O34" s="1" t="str">
-        <f t="shared" ref="O34:O51" si="38">IF(AND((J34-K34)&gt;1.5,I34&lt;2,I34&gt;0.5),"YES","NO")</f>
+        <f t="shared" ref="O34:O51" si="38">IF(AND((J34-K34)&gt;1.5,I34&lt;2,I34&gt;0.5,H34&lt;0),"YES","NO")</f>
         <v>NO</v>
       </c>
       <c r="P34" s="1" t="str">
@@ -6758,38 +6758,38 @@
         <v>NO</v>
       </c>
       <c r="S34">
-        <v>112.25</v>
+        <v>117.5</v>
       </c>
       <c r="T34">
-        <v>113.25</v>
+        <v>122.15</v>
       </c>
       <c r="U34">
-        <v>110.85</v>
+        <v>116.6</v>
       </c>
       <c r="V34">
-        <v>112.2</v>
+        <v>120.9</v>
       </c>
       <c r="W34">
-        <v>0.54999999999999716</v>
+        <v>4.5500000000000114</v>
       </c>
       <c r="X34">
-        <v>0.49261083743842099</v>
+        <v>3.9106145251396751</v>
       </c>
       <c r="Y34" s="1">
         <f t="shared" ref="Y34:Y51" si="42">(V34-S34)/S34*100</f>
-        <v>-4.4543429844095463E-2</v>
+        <v>2.8936170212766008</v>
       </c>
       <c r="Z34" s="1">
         <f t="shared" ref="Z34:Z65" si="43">ABS(Y34)</f>
-        <v>4.4543429844095463E-2</v>
+        <v>2.8936170212766008</v>
       </c>
       <c r="AA34" s="1">
         <f t="shared" ref="AA34:AA51" si="44">IF(Y34&gt;=0,(T34-V34)/V34*100,(T34-S34)/S34*100)</f>
-        <v>0.89086859688195985</v>
+        <v>1.0339123242349046</v>
       </c>
       <c r="AB34" s="1">
         <f t="shared" ref="AB34:AB51" si="45">IF(Y34&gt;=0,(S34-U34)/S34*100,(V34-U34)/V34*100)</f>
-        <v>1.2032085561497401</v>
+        <v>0.76595744680851541</v>
       </c>
       <c r="AC34" s="1" t="str">
         <f t="shared" ref="AC34:AC51" si="46">IF(AND(I34&lt;Z34/2,S34&gt;E34,E34&gt;(S34+V34)/2,V34&lt;B34,B34&lt;(S34+V34)/2),"YES","NO")</f>
@@ -6816,38 +6816,38 @@
         <v>NO</v>
       </c>
       <c r="AI34">
-        <v>110.5</v>
+        <v>112.5</v>
       </c>
       <c r="AJ34">
-        <v>112.75</v>
+        <v>119.5</v>
       </c>
       <c r="AK34">
-        <v>109.9</v>
+        <v>112.5</v>
       </c>
       <c r="AL34">
-        <v>111.65</v>
+        <v>116.35</v>
       </c>
       <c r="AM34">
-        <v>1.850000000000009</v>
+        <v>4.1499999999999906</v>
       </c>
       <c r="AN34">
-        <v>1.6848816029143969</v>
+        <v>3.6987522281639849</v>
       </c>
       <c r="AO34" s="1">
         <f t="shared" ref="AO34:AO51" si="52">(AL34-AI34)/AI34*100</f>
-        <v>1.0407239819004577</v>
+        <v>3.4222222222222176</v>
       </c>
       <c r="AP34" s="1">
         <f t="shared" ref="AP34:AP65" si="53">ABS(AO34)</f>
-        <v>1.0407239819004577</v>
+        <v>3.4222222222222176</v>
       </c>
       <c r="AQ34" s="1">
         <f t="shared" ref="AQ34:AQ51" si="54">IF(AO34&gt;=0,(AJ34-AL34)/AL34*100,(AJ34-AI34)/AI34*100)</f>
-        <v>0.98522167487684209</v>
+        <v>2.7073485174043883</v>
       </c>
       <c r="AR34" s="1">
         <f t="shared" ref="AR34:AR51" si="55">IF(AO34&gt;=0,(AI34-AK34)/AI34*100,(AL34-AK34)/AL34*100)</f>
-        <v>0.54298642533936137</v>
+        <v>0</v>
       </c>
       <c r="AS34" t="str">
         <f t="shared" ref="AS34:AS51" si="56">IF(AND(AO34&lt;0,AP34&gt;1.5,Y34&lt;0,Z34&gt;1.5,AL34&gt;S34,AL34&lt;E34,H34&gt;0,I34&gt;1.5),"YES","NO")</f>
@@ -6879,38 +6879,38 @@
         <v>83</v>
       </c>
       <c r="B35">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="C35">
-        <v>1146.8499999999999</v>
+        <v>1173</v>
       </c>
       <c r="D35">
-        <v>1113.4000000000001</v>
+        <v>1128.1500000000001</v>
       </c>
       <c r="E35">
-        <v>1123.45</v>
+        <v>1144.45</v>
       </c>
       <c r="F35">
-        <v>-5.0499999999999554</v>
+        <v>13.400000000000089</v>
       </c>
       <c r="G35">
-        <v>-0.44749667700486973</v>
+        <v>1.184739843508253</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="31"/>
-        <v>-1.2785588752196797</v>
+        <v>0.83259911894273531</v>
       </c>
       <c r="I35" s="1">
         <f t="shared" si="32"/>
-        <v>1.2785588752196797</v>
+        <v>0.83259911894273531</v>
       </c>
       <c r="J35" s="1">
         <f t="shared" si="33"/>
-        <v>0.77768014059753154</v>
+        <v>2.4946480842325967</v>
       </c>
       <c r="K35" s="1">
         <f t="shared" si="34"/>
-        <v>0.89456584627708879</v>
+        <v>0.6035242290748819</v>
       </c>
       <c r="L35" s="1" t="str">
         <f t="shared" si="35"/>
@@ -6941,38 +6941,38 @@
         <v>NO</v>
       </c>
       <c r="S35">
-        <v>1088</v>
+        <v>1128</v>
       </c>
       <c r="T35">
-        <v>1134</v>
+        <v>1141.8499999999999</v>
       </c>
       <c r="U35">
-        <v>1088</v>
+        <v>1116</v>
       </c>
       <c r="V35">
-        <v>1128.5</v>
+        <v>1131.05</v>
       </c>
       <c r="W35">
-        <v>29</v>
+        <v>7.5999999999999091</v>
       </c>
       <c r="X35">
-        <v>2.6375625284220101</v>
+        <v>0.67648760514485806</v>
       </c>
       <c r="Y35" s="1">
         <f t="shared" si="42"/>
-        <v>3.7224264705882351</v>
+        <v>0.27039007092198181</v>
       </c>
       <c r="Z35" s="1">
         <f t="shared" si="43"/>
-        <v>3.7224264705882351</v>
+        <v>0.27039007092198181</v>
       </c>
       <c r="AA35" s="1">
         <f t="shared" si="44"/>
-        <v>0.48737261852015945</v>
+        <v>0.95486494849917825</v>
       </c>
       <c r="AB35" s="1">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1.0638297872340425</v>
       </c>
       <c r="AC35" s="1" t="str">
         <f t="shared" si="46"/>
@@ -6999,38 +6999,38 @@
         <v>NO</v>
       </c>
       <c r="AI35">
-        <v>1110</v>
+        <v>1138</v>
       </c>
       <c r="AJ35">
-        <v>1113</v>
+        <v>1146.8499999999999</v>
       </c>
       <c r="AK35">
-        <v>1080.3499999999999</v>
+        <v>1113.4000000000001</v>
       </c>
       <c r="AL35">
-        <v>1099.5</v>
+        <v>1123.45</v>
       </c>
       <c r="AM35">
-        <v>6.0499999999999554</v>
+        <v>-5.0499999999999554</v>
       </c>
       <c r="AN35">
-        <v>0.55329461795234847</v>
+        <v>-0.44749667700486973</v>
       </c>
       <c r="AO35" s="1">
         <f t="shared" si="52"/>
-        <v>-0.94594594594594605</v>
+        <v>-1.2785588752196797</v>
       </c>
       <c r="AP35" s="1">
         <f t="shared" si="53"/>
-        <v>0.94594594594594605</v>
+        <v>1.2785588752196797</v>
       </c>
       <c r="AQ35" s="1">
         <f t="shared" si="54"/>
-        <v>0.27027027027027029</v>
+        <v>0.77768014059753154</v>
       </c>
       <c r="AR35" s="1">
         <f t="shared" si="55"/>
-        <v>1.7417007730786804</v>
+        <v>0.89456584627708879</v>
       </c>
       <c r="AS35" t="str">
         <f t="shared" si="56"/>
@@ -7062,38 +7062,38 @@
         <v>84</v>
       </c>
       <c r="B36">
-        <v>20.65</v>
+        <v>20.85</v>
       </c>
       <c r="C36">
+        <v>21.4</v>
+      </c>
+      <c r="D36">
+        <v>20.75</v>
+      </c>
+      <c r="E36">
         <v>20.9</v>
-      </c>
-      <c r="D36">
-        <v>20.6</v>
-      </c>
-      <c r="E36">
-        <v>20.7</v>
       </c>
       <c r="F36">
         <v>0.14999999999999861</v>
       </c>
       <c r="G36">
-        <v>0.72992700729926308</v>
+        <v>0.72289156626505346</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="31"/>
-        <v>0.24213075060533032</v>
+        <v>0.23980815347720458</v>
       </c>
       <c r="I36" s="1">
         <f t="shared" si="32"/>
-        <v>0.24213075060533032</v>
+        <v>0.23980815347720458</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" si="33"/>
-        <v>0.96618357487922368</v>
+        <v>2.3923444976076556</v>
       </c>
       <c r="K36" s="1">
         <f t="shared" si="34"/>
-        <v>0.24213075060531314</v>
+        <v>0.47961630695444329</v>
       </c>
       <c r="L36" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="N36" t="str">
         <f t="shared" si="37"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O36" s="1" t="str">
         <f t="shared" si="38"/>
@@ -7127,35 +7127,35 @@
         <v>20.7</v>
       </c>
       <c r="T36">
+        <v>20.85</v>
+      </c>
+      <c r="U36">
+        <v>20.65</v>
+      </c>
+      <c r="V36">
         <v>20.75</v>
       </c>
-      <c r="U36">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="V36">
-        <v>20.55</v>
-      </c>
       <c r="W36">
-        <v>0</v>
+        <v>5.0000000000000711E-2</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>0.2415458937198102</v>
       </c>
       <c r="Y36" s="1">
         <f t="shared" si="42"/>
-        <v>-0.7246376811594134</v>
+        <v>0.24154589371981022</v>
       </c>
       <c r="Z36" s="1">
         <f t="shared" si="43"/>
-        <v>0.7246376811594134</v>
+        <v>0.24154589371981022</v>
       </c>
       <c r="AA36" s="1">
         <f t="shared" si="44"/>
-        <v>0.24154589371981022</v>
+        <v>0.48192771084338032</v>
       </c>
       <c r="AB36" s="1">
         <f t="shared" si="45"/>
-        <v>0.72992700729928051</v>
+        <v>0.24154589371981022</v>
       </c>
       <c r="AC36" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7182,38 +7182,38 @@
         <v>NO</v>
       </c>
       <c r="AI36">
-        <v>20.85</v>
+        <v>20.65</v>
       </c>
       <c r="AJ36">
-        <v>21.05</v>
+        <v>20.9</v>
       </c>
       <c r="AK36">
-        <v>20.55</v>
+        <v>20.6</v>
       </c>
       <c r="AL36">
-        <v>20.55</v>
+        <v>20.7</v>
       </c>
       <c r="AM36">
-        <v>-0.14999999999999861</v>
+        <v>0.14999999999999861</v>
       </c>
       <c r="AN36">
-        <v>-0.7246376811594134</v>
+        <v>0.72992700729926308</v>
       </c>
       <c r="AO36" s="1">
         <f t="shared" si="52"/>
-        <v>-1.4388489208633126</v>
+        <v>0.24213075060533032</v>
       </c>
       <c r="AP36" s="1">
         <f t="shared" si="53"/>
-        <v>1.4388489208633126</v>
+        <v>0.24213075060533032</v>
       </c>
       <c r="AQ36" s="1">
         <f t="shared" si="54"/>
-        <v>0.95923261390886938</v>
+        <v>0.96618357487922368</v>
       </c>
       <c r="AR36" s="1">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>0.24213075060531314</v>
       </c>
       <c r="AS36" t="str">
         <f t="shared" si="56"/>
@@ -7245,38 +7245,38 @@
         <v>85</v>
       </c>
       <c r="B37">
-        <v>91</v>
+        <v>90.6</v>
       </c>
       <c r="C37">
-        <v>91.55</v>
+        <v>94.7</v>
       </c>
       <c r="D37">
-        <v>89.2</v>
+        <v>89.7</v>
       </c>
       <c r="E37">
-        <v>89.65</v>
+        <v>90.75</v>
       </c>
       <c r="F37">
-        <v>-0.1499999999999915</v>
+        <v>1.1500000000000059</v>
       </c>
       <c r="G37">
-        <v>-0.16703786191535799</v>
+        <v>1.283482142857149</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="31"/>
-        <v>-1.4835164835164771</v>
+        <v>0.16556291390729105</v>
       </c>
       <c r="I37" s="1">
         <f t="shared" si="32"/>
-        <v>1.4835164835164771</v>
+        <v>0.16556291390729105</v>
       </c>
       <c r="J37" s="1">
         <f t="shared" si="33"/>
-        <v>0.60439560439560125</v>
+        <v>4.3526170798898107</v>
       </c>
       <c r="K37" s="1">
         <f t="shared" si="34"/>
-        <v>0.50195203569437019</v>
+        <v>0.99337748344369925</v>
       </c>
       <c r="L37" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7288,7 +7288,7 @@
       </c>
       <c r="N37" t="str">
         <f t="shared" si="37"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O37" s="1" t="str">
         <f t="shared" si="38"/>
@@ -7307,38 +7307,38 @@
         <v>NO</v>
       </c>
       <c r="S37">
-        <v>89.55</v>
+        <v>90.6</v>
       </c>
       <c r="T37">
         <v>90.6</v>
       </c>
       <c r="U37">
-        <v>88.75</v>
+        <v>88.5</v>
       </c>
       <c r="V37">
-        <v>89.8</v>
+        <v>89.6</v>
       </c>
       <c r="W37">
-        <v>0.29999999999999721</v>
+        <v>-5.0000000000011369E-2</v>
       </c>
       <c r="X37">
-        <v>0.3351955307262538</v>
+        <v>-5.5772448410497888E-2</v>
       </c>
       <c r="Y37" s="1">
         <f t="shared" si="42"/>
-        <v>0.27917364600781686</v>
+        <v>-1.1037527593818985</v>
       </c>
       <c r="Z37" s="1">
         <f t="shared" si="43"/>
-        <v>0.27917364600781686</v>
+        <v>1.1037527593818985</v>
       </c>
       <c r="AA37" s="1">
         <f t="shared" si="44"/>
-        <v>0.89086859688195674</v>
+        <v>0</v>
       </c>
       <c r="AB37" s="1">
         <f t="shared" si="45"/>
-        <v>0.89335566722501081</v>
+        <v>1.2276785714285652</v>
       </c>
       <c r="AC37" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7365,38 +7365,38 @@
         <v>NO</v>
       </c>
       <c r="AI37">
-        <v>92.15</v>
+        <v>91</v>
       </c>
       <c r="AJ37">
-        <v>92.75</v>
+        <v>91.55</v>
       </c>
       <c r="AK37">
-        <v>88.35</v>
+        <v>89.2</v>
       </c>
       <c r="AL37">
-        <v>89.5</v>
+        <v>89.65</v>
       </c>
       <c r="AM37">
-        <v>-2.2000000000000028</v>
+        <v>-0.1499999999999915</v>
       </c>
       <c r="AN37">
-        <v>-2.3991275899672879</v>
+        <v>-0.16703786191535799</v>
       </c>
       <c r="AO37" s="1">
         <f t="shared" si="52"/>
-        <v>-2.8757460661964251</v>
+        <v>-1.4835164835164771</v>
       </c>
       <c r="AP37" s="1">
         <f t="shared" si="53"/>
-        <v>2.8757460661964251</v>
+        <v>1.4835164835164771</v>
       </c>
       <c r="AQ37" s="1">
         <f t="shared" si="54"/>
-        <v>0.65111231687465465</v>
+        <v>0.60439560439560125</v>
       </c>
       <c r="AR37" s="1">
         <f t="shared" si="55"/>
-        <v>1.2849162011173247</v>
+        <v>0.50195203569437019</v>
       </c>
       <c r="AS37" t="str">
         <f t="shared" si="56"/>
@@ -7428,38 +7428,38 @@
         <v>86</v>
       </c>
       <c r="B38">
-        <v>2965</v>
+        <v>3050</v>
       </c>
       <c r="C38">
-        <v>3040.8</v>
+        <v>3054.95</v>
       </c>
       <c r="D38">
-        <v>2961</v>
+        <v>2963</v>
       </c>
       <c r="E38">
-        <v>2988.2</v>
+        <v>2989.4</v>
       </c>
       <c r="F38">
-        <v>81.599999999999909</v>
+        <v>-35.5</v>
       </c>
       <c r="G38">
-        <v>2.8074038395376011</v>
+        <v>-1.1735925154550559</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" si="31"/>
-        <v>0.78246205733557561</v>
+        <v>-1.9868852459016362</v>
       </c>
       <c r="I38" s="1">
         <f t="shared" si="32"/>
-        <v>0.78246205733557561</v>
+        <v>1.9868852459016362</v>
       </c>
       <c r="J38" s="1">
         <f t="shared" si="33"/>
-        <v>1.7602570109095901</v>
+        <v>0.16229508196720716</v>
       </c>
       <c r="K38" s="1">
         <f t="shared" si="34"/>
-        <v>0.13490725126475547</v>
+        <v>0.88312035860039118</v>
       </c>
       <c r="L38" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7475,7 +7475,7 @@
       </c>
       <c r="O38" s="1" t="str">
         <f t="shared" si="38"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="P38" s="1" t="str">
         <f t="shared" si="39"/>
@@ -7490,38 +7490,38 @@
         <v>NO</v>
       </c>
       <c r="S38">
-        <v>2941</v>
+        <v>3049</v>
       </c>
       <c r="T38">
-        <v>2970</v>
+        <v>3071.9</v>
       </c>
       <c r="U38">
-        <v>2881.05</v>
+        <v>2981</v>
       </c>
       <c r="V38">
-        <v>2906.6</v>
+        <v>3024.9</v>
       </c>
       <c r="W38">
-        <v>-23.150000000000091</v>
+        <v>36.700000000000273</v>
       </c>
       <c r="X38">
-        <v>-0.79016980971072925</v>
+        <v>1.228164112174563</v>
       </c>
       <c r="Y38" s="1">
         <f t="shared" si="42"/>
-        <v>-1.1696701802108158</v>
+        <v>-0.79042308953755025</v>
       </c>
       <c r="Z38" s="1">
         <f t="shared" si="43"/>
-        <v>1.1696701802108158</v>
+        <v>0.79042308953755025</v>
       </c>
       <c r="AA38" s="1">
         <f t="shared" si="44"/>
-        <v>0.98605916354981304</v>
+        <v>0.75106592325352872</v>
       </c>
       <c r="AB38" s="1">
         <f t="shared" si="45"/>
-        <v>0.87903392279638504</v>
+        <v>1.4512876458725938</v>
       </c>
       <c r="AC38" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7548,38 +7548,38 @@
         <v>NO</v>
       </c>
       <c r="AI38">
-        <v>2928</v>
+        <v>2965</v>
       </c>
       <c r="AJ38">
-        <v>2999.9</v>
+        <v>3040.8</v>
       </c>
       <c r="AK38">
-        <v>2920</v>
+        <v>2961</v>
       </c>
       <c r="AL38">
-        <v>2929.75</v>
+        <v>2988.2</v>
       </c>
       <c r="AM38">
-        <v>6.9499999999998181</v>
+        <v>81.599999999999909</v>
       </c>
       <c r="AN38">
-        <v>0.23778568495962149</v>
+        <v>2.8074038395376011</v>
       </c>
       <c r="AO38" s="1">
         <f t="shared" si="52"/>
-        <v>5.9767759562841534E-2</v>
+        <v>0.78246205733557561</v>
       </c>
       <c r="AP38" s="1">
         <f t="shared" si="53"/>
-        <v>5.9767759562841534E-2</v>
+        <v>0.78246205733557561</v>
       </c>
       <c r="AQ38" s="1">
         <f t="shared" si="54"/>
-        <v>2.3944022527519442</v>
+        <v>1.7602570109095901</v>
       </c>
       <c r="AR38" s="1">
         <f t="shared" si="55"/>
-        <v>0.27322404371584702</v>
+        <v>0.13490725126475547</v>
       </c>
       <c r="AS38" t="str">
         <f t="shared" si="56"/>
@@ -7611,38 +7611,38 @@
         <v>87</v>
       </c>
       <c r="B39">
-        <v>18550</v>
+        <v>18990</v>
       </c>
       <c r="C39">
-        <v>19749</v>
+        <v>19098</v>
       </c>
       <c r="D39">
-        <v>18550</v>
+        <v>18751.099999999999</v>
       </c>
       <c r="E39">
-        <v>19148.75</v>
+        <v>18841.2</v>
       </c>
       <c r="F39">
-        <v>708</v>
+        <v>-28.950000000000731</v>
       </c>
       <c r="G39">
-        <v>3.83932323793772</v>
+        <v>-0.15341690447612091</v>
       </c>
       <c r="H39" s="1">
         <f t="shared" si="31"/>
-        <v>3.2277628032345009</v>
+        <v>-0.78357030015797413</v>
       </c>
       <c r="I39" s="1">
         <f t="shared" si="32"/>
-        <v>3.2277628032345009</v>
+        <v>0.78357030015797413</v>
       </c>
       <c r="J39" s="1">
         <f t="shared" si="33"/>
-        <v>3.1346693648410473</v>
+        <v>0.56872037914691942</v>
       </c>
       <c r="K39" s="1">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>0.47820733286628336</v>
       </c>
       <c r="L39" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7673,38 +7673,38 @@
         <v>NO</v>
       </c>
       <c r="S39">
-        <v>18478</v>
+        <v>19199.900000000001</v>
       </c>
       <c r="T39">
-        <v>18777</v>
+        <v>19414</v>
       </c>
       <c r="U39">
-        <v>18384.25</v>
+        <v>18820</v>
       </c>
       <c r="V39">
-        <v>18440.75</v>
+        <v>18870.150000000001</v>
       </c>
       <c r="W39">
-        <v>-54.349999999998538</v>
+        <v>-278.59999999999849</v>
       </c>
       <c r="X39">
-        <v>-0.29386161740135802</v>
+        <v>-1.454925256217761</v>
       </c>
       <c r="Y39" s="1">
         <f t="shared" si="42"/>
-        <v>-0.20159108128585346</v>
+        <v>-1.7174568617544881</v>
       </c>
       <c r="Z39" s="1">
         <f t="shared" si="43"/>
-        <v>0.20159108128585346</v>
+        <v>1.7174568617544881</v>
       </c>
       <c r="AA39" s="1">
         <f t="shared" si="44"/>
-        <v>1.6181404913951727</v>
+        <v>1.1151099745311097</v>
       </c>
       <c r="AB39" s="1">
         <f t="shared" si="45"/>
-        <v>0.30638667082412591</v>
+        <v>0.26576365317711548</v>
       </c>
       <c r="AC39" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7731,38 +7731,38 @@
         <v>NO</v>
       </c>
       <c r="AI39">
-        <v>18511.2</v>
+        <v>18550</v>
       </c>
       <c r="AJ39">
-        <v>18743.349999999999</v>
+        <v>19749</v>
       </c>
       <c r="AK39">
-        <v>18301.5</v>
+        <v>18550</v>
       </c>
       <c r="AL39">
-        <v>18495.099999999999</v>
+        <v>19148.75</v>
       </c>
       <c r="AM39">
-        <v>-8.75</v>
+        <v>708</v>
       </c>
       <c r="AN39">
-        <v>-4.7287456394209858E-2</v>
+        <v>3.83932323793772</v>
       </c>
       <c r="AO39" s="1">
         <f t="shared" si="52"/>
-        <v>-8.697437227193365E-2</v>
+        <v>3.2277628032345009</v>
       </c>
       <c r="AP39" s="1">
         <f t="shared" si="53"/>
-        <v>8.697437227193365E-2</v>
+        <v>3.2277628032345009</v>
       </c>
       <c r="AQ39" s="1">
         <f t="shared" si="54"/>
-        <v>1.2541056225420166</v>
+        <v>3.1346693648410473</v>
       </c>
       <c r="AR39" s="1">
         <f t="shared" si="55"/>
-        <v>1.0467637374223366</v>
+        <v>0</v>
       </c>
       <c r="AS39" t="str">
         <f t="shared" si="56"/>
@@ -7774,7 +7774,7 @@
       </c>
       <c r="AU39" t="str">
         <f t="shared" si="58"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AV39" t="str">
         <f t="shared" si="59"/>
@@ -7794,38 +7794,38 @@
         <v>88</v>
       </c>
       <c r="B40">
-        <v>236</v>
+        <v>241.05</v>
       </c>
       <c r="C40">
-        <v>239.7</v>
+        <v>242.25</v>
       </c>
       <c r="D40">
-        <v>234.6</v>
+        <v>236.95</v>
       </c>
       <c r="E40">
-        <v>236.7</v>
+        <v>237.7</v>
       </c>
       <c r="F40">
-        <v>0.54999999999998295</v>
+        <v>-2.8000000000000109</v>
       </c>
       <c r="G40">
-        <v>0.2329028160067681</v>
+        <v>-1.164241164241169</v>
       </c>
       <c r="H40" s="1">
         <f t="shared" si="31"/>
-        <v>0.29661016949152064</v>
+        <v>-1.3897531632441495</v>
       </c>
       <c r="I40" s="1">
         <f t="shared" si="32"/>
-        <v>0.29661016949152064</v>
+        <v>1.3897531632441495</v>
       </c>
       <c r="J40" s="1">
         <f t="shared" si="33"/>
-        <v>1.267427122940431</v>
+        <v>0.49782202862476188</v>
       </c>
       <c r="K40" s="1">
         <f t="shared" si="34"/>
-        <v>0.59322033898305326</v>
+        <v>0.3155237694572991</v>
       </c>
       <c r="L40" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7856,38 +7856,38 @@
         <v>NO</v>
       </c>
       <c r="S40">
-        <v>236.95</v>
+        <v>236</v>
       </c>
       <c r="T40">
-        <v>237.9</v>
+        <v>242.85</v>
       </c>
       <c r="U40">
-        <v>233.35</v>
+        <v>235.3</v>
       </c>
       <c r="V40">
-        <v>236.15</v>
+        <v>240.5</v>
       </c>
       <c r="W40">
-        <v>-0.15000000000000571</v>
+        <v>3.8000000000000109</v>
       </c>
       <c r="X40">
-        <v>-6.3478628861618994E-2</v>
+        <v>1.6054076890578839</v>
       </c>
       <c r="Y40" s="1">
         <f t="shared" si="42"/>
-        <v>-0.33762397130195526</v>
+        <v>1.9067796610169492</v>
       </c>
       <c r="Z40" s="1">
         <f t="shared" si="43"/>
-        <v>0.33762397130195526</v>
+        <v>1.9067796610169492</v>
       </c>
       <c r="AA40" s="1">
         <f t="shared" si="44"/>
-        <v>0.40092846592108761</v>
+        <v>0.97713097713097474</v>
       </c>
       <c r="AB40" s="1">
         <f t="shared" si="45"/>
-        <v>1.1856870633072247</v>
+        <v>0.29661016949152064</v>
       </c>
       <c r="AC40" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7917,35 +7917,35 @@
         <v>236</v>
       </c>
       <c r="AJ40">
-        <v>238.85</v>
+        <v>239.7</v>
       </c>
       <c r="AK40">
-        <v>234.2</v>
+        <v>234.6</v>
       </c>
       <c r="AL40">
-        <v>236.3</v>
+        <v>236.7</v>
       </c>
       <c r="AM40">
-        <v>0.75</v>
+        <v>0.54999999999998295</v>
       </c>
       <c r="AN40">
-        <v>0.31840373593716831</v>
+        <v>0.2329028160067681</v>
       </c>
       <c r="AO40" s="1">
         <f t="shared" si="52"/>
-        <v>0.12711864406780143</v>
+        <v>0.29661016949152064</v>
       </c>
       <c r="AP40" s="1">
         <f t="shared" si="53"/>
-        <v>0.12711864406780143</v>
+        <v>0.29661016949152064</v>
       </c>
       <c r="AQ40" s="1">
         <f t="shared" si="54"/>
-        <v>1.0791366906474749</v>
+        <v>1.267427122940431</v>
       </c>
       <c r="AR40" s="1">
         <f t="shared" si="55"/>
-        <v>0.76271186440678451</v>
+        <v>0.59322033898305326</v>
       </c>
       <c r="AS40" t="str">
         <f t="shared" si="56"/>
@@ -7977,38 +7977,38 @@
         <v>89</v>
       </c>
       <c r="B41">
-        <v>1493</v>
+        <v>1510</v>
       </c>
       <c r="C41">
-        <v>1504.1</v>
+        <v>1513.9</v>
       </c>
       <c r="D41">
-        <v>1470</v>
+        <v>1486.4</v>
       </c>
       <c r="E41">
-        <v>1480.7</v>
+        <v>1493.45</v>
       </c>
       <c r="F41">
-        <v>-7.7000000000000446</v>
+        <v>-5.0999999999999091</v>
       </c>
       <c r="G41">
-        <v>-0.51733404998656574</v>
+        <v>-0.34032898468518957</v>
       </c>
       <c r="H41" s="1">
         <f t="shared" si="31"/>
-        <v>-0.82384460817146388</v>
+        <v>-1.096026490066222</v>
       </c>
       <c r="I41" s="1">
         <f t="shared" si="32"/>
-        <v>0.82384460817146388</v>
+        <v>1.096026490066222</v>
       </c>
       <c r="J41" s="1">
         <f t="shared" si="33"/>
-        <v>0.74346952444741521</v>
+        <v>0.25827814569537022</v>
       </c>
       <c r="K41" s="1">
         <f t="shared" si="34"/>
-        <v>0.72263118795164749</v>
+        <v>0.47206133449395388</v>
       </c>
       <c r="L41" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8039,38 +8039,38 @@
         <v>NO</v>
       </c>
       <c r="S41">
-        <v>1475</v>
+        <v>1481.1</v>
       </c>
       <c r="T41">
-        <v>1498.7</v>
+        <v>1515</v>
       </c>
       <c r="U41">
-        <v>1474.05</v>
+        <v>1481</v>
       </c>
       <c r="V41">
-        <v>1488.4</v>
+        <v>1498.55</v>
       </c>
       <c r="W41">
-        <v>13.05000000000018</v>
+        <v>17.849999999999909</v>
       </c>
       <c r="X41">
-        <v>0.88453587284374435</v>
+        <v>1.205510907003438</v>
       </c>
       <c r="Y41" s="1">
         <f t="shared" si="42"/>
-        <v>0.90847457627119266</v>
+        <v>1.1781783809330935</v>
       </c>
       <c r="Z41" s="1">
         <f t="shared" si="43"/>
-        <v>0.90847457627119266</v>
+        <v>1.1781783809330935</v>
       </c>
       <c r="AA41" s="1">
         <f t="shared" si="44"/>
-        <v>0.69201827465734711</v>
+        <v>1.0977278035434284</v>
       </c>
       <c r="AB41" s="1">
         <f t="shared" si="45"/>
-        <v>6.4406779661020028E-2</v>
+        <v>6.7517385726763258E-3</v>
       </c>
       <c r="AC41" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8097,38 +8097,38 @@
         <v>NO</v>
       </c>
       <c r="AI41">
-        <v>1469.3</v>
+        <v>1493</v>
       </c>
       <c r="AJ41">
-        <v>1489.7</v>
+        <v>1504.1</v>
       </c>
       <c r="AK41">
-        <v>1462</v>
+        <v>1470</v>
       </c>
       <c r="AL41">
-        <v>1475.35</v>
+        <v>1480.7</v>
       </c>
       <c r="AM41">
-        <v>16.299999999999951</v>
+        <v>-7.7000000000000446</v>
       </c>
       <c r="AN41">
-        <v>1.117165278777283</v>
+        <v>-0.51733404998656574</v>
       </c>
       <c r="AO41" s="1">
         <f t="shared" si="52"/>
-        <v>0.41176070237527762</v>
+        <v>-0.82384460817146388</v>
       </c>
       <c r="AP41" s="1">
         <f t="shared" si="53"/>
-        <v>0.41176070237527762</v>
+        <v>0.82384460817146388</v>
       </c>
       <c r="AQ41" s="1">
         <f t="shared" si="54"/>
-        <v>0.97265055749484097</v>
+        <v>0.74346952444741521</v>
       </c>
       <c r="AR41" s="1">
         <f t="shared" si="55"/>
-        <v>0.49683522765942656</v>
+        <v>0.72263118795164749</v>
       </c>
       <c r="AS41" t="str">
         <f t="shared" si="56"/>
@@ -8160,38 +8160,38 @@
         <v>90</v>
       </c>
       <c r="B42">
-        <v>1348</v>
+        <v>1358</v>
       </c>
       <c r="C42">
-        <v>1349</v>
+        <v>1384.6</v>
       </c>
       <c r="D42">
-        <v>1314</v>
+        <v>1340.25</v>
       </c>
       <c r="E42">
-        <v>1322.8</v>
+        <v>1360.5</v>
       </c>
       <c r="F42">
-        <v>-10.60000000000014</v>
+        <v>13.049999999999949</v>
       </c>
       <c r="G42">
-        <v>-0.79496025198741072</v>
+        <v>0.96849604809083489</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" si="31"/>
-        <v>-1.8694362017804187</v>
+        <v>0.1840942562592047</v>
       </c>
       <c r="I42" s="1">
         <f t="shared" si="32"/>
-        <v>1.8694362017804187</v>
+        <v>0.1840942562592047</v>
       </c>
       <c r="J42" s="1">
         <f t="shared" si="33"/>
-        <v>7.4183976261127604E-2</v>
+        <v>1.7714075707460426</v>
       </c>
       <c r="K42" s="1">
         <f t="shared" si="34"/>
-        <v>0.66525551859691223</v>
+        <v>1.3070692194403535</v>
       </c>
       <c r="L42" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8222,38 +8222,38 @@
         <v>NO</v>
       </c>
       <c r="S42">
-        <v>1319.95</v>
+        <v>1326</v>
       </c>
       <c r="T42">
-        <v>1353.75</v>
+        <v>1359.85</v>
       </c>
       <c r="U42">
-        <v>1308.3</v>
+        <v>1318.55</v>
       </c>
       <c r="V42">
-        <v>1333.4</v>
+        <v>1347.45</v>
       </c>
       <c r="W42">
-        <v>18.900000000000091</v>
+        <v>24.650000000000091</v>
       </c>
       <c r="X42">
-        <v>1.437809052871821</v>
+        <v>1.863471424251594</v>
       </c>
       <c r="Y42" s="1">
         <f t="shared" si="42"/>
-        <v>1.0189779915905939</v>
+        <v>1.6176470588235328</v>
       </c>
       <c r="Z42" s="1">
         <f t="shared" si="43"/>
-        <v>1.0189779915905939</v>
+        <v>1.6176470588235328</v>
       </c>
       <c r="AA42" s="1">
         <f t="shared" si="44"/>
-        <v>1.5261736913154271</v>
+        <v>0.92025678132768296</v>
       </c>
       <c r="AB42" s="1">
         <f t="shared" si="45"/>
-        <v>0.88260918974204261</v>
+        <v>0.56184012066365352</v>
       </c>
       <c r="AC42" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8280,38 +8280,38 @@
         <v>NO</v>
       </c>
       <c r="AI42">
-        <v>1299</v>
+        <v>1348</v>
       </c>
       <c r="AJ42">
-        <v>1340</v>
+        <v>1349</v>
       </c>
       <c r="AK42">
-        <v>1290.0999999999999</v>
+        <v>1314</v>
       </c>
       <c r="AL42">
-        <v>1314.5</v>
+        <v>1322.8</v>
       </c>
       <c r="AM42">
-        <v>18.650000000000091</v>
+        <v>-10.60000000000014</v>
       </c>
       <c r="AN42">
-        <v>1.4392097850831569</v>
+        <v>-0.79496025198741072</v>
       </c>
       <c r="AO42" s="1">
         <f t="shared" si="52"/>
-        <v>1.193225558121632</v>
+        <v>-1.8694362017804187</v>
       </c>
       <c r="AP42" s="1">
         <f t="shared" si="53"/>
-        <v>1.193225558121632</v>
+        <v>1.8694362017804187</v>
       </c>
       <c r="AQ42" s="1">
         <f t="shared" si="54"/>
-        <v>1.9399011030810196</v>
+        <v>7.4183976261127604E-2</v>
       </c>
       <c r="AR42" s="1">
         <f t="shared" si="55"/>
-        <v>0.68514241724404079</v>
+        <v>0.66525551859691223</v>
       </c>
       <c r="AS42" t="str">
         <f t="shared" si="56"/>
@@ -8343,38 +8343,38 @@
         <v>91</v>
       </c>
       <c r="B43">
-        <v>94</v>
+        <v>93.25</v>
       </c>
       <c r="C43">
-        <v>94.25</v>
+        <v>95.2</v>
       </c>
       <c r="D43">
-        <v>91.55</v>
+        <v>93</v>
       </c>
       <c r="E43">
-        <v>92.1</v>
+        <v>94.75</v>
       </c>
       <c r="F43">
-        <v>-5.0000000000011369E-2</v>
+        <v>1.7999999999999969</v>
       </c>
       <c r="G43">
-        <v>-5.4259359739567407E-2</v>
+        <v>1.9365250134480869</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" si="31"/>
-        <v>-2.0212765957446868</v>
+        <v>1.6085790884718498</v>
       </c>
       <c r="I43" s="1">
         <f t="shared" si="32"/>
-        <v>2.0212765957446868</v>
+        <v>1.6085790884718498</v>
       </c>
       <c r="J43" s="1">
         <f t="shared" si="33"/>
-        <v>0.26595744680851063</v>
+        <v>0.47493403693931702</v>
       </c>
       <c r="K43" s="1">
         <f t="shared" si="34"/>
-        <v>0.59717698154179932</v>
+        <v>0.26809651474530832</v>
       </c>
       <c r="L43" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8405,38 +8405,38 @@
         <v>NO</v>
       </c>
       <c r="S43">
-        <v>91.2</v>
+        <v>92.1</v>
       </c>
       <c r="T43">
-        <v>92.7</v>
+        <v>93.35</v>
       </c>
       <c r="U43">
-        <v>90.65</v>
+        <v>92.1</v>
       </c>
       <c r="V43">
-        <v>92.15</v>
+        <v>92.95</v>
       </c>
       <c r="W43">
         <v>0.85000000000000853</v>
       </c>
       <c r="X43">
-        <v>0.93099671412925356</v>
+        <v>0.92290988056461298</v>
       </c>
       <c r="Y43" s="1">
         <f t="shared" si="42"/>
-        <v>1.0416666666666696</v>
+        <v>0.92290988056461298</v>
       </c>
       <c r="Z43" s="1">
         <f t="shared" si="43"/>
-        <v>1.0416666666666696</v>
+        <v>0.92290988056461298</v>
       </c>
       <c r="AA43" s="1">
         <f t="shared" si="44"/>
-        <v>0.59685295713510267</v>
+        <v>0.4303388918773442</v>
       </c>
       <c r="AB43" s="1">
         <f t="shared" si="45"/>
-        <v>0.60307017543859331</v>
+        <v>0</v>
       </c>
       <c r="AC43" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8463,38 +8463,38 @@
         <v>NO</v>
       </c>
       <c r="AI43">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AJ43">
-        <v>91.8</v>
+        <v>94.25</v>
       </c>
       <c r="AK43">
-        <v>88.75</v>
+        <v>91.55</v>
       </c>
       <c r="AL43">
-        <v>91.3</v>
+        <v>92.1</v>
       </c>
       <c r="AM43">
-        <v>1.9500000000000031</v>
+        <v>-5.0000000000011369E-2</v>
       </c>
       <c r="AN43">
-        <v>2.182428651371016</v>
+        <v>-5.4259359739567407E-2</v>
       </c>
       <c r="AO43" s="1">
         <f t="shared" si="52"/>
-        <v>1.4444444444444413</v>
+        <v>-2.0212765957446868</v>
       </c>
       <c r="AP43" s="1">
         <f t="shared" si="53"/>
-        <v>1.4444444444444413</v>
+        <v>2.0212765957446868</v>
       </c>
       <c r="AQ43" s="1">
         <f t="shared" si="54"/>
-        <v>0.547645125958379</v>
+        <v>0.26595744680851063</v>
       </c>
       <c r="AR43" s="1">
         <f t="shared" si="55"/>
-        <v>1.3888888888888888</v>
+        <v>0.59717698154179932</v>
       </c>
       <c r="AS43" t="str">
         <f t="shared" si="56"/>
@@ -8526,38 +8526,38 @@
         <v>92</v>
       </c>
       <c r="B44">
-        <v>10100</v>
+        <v>10129.950000000001</v>
       </c>
       <c r="C44">
-        <v>10134.950000000001</v>
+        <v>10161.950000000001</v>
       </c>
       <c r="D44">
-        <v>9980</v>
+        <v>10010.049999999999</v>
       </c>
       <c r="E44">
-        <v>9997.5</v>
+        <v>10038.25</v>
       </c>
       <c r="F44">
-        <v>-28.5</v>
+        <v>-43.399999999999643</v>
       </c>
       <c r="G44">
-        <v>-0.28426092160382999</v>
+        <v>-0.43048508924630041</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" si="31"/>
-        <v>-1.0148514851485149</v>
+        <v>-0.9052364523023384</v>
       </c>
       <c r="I44" s="1">
         <f t="shared" si="32"/>
-        <v>1.0148514851485149</v>
+        <v>0.9052364523023384</v>
       </c>
       <c r="J44" s="1">
         <f t="shared" si="33"/>
-        <v>0.34603960396040323</v>
+        <v>0.31589494518729111</v>
       </c>
       <c r="K44" s="1">
         <f t="shared" si="34"/>
-        <v>0.17504376094023505</v>
+        <v>0.28092546011506714</v>
       </c>
       <c r="L44" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8588,38 +8588,38 @@
         <v>NO</v>
       </c>
       <c r="S44">
-        <v>10082</v>
+        <v>10000.049999999999</v>
       </c>
       <c r="T44">
-        <v>10173.75</v>
+        <v>10150</v>
       </c>
       <c r="U44">
-        <v>10005</v>
+        <v>10000.049999999999</v>
       </c>
       <c r="V44">
-        <v>10026</v>
+        <v>10081.65</v>
       </c>
       <c r="W44">
-        <v>-82.950000000000728</v>
+        <v>84.149999999999636</v>
       </c>
       <c r="X44">
-        <v>-0.82055999881294017</v>
+        <v>0.84171042760689796</v>
       </c>
       <c r="Y44" s="1">
         <f t="shared" si="42"/>
-        <v>-0.55544534814520929</v>
+        <v>0.81599592002040355</v>
       </c>
       <c r="Z44" s="1">
         <f t="shared" si="43"/>
-        <v>0.55544534814520929</v>
+        <v>0.81599592002040355</v>
       </c>
       <c r="AA44" s="1">
         <f t="shared" si="44"/>
-        <v>0.91003769093433839</v>
+        <v>0.67796442050656747</v>
       </c>
       <c r="AB44" s="1">
         <f t="shared" si="45"/>
-        <v>0.20945541591861158</v>
+        <v>0</v>
       </c>
       <c r="AC44" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8646,38 +8646,38 @@
         <v>NO</v>
       </c>
       <c r="AI44">
-        <v>10160</v>
+        <v>10100</v>
       </c>
       <c r="AJ44">
-        <v>10184.799999999999</v>
+        <v>10134.950000000001</v>
       </c>
       <c r="AK44">
-        <v>9950.2000000000007</v>
+        <v>9980</v>
       </c>
       <c r="AL44">
-        <v>10108.950000000001</v>
+        <v>9997.5</v>
       </c>
       <c r="AM44">
-        <v>-51.849999999998538</v>
+        <v>-28.5</v>
       </c>
       <c r="AN44">
-        <v>-0.51029446500274134</v>
+        <v>-0.28426092160382999</v>
       </c>
       <c r="AO44" s="1">
         <f t="shared" si="52"/>
-        <v>-0.50246062992125273</v>
+        <v>-1.0148514851485149</v>
       </c>
       <c r="AP44" s="1">
         <f t="shared" si="53"/>
-        <v>0.50246062992125273</v>
+        <v>1.0148514851485149</v>
       </c>
       <c r="AQ44" s="1">
         <f t="shared" si="54"/>
-        <v>0.24409448818896923</v>
+        <v>0.34603960396040323</v>
       </c>
       <c r="AR44" s="1">
         <f t="shared" si="55"/>
-        <v>1.5703905944732144</v>
+        <v>0.17504376094023505</v>
       </c>
       <c r="AS44" t="str">
         <f t="shared" si="56"/>
@@ -8709,38 +8709,38 @@
         <v>93</v>
       </c>
       <c r="B45">
-        <v>33.799999999999997</v>
+        <v>33.35</v>
       </c>
       <c r="C45">
-        <v>34.049999999999997</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="D45">
-        <v>33.35</v>
+        <v>32.75</v>
       </c>
       <c r="E45">
         <v>33.6</v>
       </c>
       <c r="F45">
-        <v>-0.10000000000000139</v>
+        <v>0.30000000000000432</v>
       </c>
       <c r="G45">
-        <v>-0.29673590504451458</v>
+        <v>0.90090090090091368</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" si="31"/>
-        <v>-0.59171597633134831</v>
+        <v>0.7496251874062968</v>
       </c>
       <c r="I45" s="1">
         <f t="shared" si="32"/>
-        <v>0.59171597633134831</v>
+        <v>0.7496251874062968</v>
       </c>
       <c r="J45" s="1">
         <f t="shared" si="33"/>
-        <v>0.73964497041420119</v>
+        <v>0.29761904761905184</v>
       </c>
       <c r="K45" s="1">
         <f t="shared" si="34"/>
-        <v>0.74404761904761896</v>
+        <v>1.7991004497751164</v>
       </c>
       <c r="L45" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8748,7 +8748,7 @@
       </c>
       <c r="M45" t="str">
         <f t="shared" si="36"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="N45" t="str">
         <f t="shared" si="37"/>
@@ -8771,38 +8771,38 @@
         <v>NO</v>
       </c>
       <c r="S45">
+        <v>33.950000000000003</v>
+      </c>
+      <c r="T45">
+        <v>33.950000000000003</v>
+      </c>
+      <c r="U45">
+        <v>33</v>
+      </c>
+      <c r="V45">
         <v>33.299999999999997</v>
       </c>
-      <c r="T45">
-        <v>33.85</v>
-      </c>
-      <c r="U45">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="V45">
-        <v>33.700000000000003</v>
-      </c>
       <c r="W45">
-        <v>0.15000000000000571</v>
+        <v>-0.30000000000000432</v>
       </c>
       <c r="X45">
-        <v>0.44709388971685748</v>
+        <v>-0.89285714285715545</v>
       </c>
       <c r="Y45" s="1">
         <f t="shared" si="42"/>
-        <v>1.2012012012012183</v>
+        <v>-1.9145802650957455</v>
       </c>
       <c r="Z45" s="1">
         <f t="shared" si="43"/>
-        <v>1.2012012012012183</v>
+        <v>1.9145802650957455</v>
       </c>
       <c r="AA45" s="1">
         <f t="shared" si="44"/>
-        <v>0.44510385756676135</v>
+        <v>0</v>
       </c>
       <c r="AB45" s="1">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>0.90090090090089237</v>
       </c>
       <c r="AC45" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8829,38 +8829,38 @@
         <v>NO</v>
       </c>
       <c r="AI45">
-        <v>33.200000000000003</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="AJ45">
-        <v>33.65</v>
+        <v>34.049999999999997</v>
       </c>
       <c r="AK45">
-        <v>33.15</v>
+        <v>33.35</v>
       </c>
       <c r="AL45">
-        <v>33.549999999999997</v>
+        <v>33.6</v>
       </c>
       <c r="AM45">
-        <v>0.64999999999999858</v>
+        <v>-0.10000000000000139</v>
       </c>
       <c r="AN45">
-        <v>1.9756838905775029</v>
+        <v>-0.29673590504451458</v>
       </c>
       <c r="AO45" s="1">
         <f t="shared" si="52"/>
-        <v>1.0542168674698622</v>
+        <v>-0.59171597633134831</v>
       </c>
       <c r="AP45" s="1">
         <f t="shared" si="53"/>
-        <v>1.0542168674698622</v>
+        <v>0.59171597633134831</v>
       </c>
       <c r="AQ45" s="1">
         <f t="shared" si="54"/>
-        <v>0.29806259314456462</v>
+        <v>0.73964497041420119</v>
       </c>
       <c r="AR45" s="1">
         <f t="shared" si="55"/>
-        <v>0.15060240963856705</v>
+        <v>0.74404761904761896</v>
       </c>
       <c r="AS45" t="str">
         <f t="shared" si="56"/>
@@ -8892,38 +8892,38 @@
         <v>94</v>
       </c>
       <c r="B46">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="C46">
-        <v>876</v>
+        <v>873.5</v>
       </c>
       <c r="D46">
-        <v>850</v>
+        <v>861.3</v>
       </c>
       <c r="E46">
-        <v>857.1</v>
+        <v>867.65</v>
       </c>
       <c r="F46">
-        <v>-7.2999999999999554</v>
+        <v>2.9499999999999318</v>
       </c>
       <c r="G46">
-        <v>-0.84451642757981893</v>
+        <v>0.34115878339307643</v>
       </c>
       <c r="H46" s="1">
         <f t="shared" si="31"/>
-        <v>-1.595866819747414</v>
+        <v>0.30635838150288752</v>
       </c>
       <c r="I46" s="1">
         <f t="shared" si="32"/>
-        <v>1.595866819747414</v>
+        <v>0.30635838150288752</v>
       </c>
       <c r="J46" s="1">
         <f t="shared" si="33"/>
-        <v>0.57405281285878307</v>
+        <v>0.67423500259321423</v>
       </c>
       <c r="K46" s="1">
         <f t="shared" si="34"/>
-        <v>0.82837475207093947</v>
+        <v>0.42774566473988962</v>
       </c>
       <c r="L46" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8954,38 +8954,38 @@
         <v>NO</v>
       </c>
       <c r="S46">
-        <v>846</v>
+        <v>861.3</v>
       </c>
       <c r="T46">
-        <v>866.9</v>
+        <v>871</v>
       </c>
       <c r="U46">
-        <v>843.75</v>
+        <v>853.05</v>
       </c>
       <c r="V46">
-        <v>864.4</v>
+        <v>864.7</v>
       </c>
       <c r="W46">
-        <v>19.199999999999928</v>
+        <v>7.6000000000000227</v>
       </c>
       <c r="X46">
-        <v>2.2716516800757138</v>
+        <v>0.88671100221678012</v>
       </c>
       <c r="Y46" s="1">
         <f t="shared" si="42"/>
-        <v>2.174940898345151</v>
+        <v>0.39475211889006051</v>
       </c>
       <c r="Z46" s="1">
         <f t="shared" si="43"/>
-        <v>2.174940898345151</v>
+        <v>0.39475211889006051</v>
       </c>
       <c r="AA46" s="1">
         <f t="shared" si="44"/>
-        <v>0.28921795465062472</v>
+        <v>0.72857638487336118</v>
       </c>
       <c r="AB46" s="1">
         <f t="shared" si="45"/>
-        <v>0.26595744680851063</v>
+        <v>0.95785440613026829</v>
       </c>
       <c r="AC46" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9012,38 +9012,38 @@
         <v>NO</v>
       </c>
       <c r="AI46">
-        <v>833.9</v>
+        <v>871</v>
       </c>
       <c r="AJ46">
-        <v>848</v>
+        <v>876</v>
       </c>
       <c r="AK46">
-        <v>833.1</v>
+        <v>850</v>
       </c>
       <c r="AL46">
-        <v>845.2</v>
+        <v>857.1</v>
       </c>
       <c r="AM46">
-        <v>14.700000000000051</v>
+        <v>-7.2999999999999554</v>
       </c>
       <c r="AN46">
-        <v>1.770018061408795</v>
+        <v>-0.84451642757981893</v>
       </c>
       <c r="AO46" s="1">
         <f t="shared" si="52"/>
-        <v>1.3550785465883282</v>
+        <v>-1.595866819747414</v>
       </c>
       <c r="AP46" s="1">
         <f t="shared" si="53"/>
-        <v>1.3550785465883282</v>
+        <v>1.595866819747414</v>
       </c>
       <c r="AQ46" s="1">
         <f t="shared" si="54"/>
-        <v>0.33128253667770402</v>
+        <v>0.57405281285878307</v>
       </c>
       <c r="AR46" s="1">
         <f t="shared" si="55"/>
-        <v>9.5934764360229588E-2</v>
+        <v>0.82837475207093947</v>
       </c>
       <c r="AS46" t="str">
         <f t="shared" si="56"/>
@@ -9075,38 +9075,38 @@
         <v>95</v>
       </c>
       <c r="B47">
-        <v>650</v>
+        <v>654.35</v>
       </c>
       <c r="C47">
-        <v>650.5</v>
+        <v>665.75</v>
       </c>
       <c r="D47">
-        <v>631.45000000000005</v>
+        <v>645.6</v>
       </c>
       <c r="E47">
-        <v>636.45000000000005</v>
+        <v>658.35</v>
       </c>
       <c r="F47">
-        <v>-7.1999999999999318</v>
+        <v>6</v>
       </c>
       <c r="G47">
-        <v>-1.1186203682125271</v>
+        <v>0.91975166704989642</v>
       </c>
       <c r="H47" s="1">
         <f t="shared" si="31"/>
-        <v>-2.0846153846153777</v>
+        <v>0.61129365018720871</v>
       </c>
       <c r="I47" s="1">
         <f t="shared" si="32"/>
-        <v>2.0846153846153777</v>
+        <v>0.61129365018720871</v>
       </c>
       <c r="J47" s="1">
         <f t="shared" si="33"/>
-        <v>7.6923076923076927E-2</v>
+        <v>1.1240221766537521</v>
       </c>
       <c r="K47" s="1">
         <f t="shared" si="34"/>
-        <v>0.78560766753083511</v>
+        <v>1.337204859784519</v>
       </c>
       <c r="L47" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9137,38 +9137,38 @@
         <v>NO</v>
       </c>
       <c r="S47">
-        <v>633</v>
+        <v>639.1</v>
       </c>
       <c r="T47">
-        <v>647.5</v>
+        <v>655</v>
       </c>
       <c r="U47">
-        <v>626.95000000000005</v>
+        <v>635.25</v>
       </c>
       <c r="V47">
-        <v>643.65</v>
+        <v>652.35</v>
       </c>
       <c r="W47">
-        <v>14.100000000000019</v>
+        <v>15.899999999999981</v>
       </c>
       <c r="X47">
-        <v>2.2396950202525652</v>
+        <v>2.4982323827480521</v>
       </c>
       <c r="Y47" s="1">
         <f t="shared" si="42"/>
-        <v>1.6824644549762999</v>
+        <v>2.0732279768424346</v>
       </c>
       <c r="Z47" s="1">
         <f t="shared" si="43"/>
-        <v>1.6824644549762999</v>
+        <v>2.0732279768424346</v>
       </c>
       <c r="AA47" s="1">
         <f t="shared" si="44"/>
-        <v>0.59815116911365229</v>
+        <v>0.40622365294703411</v>
       </c>
       <c r="AB47" s="1">
         <f t="shared" si="45"/>
-        <v>0.95576619273301022</v>
+        <v>0.60240963855422036</v>
       </c>
       <c r="AC47" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9195,38 +9195,38 @@
         <v>NO</v>
       </c>
       <c r="AI47">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="AJ47">
-        <v>653.45000000000005</v>
+        <v>650.5</v>
       </c>
       <c r="AK47">
-        <v>620.65</v>
+        <v>631.45000000000005</v>
       </c>
       <c r="AL47">
-        <v>629.54999999999995</v>
+        <v>636.45000000000005</v>
       </c>
       <c r="AM47">
-        <v>-9.3000000000000682</v>
+        <v>-7.1999999999999318</v>
       </c>
       <c r="AN47">
-        <v>-1.455740784221659</v>
+        <v>-1.1186203682125271</v>
       </c>
       <c r="AO47" s="1">
         <f t="shared" si="52"/>
-        <v>-2.3953488372093092</v>
+        <v>-2.0846153846153777</v>
       </c>
       <c r="AP47" s="1">
         <f t="shared" si="53"/>
-        <v>2.3953488372093092</v>
+        <v>2.0846153846153777</v>
       </c>
       <c r="AQ47" s="1">
         <f t="shared" si="54"/>
-        <v>1.3100775193798522</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="AR47" s="1">
         <f t="shared" si="55"/>
-        <v>1.4137082042728899</v>
+        <v>0.78560766753083511</v>
       </c>
       <c r="AS47" t="str">
         <f t="shared" si="56"/>
@@ -9258,38 +9258,38 @@
         <v>96</v>
       </c>
       <c r="B48">
-        <v>1235</v>
+        <v>1244.8</v>
       </c>
       <c r="C48">
-        <v>1242</v>
+        <v>1267.2</v>
       </c>
       <c r="D48">
-        <v>1215.2</v>
+        <v>1227.75</v>
       </c>
       <c r="E48">
-        <v>1235.5</v>
+        <v>1255.5999999999999</v>
       </c>
       <c r="F48">
-        <v>10.799999999999949</v>
+        <v>17.849999999999909</v>
       </c>
       <c r="G48">
-        <v>0.88184861598758513</v>
+        <v>1.4421329024439431</v>
       </c>
       <c r="H48" s="1">
         <f t="shared" si="31"/>
-        <v>4.048582995951417E-2</v>
+        <v>0.86760925449871107</v>
       </c>
       <c r="I48" s="1">
         <f t="shared" si="32"/>
-        <v>4.048582995951417E-2</v>
+        <v>0.86760925449871107</v>
       </c>
       <c r="J48" s="1">
         <f t="shared" si="33"/>
-        <v>0.52610279239174418</v>
+        <v>0.92386110226187779</v>
       </c>
       <c r="K48" s="1">
         <f t="shared" si="34"/>
-        <v>1.6032388663967574</v>
+        <v>1.3696979434447265</v>
       </c>
       <c r="L48" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9320,38 +9320,38 @@
         <v>NO</v>
       </c>
       <c r="S48">
-        <v>1213</v>
+        <v>1247</v>
       </c>
       <c r="T48">
-        <v>1233.8499999999999</v>
+        <v>1311.8</v>
       </c>
       <c r="U48">
-        <v>1210.3499999999999</v>
+        <v>1233.45</v>
       </c>
       <c r="V48">
-        <v>1224.7</v>
+        <v>1237.75</v>
       </c>
       <c r="W48">
-        <v>7.1500000000000909</v>
+        <v>2.25</v>
       </c>
       <c r="X48">
-        <v>0.58724487700711192</v>
+        <v>0.18211250505868071</v>
       </c>
       <c r="Y48" s="1">
         <f t="shared" si="42"/>
-        <v>0.96455070074196581</v>
+        <v>-0.74178027265437052</v>
       </c>
       <c r="Z48" s="1">
         <f t="shared" si="43"/>
-        <v>0.96455070074196581</v>
+        <v>0.74178027265437052</v>
       </c>
       <c r="AA48" s="1">
         <f t="shared" si="44"/>
-        <v>0.74712174410058485</v>
+        <v>5.1964715316760186</v>
       </c>
       <c r="AB48" s="1">
         <f t="shared" si="45"/>
-        <v>0.21846661170652026</v>
+        <v>0.34740456473439346</v>
       </c>
       <c r="AC48" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9378,38 +9378,38 @@
         <v>NO</v>
       </c>
       <c r="AI48">
-        <v>1200.75</v>
+        <v>1235</v>
       </c>
       <c r="AJ48">
-        <v>1222</v>
+        <v>1242</v>
       </c>
       <c r="AK48">
-        <v>1196.55</v>
+        <v>1215.2</v>
       </c>
       <c r="AL48">
-        <v>1217.55</v>
+        <v>1235.5</v>
       </c>
       <c r="AM48">
-        <v>19.25</v>
+        <v>10.799999999999949</v>
       </c>
       <c r="AN48">
-        <v>1.6064424601518821</v>
+        <v>0.88184861598758513</v>
       </c>
       <c r="AO48" s="1">
         <f t="shared" si="52"/>
-        <v>1.3991255465334129</v>
+        <v>4.048582995951417E-2</v>
       </c>
       <c r="AP48" s="1">
         <f t="shared" si="53"/>
-        <v>1.3991255465334129</v>
+        <v>4.048582995951417E-2</v>
       </c>
       <c r="AQ48" s="1">
         <f t="shared" si="54"/>
-        <v>0.36548807030512465</v>
+        <v>0.52610279239174418</v>
       </c>
       <c r="AR48" s="1">
         <f t="shared" si="55"/>
-        <v>0.34978138663335795</v>
+        <v>1.6032388663967574</v>
       </c>
       <c r="AS48" t="str">
         <f t="shared" si="56"/>
@@ -9441,38 +9441,38 @@
         <v>97</v>
       </c>
       <c r="B49">
-        <v>2846</v>
+        <v>2822.55</v>
       </c>
       <c r="C49">
-        <v>2858.85</v>
+        <v>2864.8</v>
       </c>
       <c r="D49">
-        <v>2781.15</v>
+        <v>2817.35</v>
       </c>
       <c r="E49">
-        <v>2797.55</v>
+        <v>2843.05</v>
       </c>
       <c r="F49">
-        <v>-39.649999999999643</v>
+        <v>-7.4499999999998181</v>
       </c>
       <c r="G49">
-        <v>-1.3975045819822229</v>
+        <v>-0.2613576565514758</v>
       </c>
       <c r="H49" s="1">
         <f t="shared" si="31"/>
-        <v>-1.7023893183415257</v>
+        <v>0.72629359975908303</v>
       </c>
       <c r="I49" s="1">
         <f t="shared" si="32"/>
-        <v>1.7023893183415257</v>
+        <v>0.72629359975908303</v>
       </c>
       <c r="J49" s="1">
         <f t="shared" si="33"/>
-        <v>0.45151089248067144</v>
+        <v>0.76502347830674799</v>
       </c>
       <c r="K49" s="1">
         <f t="shared" si="34"/>
-        <v>0.58622723454451531</v>
+        <v>0.18423057164621609</v>
       </c>
       <c r="L49" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9503,38 +9503,38 @@
         <v>NO</v>
       </c>
       <c r="S49">
-        <v>2815</v>
+        <v>2800</v>
       </c>
       <c r="T49">
-        <v>2841.95</v>
+        <v>2887.9</v>
       </c>
       <c r="U49">
-        <v>2811</v>
+        <v>2800</v>
       </c>
       <c r="V49">
-        <v>2837.2</v>
+        <v>2850.5</v>
       </c>
       <c r="W49">
-        <v>22.64999999999964</v>
+        <v>52.949999999999818</v>
       </c>
       <c r="X49">
-        <v>0.80474676235986697</v>
+        <v>1.8927275651909641</v>
       </c>
       <c r="Y49" s="1">
         <f t="shared" si="42"/>
-        <v>0.78863232682059736</v>
+        <v>1.8035714285714286</v>
       </c>
       <c r="Z49" s="1">
         <f t="shared" si="43"/>
-        <v>0.78863232682059736</v>
+        <v>1.8035714285714286</v>
       </c>
       <c r="AA49" s="1">
         <f t="shared" si="44"/>
-        <v>0.16741858170026788</v>
+        <v>1.3120505174530817</v>
       </c>
       <c r="AB49" s="1">
         <f t="shared" si="45"/>
-        <v>0.14209591474245115</v>
+        <v>0</v>
       </c>
       <c r="AC49" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9550,7 +9550,7 @@
       </c>
       <c r="AF49" s="1" t="str">
         <f t="shared" si="49"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AG49" s="1" t="str">
         <f t="shared" si="50"/>
@@ -9561,38 +9561,38 @@
         <v>NO</v>
       </c>
       <c r="AI49">
-        <v>2850</v>
+        <v>2846</v>
       </c>
       <c r="AJ49">
-        <v>2852.95</v>
+        <v>2858.85</v>
       </c>
       <c r="AK49">
-        <v>2796.05</v>
+        <v>2781.15</v>
       </c>
       <c r="AL49">
-        <v>2814.55</v>
+        <v>2797.55</v>
       </c>
       <c r="AM49">
-        <v>6.75</v>
+        <v>-39.649999999999643</v>
       </c>
       <c r="AN49">
-        <v>0.24040173801552811</v>
+        <v>-1.3975045819822229</v>
       </c>
       <c r="AO49" s="1">
         <f t="shared" si="52"/>
-        <v>-1.2438596491228007</v>
+        <v>-1.7023893183415257</v>
       </c>
       <c r="AP49" s="1">
         <f t="shared" si="53"/>
-        <v>1.2438596491228007</v>
+        <v>1.7023893183415257</v>
       </c>
       <c r="AQ49" s="1">
         <f t="shared" si="54"/>
-        <v>0.10350877192981818</v>
+        <v>0.45151089248067144</v>
       </c>
       <c r="AR49" s="1">
         <f t="shared" si="55"/>
-        <v>0.65729868007319103</v>
+        <v>0.58622723454451531</v>
       </c>
       <c r="AS49" t="str">
         <f t="shared" si="56"/>
@@ -9624,38 +9624,38 @@
         <v>98</v>
       </c>
       <c r="B50">
-        <v>1059.75</v>
+        <v>1056.5</v>
       </c>
       <c r="C50">
-        <v>1080.95</v>
+        <v>1058.3</v>
       </c>
       <c r="D50">
-        <v>1044.05</v>
+        <v>1028</v>
       </c>
       <c r="E50">
-        <v>1052.4000000000001</v>
+        <v>1031.3499999999999</v>
       </c>
       <c r="F50">
-        <v>-7.25</v>
+        <v>-17.400000000000091</v>
       </c>
       <c r="G50">
-        <v>-0.68418817534091447</v>
+        <v>-1.659117997616218</v>
       </c>
       <c r="H50" s="1">
         <f t="shared" si="31"/>
-        <v>-0.69355980184004806</v>
+        <v>-2.380501656412692</v>
       </c>
       <c r="I50" s="1">
         <f t="shared" si="32"/>
-        <v>0.69355980184004806</v>
+        <v>2.380501656412692</v>
       </c>
       <c r="J50" s="1">
         <f t="shared" si="33"/>
-        <v>2.000471809389011</v>
+        <v>0.17037387600567483</v>
       </c>
       <c r="K50" s="1">
         <f t="shared" si="34"/>
-        <v>0.79342455340176121</v>
+        <v>0.32481698744363302</v>
       </c>
       <c r="L50" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9686,38 +9686,38 @@
         <v>NO</v>
       </c>
       <c r="S50">
-        <v>1066</v>
+        <v>1052.5</v>
       </c>
       <c r="T50">
-        <v>1073.55</v>
+        <v>1063.9000000000001</v>
       </c>
       <c r="U50">
-        <v>1046.5</v>
+        <v>1040</v>
       </c>
       <c r="V50">
-        <v>1059.6500000000001</v>
+        <v>1048.75</v>
       </c>
       <c r="W50">
-        <v>-6.6499999999998636</v>
+        <v>-3.6500000000000909</v>
       </c>
       <c r="X50">
-        <v>-0.62365188033385199</v>
+        <v>-0.34682630178640161</v>
       </c>
       <c r="Y50" s="1">
         <f t="shared" si="42"/>
-        <v>-0.59568480300186766</v>
+        <v>-0.35629453681710216</v>
       </c>
       <c r="Z50" s="1">
         <f t="shared" si="43"/>
-        <v>0.59568480300186766</v>
+        <v>0.35629453681710216</v>
       </c>
       <c r="AA50" s="1">
         <f t="shared" si="44"/>
-        <v>0.70825515947466744</v>
+        <v>1.0831353919239992</v>
       </c>
       <c r="AB50" s="1">
         <f t="shared" si="45"/>
-        <v>1.2409757938942187</v>
+        <v>0.83432657926102505</v>
       </c>
       <c r="AC50" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9744,38 +9744,38 @@
         <v>NO</v>
       </c>
       <c r="AI50">
-        <v>1079.5999999999999</v>
+        <v>1059.75</v>
       </c>
       <c r="AJ50">
-        <v>1101.3</v>
+        <v>1080.95</v>
       </c>
       <c r="AK50">
-        <v>1050.2</v>
+        <v>1044.05</v>
       </c>
       <c r="AL50">
-        <v>1066.3</v>
+        <v>1052.4000000000001</v>
       </c>
       <c r="AM50">
-        <v>-13.150000000000089</v>
+        <v>-7.25</v>
       </c>
       <c r="AN50">
-        <v>-1.218212978831821</v>
+        <v>-0.68418817534091447</v>
       </c>
       <c r="AO50" s="1">
         <f t="shared" si="52"/>
-        <v>-1.2319377547239676</v>
+        <v>-0.69355980184004806</v>
       </c>
       <c r="AP50" s="1">
         <f t="shared" si="53"/>
-        <v>1.2319377547239676</v>
+        <v>0.69355980184004806</v>
       </c>
       <c r="AQ50" s="1">
         <f t="shared" si="54"/>
-        <v>2.0100037050759587</v>
+        <v>2.000471809389011</v>
       </c>
       <c r="AR50" s="1">
         <f t="shared" si="55"/>
-        <v>1.5098940260714537</v>
+        <v>0.79342455340176121</v>
       </c>
       <c r="AS50" t="str">
         <f t="shared" si="56"/>
@@ -9807,38 +9807,38 @@
         <v>99</v>
       </c>
       <c r="B51">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="C51">
-        <v>554.20000000000005</v>
+        <v>552.75</v>
       </c>
       <c r="D51">
-        <v>544.15</v>
+        <v>534.15</v>
       </c>
       <c r="E51">
-        <v>546.65</v>
+        <v>547.95000000000005</v>
       </c>
       <c r="F51">
-        <v>-0.35000000000002268</v>
+        <v>6.5500000000000682</v>
       </c>
       <c r="G51">
-        <v>-6.3985374771484957E-2</v>
+        <v>1.209826376062074</v>
       </c>
       <c r="H51" s="1">
         <f t="shared" si="31"/>
-        <v>-0.60909090909091324</v>
+        <v>0.91160220994475971</v>
       </c>
       <c r="I51" s="1">
         <f t="shared" si="32"/>
-        <v>0.60909090909091324</v>
+        <v>0.91160220994475971</v>
       </c>
       <c r="J51" s="1">
         <f t="shared" si="33"/>
-        <v>0.76363636363637188</v>
+        <v>0.87599233506705976</v>
       </c>
       <c r="K51" s="1">
         <f t="shared" si="34"/>
-        <v>0.45733101618951799</v>
+        <v>1.6298342541436508</v>
       </c>
       <c r="L51" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9869,38 +9869,38 @@
         <v>NO</v>
       </c>
       <c r="S51">
-        <v>550.25</v>
+        <v>548.5</v>
       </c>
       <c r="T51">
-        <v>556</v>
+        <v>551.5</v>
       </c>
       <c r="U51">
-        <v>542.95000000000005</v>
+        <v>539.04999999999995</v>
       </c>
       <c r="V51">
-        <v>547</v>
+        <v>541.4</v>
       </c>
       <c r="W51">
-        <v>-2.299999999999955</v>
+        <v>-5.25</v>
       </c>
       <c r="X51">
-        <v>-0.41871472783541858</v>
+        <v>-0.9603951339979877</v>
       </c>
       <c r="Y51" s="1">
         <f t="shared" si="42"/>
-        <v>-0.59064061790095412</v>
+        <v>-1.2944393801276248</v>
       </c>
       <c r="Z51" s="1">
         <f t="shared" si="43"/>
-        <v>0.59064061790095412</v>
+        <v>1.2944393801276248</v>
       </c>
       <c r="AA51" s="1">
         <f t="shared" si="44"/>
-        <v>1.0449795547478418</v>
+        <v>0.54694621695533274</v>
       </c>
       <c r="AB51" s="1">
         <f t="shared" si="45"/>
-        <v>0.74040219378426964</v>
+        <v>0.43405984484669802</v>
       </c>
       <c r="AC51" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9927,38 +9927,38 @@
         <v>NO</v>
       </c>
       <c r="AI51">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="AJ51">
-        <v>558</v>
+        <v>554.20000000000005</v>
       </c>
       <c r="AK51">
-        <v>546.4</v>
+        <v>544.15</v>
       </c>
       <c r="AL51">
-        <v>549.29999999999995</v>
+        <v>546.65</v>
       </c>
       <c r="AM51">
-        <v>-1.1500000000000909</v>
+        <v>-0.35000000000002268</v>
       </c>
       <c r="AN51">
-        <v>-0.2089199745662805</v>
+        <v>-6.3985374771484957E-2</v>
       </c>
       <c r="AO51" s="1">
         <f t="shared" si="52"/>
-        <v>-1.0270270270270352</v>
+        <v>-0.60909090909091324</v>
       </c>
       <c r="AP51" s="1">
         <f t="shared" si="53"/>
-        <v>1.0270270270270352</v>
+        <v>0.60909090909091324</v>
       </c>
       <c r="AQ51" s="1">
         <f t="shared" si="54"/>
-        <v>0.54054054054054057</v>
+        <v>0.76363636363637188</v>
       </c>
       <c r="AR51" s="1">
         <f t="shared" si="55"/>
-        <v>0.52794465683596892</v>
+        <v>0.45733101618951799</v>
       </c>
       <c r="AS51" t="str">
         <f t="shared" si="56"/>

--- a/techniqo/candlepattern/nifty_next_50.xlsx
+++ b/techniqo/candlepattern/nifty_next_50.xlsx
@@ -674,7 +674,7 @@
   <dimension ref="A1:AX51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,38 +840,38 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>1384.4</v>
+        <v>1411</v>
       </c>
       <c r="C2">
-        <v>1396.45</v>
+        <v>1438.05</v>
       </c>
       <c r="D2">
-        <v>1376</v>
+        <v>1409.05</v>
       </c>
       <c r="E2">
-        <v>1389.7</v>
+        <v>1431.8</v>
       </c>
       <c r="F2">
-        <v>2.799999999999955</v>
+        <v>22.200000000000049</v>
       </c>
       <c r="G2">
-        <v>0.2018891051986412</v>
+        <v>1.5749148694665189</v>
       </c>
       <c r="H2" s="1">
         <f t="shared" ref="H2:H33" si="0">(E2-B2)/B2*100</f>
-        <v>0.38283733025136912</v>
+        <v>1.4741318214032568</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" ref="I2:I33" si="1">ABS(H2)</f>
-        <v>0.38283733025136912</v>
+        <v>1.4741318214032568</v>
       </c>
       <c r="J2" s="1">
         <f t="shared" ref="J2:J33" si="2">IF(H2&gt;=0,(C2-E2)/E2*100,(C2-B2)/B2*100)</f>
-        <v>0.48571634165647259</v>
+        <v>0.43651347953624814</v>
       </c>
       <c r="K2" s="1">
         <f t="shared" ref="K2:K33" si="3">IF(H2&gt;=0,(B2-D2)/B2*100,(E2-D2)/E2*100)</f>
-        <v>0.60676105171916284</v>
+        <v>0.13819985825655887</v>
       </c>
       <c r="L2" s="1" t="str">
         <f t="shared" ref="L2:L33" si="4">IF(AND((K2-J2)&gt;1.5,I2&lt;0.5),"YES","NO")</f>
@@ -902,38 +902,38 @@
         <v>NO</v>
       </c>
       <c r="S2">
-        <v>1368</v>
+        <v>1388.25</v>
       </c>
       <c r="T2">
-        <v>1389</v>
+        <v>1413.6</v>
       </c>
       <c r="U2">
-        <v>1350.75</v>
+        <v>1383.15</v>
       </c>
       <c r="V2">
-        <v>1386.9</v>
+        <v>1409.6</v>
       </c>
       <c r="W2">
-        <v>19.550000000000178</v>
+        <v>19.89999999999986</v>
       </c>
       <c r="X2">
-        <v>1.429772918418853</v>
+        <v>1.431963733179813</v>
       </c>
       <c r="Y2" s="1">
         <f t="shared" ref="Y2:Y33" si="11">(V2-S2)/S2*100</f>
-        <v>1.3815789473684277</v>
+        <v>1.5379074374212072</v>
       </c>
       <c r="Z2" s="1">
         <f t="shared" ref="Z2:Z33" si="12">ABS(Y2)</f>
-        <v>1.3815789473684277</v>
+        <v>1.5379074374212072</v>
       </c>
       <c r="AA2" s="1">
         <f t="shared" ref="AA2:AA33" si="13">IF(Y2&gt;=0,(T2-V2)/V2*100,(T2-S2)/S2*100)</f>
-        <v>0.15141682889897679</v>
+        <v>0.28376844494892173</v>
       </c>
       <c r="AB2" s="1">
         <f t="shared" ref="AB2:AB33" si="14">IF(Y2&gt;=0,(S2-U2)/S2*100,(V2-U2)/V2*100)</f>
-        <v>1.2609649122807016</v>
+        <v>0.36736898973527166</v>
       </c>
       <c r="AC2" s="1" t="str">
         <f t="shared" ref="AC2:AC33" si="15">IF(AND(I2&lt;Z2/2,S2&gt;E2,E2&gt;(S2+V2)/2,V2&lt;B2,B2&lt;(S2+V2)/2),"YES","NO")</f>
@@ -960,38 +960,38 @@
         <v>NO</v>
       </c>
       <c r="AI2">
-        <v>1350</v>
+        <v>1384.4</v>
       </c>
       <c r="AJ2">
-        <v>1383.25</v>
+        <v>1396.45</v>
       </c>
       <c r="AK2">
-        <v>1343.3</v>
+        <v>1376</v>
       </c>
       <c r="AL2">
-        <v>1367.35</v>
+        <v>1389.7</v>
       </c>
       <c r="AM2">
-        <v>45.799999999999947</v>
+        <v>2.799999999999955</v>
       </c>
       <c r="AN2">
-        <v>3.465627482879948</v>
+        <v>0.2018891051986412</v>
       </c>
       <c r="AO2" s="1">
         <f t="shared" ref="AO2:AO33" si="21">(AL2-AI2)/AI2*100</f>
-        <v>1.2851851851851785</v>
+        <v>0.38283733025136912</v>
       </c>
       <c r="AP2" s="1">
         <f t="shared" ref="AP2:AP33" si="22">ABS(AO2)</f>
-        <v>1.2851851851851785</v>
+        <v>0.38283733025136912</v>
       </c>
       <c r="AQ2" s="1">
         <f t="shared" ref="AQ2:AQ33" si="23">IF(AO2&gt;=0,(AJ2-AL2)/AL2*100,(AJ2-AI2)/AI2*100)</f>
-        <v>1.1628332175375793</v>
+        <v>0.48571634165647259</v>
       </c>
       <c r="AR2" s="1">
         <f t="shared" ref="AR2:AR33" si="24">IF(AO2&gt;=0,(AI2-AK2)/AI2*100,(AL2-AK2)/AL2*100)</f>
-        <v>0.49629629629629962</v>
+        <v>0.60676105171916284</v>
       </c>
       <c r="AS2" t="str">
         <f t="shared" ref="AS2:AS33" si="25">IF(AND(AO2&lt;0,AP2&gt;1.5,Y2&lt;0,Z2&gt;1.5,AL2&gt;S2,AL2&lt;E2,H2&gt;0,I2&gt;1.5),"YES","NO")</f>
@@ -1023,38 +1023,38 @@
         <v>51</v>
       </c>
       <c r="B3">
-        <v>16999.95</v>
+        <v>16480</v>
       </c>
       <c r="C3">
-        <v>16999.95</v>
+        <v>16690.900000000001</v>
       </c>
       <c r="D3">
-        <v>16485.75</v>
+        <v>16441.3</v>
       </c>
       <c r="E3">
-        <v>16525.099999999999</v>
+        <v>16506.150000000001</v>
       </c>
       <c r="F3">
-        <v>-370.5</v>
+        <v>64.850000000002183</v>
       </c>
       <c r="G3">
-        <v>-2.1928786192854952</v>
+        <v>0.39443353019531407</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" si="0"/>
-        <v>-2.7932435095397468</v>
+        <v>0.15867718446602824</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" si="1"/>
-        <v>2.7932435095397468</v>
+        <v>0.15867718446602824</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.119279783595811</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" si="3"/>
-        <v>0.23812261347888092</v>
+        <v>0.23483009708738309</v>
       </c>
       <c r="L3" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1085,38 +1085,38 @@
         <v>NO</v>
       </c>
       <c r="S3">
-        <v>16620</v>
+        <v>16587.099999999999</v>
       </c>
       <c r="T3">
-        <v>17050</v>
+        <v>16770</v>
       </c>
       <c r="U3">
-        <v>16466.150000000001</v>
+        <v>16344.05</v>
       </c>
       <c r="V3">
-        <v>16895.599999999999</v>
+        <v>16441.3</v>
       </c>
       <c r="W3">
-        <v>379.44999999999709</v>
+        <v>-83.799999999999272</v>
       </c>
       <c r="X3">
-        <v>2.2974482551926272</v>
+        <v>-0.50710737000078232</v>
       </c>
       <c r="Y3" s="1">
         <f t="shared" si="11"/>
-        <v>1.6582430806257435</v>
+        <v>-0.87899632847212161</v>
       </c>
       <c r="Z3" s="1">
         <f t="shared" si="12"/>
-        <v>1.6582430806257435</v>
+        <v>0.87899632847212161</v>
       </c>
       <c r="AA3" s="1">
         <f t="shared" si="13"/>
-        <v>0.91384739222046851</v>
+        <v>1.1026641185017361</v>
       </c>
       <c r="AB3" s="1">
         <f t="shared" si="14"/>
-        <v>0.92569193742478073</v>
+        <v>0.59149823919033173</v>
       </c>
       <c r="AC3" s="1" t="str">
         <f t="shared" si="15"/>
@@ -1143,30 +1143,30 @@
         <v>NO</v>
       </c>
       <c r="AI3">
-        <v>16898</v>
+        <v>16999.95</v>
       </c>
       <c r="AJ3">
-        <v>16898</v>
+        <v>16999.95</v>
       </c>
       <c r="AK3">
-        <v>16475</v>
+        <v>16485.75</v>
       </c>
       <c r="AL3">
-        <v>16516.150000000001</v>
+        <v>16525.099999999999</v>
       </c>
       <c r="AM3">
-        <v>-303.09999999999849</v>
+        <v>-370.5</v>
       </c>
       <c r="AN3">
-        <v>-1.8021017584018231</v>
+        <v>-2.1928786192854952</v>
       </c>
       <c r="AO3" s="1">
         <f t="shared" si="21"/>
-        <v>-2.2597348798674313</v>
+        <v>-2.7932435095397468</v>
       </c>
       <c r="AP3" s="1">
         <f t="shared" si="22"/>
-        <v>2.2597348798674313</v>
+        <v>2.7932435095397468</v>
       </c>
       <c r="AQ3" s="1">
         <f t="shared" si="23"/>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="AR3" s="1">
         <f t="shared" si="24"/>
-        <v>0.24915007432120351</v>
+        <v>0.23812261347888092</v>
       </c>
       <c r="AS3" t="str">
         <f t="shared" si="25"/>
@@ -1206,38 +1206,38 @@
         <v>52</v>
       </c>
       <c r="B4">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C4">
-        <v>272.89999999999998</v>
+        <v>265.45</v>
       </c>
       <c r="D4">
-        <v>265.35000000000002</v>
+        <v>256</v>
       </c>
       <c r="E4">
-        <v>267.7</v>
+        <v>257.95</v>
       </c>
       <c r="F4">
-        <v>-1.4499999999999891</v>
+        <v>-4.1500000000000341</v>
       </c>
       <c r="G4">
-        <v>-0.53873304848597015</v>
+        <v>-1.5833651278138241</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>0.26217228464419046</v>
+        <v>-2.291666666666671</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="1"/>
-        <v>0.26217228464419046</v>
+        <v>2.291666666666671</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="2"/>
-        <v>1.9424729174448967</v>
+        <v>0.54924242424241998</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="3"/>
-        <v>0.61797752808987916</v>
+        <v>0.75596045745299034</v>
       </c>
       <c r="L4" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1268,38 +1268,38 @@
         <v>NO</v>
       </c>
       <c r="S4">
-        <v>269.8</v>
+        <v>265.10000000000002</v>
       </c>
       <c r="T4">
-        <v>275.25</v>
+        <v>269.55</v>
       </c>
       <c r="U4">
-        <v>267.8</v>
+        <v>261</v>
       </c>
       <c r="V4">
-        <v>269.14999999999998</v>
+        <v>262.10000000000002</v>
       </c>
       <c r="W4">
-        <v>1.049999999999955</v>
+        <v>-5.5999999999999659</v>
       </c>
       <c r="X4">
-        <v>0.39164490861617102</v>
+        <v>-2.0918939110944961</v>
       </c>
       <c r="Y4" s="1">
         <f t="shared" si="11"/>
-        <v>-0.24091919940698076</v>
+        <v>-1.1316484345529989</v>
       </c>
       <c r="Z4" s="1">
         <f t="shared" si="12"/>
-        <v>0.24091919940698076</v>
+        <v>1.1316484345529989</v>
       </c>
       <c r="AA4" s="1">
         <f t="shared" si="13"/>
-        <v>2.0200148257968826</v>
+        <v>1.6786118445869438</v>
       </c>
       <c r="AB4" s="1">
         <f t="shared" si="14"/>
-        <v>0.50157904514210139</v>
+        <v>0.41968714231210325</v>
       </c>
       <c r="AC4" s="1" t="str">
         <f t="shared" si="15"/>
@@ -1326,38 +1326,38 @@
         <v>NO</v>
       </c>
       <c r="AI4">
-        <v>276.89999999999998</v>
+        <v>267</v>
       </c>
       <c r="AJ4">
-        <v>277.8</v>
+        <v>272.89999999999998</v>
       </c>
       <c r="AK4">
-        <v>265.10000000000002</v>
+        <v>265.35000000000002</v>
       </c>
       <c r="AL4">
-        <v>268.10000000000002</v>
+        <v>267.7</v>
       </c>
       <c r="AM4">
-        <v>-3.6999999999999891</v>
+        <v>-1.4499999999999891</v>
       </c>
       <c r="AN4">
-        <v>-1.3612950699043369</v>
+        <v>-0.53873304848597015</v>
       </c>
       <c r="AO4" s="1">
         <f t="shared" si="21"/>
-        <v>-3.1780426146623166</v>
+        <v>0.26217228464419046</v>
       </c>
       <c r="AP4" s="1">
         <f t="shared" si="22"/>
-        <v>3.1780426146623166</v>
+        <v>0.26217228464419046</v>
       </c>
       <c r="AQ4" s="1">
         <f t="shared" si="23"/>
-        <v>0.32502708559047822</v>
+        <v>1.9424729174448967</v>
       </c>
       <c r="AR4" s="1">
         <f t="shared" si="24"/>
-        <v>1.1189854531891084</v>
+        <v>0.61797752808987916</v>
       </c>
       <c r="AS4" t="str">
         <f t="shared" si="25"/>
@@ -1389,38 +1389,38 @@
         <v>53</v>
       </c>
       <c r="B5">
-        <v>217.95</v>
+        <v>221.75</v>
       </c>
       <c r="C5">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D5">
-        <v>216.05</v>
+        <v>217.05</v>
       </c>
       <c r="E5">
-        <v>218.6</v>
+        <v>220</v>
       </c>
       <c r="F5">
-        <v>1.1500000000000059</v>
+        <v>-0.30000000000001142</v>
       </c>
       <c r="G5">
-        <v>0.52885720855369323</v>
+        <v>-0.13617793917385901</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="0"/>
-        <v>0.29823353980270967</v>
+        <v>-0.78917700112739564</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="1"/>
-        <v>0.29823353980270967</v>
+        <v>0.78917700112739564</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="2"/>
-        <v>1.0978956999085112</v>
+        <v>0.56369785794813976</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="3"/>
-        <v>0.87175957788482561</v>
+        <v>1.3409090909090857</v>
       </c>
       <c r="L5" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1451,38 +1451,38 @@
         <v>NO</v>
       </c>
       <c r="S5">
-        <v>210.95</v>
+        <v>218</v>
       </c>
       <c r="T5">
-        <v>217.85</v>
+        <v>222.7</v>
       </c>
       <c r="U5">
-        <v>210.55</v>
+        <v>217.4</v>
       </c>
       <c r="V5">
-        <v>217.45</v>
+        <v>220.3</v>
       </c>
       <c r="W5">
-        <v>6.3499999999999943</v>
+        <v>1.7000000000000171</v>
       </c>
       <c r="X5">
-        <v>3.0080530554239671</v>
+        <v>0.77767612076853476</v>
       </c>
       <c r="Y5" s="1">
         <f t="shared" si="11"/>
-        <v>3.0812988859919415</v>
+        <v>1.0550458715596382</v>
       </c>
       <c r="Z5" s="1">
         <f t="shared" si="12"/>
-        <v>3.0812988859919415</v>
+        <v>1.0550458715596382</v>
       </c>
       <c r="AA5" s="1">
         <f t="shared" si="13"/>
-        <v>0.18395033340998193</v>
+        <v>1.0894235133908203</v>
       </c>
       <c r="AB5" s="1">
         <f t="shared" si="14"/>
-        <v>0.18961839298410871</v>
+        <v>0.27522935779816254</v>
       </c>
       <c r="AC5" s="1" t="str">
         <f t="shared" si="15"/>
@@ -1509,38 +1509,38 @@
         <v>NO</v>
       </c>
       <c r="AI5">
-        <v>214.3</v>
+        <v>217.95</v>
       </c>
       <c r="AJ5">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="AK5">
-        <v>209.8</v>
+        <v>216.05</v>
       </c>
       <c r="AL5">
-        <v>211.1</v>
+        <v>218.6</v>
       </c>
       <c r="AM5">
-        <v>-1.3499999999999941</v>
+        <v>1.1500000000000059</v>
       </c>
       <c r="AN5">
-        <v>-0.63544363379618463</v>
+        <v>0.52885720855369323</v>
       </c>
       <c r="AO5" s="1">
         <f t="shared" si="21"/>
-        <v>-1.4932337844143801</v>
+        <v>0.29823353980270967</v>
       </c>
       <c r="AP5" s="1">
         <f t="shared" si="22"/>
-        <v>1.4932337844143801</v>
+        <v>0.29823353980270967</v>
       </c>
       <c r="AQ5" s="1">
         <f t="shared" si="23"/>
-        <v>1.2599160055996212</v>
+        <v>1.0978956999085112</v>
       </c>
       <c r="AR5" s="1">
         <f t="shared" si="24"/>
-        <v>0.61582188536237936</v>
+        <v>0.87175957788482561</v>
       </c>
       <c r="AS5" t="str">
         <f t="shared" si="25"/>
@@ -1572,38 +1572,38 @@
         <v>54</v>
       </c>
       <c r="B6">
-        <v>844</v>
+        <v>815.65</v>
       </c>
       <c r="C6">
-        <v>851.35</v>
+        <v>840</v>
       </c>
       <c r="D6">
-        <v>823.1</v>
+        <v>815.65</v>
       </c>
       <c r="E6">
-        <v>832.1</v>
+        <v>828.1</v>
       </c>
       <c r="F6">
-        <v>13.30000000000007</v>
+        <v>17.300000000000072</v>
       </c>
       <c r="G6">
-        <v>1.6243282852955629</v>
+        <v>2.1336951159348878</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="0"/>
-        <v>-1.4099526066350685</v>
+        <v>1.5263899957089493</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="1"/>
-        <v>1.4099526066350685</v>
+        <v>1.5263899957089493</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="2"/>
-        <v>0.87085308056872313</v>
+        <v>1.4370245139475881</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="3"/>
-        <v>1.0816007691383247</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1634,38 +1634,38 @@
         <v>NO</v>
       </c>
       <c r="S6">
-        <v>800</v>
+        <v>826.95</v>
       </c>
       <c r="T6">
-        <v>840.95</v>
+        <v>827</v>
       </c>
       <c r="U6">
-        <v>798.1</v>
+        <v>807</v>
       </c>
       <c r="V6">
-        <v>818.8</v>
+        <v>810.8</v>
       </c>
       <c r="W6">
-        <v>22.649999999999981</v>
+        <v>-21.300000000000072</v>
       </c>
       <c r="X6">
-        <v>2.8449412799095621</v>
+        <v>-2.5597884869607102</v>
       </c>
       <c r="Y6" s="1">
         <f t="shared" si="11"/>
-        <v>2.3499999999999943</v>
+        <v>-1.9529596710804873</v>
       </c>
       <c r="Z6" s="1">
         <f t="shared" si="12"/>
-        <v>2.3499999999999943</v>
+        <v>1.9529596710804873</v>
       </c>
       <c r="AA6" s="1">
         <f t="shared" si="13"/>
-        <v>2.7051783097215552</v>
+        <v>6.0463147711414863E-3</v>
       </c>
       <c r="AB6" s="1">
         <f t="shared" si="14"/>
-        <v>0.23749999999999719</v>
+        <v>0.46867291563886959</v>
       </c>
       <c r="AC6" s="1" t="str">
         <f t="shared" si="15"/>
@@ -1692,38 +1692,38 @@
         <v>NO</v>
       </c>
       <c r="AI6">
-        <v>806.5</v>
+        <v>844</v>
       </c>
       <c r="AJ6">
-        <v>815</v>
+        <v>851.35</v>
       </c>
       <c r="AK6">
-        <v>791.25</v>
+        <v>823.1</v>
       </c>
       <c r="AL6">
-        <v>796.15</v>
+        <v>832.1</v>
       </c>
       <c r="AM6">
-        <v>-6.8000000000000682</v>
+        <v>13.30000000000007</v>
       </c>
       <c r="AN6">
-        <v>-0.84687714054425167</v>
+        <v>1.6243282852955629</v>
       </c>
       <c r="AO6" s="1">
         <f t="shared" si="21"/>
-        <v>-1.2833230006199656</v>
+        <v>-1.4099526066350685</v>
       </c>
       <c r="AP6" s="1">
         <f t="shared" si="22"/>
-        <v>1.2833230006199656</v>
+        <v>1.4099526066350685</v>
       </c>
       <c r="AQ6" s="1">
         <f t="shared" si="23"/>
-        <v>1.0539367637941723</v>
+        <v>0.87085308056872313</v>
       </c>
       <c r="AR6" s="1">
         <f t="shared" si="24"/>
-        <v>0.615461910444009</v>
+        <v>1.0816007691383247</v>
       </c>
       <c r="AS6" t="str">
         <f t="shared" si="25"/>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="AU6" t="str">
         <f t="shared" si="27"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AV6" t="str">
         <f t="shared" si="28"/>
@@ -1755,38 +1755,38 @@
         <v>55</v>
       </c>
       <c r="B7">
-        <v>2152.5500000000002</v>
+        <v>2149.9</v>
       </c>
       <c r="C7">
-        <v>2173</v>
+        <v>2175.9499999999998</v>
       </c>
       <c r="D7">
-        <v>2130.6999999999998</v>
+        <v>2104</v>
       </c>
       <c r="E7">
-        <v>2135.9499999999998</v>
+        <v>2149.0500000000002</v>
       </c>
       <c r="F7">
-        <v>-0.20000000000027279</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>-9.3626383915114963E-3</v>
+        <v>0.46749725345363591</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="0"/>
-        <v>-0.77117836984043864</v>
+        <v>-3.9536722638258012E-2</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="1"/>
-        <v>0.77117836984043864</v>
+        <v>3.9536722638258012E-2</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="2"/>
-        <v>0.95003600380942688</v>
+        <v>1.2116842643843773</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="3"/>
-        <v>0.24579227041831506</v>
+        <v>2.0962750982992566</v>
       </c>
       <c r="L7" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1817,38 +1817,38 @@
         <v>NO</v>
       </c>
       <c r="S7">
-        <v>2185</v>
+        <v>2147</v>
       </c>
       <c r="T7">
-        <v>2185</v>
+        <v>2167</v>
       </c>
       <c r="U7">
-        <v>2130</v>
+        <v>2133.1</v>
       </c>
       <c r="V7">
-        <v>2136.15</v>
+        <v>2139.0500000000002</v>
       </c>
       <c r="W7">
-        <v>-26.549999999999731</v>
+        <v>3.1000000000003638</v>
       </c>
       <c r="X7">
-        <v>-1.2276321265085179</v>
+        <v>0.14513448348511729</v>
       </c>
       <c r="Y7" s="1">
         <f t="shared" si="11"/>
-        <v>-2.2356979405034281</v>
+        <v>-0.37028411737307021</v>
       </c>
       <c r="Z7" s="1">
         <f t="shared" si="12"/>
-        <v>2.2356979405034281</v>
+        <v>0.37028411737307021</v>
       </c>
       <c r="AA7" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.9315323707498836</v>
       </c>
       <c r="AB7" s="1">
         <f t="shared" si="14"/>
-        <v>0.28790113053859001</v>
+        <v>0.27816086580492616</v>
       </c>
       <c r="AC7" s="1" t="str">
         <f t="shared" si="15"/>
@@ -1875,38 +1875,38 @@
         <v>NO</v>
       </c>
       <c r="AI7">
-        <v>2250</v>
+        <v>2152.5500000000002</v>
       </c>
       <c r="AJ7">
-        <v>2258.9499999999998</v>
+        <v>2173</v>
       </c>
       <c r="AK7">
-        <v>2150.0500000000002</v>
+        <v>2130.6999999999998</v>
       </c>
       <c r="AL7">
-        <v>2162.6999999999998</v>
+        <v>2135.9499999999998</v>
       </c>
       <c r="AM7">
-        <v>-76.650000000000091</v>
+        <v>-0.20000000000027279</v>
       </c>
       <c r="AN7">
-        <v>-3.4228682430169508</v>
+        <v>-9.3626383915114963E-3</v>
       </c>
       <c r="AO7" s="1">
         <f t="shared" si="21"/>
-        <v>-3.8800000000000079</v>
+        <v>-0.77117836984043864</v>
       </c>
       <c r="AP7" s="1">
         <f t="shared" si="22"/>
-        <v>3.8800000000000079</v>
+        <v>0.77117836984043864</v>
       </c>
       <c r="AQ7" s="1">
         <f t="shared" si="23"/>
-        <v>0.39777777777776974</v>
+        <v>0.95003600380942688</v>
       </c>
       <c r="AR7" s="1">
         <f t="shared" si="24"/>
-        <v>0.58491700189576168</v>
+        <v>0.24579227041831506</v>
       </c>
       <c r="AS7" t="str">
         <f t="shared" si="25"/>
@@ -1938,38 +1938,38 @@
         <v>56</v>
       </c>
       <c r="B8">
-        <v>2509.9499999999998</v>
+        <v>2496.9499999999998</v>
       </c>
       <c r="C8">
-        <v>2532</v>
+        <v>2620.0500000000002</v>
       </c>
       <c r="D8">
-        <v>2500</v>
+        <v>2480.4499999999998</v>
       </c>
       <c r="E8">
-        <v>2518.1999999999998</v>
+        <v>2587.5</v>
       </c>
       <c r="F8">
-        <v>18.849999999999909</v>
+        <v>100.8000000000002</v>
       </c>
       <c r="G8">
-        <v>0.75419609098365215</v>
+        <v>4.05356496561709</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="0"/>
-        <v>0.32869180660969344</v>
+        <v>3.6264242375698426</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="1"/>
-        <v>0.32869180660969344</v>
+        <v>3.6264242375698426</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="2"/>
-        <v>0.54801048367882543</v>
+        <v>1.2579710144927607</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="3"/>
-        <v>0.39642223948683514</v>
+        <v>0.66080618354392362</v>
       </c>
       <c r="L8" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2000,38 +2000,38 @@
         <v>NO</v>
       </c>
       <c r="S8">
-        <v>2470.65</v>
+        <v>2530</v>
       </c>
       <c r="T8">
-        <v>2517.0500000000002</v>
+        <v>2530</v>
       </c>
       <c r="U8">
-        <v>2460.6</v>
+        <v>2476.35</v>
       </c>
       <c r="V8">
-        <v>2499.35</v>
+        <v>2486.6999999999998</v>
       </c>
       <c r="W8">
-        <v>28.75</v>
+        <v>-31.5</v>
       </c>
       <c r="X8">
-        <v>1.163684934833644</v>
+        <v>-1.250893495353824</v>
       </c>
       <c r="Y8" s="1">
         <f t="shared" si="11"/>
-        <v>1.1616376257260161</v>
+        <v>-1.7114624505928926</v>
       </c>
       <c r="Z8" s="1">
         <f t="shared" si="12"/>
-        <v>1.1616376257260161</v>
+        <v>1.7114624505928926</v>
       </c>
       <c r="AA8" s="1">
         <f t="shared" si="13"/>
-        <v>0.70818412787325802</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="1">
         <f t="shared" si="14"/>
-        <v>0.40677554489709927</v>
+        <v>0.41621425986246469</v>
       </c>
       <c r="AC8" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2058,38 +2058,38 @@
         <v>NO</v>
       </c>
       <c r="AI8">
-        <v>2467</v>
+        <v>2509.9499999999998</v>
       </c>
       <c r="AJ8">
-        <v>2498.3000000000002</v>
+        <v>2532</v>
       </c>
       <c r="AK8">
-        <v>2456.9499999999998</v>
+        <v>2500</v>
       </c>
       <c r="AL8">
-        <v>2470.6</v>
+        <v>2518.1999999999998</v>
       </c>
       <c r="AM8">
-        <v>9.4499999999998181</v>
+        <v>18.849999999999909</v>
       </c>
       <c r="AN8">
-        <v>0.3839668447676825</v>
+        <v>0.75419609098365215</v>
       </c>
       <c r="AO8" s="1">
         <f t="shared" si="21"/>
-        <v>0.14592622618564691</v>
+        <v>0.32869180660969344</v>
       </c>
       <c r="AP8" s="1">
         <f t="shared" si="22"/>
-        <v>0.14592622618564691</v>
+        <v>0.32869180660969344</v>
       </c>
       <c r="AQ8" s="1">
         <f t="shared" si="23"/>
-        <v>1.1211851372136434</v>
+        <v>0.54801048367882543</v>
       </c>
       <c r="AR8" s="1">
         <f t="shared" si="24"/>
-        <v>0.40737738143494856</v>
+        <v>0.39642223948683514</v>
       </c>
       <c r="AS8" t="str">
         <f t="shared" si="25"/>
@@ -2121,38 +2121,38 @@
         <v>57</v>
       </c>
       <c r="B9">
-        <v>304.7</v>
+        <v>306</v>
       </c>
       <c r="C9">
         <v>307.7</v>
       </c>
       <c r="D9">
-        <v>303</v>
+        <v>294.14999999999998</v>
       </c>
       <c r="E9">
-        <v>305.10000000000002</v>
+        <v>298.75</v>
       </c>
       <c r="F9">
-        <v>1.4000000000000341</v>
+        <v>-6.5500000000000114</v>
       </c>
       <c r="G9">
-        <v>0.46098123147844389</v>
+        <v>-2.1454307238781558</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="0"/>
-        <v>0.13127666557270565</v>
+        <v>-2.369281045751634</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="1"/>
-        <v>0.13127666557270565</v>
+        <v>2.369281045751634</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="2"/>
-        <v>0.85217961324154878</v>
+        <v>0.55555555555555181</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="3"/>
-        <v>0.55792582868394769</v>
+        <v>1.539748953974903</v>
       </c>
       <c r="L9" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2183,38 +2183,38 @@
         <v>NO</v>
       </c>
       <c r="S9">
-        <v>302</v>
+        <v>301.75</v>
       </c>
       <c r="T9">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="U9">
-        <v>296.39999999999998</v>
+        <v>300.64999999999998</v>
       </c>
       <c r="V9">
-        <v>303.7</v>
+        <v>305.3</v>
       </c>
       <c r="W9">
-        <v>2.3000000000000109</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="X9">
-        <v>0.76310550763105889</v>
+        <v>6.5552277941654746E-2</v>
       </c>
       <c r="Y9" s="1">
         <f t="shared" si="11"/>
-        <v>0.56291390728476443</v>
+        <v>1.1764705882352979</v>
       </c>
       <c r="Z9" s="1">
         <f t="shared" si="12"/>
-        <v>0.56291390728476443</v>
+        <v>1.1764705882352979</v>
       </c>
       <c r="AA9" s="1">
         <f t="shared" si="13"/>
-        <v>0.42805400065854843</v>
+        <v>1.2119226989846017</v>
       </c>
       <c r="AB9" s="1">
         <f t="shared" si="14"/>
-        <v>1.8543046357615969</v>
+        <v>0.36454018227009866</v>
       </c>
       <c r="AC9" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="AF9" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AG9" s="1" t="str">
         <f t="shared" si="19"/>
@@ -2241,38 +2241,38 @@
         <v>NO</v>
       </c>
       <c r="AI9">
-        <v>312.5</v>
+        <v>304.7</v>
       </c>
       <c r="AJ9">
-        <v>318.39999999999998</v>
+        <v>307.7</v>
       </c>
       <c r="AK9">
-        <v>297.60000000000002</v>
+        <v>303</v>
       </c>
       <c r="AL9">
-        <v>301.39999999999998</v>
+        <v>305.10000000000002</v>
       </c>
       <c r="AM9">
-        <v>-10.400000000000031</v>
+        <v>1.4000000000000341</v>
       </c>
       <c r="AN9">
-        <v>-3.335471456061589</v>
+        <v>0.46098123147844389</v>
       </c>
       <c r="AO9" s="1">
         <f t="shared" si="21"/>
-        <v>-3.5520000000000072</v>
+        <v>0.13127666557270565</v>
       </c>
       <c r="AP9" s="1">
         <f t="shared" si="22"/>
-        <v>3.5520000000000072</v>
+        <v>0.13127666557270565</v>
       </c>
       <c r="AQ9" s="1">
         <f t="shared" si="23"/>
-        <v>1.8879999999999928</v>
+        <v>0.85217961324154878</v>
       </c>
       <c r="AR9" s="1">
         <f t="shared" si="24"/>
-        <v>1.2607830126078152</v>
+        <v>0.55792582868394769</v>
       </c>
       <c r="AS9" t="str">
         <f t="shared" si="25"/>
@@ -2304,38 +2304,38 @@
         <v>58</v>
       </c>
       <c r="B10">
-        <v>46.55</v>
+        <v>45.85</v>
       </c>
       <c r="C10">
-        <v>46.7</v>
+        <v>45.9</v>
       </c>
       <c r="D10">
-        <v>45.85</v>
+        <v>44.9</v>
       </c>
       <c r="E10">
-        <v>46.45</v>
+        <v>45.05</v>
       </c>
       <c r="F10">
-        <v>-9.9999999999994316E-2</v>
+        <v>-0.55000000000000426</v>
       </c>
       <c r="G10">
-        <v>-0.2148227712137365</v>
+        <v>-1.2061403508772019</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="0"/>
-        <v>-0.21482277121373647</v>
+        <v>-1.7448200654307615</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="1"/>
-        <v>0.21482277121373647</v>
+        <v>1.7448200654307615</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="2"/>
-        <v>0.32223415682063522</v>
+        <v>0.10905125408941584</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="3"/>
-        <v>1.2917115177610363</v>
+        <v>0.33296337402885368</v>
       </c>
       <c r="L10" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2366,38 +2366,38 @@
         <v>NO</v>
       </c>
       <c r="S10">
-        <v>46.25</v>
+        <v>45.8</v>
       </c>
       <c r="T10">
-        <v>46.7</v>
+        <v>46.3</v>
       </c>
       <c r="U10">
-        <v>45.65</v>
+        <v>45.5</v>
       </c>
       <c r="V10">
-        <v>46.55</v>
+        <v>45.6</v>
       </c>
       <c r="W10">
-        <v>0.39999999999999858</v>
+        <v>-0.85000000000000142</v>
       </c>
       <c r="X10">
-        <v>0.86673889490790601</v>
+        <v>-1.829924650161467</v>
       </c>
       <c r="Y10" s="1">
         <f t="shared" si="11"/>
-        <v>0.64864864864864258</v>
+        <v>-0.43668122270741427</v>
       </c>
       <c r="Z10" s="1">
         <f t="shared" si="12"/>
-        <v>0.64864864864864258</v>
+        <v>0.43668122270741427</v>
       </c>
       <c r="AA10" s="1">
         <f t="shared" si="13"/>
-        <v>0.32223415682063522</v>
+        <v>1.0917030567685591</v>
       </c>
       <c r="AB10" s="1">
         <f t="shared" si="14"/>
-        <v>1.2972972972973003</v>
+        <v>0.21929824561403821</v>
       </c>
       <c r="AC10" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2424,38 +2424,38 @@
         <v>NO</v>
       </c>
       <c r="AI10">
-        <v>46.15</v>
+        <v>46.55</v>
       </c>
       <c r="AJ10">
-        <v>46.65</v>
+        <v>46.7</v>
       </c>
       <c r="AK10">
-        <v>46</v>
+        <v>45.85</v>
       </c>
       <c r="AL10">
-        <v>46.15</v>
+        <v>46.45</v>
       </c>
       <c r="AM10">
-        <v>0.19999999999999571</v>
+        <v>-9.9999999999994316E-2</v>
       </c>
       <c r="AN10">
-        <v>0.43525571273122032</v>
+        <v>-0.2148227712137365</v>
       </c>
       <c r="AO10" s="1">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-0.21482277121373647</v>
       </c>
       <c r="AP10" s="1">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.21482277121373647</v>
       </c>
       <c r="AQ10" s="1">
         <f t="shared" si="23"/>
-        <v>1.0834236186348862</v>
+        <v>0.32223415682063522</v>
       </c>
       <c r="AR10" s="1">
         <f t="shared" si="24"/>
-        <v>0.32502708559046278</v>
+        <v>1.2917115177610363</v>
       </c>
       <c r="AS10" t="str">
         <f t="shared" si="25"/>
@@ -2487,38 +2487,38 @@
         <v>59</v>
       </c>
       <c r="B11">
-        <v>581.45000000000005</v>
+        <v>572.5</v>
       </c>
       <c r="C11">
-        <v>587.95000000000005</v>
+        <v>582.95000000000005</v>
       </c>
       <c r="D11">
-        <v>577</v>
+        <v>568.15</v>
       </c>
       <c r="E11">
-        <v>584.54999999999995</v>
+        <v>578.5</v>
       </c>
       <c r="F11">
-        <v>2.6999999999999318</v>
+        <v>0.54999999999995453</v>
       </c>
       <c r="G11">
-        <v>0.46403712296982591</v>
+        <v>9.5163941517424425E-2</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="0"/>
-        <v>0.53314988391089668</v>
+        <v>1.0480349344978166</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="1"/>
-        <v>0.53314988391089668</v>
+        <v>1.0480349344978166</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="2"/>
-        <v>0.58164399965787206</v>
+        <v>0.76923076923077705</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="3"/>
-        <v>0.76532805916244651</v>
+        <v>0.75982532751092102</v>
       </c>
       <c r="L11" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2549,38 +2549,38 @@
         <v>NO</v>
       </c>
       <c r="S11">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="T11">
-        <v>583.79999999999995</v>
+        <v>587.95000000000005</v>
       </c>
       <c r="U11">
-        <v>572.35</v>
+        <v>576.5</v>
       </c>
       <c r="V11">
-        <v>581.85</v>
+        <v>577.95000000000005</v>
       </c>
       <c r="W11">
-        <v>4</v>
+        <v>-6.5999999999999091</v>
       </c>
       <c r="X11">
-        <v>0.69222116466210959</v>
+        <v>-1.1290736463946469</v>
       </c>
       <c r="Y11" s="1">
         <f t="shared" si="11"/>
-        <v>0.84055459272097455</v>
+        <v>-0.35344827586206112</v>
       </c>
       <c r="Z11" s="1">
         <f t="shared" si="12"/>
-        <v>0.84055459272097455</v>
+        <v>0.35344827586206112</v>
       </c>
       <c r="AA11" s="1">
         <f t="shared" si="13"/>
-        <v>0.33513792214487093</v>
+        <v>1.3706896551724217</v>
       </c>
       <c r="AB11" s="1">
         <f t="shared" si="14"/>
-        <v>0.80589254766030793</v>
+        <v>0.25088675490960211</v>
       </c>
       <c r="AC11" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2607,38 +2607,38 @@
         <v>NO</v>
       </c>
       <c r="AI11">
+        <v>581.45000000000005</v>
+      </c>
+      <c r="AJ11">
+        <v>587.95000000000005</v>
+      </c>
+      <c r="AK11">
         <v>577</v>
       </c>
-      <c r="AJ11">
-        <v>583.1</v>
-      </c>
-      <c r="AK11">
-        <v>566</v>
-      </c>
       <c r="AL11">
-        <v>577.85</v>
+        <v>584.54999999999995</v>
       </c>
       <c r="AM11">
-        <v>5.2000000000000446</v>
+        <v>2.6999999999999318</v>
       </c>
       <c r="AN11">
-        <v>0.90805902383655734</v>
+        <v>0.46403712296982591</v>
       </c>
       <c r="AO11" s="1">
         <f t="shared" si="21"/>
-        <v>0.14731369150780291</v>
+        <v>0.53314988391089668</v>
       </c>
       <c r="AP11" s="1">
         <f t="shared" si="22"/>
-        <v>0.14731369150780291</v>
+        <v>0.53314988391089668</v>
       </c>
       <c r="AQ11" s="1">
         <f t="shared" si="23"/>
-        <v>0.90854027861901865</v>
+        <v>0.58164399965787206</v>
       </c>
       <c r="AR11" s="1">
         <f t="shared" si="24"/>
-        <v>1.9064124783362217</v>
+        <v>0.76532805916244651</v>
       </c>
       <c r="AS11" t="str">
         <f t="shared" si="25"/>
@@ -2670,38 +2670,38 @@
         <v>60</v>
       </c>
       <c r="B12">
-        <v>440.05</v>
+        <v>442.75</v>
       </c>
       <c r="C12">
-        <v>453.9</v>
+        <v>463.9</v>
       </c>
       <c r="D12">
-        <v>434.55</v>
+        <v>442.75</v>
       </c>
       <c r="E12">
-        <v>438.65</v>
+        <v>454</v>
       </c>
       <c r="F12">
-        <v>-1.4000000000000341</v>
+        <v>11.80000000000001</v>
       </c>
       <c r="G12">
-        <v>-0.31814566526531851</v>
+        <v>2.668475802804164</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="0"/>
-        <v>-0.31814566526531851</v>
+        <v>2.5409373235460193</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="1"/>
-        <v>0.31814566526531851</v>
+        <v>2.5409373235460193</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="2"/>
-        <v>3.1473696170889598</v>
+        <v>2.1806167400881007</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="3"/>
-        <v>0.93468596831185813</v>
+        <v>0</v>
       </c>
       <c r="L12" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="N12" t="str">
         <f t="shared" si="6"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="O12" s="1" t="str">
         <f t="shared" si="7"/>
@@ -2732,38 +2732,38 @@
         <v>NO</v>
       </c>
       <c r="S12">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="T12">
-        <v>445</v>
+        <v>444.85</v>
       </c>
       <c r="U12">
-        <v>429</v>
+        <v>432.55</v>
       </c>
       <c r="V12">
-        <v>440.05</v>
+        <v>442.2</v>
       </c>
       <c r="W12">
-        <v>10.05000000000001</v>
+        <v>3.5500000000000109</v>
       </c>
       <c r="X12">
-        <v>2.3372093023255842</v>
+        <v>0.80930126524564261</v>
       </c>
       <c r="Y12" s="1">
         <f t="shared" si="11"/>
-        <v>2.3372093023255842</v>
+        <v>0.72892938496582882</v>
       </c>
       <c r="Z12" s="1">
         <f t="shared" si="12"/>
-        <v>2.3372093023255842</v>
+        <v>0.72892938496582882</v>
       </c>
       <c r="AA12" s="1">
         <f t="shared" si="13"/>
-        <v>1.1248721736166318</v>
+        <v>0.59927634554501008</v>
       </c>
       <c r="AB12" s="1">
         <f t="shared" si="14"/>
-        <v>0.23255813953488372</v>
+        <v>1.4692482915717513</v>
       </c>
       <c r="AC12" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2790,38 +2790,38 @@
         <v>NO</v>
       </c>
       <c r="AI12">
-        <v>435.3</v>
+        <v>440.05</v>
       </c>
       <c r="AJ12">
-        <v>440</v>
+        <v>453.9</v>
       </c>
       <c r="AK12">
-        <v>426.35</v>
+        <v>434.55</v>
       </c>
       <c r="AL12">
-        <v>430</v>
+        <v>438.65</v>
       </c>
       <c r="AM12">
-        <v>-3.1000000000000232</v>
+        <v>-1.4000000000000341</v>
       </c>
       <c r="AN12">
-        <v>-0.71577003001616779</v>
+        <v>-0.31814566526531851</v>
       </c>
       <c r="AO12" s="1">
         <f t="shared" si="21"/>
-        <v>-1.2175511141741353</v>
+        <v>-0.31814566526531851</v>
       </c>
       <c r="AP12" s="1">
         <f t="shared" si="22"/>
-        <v>1.2175511141741353</v>
+        <v>0.31814566526531851</v>
       </c>
       <c r="AQ12" s="1">
         <f t="shared" si="23"/>
-        <v>1.0797151389846056</v>
+        <v>3.1473696170889598</v>
       </c>
       <c r="AR12" s="1">
         <f t="shared" si="24"/>
-        <v>0.84883720930232032</v>
+        <v>0.93468596831185813</v>
       </c>
       <c r="AS12" t="str">
         <f t="shared" si="25"/>
@@ -2853,38 +2853,38 @@
         <v>61</v>
       </c>
       <c r="B13">
-        <v>13040</v>
+        <v>13050</v>
       </c>
       <c r="C13">
-        <v>13274.85</v>
+        <v>13226</v>
       </c>
       <c r="D13">
-        <v>12930.55</v>
+        <v>12808.75</v>
       </c>
       <c r="E13">
-        <v>13137.3</v>
+        <v>13070.6</v>
       </c>
       <c r="F13">
-        <v>55.75</v>
+        <v>107.35000000000041</v>
       </c>
       <c r="G13">
-        <v>0.42617273946894668</v>
+        <v>0.82811023470194867</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="0"/>
-        <v>0.74616564417177356</v>
+        <v>0.15785440613027099</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="1"/>
-        <v>0.74616564417177356</v>
+        <v>0.15785440613027099</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="2"/>
-        <v>1.0470187938160893</v>
+        <v>1.1889278227472315</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="3"/>
-        <v>0.83934049079755157</v>
+        <v>1.8486590038314175</v>
       </c>
       <c r="L13" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2915,38 +2915,38 @@
         <v>NO</v>
       </c>
       <c r="S13">
-        <v>12898</v>
+        <v>13080</v>
       </c>
       <c r="T13">
-        <v>13141.65</v>
+        <v>13080</v>
       </c>
       <c r="U13">
-        <v>12829.85</v>
+        <v>12765.2</v>
       </c>
       <c r="V13">
-        <v>13081.55</v>
+        <v>12963.25</v>
       </c>
       <c r="W13">
-        <v>228</v>
+        <v>-174.0499999999993</v>
       </c>
       <c r="X13">
-        <v>1.773829019998366</v>
+        <v>-1.324853660950114</v>
       </c>
       <c r="Y13" s="1">
         <f t="shared" si="11"/>
-        <v>1.4230888509846431</v>
+        <v>-0.89258409785932713</v>
       </c>
       <c r="Z13" s="1">
         <f t="shared" si="12"/>
-        <v>1.4230888509846431</v>
+        <v>0.89258409785932713</v>
       </c>
       <c r="AA13" s="1">
         <f t="shared" si="13"/>
-        <v>0.45942567967863412</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="1">
         <f t="shared" si="14"/>
-        <v>0.52837649247945129</v>
+        <v>1.5277804562898909</v>
       </c>
       <c r="AC13" s="1" t="str">
         <f t="shared" si="15"/>
@@ -2973,38 +2973,38 @@
         <v>NO</v>
       </c>
       <c r="AI13">
-        <v>12970</v>
+        <v>13040</v>
       </c>
       <c r="AJ13">
-        <v>13298</v>
+        <v>13274.85</v>
       </c>
       <c r="AK13">
-        <v>12759.85</v>
+        <v>12930.55</v>
       </c>
       <c r="AL13">
-        <v>12853.55</v>
+        <v>13137.3</v>
       </c>
       <c r="AM13">
-        <v>-18.60000000000036</v>
+        <v>55.75</v>
       </c>
       <c r="AN13">
-        <v>-0.14449800538371879</v>
+        <v>0.42617273946894668</v>
       </c>
       <c r="AO13" s="1">
         <f t="shared" si="21"/>
-        <v>-0.89784117193524082</v>
+        <v>0.74616564417177356</v>
       </c>
       <c r="AP13" s="1">
         <f t="shared" si="22"/>
-        <v>0.89784117193524082</v>
+        <v>0.74616564417177356</v>
       </c>
       <c r="AQ13" s="1">
         <f t="shared" si="23"/>
-        <v>2.5289128758673862</v>
+        <v>1.0470187938160893</v>
       </c>
       <c r="AR13" s="1">
         <f t="shared" si="24"/>
-        <v>0.72898148760458326</v>
+        <v>0.83934049079755157</v>
       </c>
       <c r="AS13" t="str">
         <f t="shared" si="25"/>
@@ -3036,38 +3036,38 @@
         <v>62</v>
       </c>
       <c r="B14">
-        <v>377.15</v>
+        <v>395.05</v>
       </c>
       <c r="C14">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="D14">
-        <v>375.1</v>
+        <v>395.05</v>
       </c>
       <c r="E14">
-        <v>388.4</v>
+        <v>409.7</v>
       </c>
       <c r="F14">
-        <v>13.349999999999969</v>
+        <v>16</v>
       </c>
       <c r="G14">
-        <v>3.559525396613775</v>
+        <v>4.0640081280162574</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="0"/>
-        <v>2.9828980511732732</v>
+        <v>3.7083913428679858</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="1"/>
-        <v>2.9828980511732732</v>
+        <v>3.7083913428679858</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="2"/>
-        <v>0.41194644696190086</v>
+        <v>3.2462777642177234</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="3"/>
-        <v>0.54355031154711775</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3098,38 +3098,38 @@
         <v>NO</v>
       </c>
       <c r="S14">
-        <v>370.65</v>
+        <v>389</v>
       </c>
       <c r="T14">
-        <v>378.5</v>
+        <v>396.6</v>
       </c>
       <c r="U14">
-        <v>367.25</v>
+        <v>384.4</v>
       </c>
       <c r="V14">
-        <v>375.05</v>
+        <v>393.7</v>
       </c>
       <c r="W14">
-        <v>6.5</v>
+        <v>5.3000000000000114</v>
       </c>
       <c r="X14">
-        <v>1.7636684303350969</v>
+        <v>1.3645726055612799</v>
       </c>
       <c r="Y14" s="1">
         <f t="shared" si="11"/>
-        <v>1.1871037366788169</v>
+        <v>1.2082262210796886</v>
       </c>
       <c r="Z14" s="1">
         <f t="shared" si="12"/>
-        <v>1.1871037366788169</v>
+        <v>1.2082262210796886</v>
       </c>
       <c r="AA14" s="1">
         <f t="shared" si="13"/>
-        <v>0.91987734968670531</v>
+        <v>0.7366014732029551</v>
       </c>
       <c r="AB14" s="1">
         <f t="shared" si="14"/>
-        <v>0.91730743288816341</v>
+        <v>1.1825192802056614</v>
       </c>
       <c r="AC14" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3156,38 +3156,38 @@
         <v>NO</v>
       </c>
       <c r="AI14">
-        <v>371.8</v>
+        <v>377.15</v>
       </c>
       <c r="AJ14">
-        <v>373.2</v>
+        <v>390</v>
       </c>
       <c r="AK14">
-        <v>365.5</v>
+        <v>375.1</v>
       </c>
       <c r="AL14">
-        <v>368.55</v>
+        <v>388.4</v>
       </c>
       <c r="AM14">
-        <v>-1.4499999999999891</v>
+        <v>13.349999999999969</v>
       </c>
       <c r="AN14">
-        <v>-0.39189189189188878</v>
+        <v>3.559525396613775</v>
       </c>
       <c r="AO14" s="1">
         <f t="shared" si="21"/>
-        <v>-0.87412587412587406</v>
+        <v>2.9828980511732732</v>
       </c>
       <c r="AP14" s="1">
         <f t="shared" si="22"/>
-        <v>0.87412587412587406</v>
+        <v>2.9828980511732732</v>
       </c>
       <c r="AQ14" s="1">
         <f t="shared" si="23"/>
-        <v>0.3765465303926781</v>
+        <v>0.41194644696190086</v>
       </c>
       <c r="AR14" s="1">
         <f t="shared" si="24"/>
-        <v>0.82756749423416387</v>
+        <v>0.54355031154711775</v>
       </c>
       <c r="AS14" t="str">
         <f t="shared" si="25"/>
@@ -3219,38 +3219,38 @@
         <v>63</v>
       </c>
       <c r="B15">
-        <v>1421</v>
+        <v>1407</v>
       </c>
       <c r="C15">
-        <v>1425</v>
+        <v>1407</v>
       </c>
       <c r="D15">
-        <v>1412.6</v>
+        <v>1363</v>
       </c>
       <c r="E15">
-        <v>1420.4</v>
+        <v>1372.65</v>
       </c>
       <c r="F15">
-        <v>0.25</v>
+        <v>-24.849999999999909</v>
       </c>
       <c r="G15">
-        <v>1.7603774249199029E-2</v>
+        <v>-1.7781753130590281</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="0"/>
-        <v>-4.2223786066144194E-2</v>
+        <v>-2.4413646055437033</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="1"/>
-        <v>4.2223786066144194E-2</v>
+        <v>2.4413646055437033</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="2"/>
-        <v>0.28149190710767064</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" si="3"/>
-        <v>0.54914108701775421</v>
+        <v>0.70301970640732092</v>
       </c>
       <c r="L15" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3281,38 +3281,38 @@
         <v>NO</v>
       </c>
       <c r="S15">
-        <v>1416.6</v>
+        <v>1415</v>
       </c>
       <c r="T15">
-        <v>1423.2</v>
+        <v>1418.95</v>
       </c>
       <c r="U15">
-        <v>1405.8</v>
+        <v>1393.3</v>
       </c>
       <c r="V15">
-        <v>1420.15</v>
+        <v>1397.5</v>
       </c>
       <c r="W15">
-        <v>3.5500000000001819</v>
+        <v>-22.900000000000091</v>
       </c>
       <c r="X15">
-        <v>0.2506000282366358</v>
+        <v>-1.6122219093213239</v>
       </c>
       <c r="Y15" s="1">
         <f t="shared" si="11"/>
-        <v>0.2506000282366358</v>
+        <v>-1.2367491166077738</v>
       </c>
       <c r="Z15" s="1">
         <f t="shared" si="12"/>
-        <v>0.2506000282366358</v>
+        <v>1.2367491166077738</v>
       </c>
       <c r="AA15" s="1">
         <f t="shared" si="13"/>
-        <v>0.21476604584022493</v>
+        <v>0.27915194346290073</v>
       </c>
       <c r="AB15" s="1">
         <f t="shared" si="14"/>
-        <v>0.76238881829732841</v>
+        <v>0.30053667262969913</v>
       </c>
       <c r="AC15" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3339,38 +3339,38 @@
         <v>NO</v>
       </c>
       <c r="AI15">
-        <v>1427.9</v>
+        <v>1421</v>
       </c>
       <c r="AJ15">
-        <v>1427.9</v>
+        <v>1425</v>
       </c>
       <c r="AK15">
-        <v>1401.05</v>
+        <v>1412.6</v>
       </c>
       <c r="AL15">
-        <v>1416.6</v>
+        <v>1420.4</v>
       </c>
       <c r="AM15">
-        <v>-2.0500000000001819</v>
+        <v>0.25</v>
       </c>
       <c r="AN15">
-        <v>-0.14450357734467151</v>
+        <v>1.7603774249199029E-2</v>
       </c>
       <c r="AO15" s="1">
         <f t="shared" si="21"/>
-        <v>-0.79137194481407536</v>
+        <v>-4.2223786066144194E-2</v>
       </c>
       <c r="AP15" s="1">
         <f t="shared" si="22"/>
-        <v>0.79137194481407536</v>
+        <v>4.2223786066144194E-2</v>
       </c>
       <c r="AQ15" s="1">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.28149190710767064</v>
       </c>
       <c r="AR15" s="1">
         <f t="shared" si="24"/>
-        <v>1.0976987152336548</v>
+        <v>0.54914108701775421</v>
       </c>
       <c r="AS15" t="str">
         <f t="shared" si="25"/>
@@ -3402,38 +3402,38 @@
         <v>64</v>
       </c>
       <c r="B16">
-        <v>388.1</v>
+        <v>388.95</v>
       </c>
       <c r="C16">
-        <v>390.4</v>
+        <v>396.3</v>
       </c>
       <c r="D16">
-        <v>384</v>
+        <v>387.6</v>
       </c>
       <c r="E16">
-        <v>387.2</v>
+        <v>389.3</v>
       </c>
       <c r="F16">
-        <v>-1.5500000000000109</v>
+        <v>0.44999999999998858</v>
       </c>
       <c r="G16">
-        <v>-0.39871382636656238</v>
+        <v>0.1157258583001128</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="0"/>
-        <v>-0.23189899510436332</v>
+        <v>8.9985859364962784E-2</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="1"/>
-        <v>0.23189899510436332</v>
+        <v>8.9985859364962784E-2</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="2"/>
-        <v>0.59263076526667202</v>
+        <v>1.7980991523246854</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="3"/>
-        <v>0.82644628099173256</v>
+        <v>0.34708831469339657</v>
       </c>
       <c r="L16" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3464,38 +3464,38 @@
         <v>NO</v>
       </c>
       <c r="S16">
-        <v>385</v>
+        <v>387.3</v>
       </c>
       <c r="T16">
-        <v>390.65</v>
+        <v>392.8</v>
       </c>
       <c r="U16">
-        <v>381.3</v>
+        <v>384.05</v>
       </c>
       <c r="V16">
-        <v>388.75</v>
+        <v>388.85</v>
       </c>
       <c r="W16">
-        <v>4.5500000000000114</v>
+        <v>1.6500000000000341</v>
       </c>
       <c r="X16">
-        <v>1.184279021343053</v>
+        <v>0.42613636363637247</v>
       </c>
       <c r="Y16" s="1">
         <f t="shared" si="11"/>
-        <v>0.97402597402597402</v>
+        <v>0.40020655822360224</v>
       </c>
       <c r="Z16" s="1">
         <f t="shared" si="12"/>
-        <v>0.97402597402597402</v>
+        <v>0.40020655822360224</v>
       </c>
       <c r="AA16" s="1">
         <f t="shared" si="13"/>
-        <v>0.48874598070738967</v>
+        <v>1.0158158673010129</v>
       </c>
       <c r="AB16" s="1">
         <f t="shared" si="14"/>
-        <v>0.96103896103895814</v>
+        <v>0.83914278337206294</v>
       </c>
       <c r="AC16" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3522,38 +3522,38 @@
         <v>NO</v>
       </c>
       <c r="AI16">
-        <v>386.35</v>
+        <v>388.1</v>
       </c>
       <c r="AJ16">
-        <v>391</v>
+        <v>390.4</v>
       </c>
       <c r="AK16">
-        <v>377.05</v>
+        <v>384</v>
       </c>
       <c r="AL16">
-        <v>384.2</v>
+        <v>387.2</v>
       </c>
       <c r="AM16">
-        <v>0.39999999999997732</v>
+        <v>-1.5500000000000109</v>
       </c>
       <c r="AN16">
-        <v>0.1042209484106246</v>
+        <v>-0.39871382636656238</v>
       </c>
       <c r="AO16" s="1">
         <f t="shared" si="21"/>
-        <v>-0.55649022906691703</v>
+        <v>-0.23189899510436332</v>
       </c>
       <c r="AP16" s="1">
         <f t="shared" si="22"/>
-        <v>0.55649022906691703</v>
+        <v>0.23189899510436332</v>
       </c>
       <c r="AQ16" s="1">
         <f t="shared" si="23"/>
-        <v>1.2035718907726094</v>
+        <v>0.59263076526667202</v>
       </c>
       <c r="AR16" s="1">
         <f t="shared" si="24"/>
-        <v>1.8610098906819306</v>
+        <v>0.82644628099173256</v>
       </c>
       <c r="AS16" t="str">
         <f t="shared" si="25"/>
@@ -3585,38 +3585,38 @@
         <v>65</v>
       </c>
       <c r="B17">
-        <v>156.4</v>
+        <v>158</v>
       </c>
       <c r="C17">
-        <v>164.2</v>
+        <v>166.35</v>
       </c>
       <c r="D17">
-        <v>154.1</v>
+        <v>157.4</v>
       </c>
       <c r="E17">
-        <v>163.35</v>
+        <v>161.25</v>
       </c>
       <c r="F17">
-        <v>7.7999999999999829</v>
+        <v>4.4000000000000057</v>
       </c>
       <c r="G17">
-        <v>5.0144648023143574</v>
+        <v>2.8052279247688912</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="0"/>
-        <v>4.4437340153452611</v>
+        <v>2.0569620253164556</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="1"/>
-        <v>4.4437340153452611</v>
+        <v>2.0569620253164556</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="2"/>
-        <v>0.52035506580960778</v>
+        <v>3.1627906976744149</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" si="3"/>
-        <v>1.4705882352941249</v>
+        <v>0.37974683544303434</v>
       </c>
       <c r="L17" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3647,38 +3647,38 @@
         <v>NO</v>
       </c>
       <c r="S17">
-        <v>156.6</v>
+        <v>162</v>
       </c>
       <c r="T17">
-        <v>159</v>
+        <v>163.1</v>
       </c>
       <c r="U17">
-        <v>153.15</v>
+        <v>156.35</v>
       </c>
       <c r="V17">
-        <v>155.55000000000001</v>
+        <v>156.85</v>
       </c>
       <c r="W17">
-        <v>-0.14999999999997729</v>
+        <v>-6.5</v>
       </c>
       <c r="X17">
-        <v>-9.6339113680139546E-2</v>
+        <v>-3.9791857973676148</v>
       </c>
       <c r="Y17" s="1">
         <f t="shared" si="11"/>
-        <v>-0.67049808429117697</v>
+        <v>-3.1790123456790158</v>
       </c>
       <c r="Z17" s="1">
         <f t="shared" si="12"/>
-        <v>0.67049808429117697</v>
+        <v>3.1790123456790158</v>
       </c>
       <c r="AA17" s="1">
         <f t="shared" si="13"/>
-        <v>1.5325670498084329</v>
+        <v>0.67901234567900892</v>
       </c>
       <c r="AB17" s="1">
         <f t="shared" si="14"/>
-        <v>1.5429122468659631</v>
+        <v>0.31877590054191901</v>
       </c>
       <c r="AC17" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3705,38 +3705,38 @@
         <v>NO</v>
       </c>
       <c r="AI17">
-        <v>156</v>
+        <v>156.4</v>
       </c>
       <c r="AJ17">
-        <v>159.30000000000001</v>
+        <v>164.2</v>
       </c>
       <c r="AK17">
-        <v>154.5</v>
+        <v>154.1</v>
       </c>
       <c r="AL17">
-        <v>155.69999999999999</v>
+        <v>163.35</v>
       </c>
       <c r="AM17">
-        <v>1.399999999999977</v>
+        <v>7.7999999999999829</v>
       </c>
       <c r="AN17">
-        <v>0.90732339598183875</v>
+        <v>5.0144648023143574</v>
       </c>
       <c r="AO17" s="1">
         <f t="shared" si="21"/>
-        <v>-0.19230769230769962</v>
+        <v>4.4437340153452611</v>
       </c>
       <c r="AP17" s="1">
         <f t="shared" si="22"/>
-        <v>0.19230769230769962</v>
+        <v>4.4437340153452611</v>
       </c>
       <c r="AQ17" s="1">
         <f t="shared" si="23"/>
-        <v>2.115384615384623</v>
+        <v>0.52035506580960778</v>
       </c>
       <c r="AR17" s="1">
         <f t="shared" si="24"/>
-        <v>0.77071290944122595</v>
+        <v>1.4705882352941249</v>
       </c>
       <c r="AS17" t="str">
         <f t="shared" si="25"/>
@@ -3768,38 +3768,38 @@
         <v>66</v>
       </c>
       <c r="B18">
-        <v>507</v>
+        <v>503.9</v>
       </c>
       <c r="C18">
-        <v>513</v>
+        <v>509.9</v>
       </c>
       <c r="D18">
-        <v>504.3</v>
+        <v>498.75</v>
       </c>
       <c r="E18">
-        <v>509.6</v>
+        <v>508.45</v>
       </c>
       <c r="F18">
-        <v>3.8500000000000232</v>
+        <v>5.8999999999999773</v>
       </c>
       <c r="G18">
-        <v>0.76124567474048888</v>
+        <v>1.174012536066058</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="0"/>
-        <v>0.51282051282051733</v>
+        <v>0.90295693589998238</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="1"/>
-        <v>0.51282051282051733</v>
+        <v>0.90295693589998238</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="2"/>
-        <v>0.66718995290423411</v>
+        <v>0.2851804503884332</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" si="3"/>
-        <v>0.53254437869822258</v>
+        <v>1.0220281801944786</v>
       </c>
       <c r="L18" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3830,38 +3830,38 @@
         <v>NO</v>
       </c>
       <c r="S18">
-        <v>503.9</v>
+        <v>509.7</v>
       </c>
       <c r="T18">
-        <v>508</v>
+        <v>510.95</v>
       </c>
       <c r="U18">
-        <v>499.55</v>
+        <v>501.15</v>
       </c>
       <c r="V18">
-        <v>505.75</v>
+        <v>502.55</v>
       </c>
       <c r="W18">
-        <v>1.5500000000000109</v>
+        <v>-7.0500000000000114</v>
       </c>
       <c r="X18">
-        <v>0.3074176913923069</v>
+        <v>-1.38343799058085</v>
       </c>
       <c r="Y18" s="1">
         <f t="shared" si="11"/>
-        <v>0.36713633657472172</v>
+        <v>-1.4027859525210864</v>
       </c>
       <c r="Z18" s="1">
         <f t="shared" si="12"/>
-        <v>0.36713633657472172</v>
+        <v>1.4027859525210864</v>
       </c>
       <c r="AA18" s="1">
         <f t="shared" si="13"/>
-        <v>0.44488383588729608</v>
+        <v>0.24524229939179909</v>
       </c>
       <c r="AB18" s="1">
         <f t="shared" si="14"/>
-        <v>0.86326652113513902</v>
+        <v>0.27857924584619126</v>
       </c>
       <c r="AC18" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3888,38 +3888,38 @@
         <v>NO</v>
       </c>
       <c r="AI18">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="AJ18">
-        <v>514.70000000000005</v>
+        <v>513</v>
       </c>
       <c r="AK18">
-        <v>498.25</v>
+        <v>504.3</v>
       </c>
       <c r="AL18">
-        <v>504.2</v>
+        <v>509.6</v>
       </c>
       <c r="AM18">
-        <v>-4.0500000000000114</v>
+        <v>3.8500000000000232</v>
       </c>
       <c r="AN18">
-        <v>-0.79685194294146811</v>
+        <v>0.76124567474048888</v>
       </c>
       <c r="AO18" s="1">
         <f t="shared" si="21"/>
-        <v>-1.3307240704501</v>
+        <v>0.51282051282051733</v>
       </c>
       <c r="AP18" s="1">
         <f t="shared" si="22"/>
-        <v>1.3307240704501</v>
+        <v>0.51282051282051733</v>
       </c>
       <c r="AQ18" s="1">
         <f t="shared" si="23"/>
-        <v>0.7240704500978562</v>
+        <v>0.66718995290423411</v>
       </c>
       <c r="AR18" s="1">
         <f t="shared" si="24"/>
-        <v>1.1800872669575544</v>
+        <v>0.53254437869822258</v>
       </c>
       <c r="AS18" t="str">
         <f t="shared" si="25"/>
@@ -3951,38 +3951,38 @@
         <v>67</v>
       </c>
       <c r="B19">
-        <v>3181.1</v>
+        <v>3230</v>
       </c>
       <c r="C19">
-        <v>3274</v>
+        <v>3389</v>
       </c>
       <c r="D19">
-        <v>3179</v>
+        <v>3228</v>
       </c>
       <c r="E19">
-        <v>3244.35</v>
+        <v>3344.4</v>
       </c>
       <c r="F19">
-        <v>59.400000000000091</v>
+        <v>133.25</v>
       </c>
       <c r="G19">
-        <v>1.8650214289078351</v>
+        <v>4.1496037245223674</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="0"/>
-        <v>1.9883059319103458</v>
+        <v>3.5417956656346776</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="1"/>
-        <v>1.9883059319103458</v>
+        <v>3.5417956656346776</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="2"/>
-        <v>0.91389646616425768</v>
+        <v>1.3335725391699531</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="3"/>
-        <v>6.6014900506111376E-2</v>
+        <v>6.1919504643962855E-2</v>
       </c>
       <c r="L19" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4013,38 +4013,38 @@
         <v>NO</v>
       </c>
       <c r="S19">
-        <v>3175</v>
+        <v>3244.05</v>
       </c>
       <c r="T19">
-        <v>3250</v>
+        <v>3264.2</v>
       </c>
       <c r="U19">
-        <v>3166.25</v>
+        <v>3200</v>
       </c>
       <c r="V19">
-        <v>3184.95</v>
+        <v>3211.15</v>
       </c>
       <c r="W19">
-        <v>20.14999999999964</v>
+        <v>-33.199999999999818</v>
       </c>
       <c r="X19">
-        <v>0.63669110212334534</v>
+        <v>-1.0233174595835779</v>
       </c>
       <c r="Y19" s="1">
         <f t="shared" si="11"/>
-        <v>0.31338582677164784</v>
+        <v>-1.0141643932738424</v>
       </c>
       <c r="Z19" s="1">
         <f t="shared" si="12"/>
-        <v>0.31338582677164784</v>
+        <v>1.0141643932738424</v>
       </c>
       <c r="AA19" s="1">
         <f t="shared" si="13"/>
-        <v>2.0424182483241555</v>
+        <v>0.62113715879840425</v>
       </c>
       <c r="AB19" s="1">
         <f t="shared" si="14"/>
-        <v>0.27559055118110237</v>
+        <v>0.34722762873114277</v>
       </c>
       <c r="AC19" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4071,38 +4071,38 @@
         <v>NO</v>
       </c>
       <c r="AI19">
-        <v>3169.6</v>
+        <v>3181.1</v>
       </c>
       <c r="AJ19">
-        <v>3227.65</v>
+        <v>3274</v>
       </c>
       <c r="AK19">
-        <v>3133.7</v>
+        <v>3179</v>
       </c>
       <c r="AL19">
-        <v>3164.8</v>
+        <v>3244.35</v>
       </c>
       <c r="AM19">
-        <v>18.150000000000091</v>
+        <v>59.400000000000091</v>
       </c>
       <c r="AN19">
-        <v>0.57680390256304614</v>
+        <v>1.8650214289078351</v>
       </c>
       <c r="AO19" s="1">
         <f t="shared" si="21"/>
-        <v>-0.15143866733971881</v>
+        <v>1.9883059319103458</v>
       </c>
       <c r="AP19" s="1">
         <f t="shared" si="22"/>
-        <v>0.15143866733971881</v>
+        <v>1.9883059319103458</v>
       </c>
       <c r="AQ19" s="1">
         <f t="shared" si="23"/>
-        <v>1.8314613831398343</v>
+        <v>0.91389646616425768</v>
       </c>
       <c r="AR19" s="1">
         <f t="shared" si="24"/>
-        <v>0.9826845298281206</v>
+        <v>6.6014900506111376E-2</v>
       </c>
       <c r="AS19" t="str">
         <f t="shared" si="25"/>
@@ -4134,38 +4134,38 @@
         <v>68</v>
       </c>
       <c r="B20">
-        <v>136.30000000000001</v>
+        <v>133.19999999999999</v>
       </c>
       <c r="C20">
-        <v>136.30000000000001</v>
+        <v>133.9</v>
       </c>
       <c r="D20">
-        <v>133.30000000000001</v>
+        <v>128.19999999999999</v>
       </c>
       <c r="E20">
-        <v>133.75</v>
+        <v>129</v>
       </c>
       <c r="F20">
-        <v>9.9999999999994316E-2</v>
+        <v>-4.0500000000000114</v>
       </c>
       <c r="G20">
-        <v>7.4822297044515013E-2</v>
+        <v>-3.043968432919963</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="0"/>
-        <v>-1.8708730741012554</v>
+        <v>-3.1531531531531454</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="1"/>
-        <v>1.8708730741012554</v>
+        <v>3.1531531531531454</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.52552552552553844</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" si="3"/>
-        <v>0.33644859813083261</v>
+        <v>0.6201550387596988</v>
       </c>
       <c r="L20" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4196,38 +4196,38 @@
         <v>NO</v>
       </c>
       <c r="S20">
-        <v>134.15</v>
+        <v>133.44999999999999</v>
       </c>
       <c r="T20">
-        <v>135</v>
+        <v>134.85</v>
       </c>
       <c r="U20">
-        <v>133.30000000000001</v>
+        <v>132.75</v>
       </c>
       <c r="V20">
-        <v>133.65</v>
+        <v>133.05000000000001</v>
       </c>
       <c r="W20">
-        <v>-0.40000000000000568</v>
+        <v>-0.69999999999998863</v>
       </c>
       <c r="X20">
-        <v>-0.29839612085043321</v>
+        <v>-0.52336448598129992</v>
       </c>
       <c r="Y20" s="1">
         <f t="shared" si="11"/>
-        <v>-0.37271710771524413</v>
+        <v>-0.29973772948668215</v>
       </c>
       <c r="Z20" s="1">
         <f t="shared" si="12"/>
-        <v>0.37271710771524413</v>
+        <v>0.29973772948668215</v>
       </c>
       <c r="AA20" s="1">
         <f t="shared" si="13"/>
-        <v>0.63361908311591075</v>
+        <v>1.0490820532034513</v>
       </c>
       <c r="AB20" s="1">
         <f t="shared" si="14"/>
-        <v>0.26187803965581319</v>
+        <v>0.22547914317926446</v>
       </c>
       <c r="AC20" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4254,30 +4254,30 @@
         <v>NO</v>
       </c>
       <c r="AI20">
-        <v>136.85</v>
+        <v>136.30000000000001</v>
       </c>
       <c r="AJ20">
-        <v>136.85</v>
+        <v>136.30000000000001</v>
       </c>
       <c r="AK20">
-        <v>133.4</v>
+        <v>133.30000000000001</v>
       </c>
       <c r="AL20">
-        <v>134.05000000000001</v>
+        <v>133.75</v>
       </c>
       <c r="AM20">
-        <v>-0.5</v>
+        <v>9.9999999999994316E-2</v>
       </c>
       <c r="AN20">
-        <v>-0.37160906726124121</v>
+        <v>7.4822297044515013E-2</v>
       </c>
       <c r="AO20" s="1">
         <f t="shared" si="21"/>
-        <v>-2.0460358056265862</v>
+        <v>-1.8708730741012554</v>
       </c>
       <c r="AP20" s="1">
         <f t="shared" si="22"/>
-        <v>2.0460358056265862</v>
+        <v>1.8708730741012554</v>
       </c>
       <c r="AQ20" s="1">
         <f t="shared" si="23"/>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="AR20" s="1">
         <f t="shared" si="24"/>
-        <v>0.48489369638195118</v>
+        <v>0.33644859813083261</v>
       </c>
       <c r="AS20" t="str">
         <f t="shared" si="25"/>
@@ -4317,38 +4317,38 @@
         <v>69</v>
       </c>
       <c r="B21">
-        <v>710</v>
+        <v>709.75</v>
       </c>
       <c r="C21">
-        <v>713</v>
+        <v>726.7</v>
       </c>
       <c r="D21">
-        <v>698.8</v>
+        <v>697.35</v>
       </c>
       <c r="E21">
-        <v>707.4</v>
+        <v>713.75</v>
       </c>
       <c r="F21">
-        <v>1.199999999999932</v>
+        <v>4.5499999999999554</v>
       </c>
       <c r="G21">
-        <v>0.16992353440950611</v>
+        <v>0.64156796390298287</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="0"/>
-        <v>-0.36619718309859478</v>
+        <v>0.56357872490313488</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="1"/>
-        <v>0.36619718309859478</v>
+        <v>0.56357872490313488</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="2"/>
-        <v>0.42253521126760557</v>
+        <v>1.8143607705779399</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" si="3"/>
-        <v>1.2157195363302267</v>
+        <v>1.747094047199715</v>
       </c>
       <c r="L21" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4368,7 +4368,7 @@
       </c>
       <c r="P21" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q21" s="1" t="str">
         <f t="shared" si="9"/>
@@ -4379,38 +4379,38 @@
         <v>NO</v>
       </c>
       <c r="S21">
-        <v>691.55</v>
+        <v>707.4</v>
       </c>
       <c r="T21">
-        <v>711.9</v>
+        <v>722.9</v>
       </c>
       <c r="U21">
-        <v>688.75</v>
+        <v>703.5</v>
       </c>
       <c r="V21">
-        <v>706.2</v>
+        <v>709.2</v>
       </c>
       <c r="W21">
-        <v>14.650000000000089</v>
+        <v>1.800000000000068</v>
       </c>
       <c r="X21">
-        <v>2.1184296146338069</v>
+        <v>0.25445292620866111</v>
       </c>
       <c r="Y21" s="1">
         <f t="shared" si="11"/>
-        <v>2.1184296146338069</v>
+        <v>0.25445292620866106</v>
       </c>
       <c r="Z21" s="1">
         <f t="shared" si="12"/>
-        <v>2.1184296146338069</v>
+        <v>0.25445292620866106</v>
       </c>
       <c r="AA21" s="1">
         <f t="shared" si="13"/>
-        <v>0.80713678844518999</v>
+        <v>1.9317540891144853</v>
       </c>
       <c r="AB21" s="1">
         <f t="shared" si="14"/>
-        <v>0.40488757139757858</v>
+        <v>0.55131467345207485</v>
       </c>
       <c r="AC21" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4437,38 +4437,38 @@
         <v>NO</v>
       </c>
       <c r="AI21">
-        <v>687.9</v>
+        <v>710</v>
       </c>
       <c r="AJ21">
-        <v>697.7</v>
+        <v>713</v>
       </c>
       <c r="AK21">
-        <v>677.45</v>
+        <v>698.8</v>
       </c>
       <c r="AL21">
-        <v>691.55</v>
+        <v>707.4</v>
       </c>
       <c r="AM21">
-        <v>5.8999999999999773</v>
+        <v>1.199999999999932</v>
       </c>
       <c r="AN21">
-        <v>0.86049733829212838</v>
+        <v>0.16992353440950611</v>
       </c>
       <c r="AO21" s="1">
         <f t="shared" si="21"/>
-        <v>0.53060037796190973</v>
+        <v>-0.36619718309859478</v>
       </c>
       <c r="AP21" s="1">
         <f t="shared" si="22"/>
-        <v>0.53060037796190973</v>
+        <v>0.36619718309859478</v>
       </c>
       <c r="AQ21" s="1">
         <f t="shared" si="23"/>
-        <v>0.8893066300339949</v>
+        <v>0.42253521126760557</v>
       </c>
       <c r="AR21" s="1">
         <f t="shared" si="24"/>
-        <v>1.5191161506032755</v>
+        <v>1.2157195363302267</v>
       </c>
       <c r="AS21" t="str">
         <f t="shared" si="25"/>
@@ -4500,38 +4500,38 @@
         <v>70</v>
       </c>
       <c r="B22">
-        <v>2324</v>
+        <v>2274</v>
       </c>
       <c r="C22">
-        <v>2324</v>
+        <v>2274.9499999999998</v>
       </c>
       <c r="D22">
-        <v>2288</v>
+        <v>2181</v>
       </c>
       <c r="E22">
-        <v>2291.1999999999998</v>
+        <v>2215.4499999999998</v>
       </c>
       <c r="F22">
-        <v>-16.10000000000036</v>
+        <v>-44.200000000000273</v>
       </c>
       <c r="G22">
-        <v>-0.69778529016601054</v>
+        <v>-1.9560551412829541</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="0"/>
-        <v>-1.4113597246127445</v>
+        <v>-2.5747581354441591</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="1"/>
-        <v>1.4113597246127445</v>
+        <v>2.5747581354441591</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.1776605101135358E-2</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="3"/>
-        <v>0.13966480446926582</v>
+        <v>1.5549888284547075</v>
       </c>
       <c r="L22" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4562,38 +4562,38 @@
         <v>NO</v>
       </c>
       <c r="S22">
-        <v>2350</v>
+        <v>2285.15</v>
       </c>
       <c r="T22">
-        <v>2364</v>
+        <v>2333</v>
       </c>
       <c r="U22">
-        <v>2303.0500000000002</v>
+        <v>2251</v>
       </c>
       <c r="V22">
-        <v>2307.3000000000002</v>
+        <v>2259.65</v>
       </c>
       <c r="W22">
-        <v>-42.699999999999818</v>
+        <v>-31.549999999999731</v>
       </c>
       <c r="X22">
-        <v>-1.817021276595737</v>
+        <v>-1.377007681564234</v>
       </c>
       <c r="Y22" s="1">
         <f t="shared" si="11"/>
-        <v>-1.8170212765957368</v>
+        <v>-1.1159004879329584</v>
       </c>
       <c r="Z22" s="1">
         <f t="shared" si="12"/>
-        <v>1.8170212765957368</v>
+        <v>1.1159004879329584</v>
       </c>
       <c r="AA22" s="1">
         <f t="shared" si="13"/>
-        <v>0.5957446808510638</v>
+        <v>2.0939544450036061</v>
       </c>
       <c r="AB22" s="1">
         <f t="shared" si="14"/>
-        <v>0.1841979803233216</v>
+        <v>0.38280264642754808</v>
       </c>
       <c r="AC22" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4620,38 +4620,38 @@
         <v>NO</v>
       </c>
       <c r="AI22">
-        <v>2372</v>
+        <v>2324</v>
       </c>
       <c r="AJ22">
-        <v>2390</v>
+        <v>2324</v>
       </c>
       <c r="AK22">
-        <v>2335</v>
+        <v>2288</v>
       </c>
       <c r="AL22">
-        <v>2350</v>
+        <v>2291.1999999999998</v>
       </c>
       <c r="AM22">
-        <v>-18.25</v>
+        <v>-16.10000000000036</v>
       </c>
       <c r="AN22">
-        <v>-0.77061121080966954</v>
+        <v>-0.69778529016601054</v>
       </c>
       <c r="AO22" s="1">
         <f t="shared" si="21"/>
-        <v>-0.92748735244519398</v>
+        <v>-1.4113597246127445</v>
       </c>
       <c r="AP22" s="1">
         <f t="shared" si="22"/>
-        <v>0.92748735244519398</v>
+        <v>1.4113597246127445</v>
       </c>
       <c r="AQ22" s="1">
         <f t="shared" si="23"/>
-        <v>0.75885328836424959</v>
+        <v>0</v>
       </c>
       <c r="AR22" s="1">
         <f t="shared" si="24"/>
-        <v>0.63829787234042545</v>
+        <v>0.13966480446926582</v>
       </c>
       <c r="AS22" t="str">
         <f t="shared" si="25"/>
@@ -4683,38 +4683,38 @@
         <v>71</v>
       </c>
       <c r="B23">
-        <v>594.5</v>
+        <v>594</v>
       </c>
       <c r="C23">
-        <v>604.95000000000005</v>
+        <v>594.79999999999995</v>
       </c>
       <c r="D23">
-        <v>592.79999999999995</v>
+        <v>583.5</v>
       </c>
       <c r="E23">
-        <v>598.6</v>
+        <v>585.1</v>
       </c>
       <c r="F23">
-        <v>4.3999999999999773</v>
+        <v>-6.75</v>
       </c>
       <c r="G23">
-        <v>0.74049141703129873</v>
+        <v>-1.140491678634789</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="0"/>
-        <v>0.68965517241379692</v>
+        <v>-1.4983164983164945</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="1"/>
-        <v>0.68965517241379692</v>
+        <v>1.4983164983164945</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="2"/>
-        <v>1.0608085532910161</v>
+        <v>0.13468013468012704</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" si="3"/>
-        <v>0.28595458368377552</v>
+        <v>0.27345752862758893</v>
       </c>
       <c r="L23" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4745,38 +4745,38 @@
         <v>NO</v>
       </c>
       <c r="S23">
-        <v>601.95000000000005</v>
+        <v>593.1</v>
       </c>
       <c r="T23">
-        <v>601.95000000000005</v>
+        <v>598.1</v>
       </c>
       <c r="U23">
-        <v>591.04999999999995</v>
+        <v>588.29999999999995</v>
       </c>
       <c r="V23">
-        <v>594.20000000000005</v>
+        <v>591.85</v>
       </c>
       <c r="W23">
-        <v>-5.25</v>
+        <v>-6.75</v>
       </c>
       <c r="X23">
-        <v>-0.87580281925098014</v>
+        <v>-1.127631139325092</v>
       </c>
       <c r="Y23" s="1">
         <f t="shared" si="11"/>
-        <v>-1.2874823490323115</v>
+        <v>-0.21075703928511211</v>
       </c>
       <c r="Z23" s="1">
         <f t="shared" si="12"/>
-        <v>1.2874823490323115</v>
+        <v>0.21075703928511211</v>
       </c>
       <c r="AA23" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.84302815714044843</v>
       </c>
       <c r="AB23" s="1">
         <f t="shared" si="14"/>
-        <v>0.53012453719287966</v>
+        <v>0.5998141420968266</v>
       </c>
       <c r="AC23" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4803,38 +4803,38 @@
         <v>NO</v>
       </c>
       <c r="AI23">
-        <v>610</v>
+        <v>594.5</v>
       </c>
       <c r="AJ23">
-        <v>610</v>
+        <v>604.95000000000005</v>
       </c>
       <c r="AK23">
-        <v>595.20000000000005</v>
+        <v>592.79999999999995</v>
       </c>
       <c r="AL23">
-        <v>599.45000000000005</v>
+        <v>598.6</v>
       </c>
       <c r="AM23">
-        <v>-5.3499999999999091</v>
+        <v>4.3999999999999773</v>
       </c>
       <c r="AN23">
-        <v>-0.88458994708993199</v>
+        <v>0.74049141703129873</v>
       </c>
       <c r="AO23" s="1">
         <f t="shared" si="21"/>
-        <v>-1.729508196721304</v>
+        <v>0.68965517241379692</v>
       </c>
       <c r="AP23" s="1">
         <f t="shared" si="22"/>
-        <v>1.729508196721304</v>
+        <v>0.68965517241379692</v>
       </c>
       <c r="AQ23" s="1">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1.0608085532910161</v>
       </c>
       <c r="AR23" s="1">
         <f t="shared" si="24"/>
-        <v>0.70898323463174573</v>
+        <v>0.28595458368377552</v>
       </c>
       <c r="AS23" t="str">
         <f t="shared" si="25"/>
@@ -4866,38 +4866,38 @@
         <v>72</v>
       </c>
       <c r="B24">
-        <v>673.5</v>
+        <v>683.55</v>
       </c>
       <c r="C24">
-        <v>682</v>
+        <v>687.55</v>
       </c>
       <c r="D24">
-        <v>669.55</v>
+        <v>670.2</v>
       </c>
       <c r="E24">
-        <v>679.95</v>
+        <v>675.25</v>
       </c>
       <c r="F24">
-        <v>8.9000000000000909</v>
+        <v>-6.6000000000000227</v>
       </c>
       <c r="G24">
-        <v>1.3262797109008411</v>
+        <v>-0.96795482877466055</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="0"/>
-        <v>0.95768374164811376</v>
+        <v>-1.2142491405164151</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="1"/>
-        <v>0.95768374164811376</v>
+        <v>1.2142491405164151</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="2"/>
-        <v>0.30149275682034776</v>
+        <v>0.58518030868261284</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="3"/>
-        <v>0.58648849294729699</v>
+        <v>0.74787115883005617</v>
       </c>
       <c r="L24" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4928,38 +4928,38 @@
         <v>NO</v>
       </c>
       <c r="S24">
-        <v>675.55</v>
+        <v>676</v>
       </c>
       <c r="T24">
-        <v>677</v>
+        <v>688.7</v>
       </c>
       <c r="U24">
-        <v>665.25</v>
+        <v>675</v>
       </c>
       <c r="V24">
-        <v>671.05</v>
+        <v>681.85</v>
       </c>
       <c r="W24">
-        <v>2</v>
+        <v>1.899999999999977</v>
       </c>
       <c r="X24">
-        <v>0.29893132052910842</v>
+        <v>0.27943231119934953</v>
       </c>
       <c r="Y24" s="1">
         <f t="shared" si="11"/>
-        <v>-0.6661238990452224</v>
+        <v>0.86538461538461875</v>
       </c>
       <c r="Z24" s="1">
         <f t="shared" si="12"/>
-        <v>0.6661238990452224</v>
+        <v>0.86538461538461875</v>
       </c>
       <c r="AA24" s="1">
         <f t="shared" si="13"/>
-        <v>0.21463992302568954</v>
+        <v>1.0046197844100642</v>
       </c>
       <c r="AB24" s="1">
         <f t="shared" si="14"/>
-        <v>0.8643171149690716</v>
+        <v>0.14792899408284024</v>
       </c>
       <c r="AC24" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4986,38 +4986,38 @@
         <v>NO</v>
       </c>
       <c r="AI24">
-        <v>658</v>
+        <v>673.5</v>
       </c>
       <c r="AJ24">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="AK24">
-        <v>652</v>
+        <v>669.55</v>
       </c>
       <c r="AL24">
-        <v>669.05</v>
+        <v>679.95</v>
       </c>
       <c r="AM24">
-        <v>15.299999999999949</v>
+        <v>8.9000000000000909</v>
       </c>
       <c r="AN24">
-        <v>2.3403441682600312</v>
+        <v>1.3262797109008411</v>
       </c>
       <c r="AO24" s="1">
         <f t="shared" si="21"/>
-        <v>1.6793313069908746</v>
+        <v>0.95768374164811376</v>
       </c>
       <c r="AP24" s="1">
         <f t="shared" si="22"/>
-        <v>1.6793313069908746</v>
+        <v>0.95768374164811376</v>
       </c>
       <c r="AQ24" s="1">
         <f t="shared" si="23"/>
-        <v>0.44092369778044177</v>
+        <v>0.30149275682034776</v>
       </c>
       <c r="AR24" s="1">
         <f t="shared" si="24"/>
-        <v>0.91185410334346495</v>
+        <v>0.58648849294729699</v>
       </c>
       <c r="AS24" t="str">
         <f t="shared" si="25"/>
@@ -5049,38 +5049,38 @@
         <v>73</v>
       </c>
       <c r="B25">
-        <v>197.85</v>
+        <v>198.9</v>
       </c>
       <c r="C25">
-        <v>199.2</v>
+        <v>199</v>
       </c>
       <c r="D25">
-        <v>193.85</v>
+        <v>193.4</v>
       </c>
       <c r="E25">
-        <v>195.4</v>
+        <v>194.05</v>
       </c>
       <c r="F25">
-        <v>-2.8499999999999939</v>
+        <v>-2.7999999999999829</v>
       </c>
       <c r="G25">
-        <v>-1.437578814627992</v>
+        <v>-1.4224028448056809</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="0"/>
-        <v>-1.2383118524134389</v>
+        <v>-2.4384112619406708</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="1"/>
-        <v>1.2383118524134389</v>
+        <v>2.4384112619406708</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="2"/>
-        <v>0.68233510235026251</v>
+        <v>5.0276520864753302E-2</v>
       </c>
       <c r="K25" s="1">
         <f t="shared" si="3"/>
-        <v>0.79324462640737536</v>
+        <v>0.33496521515073724</v>
       </c>
       <c r="L25" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5111,38 +5111,38 @@
         <v>NO</v>
       </c>
       <c r="S25">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="T25">
-        <v>199.95</v>
+        <v>197.4</v>
       </c>
       <c r="U25">
-        <v>194.75</v>
+        <v>193.15</v>
       </c>
       <c r="V25">
-        <v>198.25</v>
+        <v>196.85</v>
       </c>
       <c r="W25">
-        <v>2.1999999999999891</v>
+        <v>1.4499999999999891</v>
       </c>
       <c r="X25">
-        <v>1.1221627135934651</v>
+        <v>0.74206755373592048</v>
       </c>
       <c r="Y25" s="1">
         <f t="shared" si="11"/>
-        <v>0.63451776649746194</v>
+        <v>0.94871794871794579</v>
       </c>
       <c r="Z25" s="1">
         <f t="shared" si="12"/>
-        <v>0.63451776649746194</v>
+        <v>0.94871794871794579</v>
       </c>
       <c r="AA25" s="1">
         <f t="shared" si="13"/>
-        <v>0.85750315258511411</v>
+        <v>0.27940055880112341</v>
       </c>
       <c r="AB25" s="1">
         <f t="shared" si="14"/>
-        <v>1.1421319796954315</v>
+        <v>0.94871794871794579</v>
       </c>
       <c r="AC25" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5158,7 +5158,7 @@
       </c>
       <c r="AF25" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AG25" s="1" t="str">
         <f t="shared" si="19"/>
@@ -5169,38 +5169,38 @@
         <v>NO</v>
       </c>
       <c r="AI25">
-        <v>199.9</v>
+        <v>197.85</v>
       </c>
       <c r="AJ25">
-        <v>201.15</v>
+        <v>199.2</v>
       </c>
       <c r="AK25">
-        <v>195.15</v>
+        <v>193.85</v>
       </c>
       <c r="AL25">
-        <v>196.05</v>
+        <v>195.4</v>
       </c>
       <c r="AM25">
-        <v>-3.0999999999999939</v>
+        <v>-2.8499999999999939</v>
       </c>
       <c r="AN25">
-        <v>-1.5566156163695679</v>
+        <v>-1.437578814627992</v>
       </c>
       <c r="AO25" s="1">
         <f t="shared" si="21"/>
-        <v>-1.9259629814907424</v>
+        <v>-1.2383118524134389</v>
       </c>
       <c r="AP25" s="1">
         <f t="shared" si="22"/>
-        <v>1.9259629814907424</v>
+        <v>1.2383118524134389</v>
       </c>
       <c r="AQ25" s="1">
         <f t="shared" si="23"/>
-        <v>0.62531265632816402</v>
+        <v>0.68233510235026251</v>
       </c>
       <c r="AR25" s="1">
         <f t="shared" si="24"/>
-        <v>0.4590665646518774</v>
+        <v>0.79324462640737536</v>
       </c>
       <c r="AS25" t="str">
         <f t="shared" si="25"/>
@@ -5232,38 +5232,38 @@
         <v>74</v>
       </c>
       <c r="B26">
-        <v>220.5</v>
+        <v>217.6</v>
       </c>
       <c r="C26">
-        <v>223.4</v>
+        <v>220.85</v>
       </c>
       <c r="D26">
-        <v>218</v>
+        <v>211.8</v>
       </c>
       <c r="E26">
-        <v>219.25</v>
+        <v>213.45</v>
       </c>
       <c r="F26">
-        <v>-2.0999999999999939</v>
+        <v>-2.5</v>
       </c>
       <c r="G26">
-        <v>-0.94872374068217502</v>
+        <v>-1.1576753878212549</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="0"/>
-        <v>-0.56689342403628118</v>
+        <v>-1.9071691176470613</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="1"/>
-        <v>0.56689342403628118</v>
+        <v>1.9071691176470613</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="2"/>
-        <v>1.3151927437641751</v>
+        <v>1.4935661764705883</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="3"/>
-        <v>0.5701254275940707</v>
+        <v>0.77301475755445181</v>
       </c>
       <c r="L26" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5294,38 +5294,38 @@
         <v>NO</v>
       </c>
       <c r="S26">
-        <v>226.5</v>
+        <v>218.4</v>
       </c>
       <c r="T26">
-        <v>231.3</v>
+        <v>222.9</v>
       </c>
       <c r="U26">
-        <v>219.5</v>
+        <v>215.5</v>
       </c>
       <c r="V26">
-        <v>221.35</v>
+        <v>215.95</v>
       </c>
       <c r="W26">
-        <v>-2.5999999999999939</v>
+        <v>-3.3000000000000109</v>
       </c>
       <c r="X26">
-        <v>-1.1609734315695439</v>
+        <v>-1.505131128848352</v>
       </c>
       <c r="Y26" s="1">
         <f t="shared" si="11"/>
-        <v>-2.2737306843267131</v>
+        <v>-1.1217948717948796</v>
       </c>
       <c r="Z26" s="1">
         <f t="shared" si="12"/>
-        <v>2.2737306843267131</v>
+        <v>1.1217948717948796</v>
       </c>
       <c r="AA26" s="1">
         <f t="shared" si="13"/>
-        <v>2.1192052980132501</v>
+        <v>2.0604395604395602</v>
       </c>
       <c r="AB26" s="1">
         <f t="shared" si="14"/>
-        <v>0.83578043822001102</v>
+        <v>0.20838156980782066</v>
       </c>
       <c r="AC26" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5352,38 +5352,38 @@
         <v>NO</v>
       </c>
       <c r="AI26">
-        <v>237.7</v>
+        <v>220.5</v>
       </c>
       <c r="AJ26">
-        <v>238.45</v>
+        <v>223.4</v>
       </c>
       <c r="AK26">
-        <v>222.5</v>
+        <v>218</v>
       </c>
       <c r="AL26">
-        <v>223.95</v>
+        <v>219.25</v>
       </c>
       <c r="AM26">
-        <v>-13.75</v>
+        <v>-2.0999999999999939</v>
       </c>
       <c r="AN26">
-        <v>-5.7846024400504836</v>
+        <v>-0.94872374068217502</v>
       </c>
       <c r="AO26" s="1">
         <f t="shared" si="21"/>
-        <v>-5.7846024400504836</v>
+        <v>-0.56689342403628118</v>
       </c>
       <c r="AP26" s="1">
         <f t="shared" si="22"/>
-        <v>5.7846024400504836</v>
+        <v>0.56689342403628118</v>
       </c>
       <c r="AQ26" s="1">
         <f t="shared" si="23"/>
-        <v>0.3155237694572991</v>
+        <v>1.3151927437641751</v>
       </c>
       <c r="AR26" s="1">
         <f t="shared" si="24"/>
-        <v>0.64746595222147296</v>
+        <v>0.5701254275940707</v>
       </c>
       <c r="AS26" t="str">
         <f t="shared" si="25"/>
@@ -5415,38 +5415,38 @@
         <v>75</v>
       </c>
       <c r="B27">
-        <v>1310</v>
+        <v>1293.1500000000001</v>
       </c>
       <c r="C27">
-        <v>1333</v>
+        <v>1325.45</v>
       </c>
       <c r="D27">
-        <v>1305</v>
+        <v>1257.45</v>
       </c>
       <c r="E27">
-        <v>1316.3</v>
+        <v>1295.95</v>
       </c>
       <c r="F27">
-        <v>11.799999999999949</v>
+        <v>14.450000000000051</v>
       </c>
       <c r="G27">
-        <v>0.90456113453430076</v>
+        <v>1.127584861490444</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="0"/>
-        <v>0.48091603053434767</v>
+        <v>0.21652553841394689</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="1"/>
-        <v>0.48091603053434767</v>
+        <v>0.21652553841394689</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="2"/>
-        <v>1.2687077413963417</v>
+        <v>2.2763223889810567</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="3"/>
-        <v>0.38167938931297707</v>
+        <v>2.7607006147778712</v>
       </c>
       <c r="L27" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5466,7 +5466,7 @@
       </c>
       <c r="P27" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q27" s="1" t="str">
         <f t="shared" si="9"/>
@@ -5477,42 +5477,42 @@
         <v>NO</v>
       </c>
       <c r="S27">
-        <v>1325</v>
+        <v>1318.7</v>
       </c>
       <c r="T27">
-        <v>1333</v>
+        <v>1318.7</v>
       </c>
       <c r="U27">
-        <v>1295.2</v>
+        <v>1273.5</v>
       </c>
       <c r="V27">
-        <v>1304.5</v>
+        <v>1281.5</v>
       </c>
       <c r="W27">
-        <v>-0.84999999999990905</v>
+        <v>-34.799999999999947</v>
       </c>
       <c r="X27">
-        <v>-6.5116635385138788E-2</v>
+        <v>-2.643774215604342</v>
       </c>
       <c r="Y27" s="1">
         <f t="shared" si="11"/>
-        <v>-1.5471698113207546</v>
+        <v>-2.8209600363994878</v>
       </c>
       <c r="Z27" s="1">
         <f t="shared" si="12"/>
-        <v>1.5471698113207546</v>
+        <v>2.8209600363994878</v>
       </c>
       <c r="AA27" s="1">
         <f t="shared" si="13"/>
-        <v>0.60377358490566035</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="1">
         <f t="shared" si="14"/>
-        <v>0.71291682637025333</v>
+        <v>0.62426843542723376</v>
       </c>
       <c r="AC27" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AD27" s="1" t="str">
         <f t="shared" si="16"/>
@@ -5535,38 +5535,38 @@
         <v>NO</v>
       </c>
       <c r="AI27">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="AJ27">
-        <v>1335.05</v>
+        <v>1333</v>
       </c>
       <c r="AK27">
-        <v>1295</v>
+        <v>1305</v>
       </c>
       <c r="AL27">
-        <v>1305.3499999999999</v>
+        <v>1316.3</v>
       </c>
       <c r="AM27">
-        <v>7.1499999999998636</v>
+        <v>11.799999999999949</v>
       </c>
       <c r="AN27">
-        <v>0.55076259436141295</v>
+        <v>0.90456113453430076</v>
       </c>
       <c r="AO27" s="1">
         <f t="shared" si="21"/>
-        <v>-0.50685975609756795</v>
+        <v>0.48091603053434767</v>
       </c>
       <c r="AP27" s="1">
         <f t="shared" si="22"/>
-        <v>0.50685975609756795</v>
+        <v>0.48091603053434767</v>
       </c>
       <c r="AQ27" s="1">
         <f t="shared" si="23"/>
-        <v>1.7568597560975576</v>
+        <v>1.2687077413963417</v>
       </c>
       <c r="AR27" s="1">
         <f t="shared" si="24"/>
-        <v>0.79289079557206199</v>
+        <v>0.38167938931297707</v>
       </c>
       <c r="AS27" t="str">
         <f t="shared" si="25"/>
@@ -5598,38 +5598,38 @@
         <v>76</v>
       </c>
       <c r="B28">
-        <v>426</v>
+        <v>427.2</v>
       </c>
       <c r="C28">
-        <v>437.85</v>
+        <v>430.6</v>
       </c>
       <c r="D28">
-        <v>425.2</v>
+        <v>417.65</v>
       </c>
       <c r="E28">
-        <v>434.85</v>
+        <v>421.75</v>
       </c>
       <c r="F28">
-        <v>7.4500000000000446</v>
+        <v>-4.75</v>
       </c>
       <c r="G28">
-        <v>1.743097800655135</v>
+        <v>-1.1137162954279021</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="0"/>
-        <v>2.0774647887323994</v>
+        <v>-1.2757490636704094</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" si="1"/>
-        <v>2.0774647887323994</v>
+        <v>1.2757490636704094</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="2"/>
-        <v>0.68989306657468086</v>
+        <v>0.79588014981274213</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="3"/>
-        <v>0.1877934272300496</v>
+        <v>0.97213989330172446</v>
       </c>
       <c r="L28" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5660,38 +5660,38 @@
         <v>NO</v>
       </c>
       <c r="S28">
-        <v>432.65</v>
+        <v>433.8</v>
       </c>
       <c r="T28">
-        <v>436</v>
+        <v>437.3</v>
       </c>
       <c r="U28">
-        <v>424.75</v>
+        <v>425.1</v>
       </c>
       <c r="V28">
-        <v>427.4</v>
+        <v>426.5</v>
       </c>
       <c r="W28">
-        <v>-2.950000000000045</v>
+        <v>-8.3500000000000227</v>
       </c>
       <c r="X28">
-        <v>-0.68548855582666324</v>
+        <v>-1.9202023686328671</v>
       </c>
       <c r="Y28" s="1">
         <f t="shared" si="11"/>
-        <v>-1.2134519819715706</v>
+        <v>-1.6828031350852954</v>
       </c>
       <c r="Z28" s="1">
         <f t="shared" si="12"/>
-        <v>1.2134519819715706</v>
+        <v>1.6828031350852954</v>
       </c>
       <c r="AA28" s="1">
         <f t="shared" si="13"/>
-        <v>0.77429793135329317</v>
+        <v>0.80682342093130466</v>
       </c>
       <c r="AB28" s="1">
         <f t="shared" si="14"/>
-        <v>0.62002807674309246</v>
+        <v>0.3282532239155867</v>
       </c>
       <c r="AC28" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5718,38 +5718,38 @@
         <v>NO</v>
       </c>
       <c r="AI28">
-        <v>443.85</v>
+        <v>426</v>
       </c>
       <c r="AJ28">
-        <v>445</v>
+        <v>437.85</v>
       </c>
       <c r="AK28">
-        <v>428.1</v>
+        <v>425.2</v>
       </c>
       <c r="AL28">
-        <v>430.35</v>
+        <v>434.85</v>
       </c>
       <c r="AM28">
-        <v>-8.7999999999999545</v>
+        <v>7.4500000000000446</v>
       </c>
       <c r="AN28">
-        <v>-2.0038711146532968</v>
+        <v>1.743097800655135</v>
       </c>
       <c r="AO28" s="1">
         <f t="shared" si="21"/>
-        <v>-3.0415680973301789</v>
+        <v>2.0774647887323994</v>
       </c>
       <c r="AP28" s="1">
         <f t="shared" si="22"/>
-        <v>3.0415680973301789</v>
+        <v>2.0774647887323994</v>
       </c>
       <c r="AQ28" s="1">
         <f t="shared" si="23"/>
-        <v>0.25909654162441753</v>
+        <v>0.68989306657468086</v>
       </c>
       <c r="AR28" s="1">
         <f t="shared" si="24"/>
-        <v>0.52283025444405717</v>
+        <v>0.1877934272300496</v>
       </c>
       <c r="AS28" t="str">
         <f t="shared" si="25"/>
@@ -5781,38 +5781,38 @@
         <v>77</v>
       </c>
       <c r="B29">
+        <v>420.5</v>
+      </c>
+      <c r="C29">
+        <v>426</v>
+      </c>
+      <c r="D29">
+        <v>412.3</v>
+      </c>
+      <c r="E29">
         <v>420</v>
       </c>
-      <c r="C29">
-        <v>422</v>
-      </c>
-      <c r="D29">
-        <v>408.85</v>
-      </c>
-      <c r="E29">
-        <v>413.2</v>
-      </c>
       <c r="F29">
-        <v>-6.6500000000000341</v>
+        <v>1.399999999999977</v>
       </c>
       <c r="G29">
-        <v>-1.5838990115517531</v>
+        <v>0.33444816053511162</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="0"/>
-        <v>-1.6190476190476217</v>
+        <v>-0.11890606420927466</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="1"/>
-        <v>1.6190476190476217</v>
+        <v>0.11890606420927466</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="2"/>
-        <v>0.47619047619047622</v>
+        <v>1.3079667063020213</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="3"/>
-        <v>1.0527589545014437</v>
+        <v>1.8333333333333306</v>
       </c>
       <c r="L29" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5843,38 +5843,38 @@
         <v>NO</v>
       </c>
       <c r="S29">
-        <v>410.9</v>
+        <v>412.8</v>
       </c>
       <c r="T29">
-        <v>421.7</v>
+        <v>423.35</v>
       </c>
       <c r="U29">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="V29">
-        <v>419.85</v>
+        <v>418.6</v>
       </c>
       <c r="W29">
-        <v>11.05000000000001</v>
+        <v>5.4000000000000341</v>
       </c>
       <c r="X29">
-        <v>2.7030332681017639</v>
+        <v>1.306873184898363</v>
       </c>
       <c r="Y29" s="1">
         <f t="shared" si="11"/>
-        <v>2.1781455341932454</v>
+        <v>1.4050387596899252</v>
       </c>
       <c r="Z29" s="1">
         <f t="shared" si="12"/>
-        <v>2.1781455341932454</v>
+        <v>1.4050387596899252</v>
       </c>
       <c r="AA29" s="1">
         <f t="shared" si="13"/>
-        <v>0.44063355960461253</v>
+        <v>1.1347348303870042</v>
       </c>
       <c r="AB29" s="1">
         <f t="shared" si="14"/>
-        <v>0.2190313944998728</v>
+        <v>1.4050387596899252</v>
       </c>
       <c r="AC29" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5901,38 +5901,38 @@
         <v>NO</v>
       </c>
       <c r="AI29">
-        <v>405.1</v>
+        <v>420</v>
       </c>
       <c r="AJ29">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="AK29">
-        <v>402.8</v>
+        <v>408.85</v>
       </c>
       <c r="AL29">
-        <v>408.8</v>
+        <v>413.2</v>
       </c>
       <c r="AM29">
-        <v>5.6500000000000341</v>
+        <v>-6.6500000000000341</v>
       </c>
       <c r="AN29">
-        <v>1.401463475133333</v>
+        <v>-1.5838990115517531</v>
       </c>
       <c r="AO29" s="1">
         <f t="shared" si="21"/>
-        <v>0.91335472722784206</v>
+        <v>-1.6190476190476217</v>
       </c>
       <c r="AP29" s="1">
         <f t="shared" si="22"/>
-        <v>0.91335472722784206</v>
+        <v>1.6190476190476217</v>
       </c>
       <c r="AQ29" s="1">
         <f t="shared" si="23"/>
-        <v>1.2720156555772966</v>
+        <v>0.47619047619047622</v>
       </c>
       <c r="AR29" s="1">
         <f t="shared" si="24"/>
-        <v>0.5677610466551497</v>
+        <v>1.0527589545014437</v>
       </c>
       <c r="AS29" t="str">
         <f t="shared" si="25"/>
@@ -5964,38 +5964,38 @@
         <v>78</v>
       </c>
       <c r="B30">
-        <v>3560.7</v>
+        <v>3516.9</v>
       </c>
       <c r="C30">
-        <v>3581.7</v>
+        <v>3578.8</v>
       </c>
       <c r="D30">
-        <v>3505</v>
+        <v>3438.85</v>
       </c>
       <c r="E30">
-        <v>3539.8</v>
+        <v>3487.3</v>
       </c>
       <c r="F30">
-        <v>6.25</v>
+        <v>-29.599999999999909</v>
       </c>
       <c r="G30">
-        <v>0.17687594628631259</v>
+        <v>-0.8416503170405728</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="0"/>
-        <v>-0.58696323756563706</v>
+        <v>-0.8416503170405728</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="1"/>
-        <v>0.58696323756563706</v>
+        <v>0.8416503170405728</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="2"/>
-        <v>0.58977167410902354</v>
+        <v>1.7600727913787737</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" si="3"/>
-        <v>0.98310639019154133</v>
+        <v>1.3893269864938569</v>
       </c>
       <c r="L30" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6026,38 +6026,38 @@
         <v>NO</v>
       </c>
       <c r="S30">
-        <v>3450</v>
+        <v>3540</v>
       </c>
       <c r="T30">
-        <v>3559.2</v>
+        <v>3618.05</v>
       </c>
       <c r="U30">
-        <v>3410.3</v>
+        <v>3497.45</v>
       </c>
       <c r="V30">
-        <v>3533.55</v>
+        <v>3516.9</v>
       </c>
       <c r="W30">
-        <v>99.450000000000273</v>
+        <v>-22.900000000000091</v>
       </c>
       <c r="X30">
-        <v>2.8959552721237092</v>
+        <v>-0.64692920503983531</v>
       </c>
       <c r="Y30" s="1">
         <f t="shared" si="11"/>
-        <v>2.4217391304347879</v>
+        <v>-0.65254237288135342</v>
       </c>
       <c r="Z30" s="1">
         <f t="shared" si="12"/>
-        <v>2.4217391304347879</v>
+        <v>0.65254237288135342</v>
       </c>
       <c r="AA30" s="1">
         <f t="shared" si="13"/>
-        <v>0.72589888355901677</v>
+        <v>2.2048022598870105</v>
       </c>
       <c r="AB30" s="1">
         <f t="shared" si="14"/>
-        <v>1.1507246376811542</v>
+        <v>0.55304387386619669</v>
       </c>
       <c r="AC30" s="1" t="str">
         <f t="shared" si="15"/>
@@ -6084,38 +6084,38 @@
         <v>NO</v>
       </c>
       <c r="AI30">
-        <v>3384.85</v>
+        <v>3560.7</v>
       </c>
       <c r="AJ30">
-        <v>3455</v>
+        <v>3581.7</v>
       </c>
       <c r="AK30">
-        <v>3381</v>
+        <v>3505</v>
       </c>
       <c r="AL30">
-        <v>3434.1</v>
+        <v>3539.8</v>
       </c>
       <c r="AM30">
-        <v>49.25</v>
+        <v>6.25</v>
       </c>
       <c r="AN30">
-        <v>1.4550127775233761</v>
+        <v>0.17687594628631259</v>
       </c>
       <c r="AO30" s="1">
         <f t="shared" si="21"/>
-        <v>1.4550127775233763</v>
+        <v>-0.58696323756563706</v>
       </c>
       <c r="AP30" s="1">
         <f t="shared" si="22"/>
-        <v>1.4550127775233763</v>
+        <v>0.58696323756563706</v>
       </c>
       <c r="AQ30" s="1">
         <f t="shared" si="23"/>
-        <v>0.60860196266853306</v>
+        <v>0.58977167410902354</v>
       </c>
       <c r="AR30" s="1">
         <f t="shared" si="24"/>
-        <v>0.11374211560334754</v>
+        <v>0.98310639019154133</v>
       </c>
       <c r="AS30" t="str">
         <f t="shared" si="25"/>
@@ -6147,38 +6147,38 @@
         <v>79</v>
       </c>
       <c r="B31">
-        <v>1351.9</v>
+        <v>1330</v>
       </c>
       <c r="C31">
-        <v>1353.05</v>
+        <v>1334.9</v>
       </c>
       <c r="D31">
-        <v>1313</v>
+        <v>1303.05</v>
       </c>
       <c r="E31">
-        <v>1318.75</v>
+        <v>1315.2</v>
       </c>
       <c r="F31">
-        <v>-24.799999999999951</v>
+        <v>-11</v>
       </c>
       <c r="G31">
-        <v>-1.8458561274236129</v>
+        <v>-0.82943749057457394</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="0"/>
-        <v>-2.4521044455950949</v>
+        <v>-1.1127819548872147</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="1"/>
-        <v>2.4521044455950949</v>
+        <v>1.1127819548872147</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="2"/>
-        <v>8.506546342184064E-2</v>
+        <v>0.36842105263158581</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="3"/>
-        <v>0.43601895734597157</v>
+        <v>0.92381386861314552</v>
       </c>
       <c r="L31" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6209,38 +6209,38 @@
         <v>NO</v>
       </c>
       <c r="S31">
-        <v>1330</v>
+        <v>1317</v>
       </c>
       <c r="T31">
-        <v>1355</v>
+        <v>1338</v>
       </c>
       <c r="U31">
-        <v>1320.8</v>
+        <v>1310.05</v>
       </c>
       <c r="V31">
-        <v>1343.55</v>
+        <v>1326.2</v>
       </c>
       <c r="W31">
-        <v>22.39999999999986</v>
+        <v>7.4500000000000446</v>
       </c>
       <c r="X31">
-        <v>1.695492563297117</v>
+        <v>0.56492890995261014</v>
       </c>
       <c r="Y31" s="1">
         <f t="shared" si="11"/>
-        <v>1.0187969924811995</v>
+        <v>0.69855732725892528</v>
       </c>
       <c r="Z31" s="1">
         <f t="shared" si="12"/>
-        <v>1.0187969924811995</v>
+        <v>0.69855732725892528</v>
       </c>
       <c r="AA31" s="1">
         <f t="shared" si="13"/>
-        <v>0.852219865282278</v>
+        <v>0.88976021716181219</v>
       </c>
       <c r="AB31" s="1">
         <f t="shared" si="14"/>
-        <v>0.69172932330827408</v>
+        <v>0.52771450265755848</v>
       </c>
       <c r="AC31" s="1" t="str">
         <f t="shared" si="15"/>
@@ -6256,7 +6256,7 @@
       </c>
       <c r="AF31" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="AG31" s="1" t="str">
         <f t="shared" si="19"/>
@@ -6267,38 +6267,38 @@
         <v>NO</v>
       </c>
       <c r="AI31">
-        <v>1300</v>
+        <v>1351.9</v>
       </c>
       <c r="AJ31">
-        <v>1328.35</v>
+        <v>1353.05</v>
       </c>
       <c r="AK31">
-        <v>1290</v>
+        <v>1313</v>
       </c>
       <c r="AL31">
-        <v>1321.15</v>
+        <v>1318.75</v>
       </c>
       <c r="AM31">
-        <v>26.700000000000049</v>
+        <v>-24.799999999999951</v>
       </c>
       <c r="AN31">
-        <v>2.0626520916219282</v>
+        <v>-1.8458561274236129</v>
       </c>
       <c r="AO31" s="1">
         <f t="shared" si="21"/>
-        <v>1.6269230769230838</v>
+        <v>-2.4521044455950949</v>
       </c>
       <c r="AP31" s="1">
         <f t="shared" si="22"/>
-        <v>1.6269230769230838</v>
+        <v>2.4521044455950949</v>
       </c>
       <c r="AQ31" s="1">
         <f t="shared" si="23"/>
-        <v>0.54497975248834862</v>
+        <v>8.506546342184064E-2</v>
       </c>
       <c r="AR31" s="1">
         <f t="shared" si="24"/>
-        <v>0.76923076923076927</v>
+        <v>0.43601895734597157</v>
       </c>
       <c r="AS31" t="str">
         <f t="shared" si="25"/>
@@ -6330,38 +6330,38 @@
         <v>80</v>
       </c>
       <c r="B32">
-        <v>1005.9</v>
+        <v>1075</v>
       </c>
       <c r="C32">
-        <v>1033</v>
+        <v>1122.3</v>
       </c>
       <c r="D32">
-        <v>995.85</v>
+        <v>1070.4000000000001</v>
       </c>
       <c r="E32">
-        <v>1028.6500000000001</v>
+        <v>1085.9000000000001</v>
       </c>
       <c r="F32">
-        <v>27.800000000000072</v>
+        <v>48.800000000000182</v>
       </c>
       <c r="G32">
-        <v>2.777639006844189</v>
+        <v>4.705428598977937</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="0"/>
-        <v>2.2616562282533166</v>
+        <v>1.0139534883721015</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" si="1"/>
-        <v>2.2616562282533166</v>
+        <v>1.0139534883721015</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="2"/>
-        <v>0.42288436300003979</v>
+        <v>3.3520582005709421</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="3"/>
-        <v>0.99910527885475242</v>
+        <v>0.4279069767441776</v>
       </c>
       <c r="L32" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6392,38 +6392,38 @@
         <v>NO</v>
       </c>
       <c r="S32">
-        <v>972.85</v>
+        <v>1018.85</v>
       </c>
       <c r="T32">
-        <v>1005</v>
+        <v>1045.9000000000001</v>
       </c>
       <c r="U32">
-        <v>967</v>
+        <v>1010.1</v>
       </c>
       <c r="V32">
-        <v>1000.85</v>
+        <v>1037.0999999999999</v>
       </c>
       <c r="W32">
-        <v>32.850000000000023</v>
+        <v>8.4499999999998181</v>
       </c>
       <c r="X32">
-        <v>3.3935950413223162</v>
+        <v>0.82146502697708812</v>
       </c>
       <c r="Y32" s="1">
         <f t="shared" si="11"/>
-        <v>2.8781415428894483</v>
+        <v>1.7912352161750884</v>
       </c>
       <c r="Z32" s="1">
         <f t="shared" si="12"/>
-        <v>2.8781415428894483</v>
+        <v>1.7912352161750884</v>
       </c>
       <c r="AA32" s="1">
         <f t="shared" si="13"/>
-        <v>0.41464754958285227</v>
+        <v>0.8485199112911177</v>
       </c>
       <c r="AB32" s="1">
         <f t="shared" si="14"/>
-        <v>0.60132600092511923</v>
+        <v>0.85881140501545861</v>
       </c>
       <c r="AC32" s="1" t="str">
         <f t="shared" si="15"/>
@@ -6450,38 +6450,38 @@
         <v>NO</v>
       </c>
       <c r="AI32">
-        <v>972.95</v>
+        <v>1005.9</v>
       </c>
       <c r="AJ32">
-        <v>972.95</v>
+        <v>1033</v>
       </c>
       <c r="AK32">
-        <v>958</v>
+        <v>995.85</v>
       </c>
       <c r="AL32">
-        <v>968</v>
+        <v>1028.6500000000001</v>
       </c>
       <c r="AM32">
-        <v>0.35000000000002268</v>
+        <v>27.800000000000072</v>
       </c>
       <c r="AN32">
-        <v>3.6170102826437532E-2</v>
+        <v>2.777639006844189</v>
       </c>
       <c r="AO32" s="1">
         <f t="shared" si="21"/>
-        <v>-0.50876201243640939</v>
+        <v>2.2616562282533166</v>
       </c>
       <c r="AP32" s="1">
         <f t="shared" si="22"/>
-        <v>0.50876201243640939</v>
+        <v>2.2616562282533166</v>
       </c>
       <c r="AQ32" s="1">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.42288436300003979</v>
       </c>
       <c r="AR32" s="1">
         <f t="shared" si="24"/>
-        <v>1.0330578512396695</v>
+        <v>0.99910527885475242</v>
       </c>
       <c r="AS32" t="str">
         <f t="shared" si="25"/>
@@ -6513,42 +6513,42 @@
         <v>81</v>
       </c>
       <c r="B33">
-        <v>365</v>
+        <v>363.65</v>
       </c>
       <c r="C33">
-        <v>366.4</v>
+        <v>364</v>
       </c>
       <c r="D33">
-        <v>362.7</v>
+        <v>356.45</v>
       </c>
       <c r="E33">
-        <v>364.35</v>
+        <v>362.5</v>
       </c>
       <c r="F33">
-        <v>-0.14999999999997729</v>
+        <v>0.85000000000002274</v>
       </c>
       <c r="G33">
-        <v>-4.1152263374479359E-2</v>
+        <v>0.23503387252869429</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="0"/>
-        <v>-0.17808219178081569</v>
+        <v>-0.31623814106970366</v>
       </c>
       <c r="I33" s="1">
         <f t="shared" si="1"/>
-        <v>0.17808219178081569</v>
+        <v>0.31623814106970366</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" si="2"/>
-        <v>0.3835616438356102</v>
+        <v>9.6246390760352754E-2</v>
       </c>
       <c r="K33" s="1">
         <f t="shared" si="3"/>
-        <v>0.45286125977769559</v>
+        <v>1.6689655172413824</v>
       </c>
       <c r="L33" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="M33" t="str">
         <f t="shared" si="5"/>
@@ -6575,38 +6575,38 @@
         <v>NO</v>
       </c>
       <c r="S33">
-        <v>370.55</v>
+        <v>365.95</v>
       </c>
       <c r="T33">
-        <v>370.55</v>
+        <v>368.75</v>
       </c>
       <c r="U33">
-        <v>363.15</v>
+        <v>360.55</v>
       </c>
       <c r="V33">
-        <v>364.5</v>
+        <v>361.65</v>
       </c>
       <c r="W33">
-        <v>-6.0500000000000114</v>
+        <v>-2.700000000000045</v>
       </c>
       <c r="X33">
-        <v>-1.6327081365537739</v>
+        <v>-0.74104569781804452</v>
       </c>
       <c r="Y33" s="1">
         <f t="shared" si="11"/>
-        <v>-1.6327081365537743</v>
+        <v>-1.1750239103702722</v>
       </c>
       <c r="Z33" s="1">
         <f t="shared" si="12"/>
-        <v>1.6327081365537743</v>
+        <v>1.1750239103702722</v>
       </c>
       <c r="AA33" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.7651318486132016</v>
       </c>
       <c r="AB33" s="1">
         <f t="shared" si="14"/>
-        <v>0.37037037037037662</v>
+        <v>0.30416148209593968</v>
       </c>
       <c r="AC33" s="1" t="str">
         <f t="shared" si="15"/>
@@ -6633,38 +6633,38 @@
         <v>NO</v>
       </c>
       <c r="AI33">
-        <v>367.4</v>
+        <v>365</v>
       </c>
       <c r="AJ33">
-        <v>371.7</v>
+        <v>366.4</v>
       </c>
       <c r="AK33">
-        <v>365.8</v>
+        <v>362.7</v>
       </c>
       <c r="AL33">
-        <v>370.55</v>
+        <v>364.35</v>
       </c>
       <c r="AM33">
-        <v>3.8500000000000232</v>
+        <v>-0.14999999999997729</v>
       </c>
       <c r="AN33">
-        <v>1.0499045541314489</v>
+        <v>-4.1152263374479359E-2</v>
       </c>
       <c r="AO33" s="1">
         <f t="shared" si="21"/>
-        <v>0.85737615677736367</v>
+        <v>-0.17808219178081569</v>
       </c>
       <c r="AP33" s="1">
         <f t="shared" si="22"/>
-        <v>0.85737615677736367</v>
+        <v>0.17808219178081569</v>
       </c>
       <c r="AQ33" s="1">
         <f t="shared" si="23"/>
-        <v>0.31034948050195044</v>
+        <v>0.3835616438356102</v>
       </c>
       <c r="AR33" s="1">
         <f t="shared" si="24"/>
-        <v>0.43549265106150409</v>
+        <v>0.45286125977769559</v>
       </c>
       <c r="AS33" t="str">
         <f t="shared" si="25"/>
@@ -6696,38 +6696,38 @@
         <v>82</v>
       </c>
       <c r="B34">
+        <v>122.9</v>
+      </c>
+      <c r="C34">
+        <v>125.75</v>
+      </c>
+      <c r="D34">
         <v>121.7</v>
       </c>
-      <c r="C34">
-        <v>124.6</v>
-      </c>
-      <c r="D34">
-        <v>121</v>
-      </c>
       <c r="E34">
-        <v>122.55</v>
+        <v>122.65</v>
       </c>
       <c r="F34">
-        <v>1.649999999999991</v>
+        <v>0.75</v>
       </c>
       <c r="G34">
-        <v>1.3647642679900669</v>
+        <v>0.6152584085315832</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" ref="H34:H51" si="31">(E34-B34)/B34*100</f>
-        <v>0.69843878389481873</v>
+        <v>-0.20341741253051263</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" ref="I34:I65" si="32">ABS(H34)</f>
-        <v>0.69843878389481873</v>
+        <v>0.20341741253051263</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" ref="J34:J51" si="33">IF(H34&gt;=0,(C34-E34)/E34*100,(C34-B34)/B34*100)</f>
-        <v>1.6727866177070561</v>
+        <v>2.3189585028478392</v>
       </c>
       <c r="K34" s="1">
         <f t="shared" ref="K34:K51" si="34">IF(H34&gt;=0,(B34-D34)/B34*100,(E34-D34)/E34*100)</f>
-        <v>0.57518488085456276</v>
+        <v>0.77456176110884856</v>
       </c>
       <c r="L34" s="1" t="str">
         <f t="shared" ref="L34:L65" si="35">IF(AND((K34-J34)&gt;1.5,I34&lt;0.5),"YES","NO")</f>
@@ -6739,7 +6739,7 @@
       </c>
       <c r="N34" t="str">
         <f t="shared" ref="N34:N51" si="37">IF(AND((J34-K34)&gt;1.5,I34&lt;0.5),"YES","NO")</f>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O34" s="1" t="str">
         <f t="shared" ref="O34:O51" si="38">IF(AND((J34-K34)&gt;1.5,I34&lt;2,I34&gt;0.5,H34&lt;0),"YES","NO")</f>
@@ -6758,38 +6758,38 @@
         <v>NO</v>
       </c>
       <c r="S34">
-        <v>117.5</v>
+        <v>121.8</v>
       </c>
       <c r="T34">
-        <v>122.15</v>
+        <v>124.2</v>
       </c>
       <c r="U34">
-        <v>116.6</v>
+        <v>120.75</v>
       </c>
       <c r="V34">
-        <v>120.9</v>
+        <v>121.9</v>
       </c>
       <c r="W34">
-        <v>4.5500000000000114</v>
+        <v>-0.64999999999999147</v>
       </c>
       <c r="X34">
-        <v>3.9106145251396751</v>
+        <v>-0.53039575683393836</v>
       </c>
       <c r="Y34" s="1">
         <f t="shared" ref="Y34:Y51" si="42">(V34-S34)/S34*100</f>
-        <v>2.8936170212766008</v>
+        <v>8.2101806239744279E-2</v>
       </c>
       <c r="Z34" s="1">
         <f t="shared" ref="Z34:Z65" si="43">ABS(Y34)</f>
-        <v>2.8936170212766008</v>
+        <v>8.2101806239744279E-2</v>
       </c>
       <c r="AA34" s="1">
         <f t="shared" ref="AA34:AA51" si="44">IF(Y34&gt;=0,(T34-V34)/V34*100,(T34-S34)/S34*100)</f>
-        <v>1.0339123242349046</v>
+        <v>1.8867924528301863</v>
       </c>
       <c r="AB34" s="1">
         <f t="shared" ref="AB34:AB51" si="45">IF(Y34&gt;=0,(S34-U34)/S34*100,(V34-U34)/V34*100)</f>
-        <v>0.76595744680851541</v>
+        <v>0.86206896551723911</v>
       </c>
       <c r="AC34" s="1" t="str">
         <f t="shared" ref="AC34:AC51" si="46">IF(AND(I34&lt;Z34/2,S34&gt;E34,E34&gt;(S34+V34)/2,V34&lt;B34,B34&lt;(S34+V34)/2),"YES","NO")</f>
@@ -6816,38 +6816,38 @@
         <v>NO</v>
       </c>
       <c r="AI34">
-        <v>112.5</v>
+        <v>121.7</v>
       </c>
       <c r="AJ34">
-        <v>119.5</v>
+        <v>124.6</v>
       </c>
       <c r="AK34">
-        <v>112.5</v>
+        <v>121</v>
       </c>
       <c r="AL34">
-        <v>116.35</v>
+        <v>122.55</v>
       </c>
       <c r="AM34">
-        <v>4.1499999999999906</v>
+        <v>1.649999999999991</v>
       </c>
       <c r="AN34">
-        <v>3.6987522281639849</v>
+        <v>1.3647642679900669</v>
       </c>
       <c r="AO34" s="1">
         <f t="shared" ref="AO34:AO51" si="52">(AL34-AI34)/AI34*100</f>
-        <v>3.4222222222222176</v>
+        <v>0.69843878389481873</v>
       </c>
       <c r="AP34" s="1">
         <f t="shared" ref="AP34:AP65" si="53">ABS(AO34)</f>
-        <v>3.4222222222222176</v>
+        <v>0.69843878389481873</v>
       </c>
       <c r="AQ34" s="1">
         <f t="shared" ref="AQ34:AQ51" si="54">IF(AO34&gt;=0,(AJ34-AL34)/AL34*100,(AJ34-AI34)/AI34*100)</f>
-        <v>2.7073485174043883</v>
+        <v>1.6727866177070561</v>
       </c>
       <c r="AR34" s="1">
         <f t="shared" ref="AR34:AR51" si="55">IF(AO34&gt;=0,(AI34-AK34)/AI34*100,(AL34-AK34)/AL34*100)</f>
-        <v>0</v>
+        <v>0.57518488085456276</v>
       </c>
       <c r="AS34" t="str">
         <f t="shared" ref="AS34:AS51" si="56">IF(AND(AO34&lt;0,AP34&gt;1.5,Y34&lt;0,Z34&gt;1.5,AL34&gt;S34,AL34&lt;E34,H34&gt;0,I34&gt;1.5),"YES","NO")</f>
@@ -6879,38 +6879,38 @@
         <v>83</v>
       </c>
       <c r="B35">
-        <v>1135</v>
+        <v>1131.9000000000001</v>
       </c>
       <c r="C35">
-        <v>1173</v>
+        <v>1134.7</v>
       </c>
       <c r="D35">
-        <v>1128.1500000000001</v>
+        <v>1100</v>
       </c>
       <c r="E35">
-        <v>1144.45</v>
+        <v>1105</v>
       </c>
       <c r="F35">
-        <v>13.400000000000089</v>
+        <v>-20.900000000000091</v>
       </c>
       <c r="G35">
-        <v>1.184739843508253</v>
+        <v>-1.8562927435829191</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="31"/>
-        <v>0.83259911894273531</v>
+        <v>-2.3765350295962619</v>
       </c>
       <c r="I35" s="1">
         <f t="shared" si="32"/>
-        <v>0.83259911894273531</v>
+        <v>2.3765350295962619</v>
       </c>
       <c r="J35" s="1">
         <f t="shared" si="33"/>
-        <v>2.4946480842325967</v>
+        <v>0.24737167594310044</v>
       </c>
       <c r="K35" s="1">
         <f t="shared" si="34"/>
-        <v>0.6035242290748819</v>
+        <v>0.45248868778280549</v>
       </c>
       <c r="L35" s="1" t="str">
         <f t="shared" si="35"/>
@@ -6941,38 +6941,38 @@
         <v>NO</v>
       </c>
       <c r="S35">
-        <v>1128</v>
+        <v>1143</v>
       </c>
       <c r="T35">
-        <v>1141.8499999999999</v>
+        <v>1143.45</v>
       </c>
       <c r="U35">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="V35">
-        <v>1131.05</v>
+        <v>1125.9000000000001</v>
       </c>
       <c r="W35">
-        <v>7.5999999999999091</v>
+        <v>-18.549999999999951</v>
       </c>
       <c r="X35">
-        <v>0.67648760514485806</v>
+        <v>-1.620865918126607</v>
       </c>
       <c r="Y35" s="1">
         <f t="shared" si="42"/>
-        <v>0.27039007092198181</v>
+        <v>-1.4960629921259763</v>
       </c>
       <c r="Z35" s="1">
         <f t="shared" si="43"/>
-        <v>0.27039007092198181</v>
+        <v>1.4960629921259763</v>
       </c>
       <c r="AA35" s="1">
         <f t="shared" si="44"/>
-        <v>0.95486494849917825</v>
+        <v>3.9370078740161456E-2</v>
       </c>
       <c r="AB35" s="1">
         <f t="shared" si="45"/>
-        <v>1.0638297872340425</v>
+        <v>0.96811439737100013</v>
       </c>
       <c r="AC35" s="1" t="str">
         <f t="shared" si="46"/>
@@ -6999,38 +6999,38 @@
         <v>NO</v>
       </c>
       <c r="AI35">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="AJ35">
-        <v>1146.8499999999999</v>
+        <v>1173</v>
       </c>
       <c r="AK35">
-        <v>1113.4000000000001</v>
+        <v>1128.1500000000001</v>
       </c>
       <c r="AL35">
-        <v>1123.45</v>
+        <v>1144.45</v>
       </c>
       <c r="AM35">
-        <v>-5.0499999999999554</v>
+        <v>13.400000000000089</v>
       </c>
       <c r="AN35">
-        <v>-0.44749667700486973</v>
+        <v>1.184739843508253</v>
       </c>
       <c r="AO35" s="1">
         <f t="shared" si="52"/>
-        <v>-1.2785588752196797</v>
+        <v>0.83259911894273531</v>
       </c>
       <c r="AP35" s="1">
         <f t="shared" si="53"/>
-        <v>1.2785588752196797</v>
+        <v>0.83259911894273531</v>
       </c>
       <c r="AQ35" s="1">
         <f t="shared" si="54"/>
-        <v>0.77768014059753154</v>
+        <v>2.4946480842325967</v>
       </c>
       <c r="AR35" s="1">
         <f t="shared" si="55"/>
-        <v>0.89456584627708879</v>
+        <v>0.6035242290748819</v>
       </c>
       <c r="AS35" t="str">
         <f t="shared" si="56"/>
@@ -7062,38 +7062,38 @@
         <v>84</v>
       </c>
       <c r="B36">
-        <v>20.85</v>
+        <v>20.6</v>
       </c>
       <c r="C36">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="D36">
-        <v>20.75</v>
+        <v>20.55</v>
       </c>
       <c r="E36">
-        <v>20.9</v>
+        <v>21.2</v>
       </c>
       <c r="F36">
-        <v>0.14999999999999861</v>
+        <v>0.55000000000000071</v>
       </c>
       <c r="G36">
-        <v>0.72289156626505346</v>
+        <v>2.663438256658599</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="31"/>
-        <v>0.23980815347720458</v>
+        <v>2.9126213592232904</v>
       </c>
       <c r="I36" s="1">
         <f t="shared" si="32"/>
-        <v>0.23980815347720458</v>
+        <v>2.9126213592232904</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" si="33"/>
-        <v>2.3923444976076556</v>
+        <v>1.8867924528301987</v>
       </c>
       <c r="K36" s="1">
         <f t="shared" si="34"/>
-        <v>0.47961630695444329</v>
+        <v>0.24271844660194519</v>
       </c>
       <c r="L36" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="N36" t="str">
         <f t="shared" si="37"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="O36" s="1" t="str">
         <f t="shared" si="38"/>
@@ -7124,38 +7124,38 @@
         <v>NO</v>
       </c>
       <c r="S36">
-        <v>20.7</v>
+        <v>20.75</v>
       </c>
       <c r="T36">
-        <v>20.85</v>
+        <v>20.9</v>
       </c>
       <c r="U36">
+        <v>20.5</v>
+      </c>
+      <c r="V36">
         <v>20.65</v>
       </c>
-      <c r="V36">
-        <v>20.75</v>
-      </c>
       <c r="W36">
-        <v>5.0000000000000711E-2</v>
+        <v>-0.25</v>
       </c>
       <c r="X36">
-        <v>0.2415458937198102</v>
+        <v>-1.196172248803828</v>
       </c>
       <c r="Y36" s="1">
         <f t="shared" si="42"/>
-        <v>0.24154589371981022</v>
+        <v>-0.48192771084338032</v>
       </c>
       <c r="Z36" s="1">
         <f t="shared" si="43"/>
-        <v>0.24154589371981022</v>
+        <v>0.48192771084338032</v>
       </c>
       <c r="AA36" s="1">
         <f t="shared" si="44"/>
-        <v>0.48192771084338032</v>
+        <v>0.72289156626505346</v>
       </c>
       <c r="AB36" s="1">
         <f t="shared" si="45"/>
-        <v>0.24154589371981022</v>
+        <v>0.72639225181597378</v>
       </c>
       <c r="AC36" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7182,38 +7182,38 @@
         <v>NO</v>
       </c>
       <c r="AI36">
-        <v>20.65</v>
+        <v>20.85</v>
       </c>
       <c r="AJ36">
+        <v>21.4</v>
+      </c>
+      <c r="AK36">
+        <v>20.75</v>
+      </c>
+      <c r="AL36">
         <v>20.9</v>
-      </c>
-      <c r="AK36">
-        <v>20.6</v>
-      </c>
-      <c r="AL36">
-        <v>20.7</v>
       </c>
       <c r="AM36">
         <v>0.14999999999999861</v>
       </c>
       <c r="AN36">
-        <v>0.72992700729926308</v>
+        <v>0.72289156626505346</v>
       </c>
       <c r="AO36" s="1">
         <f t="shared" si="52"/>
-        <v>0.24213075060533032</v>
+        <v>0.23980815347720458</v>
       </c>
       <c r="AP36" s="1">
         <f t="shared" si="53"/>
-        <v>0.24213075060533032</v>
+        <v>0.23980815347720458</v>
       </c>
       <c r="AQ36" s="1">
         <f t="shared" si="54"/>
-        <v>0.96618357487922368</v>
+        <v>2.3923444976076556</v>
       </c>
       <c r="AR36" s="1">
         <f t="shared" si="55"/>
-        <v>0.24213075060531314</v>
+        <v>0.47961630695444329</v>
       </c>
       <c r="AS36" t="str">
         <f t="shared" si="56"/>
@@ -7245,38 +7245,38 @@
         <v>85</v>
       </c>
       <c r="B37">
-        <v>90.6</v>
+        <v>88.7</v>
       </c>
       <c r="C37">
-        <v>94.7</v>
+        <v>89</v>
       </c>
       <c r="D37">
-        <v>89.7</v>
+        <v>86.4</v>
       </c>
       <c r="E37">
-        <v>90.75</v>
+        <v>86.9</v>
       </c>
       <c r="F37">
-        <v>1.1500000000000059</v>
+        <v>-1.2999999999999969</v>
       </c>
       <c r="G37">
-        <v>1.283482142857149</v>
+        <v>-1.4739229024943279</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="31"/>
-        <v>0.16556291390729105</v>
+        <v>-2.0293122886132999</v>
       </c>
       <c r="I37" s="1">
         <f t="shared" si="32"/>
-        <v>0.16556291390729105</v>
+        <v>2.0293122886132999</v>
       </c>
       <c r="J37" s="1">
         <f t="shared" si="33"/>
-        <v>4.3526170798898107</v>
+        <v>0.33821871476888066</v>
       </c>
       <c r="K37" s="1">
         <f t="shared" si="34"/>
-        <v>0.99337748344369925</v>
+        <v>0.57537399309551207</v>
       </c>
       <c r="L37" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7288,7 +7288,7 @@
       </c>
       <c r="N37" t="str">
         <f t="shared" si="37"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="O37" s="1" t="str">
         <f t="shared" si="38"/>
@@ -7307,38 +7307,38 @@
         <v>NO</v>
       </c>
       <c r="S37">
-        <v>90.6</v>
+        <v>89.95</v>
       </c>
       <c r="T37">
-        <v>90.6</v>
+        <v>91.6</v>
       </c>
       <c r="U37">
-        <v>88.5</v>
+        <v>87.6</v>
       </c>
       <c r="V37">
-        <v>89.6</v>
+        <v>88.2</v>
       </c>
       <c r="W37">
-        <v>-5.0000000000011369E-2</v>
+        <v>-2.5499999999999972</v>
       </c>
       <c r="X37">
-        <v>-5.5772448410497888E-2</v>
+        <v>-2.8099173553718981</v>
       </c>
       <c r="Y37" s="1">
         <f t="shared" si="42"/>
-        <v>-1.1037527593818985</v>
+        <v>-1.9455252918287937</v>
       </c>
       <c r="Z37" s="1">
         <f t="shared" si="43"/>
-        <v>1.1037527593818985</v>
+        <v>1.9455252918287937</v>
       </c>
       <c r="AA37" s="1">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>1.8343524180099959</v>
       </c>
       <c r="AB37" s="1">
         <f t="shared" si="45"/>
-        <v>1.2276785714285652</v>
+        <v>0.68027210884354705</v>
       </c>
       <c r="AC37" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7365,38 +7365,38 @@
         <v>NO</v>
       </c>
       <c r="AI37">
-        <v>91</v>
+        <v>90.6</v>
       </c>
       <c r="AJ37">
-        <v>91.55</v>
+        <v>94.7</v>
       </c>
       <c r="AK37">
-        <v>89.2</v>
+        <v>89.7</v>
       </c>
       <c r="AL37">
-        <v>89.65</v>
+        <v>90.75</v>
       </c>
       <c r="AM37">
-        <v>-0.1499999999999915</v>
+        <v>1.1500000000000059</v>
       </c>
       <c r="AN37">
-        <v>-0.16703786191535799</v>
+        <v>1.283482142857149</v>
       </c>
       <c r="AO37" s="1">
         <f t="shared" si="52"/>
-        <v>-1.4835164835164771</v>
+        <v>0.16556291390729105</v>
       </c>
       <c r="AP37" s="1">
         <f t="shared" si="53"/>
-        <v>1.4835164835164771</v>
+        <v>0.16556291390729105</v>
       </c>
       <c r="AQ37" s="1">
         <f t="shared" si="54"/>
-        <v>0.60439560439560125</v>
+        <v>4.3526170798898107</v>
       </c>
       <c r="AR37" s="1">
         <f t="shared" si="55"/>
-        <v>0.50195203569437019</v>
+        <v>0.99337748344369925</v>
       </c>
       <c r="AS37" t="str">
         <f t="shared" si="56"/>
@@ -7428,38 +7428,38 @@
         <v>86</v>
       </c>
       <c r="B38">
-        <v>3050</v>
+        <v>3014.6</v>
       </c>
       <c r="C38">
-        <v>3054.95</v>
+        <v>3042.9</v>
       </c>
       <c r="D38">
-        <v>2963</v>
+        <v>2970</v>
       </c>
       <c r="E38">
-        <v>2989.4</v>
+        <v>2990.7</v>
       </c>
       <c r="F38">
-        <v>-35.5</v>
+        <v>-6.25</v>
       </c>
       <c r="G38">
-        <v>-1.1735925154550559</v>
+        <v>-0.20854535444368441</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" si="31"/>
-        <v>-1.9868852459016362</v>
+        <v>-0.79280833278047147</v>
       </c>
       <c r="I38" s="1">
         <f t="shared" si="32"/>
-        <v>1.9868852459016362</v>
+        <v>0.79280833278047147</v>
       </c>
       <c r="J38" s="1">
         <f t="shared" si="33"/>
-        <v>0.16229508196720716</v>
+        <v>0.93876467856432633</v>
       </c>
       <c r="K38" s="1">
         <f t="shared" si="34"/>
-        <v>0.88312035860039118</v>
+        <v>0.69214565151970497</v>
       </c>
       <c r="L38" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7490,38 +7490,38 @@
         <v>NO</v>
       </c>
       <c r="S38">
-        <v>3049</v>
+        <v>2950.15</v>
       </c>
       <c r="T38">
-        <v>3071.9</v>
+        <v>3020</v>
       </c>
       <c r="U38">
-        <v>2981</v>
+        <v>2950.15</v>
       </c>
       <c r="V38">
-        <v>3024.9</v>
+        <v>2996.95</v>
       </c>
       <c r="W38">
-        <v>36.700000000000273</v>
+        <v>7.5499999999997272</v>
       </c>
       <c r="X38">
-        <v>1.228164112174563</v>
+        <v>0.25255904194820789</v>
       </c>
       <c r="Y38" s="1">
         <f t="shared" si="42"/>
-        <v>-0.79042308953755025</v>
+        <v>1.5863600155924182</v>
       </c>
       <c r="Z38" s="1">
         <f t="shared" si="43"/>
-        <v>0.79042308953755025</v>
+        <v>1.5863600155924182</v>
       </c>
       <c r="AA38" s="1">
         <f t="shared" si="44"/>
-        <v>0.75106592325352872</v>
+        <v>0.76911526718831424</v>
       </c>
       <c r="AB38" s="1">
         <f t="shared" si="45"/>
-        <v>1.4512876458725938</v>
+        <v>0</v>
       </c>
       <c r="AC38" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7548,38 +7548,38 @@
         <v>NO</v>
       </c>
       <c r="AI38">
-        <v>2965</v>
+        <v>3050</v>
       </c>
       <c r="AJ38">
-        <v>3040.8</v>
+        <v>3054.95</v>
       </c>
       <c r="AK38">
-        <v>2961</v>
+        <v>2963</v>
       </c>
       <c r="AL38">
-        <v>2988.2</v>
+        <v>2989.4</v>
       </c>
       <c r="AM38">
-        <v>81.599999999999909</v>
+        <v>-35.5</v>
       </c>
       <c r="AN38">
-        <v>2.8074038395376011</v>
+        <v>-1.1735925154550559</v>
       </c>
       <c r="AO38" s="1">
         <f t="shared" si="52"/>
-        <v>0.78246205733557561</v>
+        <v>-1.9868852459016362</v>
       </c>
       <c r="AP38" s="1">
         <f t="shared" si="53"/>
-        <v>0.78246205733557561</v>
+        <v>1.9868852459016362</v>
       </c>
       <c r="AQ38" s="1">
         <f t="shared" si="54"/>
-        <v>1.7602570109095901</v>
+        <v>0.16229508196720716</v>
       </c>
       <c r="AR38" s="1">
         <f t="shared" si="55"/>
-        <v>0.13490725126475547</v>
+        <v>0.88312035860039118</v>
       </c>
       <c r="AS38" t="str">
         <f t="shared" si="56"/>
@@ -7611,38 +7611,38 @@
         <v>87</v>
       </c>
       <c r="B39">
-        <v>18990</v>
+        <v>19015</v>
       </c>
       <c r="C39">
-        <v>19098</v>
+        <v>19196.95</v>
       </c>
       <c r="D39">
-        <v>18751.099999999999</v>
+        <v>18540</v>
       </c>
       <c r="E39">
-        <v>18841.2</v>
+        <v>18664.25</v>
       </c>
       <c r="F39">
-        <v>-28.950000000000731</v>
+        <v>-342.25</v>
       </c>
       <c r="G39">
-        <v>-0.15341690447612091</v>
+        <v>-1.8006997606082129</v>
       </c>
       <c r="H39" s="1">
         <f t="shared" si="31"/>
-        <v>-0.78357030015797413</v>
+        <v>-1.8445963712858269</v>
       </c>
       <c r="I39" s="1">
         <f t="shared" si="32"/>
-        <v>0.78357030015797413</v>
+        <v>1.8445963712858269</v>
       </c>
       <c r="J39" s="1">
         <f t="shared" si="33"/>
-        <v>0.56872037914691942</v>
+        <v>0.95687615040757679</v>
       </c>
       <c r="K39" s="1">
         <f t="shared" si="34"/>
-        <v>0.47820733286628336</v>
+        <v>0.66571118582316458</v>
       </c>
       <c r="L39" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7673,38 +7673,38 @@
         <v>NO</v>
       </c>
       <c r="S39">
-        <v>19199.900000000001</v>
+        <v>18839.599999999999</v>
       </c>
       <c r="T39">
-        <v>19414</v>
+        <v>19248</v>
       </c>
       <c r="U39">
-        <v>18820</v>
+        <v>18701</v>
       </c>
       <c r="V39">
-        <v>18870.150000000001</v>
+        <v>19006.5</v>
       </c>
       <c r="W39">
-        <v>-278.59999999999849</v>
+        <v>165.2999999999993</v>
       </c>
       <c r="X39">
-        <v>-1.454925256217761</v>
+        <v>0.87733265397108073</v>
       </c>
       <c r="Y39" s="1">
         <f t="shared" si="42"/>
-        <v>-1.7174568617544881</v>
+        <v>0.88589991294932735</v>
       </c>
       <c r="Z39" s="1">
         <f t="shared" si="43"/>
-        <v>1.7174568617544881</v>
+        <v>0.88589991294932735</v>
       </c>
       <c r="AA39" s="1">
         <f t="shared" si="44"/>
-        <v>1.1151099745311097</v>
+        <v>1.2706179464919896</v>
       </c>
       <c r="AB39" s="1">
         <f t="shared" si="45"/>
-        <v>0.26576365317711548</v>
+        <v>0.73568440943543689</v>
       </c>
       <c r="AC39" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7720,7 +7720,7 @@
       </c>
       <c r="AF39" s="1" t="str">
         <f t="shared" si="49"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AG39" s="1" t="str">
         <f t="shared" si="50"/>
@@ -7731,38 +7731,38 @@
         <v>NO</v>
       </c>
       <c r="AI39">
-        <v>18550</v>
+        <v>18990</v>
       </c>
       <c r="AJ39">
-        <v>19749</v>
+        <v>19098</v>
       </c>
       <c r="AK39">
-        <v>18550</v>
+        <v>18751.099999999999</v>
       </c>
       <c r="AL39">
-        <v>19148.75</v>
+        <v>18841.2</v>
       </c>
       <c r="AM39">
-        <v>708</v>
+        <v>-28.950000000000731</v>
       </c>
       <c r="AN39">
-        <v>3.83932323793772</v>
+        <v>-0.15341690447612091</v>
       </c>
       <c r="AO39" s="1">
         <f t="shared" si="52"/>
-        <v>3.2277628032345009</v>
+        <v>-0.78357030015797413</v>
       </c>
       <c r="AP39" s="1">
         <f t="shared" si="53"/>
-        <v>3.2277628032345009</v>
+        <v>0.78357030015797413</v>
       </c>
       <c r="AQ39" s="1">
         <f t="shared" si="54"/>
-        <v>3.1346693648410473</v>
+        <v>0.56872037914691942</v>
       </c>
       <c r="AR39" s="1">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>0.47820733286628336</v>
       </c>
       <c r="AS39" t="str">
         <f t="shared" si="56"/>
@@ -7794,38 +7794,38 @@
         <v>88</v>
       </c>
       <c r="B40">
-        <v>241.05</v>
+        <v>234</v>
       </c>
       <c r="C40">
-        <v>242.25</v>
+        <v>236.25</v>
       </c>
       <c r="D40">
-        <v>236.95</v>
+        <v>226.5</v>
       </c>
       <c r="E40">
-        <v>237.7</v>
+        <v>228.2</v>
       </c>
       <c r="F40">
-        <v>-2.8000000000000109</v>
+        <v>-5.6500000000000057</v>
       </c>
       <c r="G40">
-        <v>-1.164241164241169</v>
+        <v>-2.4160786829164018</v>
       </c>
       <c r="H40" s="1">
         <f t="shared" si="31"/>
-        <v>-1.3897531632441495</v>
+        <v>-2.4786324786324831</v>
       </c>
       <c r="I40" s="1">
         <f t="shared" si="32"/>
-        <v>1.3897531632441495</v>
+        <v>2.4786324786324831</v>
       </c>
       <c r="J40" s="1">
         <f t="shared" si="33"/>
-        <v>0.49782202862476188</v>
+        <v>0.96153846153846156</v>
       </c>
       <c r="K40" s="1">
         <f t="shared" si="34"/>
-        <v>0.3155237694572991</v>
+        <v>0.74496056091147622</v>
       </c>
       <c r="L40" s="1" t="str">
         <f t="shared" si="35"/>
@@ -7856,38 +7856,38 @@
         <v>NO</v>
       </c>
       <c r="S40">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="T40">
-        <v>242.85</v>
+        <v>237.65</v>
       </c>
       <c r="U40">
-        <v>235.3</v>
+        <v>232.55</v>
       </c>
       <c r="V40">
-        <v>240.5</v>
+        <v>233.85</v>
       </c>
       <c r="W40">
-        <v>3.8000000000000109</v>
+        <v>-3.8499999999999939</v>
       </c>
       <c r="X40">
-        <v>1.6054076890578839</v>
+        <v>-1.6196886832141331</v>
       </c>
       <c r="Y40" s="1">
         <f t="shared" si="42"/>
-        <v>1.9067796610169492</v>
+        <v>-1.3291139240506353</v>
       </c>
       <c r="Z40" s="1">
         <f t="shared" si="43"/>
-        <v>1.9067796610169492</v>
+        <v>1.3291139240506353</v>
       </c>
       <c r="AA40" s="1">
         <f t="shared" si="44"/>
-        <v>0.97713097713097474</v>
+        <v>0.27426160337552985</v>
       </c>
       <c r="AB40" s="1">
         <f t="shared" si="45"/>
-        <v>0.29661016949152064</v>
+        <v>0.55591190934358903</v>
       </c>
       <c r="AC40" s="1" t="str">
         <f t="shared" si="46"/>
@@ -7914,38 +7914,38 @@
         <v>NO</v>
       </c>
       <c r="AI40">
-        <v>236</v>
+        <v>241.05</v>
       </c>
       <c r="AJ40">
-        <v>239.7</v>
+        <v>242.25</v>
       </c>
       <c r="AK40">
-        <v>234.6</v>
+        <v>236.95</v>
       </c>
       <c r="AL40">
-        <v>236.7</v>
+        <v>237.7</v>
       </c>
       <c r="AM40">
-        <v>0.54999999999998295</v>
+        <v>-2.8000000000000109</v>
       </c>
       <c r="AN40">
-        <v>0.2329028160067681</v>
+        <v>-1.164241164241169</v>
       </c>
       <c r="AO40" s="1">
         <f t="shared" si="52"/>
-        <v>0.29661016949152064</v>
+        <v>-1.3897531632441495</v>
       </c>
       <c r="AP40" s="1">
         <f t="shared" si="53"/>
-        <v>0.29661016949152064</v>
+        <v>1.3897531632441495</v>
       </c>
       <c r="AQ40" s="1">
         <f t="shared" si="54"/>
-        <v>1.267427122940431</v>
+        <v>0.49782202862476188</v>
       </c>
       <c r="AR40" s="1">
         <f t="shared" si="55"/>
-        <v>0.59322033898305326</v>
+        <v>0.3155237694572991</v>
       </c>
       <c r="AS40" t="str">
         <f t="shared" si="56"/>
@@ -7977,38 +7977,38 @@
         <v>89</v>
       </c>
       <c r="B41">
-        <v>1510</v>
+        <v>1485.15</v>
       </c>
       <c r="C41">
-        <v>1513.9</v>
+        <v>1485.15</v>
       </c>
       <c r="D41">
-        <v>1486.4</v>
+        <v>1446.55</v>
       </c>
       <c r="E41">
-        <v>1493.45</v>
+        <v>1455.1</v>
       </c>
       <c r="F41">
-        <v>-5.0999999999999091</v>
+        <v>-16.60000000000014</v>
       </c>
       <c r="G41">
-        <v>-0.34032898468518957</v>
+        <v>-1.127947271862481</v>
       </c>
       <c r="H41" s="1">
         <f t="shared" si="31"/>
-        <v>-1.096026490066222</v>
+        <v>-2.0233646433020351</v>
       </c>
       <c r="I41" s="1">
         <f t="shared" si="32"/>
-        <v>1.096026490066222</v>
+        <v>2.0233646433020351</v>
       </c>
       <c r="J41" s="1">
         <f t="shared" si="33"/>
-        <v>0.25827814569537022</v>
+        <v>0</v>
       </c>
       <c r="K41" s="1">
         <f t="shared" si="34"/>
-        <v>0.47206133449395388</v>
+        <v>0.58758848189127588</v>
       </c>
       <c r="L41" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8039,38 +8039,38 @@
         <v>NO</v>
       </c>
       <c r="S41">
-        <v>1481.1</v>
+        <v>1484</v>
       </c>
       <c r="T41">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="U41">
-        <v>1481</v>
+        <v>1467.65</v>
       </c>
       <c r="V41">
-        <v>1498.55</v>
+        <v>1471.7</v>
       </c>
       <c r="W41">
-        <v>17.849999999999909</v>
+        <v>-21.75</v>
       </c>
       <c r="X41">
-        <v>1.205510907003438</v>
+        <v>-1.4563594362047609</v>
       </c>
       <c r="Y41" s="1">
         <f t="shared" si="42"/>
-        <v>1.1781783809330935</v>
+        <v>-0.82884097035040116</v>
       </c>
       <c r="Z41" s="1">
         <f t="shared" si="43"/>
-        <v>1.1781783809330935</v>
+        <v>0.82884097035040116</v>
       </c>
       <c r="AA41" s="1">
         <f t="shared" si="44"/>
-        <v>1.0977278035434284</v>
+        <v>2.223719676549865</v>
       </c>
       <c r="AB41" s="1">
         <f t="shared" si="45"/>
-        <v>6.7517385726763258E-3</v>
+        <v>0.27519195488210607</v>
       </c>
       <c r="AC41" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8097,38 +8097,38 @@
         <v>NO</v>
       </c>
       <c r="AI41">
-        <v>1493</v>
+        <v>1510</v>
       </c>
       <c r="AJ41">
-        <v>1504.1</v>
+        <v>1513.9</v>
       </c>
       <c r="AK41">
-        <v>1470</v>
+        <v>1486.4</v>
       </c>
       <c r="AL41">
-        <v>1480.7</v>
+        <v>1493.45</v>
       </c>
       <c r="AM41">
-        <v>-7.7000000000000446</v>
+        <v>-5.0999999999999091</v>
       </c>
       <c r="AN41">
-        <v>-0.51733404998656574</v>
+        <v>-0.34032898468518957</v>
       </c>
       <c r="AO41" s="1">
         <f t="shared" si="52"/>
-        <v>-0.82384460817146388</v>
+        <v>-1.096026490066222</v>
       </c>
       <c r="AP41" s="1">
         <f t="shared" si="53"/>
-        <v>0.82384460817146388</v>
+        <v>1.096026490066222</v>
       </c>
       <c r="AQ41" s="1">
         <f t="shared" si="54"/>
-        <v>0.74346952444741521</v>
+        <v>0.25827814569537022</v>
       </c>
       <c r="AR41" s="1">
         <f t="shared" si="55"/>
-        <v>0.72263118795164749</v>
+        <v>0.47206133449395388</v>
       </c>
       <c r="AS41" t="str">
         <f t="shared" si="56"/>
@@ -8160,38 +8160,38 @@
         <v>90</v>
       </c>
       <c r="B42">
-        <v>1358</v>
+        <v>1380</v>
       </c>
       <c r="C42">
-        <v>1384.6</v>
+        <v>1403</v>
       </c>
       <c r="D42">
-        <v>1340.25</v>
+        <v>1338.6</v>
       </c>
       <c r="E42">
-        <v>1360.5</v>
+        <v>1351.9</v>
       </c>
       <c r="F42">
-        <v>13.049999999999949</v>
+        <v>-25.299999999999951</v>
       </c>
       <c r="G42">
-        <v>0.96849604809083489</v>
+        <v>-1.837060702875396</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" si="31"/>
-        <v>0.1840942562592047</v>
+        <v>-2.0362318840579645</v>
       </c>
       <c r="I42" s="1">
         <f t="shared" si="32"/>
-        <v>0.1840942562592047</v>
+        <v>2.0362318840579645</v>
       </c>
       <c r="J42" s="1">
         <f t="shared" si="33"/>
-        <v>1.7714075707460426</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K42" s="1">
         <f t="shared" si="34"/>
-        <v>1.3070692194403535</v>
+        <v>0.98380057696576517</v>
       </c>
       <c r="L42" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8222,38 +8222,38 @@
         <v>NO</v>
       </c>
       <c r="S42">
-        <v>1326</v>
+        <v>1350</v>
       </c>
       <c r="T42">
-        <v>1359.85</v>
+        <v>1389</v>
       </c>
       <c r="U42">
-        <v>1318.55</v>
+        <v>1341.1</v>
       </c>
       <c r="V42">
-        <v>1347.45</v>
+        <v>1377.2</v>
       </c>
       <c r="W42">
-        <v>24.650000000000091</v>
+        <v>16.700000000000049</v>
       </c>
       <c r="X42">
-        <v>1.863471424251594</v>
+        <v>1.227489893421539</v>
       </c>
       <c r="Y42" s="1">
         <f t="shared" si="42"/>
-        <v>1.6176470588235328</v>
+        <v>2.0148148148148182</v>
       </c>
       <c r="Z42" s="1">
         <f t="shared" si="43"/>
-        <v>1.6176470588235328</v>
+        <v>2.0148148148148182</v>
       </c>
       <c r="AA42" s="1">
         <f t="shared" si="44"/>
-        <v>0.92025678132768296</v>
+        <v>0.85681092070868103</v>
       </c>
       <c r="AB42" s="1">
         <f t="shared" si="45"/>
-        <v>0.56184012066365352</v>
+        <v>0.65925925925926598</v>
       </c>
       <c r="AC42" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8280,38 +8280,38 @@
         <v>NO</v>
       </c>
       <c r="AI42">
-        <v>1348</v>
+        <v>1358</v>
       </c>
       <c r="AJ42">
-        <v>1349</v>
+        <v>1384.6</v>
       </c>
       <c r="AK42">
-        <v>1314</v>
+        <v>1340.25</v>
       </c>
       <c r="AL42">
-        <v>1322.8</v>
+        <v>1360.5</v>
       </c>
       <c r="AM42">
-        <v>-10.60000000000014</v>
+        <v>13.049999999999949</v>
       </c>
       <c r="AN42">
-        <v>-0.79496025198741072</v>
+        <v>0.96849604809083489</v>
       </c>
       <c r="AO42" s="1">
         <f t="shared" si="52"/>
-        <v>-1.8694362017804187</v>
+        <v>0.1840942562592047</v>
       </c>
       <c r="AP42" s="1">
         <f t="shared" si="53"/>
-        <v>1.8694362017804187</v>
+        <v>0.1840942562592047</v>
       </c>
       <c r="AQ42" s="1">
         <f t="shared" si="54"/>
-        <v>7.4183976261127604E-2</v>
+        <v>1.7714075707460426</v>
       </c>
       <c r="AR42" s="1">
         <f t="shared" si="55"/>
-        <v>0.66525551859691223</v>
+        <v>1.3070692194403535</v>
       </c>
       <c r="AS42" t="str">
         <f t="shared" si="56"/>
@@ -8343,38 +8343,38 @@
         <v>91</v>
       </c>
       <c r="B43">
-        <v>93.25</v>
+        <v>95.45</v>
       </c>
       <c r="C43">
-        <v>95.2</v>
+        <v>95.45</v>
       </c>
       <c r="D43">
-        <v>93</v>
+        <v>92.2</v>
       </c>
       <c r="E43">
-        <v>94.75</v>
+        <v>93.4</v>
       </c>
       <c r="F43">
-        <v>1.7999999999999969</v>
+        <v>-1.2999999999999969</v>
       </c>
       <c r="G43">
-        <v>1.9365250134480869</v>
+        <v>-1.372756071805699</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" si="31"/>
-        <v>1.6085790884718498</v>
+        <v>-2.1477213200628573</v>
       </c>
       <c r="I43" s="1">
         <f t="shared" si="32"/>
-        <v>1.6085790884718498</v>
+        <v>2.1477213200628573</v>
       </c>
       <c r="J43" s="1">
         <f t="shared" si="33"/>
-        <v>0.47493403693931702</v>
+        <v>0</v>
       </c>
       <c r="K43" s="1">
         <f t="shared" si="34"/>
-        <v>0.26809651474530832</v>
+        <v>1.284796573875806</v>
       </c>
       <c r="L43" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8405,38 +8405,38 @@
         <v>NO</v>
       </c>
       <c r="S43">
-        <v>92.1</v>
+        <v>94.45</v>
       </c>
       <c r="T43">
-        <v>93.35</v>
+        <v>95.95</v>
       </c>
       <c r="U43">
-        <v>92.1</v>
+        <v>93.65</v>
       </c>
       <c r="V43">
-        <v>92.95</v>
+        <v>94.7</v>
       </c>
       <c r="W43">
-        <v>0.85000000000000853</v>
+        <v>-4.9999999999997158E-2</v>
       </c>
       <c r="X43">
-        <v>0.92290988056461298</v>
+        <v>-5.2770448548809669E-2</v>
       </c>
       <c r="Y43" s="1">
         <f t="shared" si="42"/>
-        <v>0.92290988056461298</v>
+        <v>0.26469031233456858</v>
       </c>
       <c r="Z43" s="1">
         <f t="shared" si="43"/>
-        <v>0.92290988056461298</v>
+        <v>0.26469031233456858</v>
       </c>
       <c r="AA43" s="1">
         <f t="shared" si="44"/>
-        <v>0.4303388918773442</v>
+        <v>1.3199577613516367</v>
       </c>
       <c r="AB43" s="1">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>0.84700899947061625</v>
       </c>
       <c r="AC43" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8463,38 +8463,38 @@
         <v>NO</v>
       </c>
       <c r="AI43">
-        <v>94</v>
+        <v>93.25</v>
       </c>
       <c r="AJ43">
-        <v>94.25</v>
+        <v>95.2</v>
       </c>
       <c r="AK43">
-        <v>91.55</v>
+        <v>93</v>
       </c>
       <c r="AL43">
-        <v>92.1</v>
+        <v>94.75</v>
       </c>
       <c r="AM43">
-        <v>-5.0000000000011369E-2</v>
+        <v>1.7999999999999969</v>
       </c>
       <c r="AN43">
-        <v>-5.4259359739567407E-2</v>
+        <v>1.9365250134480869</v>
       </c>
       <c r="AO43" s="1">
         <f t="shared" si="52"/>
-        <v>-2.0212765957446868</v>
+        <v>1.6085790884718498</v>
       </c>
       <c r="AP43" s="1">
         <f t="shared" si="53"/>
-        <v>2.0212765957446868</v>
+        <v>1.6085790884718498</v>
       </c>
       <c r="AQ43" s="1">
         <f t="shared" si="54"/>
-        <v>0.26595744680851063</v>
+        <v>0.47493403693931702</v>
       </c>
       <c r="AR43" s="1">
         <f t="shared" si="55"/>
-        <v>0.59717698154179932</v>
+        <v>0.26809651474530832</v>
       </c>
       <c r="AS43" t="str">
         <f t="shared" si="56"/>
@@ -8526,38 +8526,38 @@
         <v>92</v>
       </c>
       <c r="B44">
-        <v>10129.950000000001</v>
+        <v>10038.4</v>
       </c>
       <c r="C44">
-        <v>10161.950000000001</v>
+        <v>10038.4</v>
       </c>
       <c r="D44">
-        <v>10010.049999999999</v>
+        <v>9861.25</v>
       </c>
       <c r="E44">
-        <v>10038.25</v>
+        <v>9902.5499999999993</v>
       </c>
       <c r="F44">
-        <v>-43.399999999999643</v>
+        <v>-74</v>
       </c>
       <c r="G44">
-        <v>-0.43048508924630041</v>
+        <v>-0.74173937884338781</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" si="31"/>
-        <v>-0.9052364523023384</v>
+        <v>-1.3533033152693692</v>
       </c>
       <c r="I44" s="1">
         <f t="shared" si="32"/>
-        <v>0.9052364523023384</v>
+        <v>1.3533033152693692</v>
       </c>
       <c r="J44" s="1">
         <f t="shared" si="33"/>
-        <v>0.31589494518729111</v>
+        <v>0</v>
       </c>
       <c r="K44" s="1">
         <f t="shared" si="34"/>
-        <v>0.28092546011506714</v>
+        <v>0.41706429152086361</v>
       </c>
       <c r="L44" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8588,38 +8588,38 @@
         <v>NO</v>
       </c>
       <c r="S44">
-        <v>10000.049999999999</v>
+        <v>10099</v>
       </c>
       <c r="T44">
-        <v>10150</v>
+        <v>10099.950000000001</v>
       </c>
       <c r="U44">
-        <v>10000.049999999999</v>
+        <v>9960.0499999999993</v>
       </c>
       <c r="V44">
-        <v>10081.65</v>
+        <v>9976.5499999999993</v>
       </c>
       <c r="W44">
-        <v>84.149999999999636</v>
+        <v>-61.700000000000728</v>
       </c>
       <c r="X44">
-        <v>0.84171042760689796</v>
+        <v>-0.61464896769856026</v>
       </c>
       <c r="Y44" s="1">
         <f t="shared" si="42"/>
-        <v>0.81599592002040355</v>
+        <v>-1.2124962867610727</v>
       </c>
       <c r="Z44" s="1">
         <f t="shared" si="43"/>
-        <v>0.81599592002040355</v>
+        <v>1.2124962867610727</v>
       </c>
       <c r="AA44" s="1">
         <f t="shared" si="44"/>
-        <v>0.67796442050656747</v>
+        <v>9.4068719675287418E-3</v>
       </c>
       <c r="AB44" s="1">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>0.16538783447183647</v>
       </c>
       <c r="AC44" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8646,38 +8646,38 @@
         <v>NO</v>
       </c>
       <c r="AI44">
-        <v>10100</v>
+        <v>10129.950000000001</v>
       </c>
       <c r="AJ44">
-        <v>10134.950000000001</v>
+        <v>10161.950000000001</v>
       </c>
       <c r="AK44">
-        <v>9980</v>
+        <v>10010.049999999999</v>
       </c>
       <c r="AL44">
-        <v>9997.5</v>
+        <v>10038.25</v>
       </c>
       <c r="AM44">
-        <v>-28.5</v>
+        <v>-43.399999999999643</v>
       </c>
       <c r="AN44">
-        <v>-0.28426092160382999</v>
+        <v>-0.43048508924630041</v>
       </c>
       <c r="AO44" s="1">
         <f t="shared" si="52"/>
-        <v>-1.0148514851485149</v>
+        <v>-0.9052364523023384</v>
       </c>
       <c r="AP44" s="1">
         <f t="shared" si="53"/>
-        <v>1.0148514851485149</v>
+        <v>0.9052364523023384</v>
       </c>
       <c r="AQ44" s="1">
         <f t="shared" si="54"/>
-        <v>0.34603960396040323</v>
+        <v>0.31589494518729111</v>
       </c>
       <c r="AR44" s="1">
         <f t="shared" si="55"/>
-        <v>0.17504376094023505</v>
+        <v>0.28092546011506714</v>
       </c>
       <c r="AS44" t="str">
         <f t="shared" si="56"/>
@@ -8712,35 +8712,35 @@
         <v>33.35</v>
       </c>
       <c r="C45">
-        <v>33.700000000000003</v>
+        <v>33.450000000000003</v>
       </c>
       <c r="D45">
-        <v>32.75</v>
+        <v>32.35</v>
       </c>
       <c r="E45">
-        <v>33.6</v>
+        <v>32.6</v>
       </c>
       <c r="F45">
-        <v>0.30000000000000432</v>
+        <v>-0.64999999999999858</v>
       </c>
       <c r="G45">
-        <v>0.90090090090091368</v>
+        <v>-1.9548872180451089</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" si="31"/>
-        <v>0.7496251874062968</v>
+        <v>-2.2488755622188905</v>
       </c>
       <c r="I45" s="1">
         <f t="shared" si="32"/>
-        <v>0.7496251874062968</v>
+        <v>2.2488755622188905</v>
       </c>
       <c r="J45" s="1">
         <f t="shared" si="33"/>
-        <v>0.29761904761905184</v>
+        <v>0.29985007496252297</v>
       </c>
       <c r="K45" s="1">
         <f t="shared" si="34"/>
-        <v>1.7991004497751164</v>
+        <v>0.76687116564417179</v>
       </c>
       <c r="L45" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8748,7 +8748,7 @@
       </c>
       <c r="M45" t="str">
         <f t="shared" si="36"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N45" t="str">
         <f t="shared" si="37"/>
@@ -8771,38 +8771,38 @@
         <v>NO</v>
       </c>
       <c r="S45">
-        <v>33.950000000000003</v>
+        <v>33.25</v>
       </c>
       <c r="T45">
-        <v>33.950000000000003</v>
+        <v>33.549999999999997</v>
       </c>
       <c r="U45">
         <v>33</v>
       </c>
       <c r="V45">
-        <v>33.299999999999997</v>
+        <v>33.25</v>
       </c>
       <c r="W45">
-        <v>-0.30000000000000432</v>
+        <v>-0.35000000000000142</v>
       </c>
       <c r="X45">
-        <v>-0.89285714285715545</v>
+        <v>-1.041666666666671</v>
       </c>
       <c r="Y45" s="1">
         <f t="shared" si="42"/>
-        <v>-1.9145802650957455</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="1">
         <f t="shared" si="43"/>
-        <v>1.9145802650957455</v>
+        <v>0</v>
       </c>
       <c r="AA45" s="1">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>0.90225563909773576</v>
       </c>
       <c r="AB45" s="1">
         <f t="shared" si="45"/>
-        <v>0.90090090090089237</v>
+        <v>0.75187969924812026</v>
       </c>
       <c r="AC45" s="1" t="str">
         <f t="shared" si="46"/>
@@ -8829,38 +8829,38 @@
         <v>NO</v>
       </c>
       <c r="AI45">
-        <v>33.799999999999997</v>
+        <v>33.35</v>
       </c>
       <c r="AJ45">
-        <v>34.049999999999997</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="AK45">
-        <v>33.35</v>
+        <v>32.75</v>
       </c>
       <c r="AL45">
         <v>33.6</v>
       </c>
       <c r="AM45">
-        <v>-0.10000000000000139</v>
+        <v>0.30000000000000432</v>
       </c>
       <c r="AN45">
-        <v>-0.29673590504451458</v>
+        <v>0.90090090090091368</v>
       </c>
       <c r="AO45" s="1">
         <f t="shared" si="52"/>
-        <v>-0.59171597633134831</v>
+        <v>0.7496251874062968</v>
       </c>
       <c r="AP45" s="1">
         <f t="shared" si="53"/>
-        <v>0.59171597633134831</v>
+        <v>0.7496251874062968</v>
       </c>
       <c r="AQ45" s="1">
         <f t="shared" si="54"/>
-        <v>0.73964497041420119</v>
+        <v>0.29761904761905184</v>
       </c>
       <c r="AR45" s="1">
         <f t="shared" si="55"/>
-        <v>0.74404761904761896</v>
+        <v>1.7991004497751164</v>
       </c>
       <c r="AS45" t="str">
         <f t="shared" si="56"/>
@@ -8892,38 +8892,38 @@
         <v>94</v>
       </c>
       <c r="B46">
-        <v>865</v>
+        <v>856.95</v>
       </c>
       <c r="C46">
-        <v>873.5</v>
+        <v>861.8</v>
       </c>
       <c r="D46">
-        <v>861.3</v>
+        <v>845.05</v>
       </c>
       <c r="E46">
-        <v>867.65</v>
+        <v>848.1</v>
       </c>
       <c r="F46">
-        <v>2.9499999999999318</v>
+        <v>-8.0499999999999545</v>
       </c>
       <c r="G46">
-        <v>0.34115878339307643</v>
+        <v>-0.94025579629737255</v>
       </c>
       <c r="H46" s="1">
         <f t="shared" si="31"/>
-        <v>0.30635838150288752</v>
+        <v>-1.0327323647820785</v>
       </c>
       <c r="I46" s="1">
         <f t="shared" si="32"/>
-        <v>0.30635838150288752</v>
+        <v>1.0327323647820785</v>
       </c>
       <c r="J46" s="1">
         <f t="shared" si="33"/>
-        <v>0.67423500259321423</v>
+        <v>0.5659606744850818</v>
       </c>
       <c r="K46" s="1">
         <f t="shared" si="34"/>
-        <v>0.42774566473988962</v>
+        <v>0.3596274024289669</v>
       </c>
       <c r="L46" s="1" t="str">
         <f t="shared" si="35"/>
@@ -8954,38 +8954,38 @@
         <v>NO</v>
       </c>
       <c r="S46">
-        <v>861.3</v>
+        <v>858.4</v>
       </c>
       <c r="T46">
-        <v>871</v>
+        <v>866.4</v>
       </c>
       <c r="U46">
-        <v>853.05</v>
+        <v>852.55</v>
       </c>
       <c r="V46">
-        <v>864.7</v>
+        <v>856.15</v>
       </c>
       <c r="W46">
-        <v>7.6000000000000227</v>
+        <v>-11.5</v>
       </c>
       <c r="X46">
-        <v>0.88671100221678012</v>
+        <v>-1.3254192358669969</v>
       </c>
       <c r="Y46" s="1">
         <f t="shared" si="42"/>
-        <v>0.39475211889006051</v>
+        <v>-0.2621155638397018</v>
       </c>
       <c r="Z46" s="1">
         <f t="shared" si="43"/>
-        <v>0.39475211889006051</v>
+        <v>0.2621155638397018</v>
       </c>
       <c r="AA46" s="1">
         <f t="shared" si="44"/>
-        <v>0.72857638487336118</v>
+        <v>0.93196644920782856</v>
       </c>
       <c r="AB46" s="1">
         <f t="shared" si="45"/>
-        <v>0.95785440613026829</v>
+        <v>0.42048706418268089</v>
       </c>
       <c r="AC46" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9012,38 +9012,38 @@
         <v>NO</v>
       </c>
       <c r="AI46">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="AJ46">
-        <v>876</v>
+        <v>873.5</v>
       </c>
       <c r="AK46">
-        <v>850</v>
+        <v>861.3</v>
       </c>
       <c r="AL46">
-        <v>857.1</v>
+        <v>867.65</v>
       </c>
       <c r="AM46">
-        <v>-7.2999999999999554</v>
+        <v>2.9499999999999318</v>
       </c>
       <c r="AN46">
-        <v>-0.84451642757981893</v>
+        <v>0.34115878339307643</v>
       </c>
       <c r="AO46" s="1">
         <f t="shared" si="52"/>
-        <v>-1.595866819747414</v>
+        <v>0.30635838150288752</v>
       </c>
       <c r="AP46" s="1">
         <f t="shared" si="53"/>
-        <v>1.595866819747414</v>
+        <v>0.30635838150288752</v>
       </c>
       <c r="AQ46" s="1">
         <f t="shared" si="54"/>
-        <v>0.57405281285878307</v>
+        <v>0.67423500259321423</v>
       </c>
       <c r="AR46" s="1">
         <f t="shared" si="55"/>
-        <v>0.82837475207093947</v>
+        <v>0.42774566473988962</v>
       </c>
       <c r="AS46" t="str">
         <f t="shared" si="56"/>
@@ -9075,38 +9075,38 @@
         <v>95</v>
       </c>
       <c r="B47">
-        <v>654.35</v>
+        <v>655.95</v>
       </c>
       <c r="C47">
-        <v>665.75</v>
+        <v>661.65</v>
       </c>
       <c r="D47">
-        <v>645.6</v>
+        <v>634</v>
       </c>
       <c r="E47">
-        <v>658.35</v>
+        <v>646.6</v>
       </c>
       <c r="F47">
-        <v>6</v>
+        <v>-7.75</v>
       </c>
       <c r="G47">
-        <v>0.91975166704989642</v>
+        <v>-1.184381447237717</v>
       </c>
       <c r="H47" s="1">
         <f t="shared" si="31"/>
-        <v>0.61129365018720871</v>
+        <v>-1.4254135223721354</v>
       </c>
       <c r="I47" s="1">
         <f t="shared" si="32"/>
-        <v>0.61129365018720871</v>
+        <v>1.4254135223721354</v>
       </c>
       <c r="J47" s="1">
         <f t="shared" si="33"/>
-        <v>1.1240221766537521</v>
+        <v>0.86896867139262624</v>
       </c>
       <c r="K47" s="1">
         <f t="shared" si="34"/>
-        <v>1.337204859784519</v>
+        <v>1.9486545004639688</v>
       </c>
       <c r="L47" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9137,38 +9137,38 @@
         <v>NO</v>
       </c>
       <c r="S47">
-        <v>639.1</v>
+        <v>654.35</v>
       </c>
       <c r="T47">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="U47">
-        <v>635.25</v>
+        <v>646.65</v>
       </c>
       <c r="V47">
-        <v>652.35</v>
+        <v>654.35</v>
       </c>
       <c r="W47">
-        <v>15.899999999999981</v>
+        <v>-4</v>
       </c>
       <c r="X47">
-        <v>2.4982323827480521</v>
+        <v>-0.607579554947976</v>
       </c>
       <c r="Y47" s="1">
         <f t="shared" si="42"/>
-        <v>2.0732279768424346</v>
+        <v>0</v>
       </c>
       <c r="Z47" s="1">
         <f t="shared" si="43"/>
-        <v>2.0732279768424346</v>
+        <v>0</v>
       </c>
       <c r="AA47" s="1">
         <f t="shared" si="44"/>
-        <v>0.40622365294703411</v>
+        <v>1.0162756934362309</v>
       </c>
       <c r="AB47" s="1">
         <f t="shared" si="45"/>
-        <v>0.60240963855422036</v>
+        <v>1.1767402766103836</v>
       </c>
       <c r="AC47" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9195,38 +9195,38 @@
         <v>NO</v>
       </c>
       <c r="AI47">
-        <v>650</v>
+        <v>654.35</v>
       </c>
       <c r="AJ47">
-        <v>650.5</v>
+        <v>665.75</v>
       </c>
       <c r="AK47">
-        <v>631.45000000000005</v>
+        <v>645.6</v>
       </c>
       <c r="AL47">
-        <v>636.45000000000005</v>
+        <v>658.35</v>
       </c>
       <c r="AM47">
-        <v>-7.1999999999999318</v>
+        <v>6</v>
       </c>
       <c r="AN47">
-        <v>-1.1186203682125271</v>
+        <v>0.91975166704989642</v>
       </c>
       <c r="AO47" s="1">
         <f t="shared" si="52"/>
-        <v>-2.0846153846153777</v>
+        <v>0.61129365018720871</v>
       </c>
       <c r="AP47" s="1">
         <f t="shared" si="53"/>
-        <v>2.0846153846153777</v>
+        <v>0.61129365018720871</v>
       </c>
       <c r="AQ47" s="1">
         <f t="shared" si="54"/>
-        <v>7.6923076923076927E-2</v>
+        <v>1.1240221766537521</v>
       </c>
       <c r="AR47" s="1">
         <f t="shared" si="55"/>
-        <v>0.78560766753083511</v>
+        <v>1.337204859784519</v>
       </c>
       <c r="AS47" t="str">
         <f t="shared" si="56"/>
@@ -9258,38 +9258,38 @@
         <v>96</v>
       </c>
       <c r="B48">
-        <v>1244.8</v>
+        <v>1257.5</v>
       </c>
       <c r="C48">
-        <v>1267.2</v>
+        <v>1267</v>
       </c>
       <c r="D48">
-        <v>1227.75</v>
+        <v>1238.4000000000001</v>
       </c>
       <c r="E48">
-        <v>1255.5999999999999</v>
+        <v>1256.8499999999999</v>
       </c>
       <c r="F48">
-        <v>17.849999999999909</v>
+        <v>1.799999999999955</v>
       </c>
       <c r="G48">
-        <v>1.4421329024439431</v>
+        <v>0.14342058085334891</v>
       </c>
       <c r="H48" s="1">
         <f t="shared" si="31"/>
-        <v>0.86760925449871107</v>
+        <v>-5.1689860834997298E-2</v>
       </c>
       <c r="I48" s="1">
         <f t="shared" si="32"/>
-        <v>0.86760925449871107</v>
+        <v>5.1689860834997298E-2</v>
       </c>
       <c r="J48" s="1">
         <f t="shared" si="33"/>
-        <v>0.92386110226187779</v>
+        <v>0.75546719681908547</v>
       </c>
       <c r="K48" s="1">
         <f t="shared" si="34"/>
-        <v>1.3696979434447265</v>
+        <v>1.4679556032939347</v>
       </c>
       <c r="L48" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9320,38 +9320,38 @@
         <v>NO</v>
       </c>
       <c r="S48">
-        <v>1247</v>
+        <v>1249.9000000000001</v>
       </c>
       <c r="T48">
-        <v>1311.8</v>
+        <v>1259.55</v>
       </c>
       <c r="U48">
-        <v>1233.45</v>
+        <v>1237.5</v>
       </c>
       <c r="V48">
-        <v>1237.75</v>
+        <v>1255.05</v>
       </c>
       <c r="W48">
-        <v>2.25</v>
+        <v>-0.54999999999995453</v>
       </c>
       <c r="X48">
-        <v>0.18211250505868071</v>
+        <v>-4.3803759158964208E-2</v>
       </c>
       <c r="Y48" s="1">
         <f t="shared" si="42"/>
-        <v>-0.74178027265437052</v>
+        <v>0.41203296263700001</v>
       </c>
       <c r="Z48" s="1">
         <f t="shared" si="43"/>
-        <v>0.74178027265437052</v>
+        <v>0.41203296263700001</v>
       </c>
       <c r="AA48" s="1">
         <f t="shared" si="44"/>
-        <v>5.1964715316760186</v>
+        <v>0.35855145213338113</v>
       </c>
       <c r="AB48" s="1">
         <f t="shared" si="45"/>
-        <v>0.34740456473439346</v>
+        <v>0.99207936634931515</v>
       </c>
       <c r="AC48" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9378,38 +9378,38 @@
         <v>NO</v>
       </c>
       <c r="AI48">
-        <v>1235</v>
+        <v>1244.8</v>
       </c>
       <c r="AJ48">
-        <v>1242</v>
+        <v>1267.2</v>
       </c>
       <c r="AK48">
-        <v>1215.2</v>
+        <v>1227.75</v>
       </c>
       <c r="AL48">
-        <v>1235.5</v>
+        <v>1255.5999999999999</v>
       </c>
       <c r="AM48">
-        <v>10.799999999999949</v>
+        <v>17.849999999999909</v>
       </c>
       <c r="AN48">
-        <v>0.88184861598758513</v>
+        <v>1.4421329024439431</v>
       </c>
       <c r="AO48" s="1">
         <f t="shared" si="52"/>
-        <v>4.048582995951417E-2</v>
+        <v>0.86760925449871107</v>
       </c>
       <c r="AP48" s="1">
         <f t="shared" si="53"/>
-        <v>4.048582995951417E-2</v>
+        <v>0.86760925449871107</v>
       </c>
       <c r="AQ48" s="1">
         <f t="shared" si="54"/>
-        <v>0.52610279239174418</v>
+        <v>0.92386110226187779</v>
       </c>
       <c r="AR48" s="1">
         <f t="shared" si="55"/>
-        <v>1.6032388663967574</v>
+        <v>1.3696979434447265</v>
       </c>
       <c r="AS48" t="str">
         <f t="shared" si="56"/>
@@ -9441,38 +9441,38 @@
         <v>97</v>
       </c>
       <c r="B49">
-        <v>2822.55</v>
+        <v>2855</v>
       </c>
       <c r="C49">
-        <v>2864.8</v>
+        <v>2944.5</v>
       </c>
       <c r="D49">
-        <v>2817.35</v>
+        <v>2851.65</v>
       </c>
       <c r="E49">
-        <v>2843.05</v>
+        <v>2876.3</v>
       </c>
       <c r="F49">
-        <v>-7.4499999999998181</v>
+        <v>35.050000000000182</v>
       </c>
       <c r="G49">
-        <v>-0.2613576565514758</v>
+        <v>1.2336119665640191</v>
       </c>
       <c r="H49" s="1">
         <f t="shared" si="31"/>
-        <v>0.72629359975908303</v>
+        <v>0.74605954465850022</v>
       </c>
       <c r="I49" s="1">
         <f t="shared" si="32"/>
-        <v>0.72629359975908303</v>
+        <v>0.74605954465850022</v>
       </c>
       <c r="J49" s="1">
         <f t="shared" si="33"/>
-        <v>0.76502347830674799</v>
+        <v>2.3711017626812159</v>
       </c>
       <c r="K49" s="1">
         <f t="shared" si="34"/>
-        <v>0.18423057164621609</v>
+        <v>0.11733800350262379</v>
       </c>
       <c r="L49" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9503,38 +9503,38 @@
         <v>NO</v>
       </c>
       <c r="S49">
-        <v>2800</v>
+        <v>2838</v>
       </c>
       <c r="T49">
-        <v>2887.9</v>
+        <v>2878</v>
       </c>
       <c r="U49">
-        <v>2800</v>
+        <v>2824.5</v>
       </c>
       <c r="V49">
-        <v>2850.5</v>
+        <v>2841.25</v>
       </c>
       <c r="W49">
-        <v>52.949999999999818</v>
+        <v>-1.8000000000001819</v>
       </c>
       <c r="X49">
-        <v>1.8927275651909641</v>
+        <v>-6.3312287859875194E-2</v>
       </c>
       <c r="Y49" s="1">
         <f t="shared" si="42"/>
-        <v>1.8035714285714286</v>
+        <v>0.11451726568005639</v>
       </c>
       <c r="Z49" s="1">
         <f t="shared" si="43"/>
-        <v>1.8035714285714286</v>
+        <v>0.11451726568005639</v>
       </c>
       <c r="AA49" s="1">
         <f t="shared" si="44"/>
-        <v>1.3120505174530817</v>
+        <v>1.2934447866256049</v>
       </c>
       <c r="AB49" s="1">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>0.47568710359408034</v>
       </c>
       <c r="AC49" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9561,38 +9561,38 @@
         <v>NO</v>
       </c>
       <c r="AI49">
-        <v>2846</v>
+        <v>2822.55</v>
       </c>
       <c r="AJ49">
-        <v>2858.85</v>
+        <v>2864.8</v>
       </c>
       <c r="AK49">
-        <v>2781.15</v>
+        <v>2817.35</v>
       </c>
       <c r="AL49">
-        <v>2797.55</v>
+        <v>2843.05</v>
       </c>
       <c r="AM49">
-        <v>-39.649999999999643</v>
+        <v>-7.4499999999998181</v>
       </c>
       <c r="AN49">
-        <v>-1.3975045819822229</v>
+        <v>-0.2613576565514758</v>
       </c>
       <c r="AO49" s="1">
         <f t="shared" si="52"/>
-        <v>-1.7023893183415257</v>
+        <v>0.72629359975908303</v>
       </c>
       <c r="AP49" s="1">
         <f t="shared" si="53"/>
-        <v>1.7023893183415257</v>
+        <v>0.72629359975908303</v>
       </c>
       <c r="AQ49" s="1">
         <f t="shared" si="54"/>
-        <v>0.45151089248067144</v>
+        <v>0.76502347830674799</v>
       </c>
       <c r="AR49" s="1">
         <f t="shared" si="55"/>
-        <v>0.58622723454451531</v>
+        <v>0.18423057164621609</v>
       </c>
       <c r="AS49" t="str">
         <f t="shared" si="56"/>
@@ -9624,38 +9624,38 @@
         <v>98</v>
       </c>
       <c r="B50">
-        <v>1056.5</v>
+        <v>1047.8</v>
       </c>
       <c r="C50">
-        <v>1058.3</v>
+        <v>1051.95</v>
       </c>
       <c r="D50">
-        <v>1028</v>
+        <v>1013.8</v>
       </c>
       <c r="E50">
-        <v>1031.3499999999999</v>
+        <v>1018.75</v>
       </c>
       <c r="F50">
-        <v>-17.400000000000091</v>
+        <v>-19.599999999999909</v>
       </c>
       <c r="G50">
-        <v>-1.659117997616218</v>
+        <v>-1.887610150719883</v>
       </c>
       <c r="H50" s="1">
         <f t="shared" si="31"/>
-        <v>-2.380501656412692</v>
+        <v>-2.7724756632945176</v>
       </c>
       <c r="I50" s="1">
         <f t="shared" si="32"/>
-        <v>2.380501656412692</v>
+        <v>2.7724756632945176</v>
       </c>
       <c r="J50" s="1">
         <f t="shared" si="33"/>
-        <v>0.17037387600567483</v>
+        <v>0.39606795189922617</v>
       </c>
       <c r="K50" s="1">
         <f t="shared" si="34"/>
-        <v>0.32481698744363302</v>
+        <v>0.48588957055215171</v>
       </c>
       <c r="L50" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9686,38 +9686,38 @@
         <v>NO</v>
       </c>
       <c r="S50">
-        <v>1052.5</v>
+        <v>1031</v>
       </c>
       <c r="T50">
-        <v>1063.9000000000001</v>
+        <v>1073.55</v>
       </c>
       <c r="U50">
-        <v>1040</v>
+        <v>1021.9</v>
       </c>
       <c r="V50">
-        <v>1048.75</v>
+        <v>1038.3499999999999</v>
       </c>
       <c r="W50">
-        <v>-3.6500000000000909</v>
+        <v>7</v>
       </c>
       <c r="X50">
-        <v>-0.34682630178640161</v>
+        <v>0.67872206331507257</v>
       </c>
       <c r="Y50" s="1">
         <f t="shared" si="42"/>
-        <v>-0.35629453681710216</v>
+        <v>0.71290009699320167</v>
       </c>
       <c r="Z50" s="1">
         <f t="shared" si="43"/>
-        <v>0.35629453681710216</v>
+        <v>0.71290009699320167</v>
       </c>
       <c r="AA50" s="1">
         <f t="shared" si="44"/>
-        <v>1.0831353919239992</v>
+        <v>3.3899937400683826</v>
       </c>
       <c r="AB50" s="1">
         <f t="shared" si="45"/>
-        <v>0.83432657926102505</v>
+        <v>0.88263821532492936</v>
       </c>
       <c r="AC50" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9733,7 +9733,7 @@
       </c>
       <c r="AF50" s="1" t="str">
         <f t="shared" si="49"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AG50" s="1" t="str">
         <f t="shared" si="50"/>
@@ -9744,38 +9744,38 @@
         <v>NO</v>
       </c>
       <c r="AI50">
-        <v>1059.75</v>
+        <v>1056.5</v>
       </c>
       <c r="AJ50">
-        <v>1080.95</v>
+        <v>1058.3</v>
       </c>
       <c r="AK50">
-        <v>1044.05</v>
+        <v>1028</v>
       </c>
       <c r="AL50">
-        <v>1052.4000000000001</v>
+        <v>1031.3499999999999</v>
       </c>
       <c r="AM50">
-        <v>-7.25</v>
+        <v>-17.400000000000091</v>
       </c>
       <c r="AN50">
-        <v>-0.68418817534091447</v>
+        <v>-1.659117997616218</v>
       </c>
       <c r="AO50" s="1">
         <f t="shared" si="52"/>
-        <v>-0.69355980184004806</v>
+        <v>-2.380501656412692</v>
       </c>
       <c r="AP50" s="1">
         <f t="shared" si="53"/>
-        <v>0.69355980184004806</v>
+        <v>2.380501656412692</v>
       </c>
       <c r="AQ50" s="1">
         <f t="shared" si="54"/>
-        <v>2.000471809389011</v>
+        <v>0.17037387600567483</v>
       </c>
       <c r="AR50" s="1">
         <f t="shared" si="55"/>
-        <v>0.79342455340176121</v>
+        <v>0.32481698744363302</v>
       </c>
       <c r="AS50" t="str">
         <f t="shared" si="56"/>
@@ -9807,38 +9807,38 @@
         <v>99</v>
       </c>
       <c r="B51">
-        <v>543</v>
+        <v>553.95000000000005</v>
       </c>
       <c r="C51">
-        <v>552.75</v>
+        <v>556.29999999999995</v>
       </c>
       <c r="D51">
-        <v>534.15</v>
+        <v>539.70000000000005</v>
       </c>
       <c r="E51">
-        <v>547.95000000000005</v>
+        <v>543.70000000000005</v>
       </c>
       <c r="F51">
-        <v>6.5500000000000682</v>
+        <v>-8.3499999999999091</v>
       </c>
       <c r="G51">
-        <v>1.209826376062074</v>
+        <v>-1.5125441536092581</v>
       </c>
       <c r="H51" s="1">
         <f t="shared" si="31"/>
-        <v>0.91160220994475971</v>
+        <v>-1.8503475042873905</v>
       </c>
       <c r="I51" s="1">
         <f t="shared" si="32"/>
-        <v>0.91160220994475971</v>
+        <v>1.8503475042873905</v>
       </c>
       <c r="J51" s="1">
         <f t="shared" si="33"/>
-        <v>0.87599233506705976</v>
+        <v>0.42422601317806824</v>
       </c>
       <c r="K51" s="1">
         <f t="shared" si="34"/>
-        <v>1.6298342541436508</v>
+        <v>0.73569983446753717</v>
       </c>
       <c r="L51" s="1" t="str">
         <f t="shared" si="35"/>
@@ -9869,38 +9869,38 @@
         <v>NO</v>
       </c>
       <c r="S51">
-        <v>548.5</v>
+        <v>548.70000000000005</v>
       </c>
       <c r="T51">
-        <v>551.5</v>
+        <v>561.20000000000005</v>
       </c>
       <c r="U51">
-        <v>539.04999999999995</v>
+        <v>547.20000000000005</v>
       </c>
       <c r="V51">
-        <v>541.4</v>
+        <v>552.04999999999995</v>
       </c>
       <c r="W51">
-        <v>-5.25</v>
+        <v>4.0999999999999091</v>
       </c>
       <c r="X51">
-        <v>-0.9603951339979877</v>
+        <v>0.74824345286977079</v>
       </c>
       <c r="Y51" s="1">
         <f t="shared" si="42"/>
-        <v>-1.2944393801276248</v>
+        <v>0.61053398942954418</v>
       </c>
       <c r="Z51" s="1">
         <f t="shared" si="43"/>
-        <v>1.2944393801276248</v>
+        <v>0.61053398942954418</v>
       </c>
       <c r="AA51" s="1">
         <f t="shared" si="44"/>
-        <v>0.54694621695533274</v>
+        <v>1.6574585635359282</v>
       </c>
       <c r="AB51" s="1">
         <f t="shared" si="45"/>
-        <v>0.43405984484669802</v>
+        <v>0.27337342810278842</v>
       </c>
       <c r="AC51" s="1" t="str">
         <f t="shared" si="46"/>
@@ -9916,7 +9916,7 @@
       </c>
       <c r="AF51" s="1" t="str">
         <f t="shared" si="49"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="AG51" s="1" t="str">
         <f t="shared" si="50"/>
@@ -9927,38 +9927,38 @@
         <v>NO</v>
       </c>
       <c r="AI51">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="AJ51">
-        <v>554.20000000000005</v>
+        <v>552.75</v>
       </c>
       <c r="AK51">
-        <v>544.15</v>
+        <v>534.15</v>
       </c>
       <c r="AL51">
-        <v>546.65</v>
+        <v>547.95000000000005</v>
       </c>
       <c r="AM51">
-        <v>-0.35000000000002268</v>
+        <v>6.5500000000000682</v>
       </c>
       <c r="AN51">
-        <v>-6.3985374771484957E-2</v>
+        <v>1.209826376062074</v>
       </c>
       <c r="AO51" s="1">
         <f t="shared" si="52"/>
-        <v>-0.60909090909091324</v>
+        <v>0.91160220994475971</v>
       </c>
       <c r="AP51" s="1">
         <f t="shared" si="53"/>
-        <v>0.60909090909091324</v>
+        <v>0.91160220994475971</v>
       </c>
       <c r="AQ51" s="1">
         <f t="shared" si="54"/>
-        <v>0.76363636363637188</v>
+        <v>0.87599233506705976</v>
       </c>
       <c r="AR51" s="1">
         <f t="shared" si="55"/>
-        <v>0.45733101618951799</v>
+        <v>1.6298342541436508</v>
       </c>
       <c r="AS51" t="str">
         <f t="shared" si="56"/>
